--- a/Output_informacoes_produtos_wet_sounds.xlsx
+++ b/Output_informacoes_produtos_wet_sounds.xlsx
@@ -1,58 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daugu\OneDrive\Documentos\GitHub\agendamento_teste\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C01CCD-7FF2-4F71-ADE7-2198B4B752B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Produtos" sheetId="1" r:id="rId1"/>
+    <sheet name="Produtos" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Nome do Produto</t>
-  </si>
-  <si>
-    <t>Preço do Produto</t>
-  </si>
-  <si>
-    <t>SKU do Produto</t>
-  </si>
-  <si>
-    <t>Imagem do Produto</t>
-  </si>
-  <si>
-    <t>Data da Extração</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -71,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -373,38 +407,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="114.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col width="114.33203125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="18.77734375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="56.109375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="56.109375" customWidth="1" min="4" max="4"/>
+    <col width="18.109375" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="13.44140625" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Nome do Produto</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Preço do Produto</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SKU do Produto</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Imagem do Produto</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Data da Extração</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>REVO 8 XW-W V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 XW-W V3
+UPC:
+810042171992
+</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1702/5631/REVO_8_XW_W_Hero__32333.1709313500.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:14:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-W | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-W
+UPC:
+810042173019
+</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1624/5377/ZERO_8_W_Hero_Web__27066.1708447150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:14:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-B | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-B
+UPC:
+810042172760
+</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1623/5372/ZERO_8_B_Web_Hero__46095.1708447055.png?c=1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:14:39</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Output_informacoes_produtos_wet_sounds.xlsx
+++ b/Output_informacoes_produtos_wet_sounds.xlsx
@@ -1,33 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daugu\OneDrive\Documentos\GitHub\agendamento_teste\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B0CDDA-D5FE-4FC4-A83D-5A854DFB6D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Produtos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Produtos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Nome do Produto</t>
+  </si>
+  <si>
+    <t>Preço do Produto</t>
+  </si>
+  <si>
+    <t>SKU do Produto</t>
+  </si>
+  <si>
+    <t>Imagem do Produto</t>
+  </si>
+  <si>
+    <t>Data da Extração</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +71,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,148 +373,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="114.33203125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="18.77734375" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="56.109375" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="56.109375" customWidth="1" min="4" max="4"/>
-    <col width="18.109375" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="13.44140625" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col min="1" max="1" width="114.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Nome do Produto</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Preço do Produto</t>
-        </is>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>SKU do Produto</t>
-        </is>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Imagem do Produto</t>
-        </is>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Data da Extração</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>REVO 8 XW-W V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>$599.99</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-SKU:
-REVO 8 XW-W V3
-UPC:
-810042171992
-</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1702/5631/REVO_8_XW_W_Hero__32333.1709313500.png?c=1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2024-04-17 13:14:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ZERO 8 XZ-W | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - White</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>$749.99</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-SKU:
-ZERO 8 XZ-W
-UPC:
-810042173019
-</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1624/5377/ZERO_8_W_Hero_Web__27066.1708447150.png?c=1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2024-04-17 13:14:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ZERO 8 XZ-B | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - Black</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>$749.99</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-SKU:
-ZERO 8 XZ-B
-UPC:
-810042172760
-</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1623/5372/ZERO_8_B_Web_Hero__46095.1708447055.png?c=1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2024-04-17 13:14:39</t>
-        </is>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Output_informacoes_produtos_wet_sounds.xlsx
+++ b/Output_informacoes_produtos_wet_sounds.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E303"/>
+  <dimension ref="A1:E605"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
@@ -1288,10 +1288,6 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>2024-04-17 13:25:04</t>
@@ -1331,10 +1327,6 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>2024-04-17 13:25:06</t>
@@ -6254,10 +6246,6 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr"/>
-      <c r="B185" t="inlineStr"/>
-      <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
           <t>2024-04-17 13:27:03</t>
@@ -7351,10 +7339,6 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr"/>
-      <c r="B220" t="inlineStr"/>
-      <c r="C220" t="inlineStr"/>
-      <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
           <t>2024-04-17 13:27:26</t>
@@ -7362,10 +7346,6 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr"/>
-      <c r="B221" t="inlineStr"/>
-      <c r="C221" t="inlineStr"/>
-      <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
         <is>
           <t>2024-04-17 13:27:27</t>
@@ -7373,10 +7353,6 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr"/>
-      <c r="B222" t="inlineStr"/>
-      <c r="C222" t="inlineStr"/>
-      <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr">
         <is>
           <t>2024-04-17 13:27:27</t>
@@ -7640,10 +7616,6 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr"/>
-      <c r="B231" t="inlineStr"/>
-      <c r="C231" t="inlineStr"/>
-      <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
           <t>2024-04-17 13:27:34</t>
@@ -7683,10 +7655,6 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr"/>
-      <c r="B233" t="inlineStr"/>
-      <c r="C233" t="inlineStr"/>
-      <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr">
         <is>
           <t>2024-04-17 13:27:36</t>
@@ -8046,10 +8014,6 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr"/>
-      <c r="B245" t="inlineStr"/>
-      <c r="C245" t="inlineStr"/>
-      <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr">
         <is>
           <t>2024-04-17 13:27:44</t>
@@ -9433,10 +9397,6 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="inlineStr"/>
-      <c r="B289" t="inlineStr"/>
-      <c r="C289" t="inlineStr"/>
-      <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr">
         <is>
           <t>2024-04-17 13:28:15</t>
@@ -9476,10 +9436,6 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="inlineStr"/>
-      <c r="B291" t="inlineStr"/>
-      <c r="C291" t="inlineStr"/>
-      <c r="D291" t="inlineStr"/>
       <c r="E291" t="inlineStr">
         <is>
           <t>2024-04-17 13:28:17</t>
@@ -9867,6 +9823,9064 @@
       <c r="E303" t="inlineStr">
         <is>
           <t>2024-04-17 13:28:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>REVO 8 XW-W V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 XW-W V3
+UPC:
+810042171992
+</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1702/5631/REVO_8_XW_W_Hero__32333.1709313500.png?c=1</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:50:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-W | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-W
+UPC:
+810042173019
+</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1624/5377/ZERO_8_W_Hero_Web__27066.1708447150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:50:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-B | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-B
+UPC:
+810042172760
+</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1623/5372/ZERO_8_B_Web_Hero__46095.1708447055.png?c=1</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:50:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-W | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-W
+UPC:
+810042173002
+</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1622/5353/ZERO_6_W_Web_Hero__48185.1708446825.png?c=1</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:50:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-B | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-B
+UPC:
+810042172753
+</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1621/5363/ZERO_6_B_Web_Hero__23189.1708446915.png?c=1</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:50:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>RECON 8-BG RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-BG RGB
+UPC:
+810042171817
+</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1617/5383/RECON_8-XS_Front_Right_Hero_G__04334.1708959945.png?c=1</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:50:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>RECON 6-BG RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG RGB
+UPC:
+810042171800
+</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1616/5415/RECON_6-XS_Front_Hero_G__11887.1708962166.png?c=1</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:50:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-W S2
+UPC:
+814820024722
+</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1459/5574/REVO_CX10_SW_W_Hero__01549.1709229069.png?c=1</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:50:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr"/>
+      <c r="B312" t="inlineStr"/>
+      <c r="C312" t="inlineStr"/>
+      <c r="D312" t="inlineStr"/>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:50:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr"/>
+      <c r="B313" t="inlineStr"/>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" t="inlineStr"/>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:50:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr"/>
+      <c r="B314" t="inlineStr"/>
+      <c r="C314" t="inlineStr"/>
+      <c r="D314" t="inlineStr"/>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:50:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>REVO 8-XSS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSS
+UPC:
+814820023213
+</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1450/5617/REVO_8_XS_S_Hero__59990.1709312658.png?c=1</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:50:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>REVO 8 SW-B V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 SW-B V3
+UPC:
+810042173064
+</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1449/5624/REVO_8_SW_B_Hero__54808.1709313038.png?c=1</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:50:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>REVO 8-SWW | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-SWW
+UPC:
+814820022322
+</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1448/5667/REVO_8_SW_W_Hero__17640.1709324663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:50:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>REVO 8-XWB | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XWB
+UPC:
+814820022339
+</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1447/5637/REVO_8_XW_B_Hero__85483.1709313935.png?c=1</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:50:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W RGB
+UPC:
+814820027518
+</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1445/5419/RECON_6-XS_Front_Hero_G__57907.1708962243.png?c=1</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:50:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>RECON 6-S RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S RGB
+UPC:
+814820027310
+</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1444/5405/RECON_6-XS_Hero_G__00191.1708962100.png?c=1</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:50:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>RECON 8 XW-W RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8 XW-W RGB
+UPC:
+814820027525
+</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1443/5393/RECON_8-XS_Front_Right_Hero_G__13110.1708960108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:50:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>RECON 8-S RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-S RGB
+UPC:
+814820027334
+</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1442/5388/RECON_8-XS_Front_Right_Hero_G__30821.1708960025.png?c=1</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:50:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>RECON 5-S | RECON™ Series 5.25-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 5-S
+UPC:
+814820027549
+</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1439/5403/RECON_5-XS_Hero__02225.1708961993.png?c=1</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:50:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>RECON 6-S | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S
+UPC:
+814820027303
+</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1289/5427/RECON_6-XS_Hero__59634.1708962364.png?c=1</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:50:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>RECON 6-BG | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black Grilles</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG
+UPC:
+814820027501
+</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1288/5432/RECON_6-XS_Front_Hero__48179.1708962424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:50:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White Grilles</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W
+UPC:
+814820027624
+</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1287/5438/RECON_6-XS_Front_Hero__59396.1708962477.png?c=1</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:50:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr"/>
+      <c r="B327" t="inlineStr"/>
+      <c r="C327" t="inlineStr"/>
+      <c r="D327" t="inlineStr"/>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:50:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr"/>
+      <c r="B328" t="inlineStr"/>
+      <c r="C328" t="inlineStr"/>
+      <c r="D328" t="inlineStr"/>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:50:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr"/>
+      <c r="B329" t="inlineStr"/>
+      <c r="C329" t="inlineStr"/>
+      <c r="D329" t="inlineStr"/>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:50:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr"/>
+      <c r="B330" t="inlineStr"/>
+      <c r="C330" t="inlineStr"/>
+      <c r="D330" t="inlineStr"/>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:50:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr"/>
+      <c r="B331" t="inlineStr"/>
+      <c r="C331" t="inlineStr"/>
+      <c r="D331" t="inlineStr"/>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr"/>
+      <c r="B332" t="inlineStr"/>
+      <c r="C332" t="inlineStr"/>
+      <c r="D332" t="inlineStr"/>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>REVO 6 XS-B-SS V3 | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 XS-B-SS V3
+UPC:
+810042170148
+</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1280/5715/REVO_6_XS_B_SS_Hero__67615.1709581844.png?c=1</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>REVO 6-SWB | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWB
+UPC:
+814820022308
+</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1279/5709/REVO_6_SW_B_Hero__22160.1709581813.png?c=1</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-B S2
+UPC:
+814820024715
+</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1277/5571/REVO_CX10_SW_B_Hero__55586.1709151911.png?c=1</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-S S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-S S2
+UPC:
+814820024760
+</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1276/5588/REVO_CX10_XS_S_Hero__06379.1709231959.png?c=1</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-B S2
+UPC:
+814820024777
+</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1275/5601/REVO_CX10_XW_B_Hero__80563.1709232713.png?c=1</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-W S2
+UPC:
+814820024784
+</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1274/5606/REVO_CX10_XW_W_Hero__14177.1709237050.png?c=1</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-B-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-B-SS S2
+UPC:
+814820024739
+</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1273/5594/REVO_CX10_XS_B_SS_Hero__29022.1709232385.png?c=1</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-G-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-G-SS S2
+UPC:
+814820024753
+</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1272/5580/REVO_CX10_XS_G_SS_Hero__23286.1709230163.png?c=1</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-W-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-W-SS S2
+UPC:
+814820024746
+</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1271/5610/REVO_CX10_XS_W_SS_Hero__86437.1709237352.png?c=1</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>REV 10 HD White | Wet Sounds REV HD Series 10" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>$1,959.99</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-W-X
+UPC:
+810042177512
+</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1673/4823/REV10_HD_W_XZ_Hero_R__75858.1675269054.png?c=1</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>REV 10 HD Black | Wet Sounds REV HD Series 10" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>$1,959.99</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-B-X
+UPC:
+810042177307
+</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1669/4777/REV12_HD_B_XZ_Hero_R__25053.1673993030.png?c=1</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>REV 12 HD White | Wet Sounds REV HD Series 12" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>$2,309.99</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-W-X
+UPC:
+810042177031
+</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1649/4740/REV12_HD_W_XZ_Hero_R__07359.1672241311.png?c=1</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>REV8™ White V2 | Wet Sounds Revolution Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1640/4375/REV8_W_Web_Hero__78931.1654888304.png?c=1</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>REV8™ Black V2 | Wet Sounds Revolution Series 8" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1639/4369/REV8_B_Web_Hero__69496.1646949336.1280.1280__81274.1654887818.png?c=1</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>REV10™ White V2 | Wet Sounds Revolution Series 10" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1638/4359/REV10_W_Web_Hero__38956.1654887066.png?c=1</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>REV10™ Black V2 | Wet Sounds Revolution Series 10" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1637/4351/REV10_B_Web_Hero__57402.1647007395.1280.1280__29553.1654886710.png?c=1</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>REV 410 Black V2 | Wet Sounds Revolution Series Dual 10" Black Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1636/4345/REV410_B_X_Web_Front___24105.1654881808.png?c=1</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>REV 410 White V2 | Wet Sounds Revolution Series Dual 10" White Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1635/4342/REV410_W_X_Web_Front___65923.1647007018.1280.1280__51826.1654881737.png?c=1</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>ICON8™ White V2  | Wet Sounds ICON Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>$599.99 - $1,349.99</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ICON 8-W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1634/4328/ICON8_W_Web_Hero__40196.1654880484.png?c=1</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>REV 12 HD Black | Wet Sounds REV HD Series 12" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>$2,309.99</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-B-X
+UPC:
+810042176836
+</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1633/4724/REV12_HD_B_XZ_Hero_R__98406.1671112247.png?c=1</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr"/>
+      <c r="B353" t="inlineStr"/>
+      <c r="C353" t="inlineStr"/>
+      <c r="D353" t="inlineStr"/>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr"/>
+      <c r="B354" t="inlineStr"/>
+      <c r="C354" t="inlineStr"/>
+      <c r="D354" t="inlineStr"/>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-W | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-W
+UPC:
+814820027464
+</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1331/4080/RECON_6_XW_Web_Hero__39058.1647027796.png?c=1</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>ICON8™ Black V2 | Wet Sounds ICON Series 8" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>$1,049.99 - $1,349.99</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ICON 8-B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1330/3705/ICON8_B_Web_Hero__60943.1646946843.png?c=1</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>WS-MC-5 | Wet Sounds™ AM/FM/Digital Tuner Media Center</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-5
+UPC:
+810042171596
+</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1615/5317/MC-5_Hero_Image_Web__90008.1702572189.png?c=1</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>WWX-DZ-BT | Wet Sounds™ Dual Zone Bluetooth Controller</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WWX-DZ-BT
+UPC:
+810042170803
+</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1565/4543/DZ_BT_Front__15731.1666361204.png?c=1</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>WS-420 SQ | Wet Sounds™ Marine Multi Zone 4-Band Parametric Equalizer</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-420 SQ
+UPC:
+853414005105
+</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1250/4427/420SQ_Front_with_Mic__47339.1658239355.png?c=1</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>WW-BT UR | Wet Sounds™ Marine Bluetooth Universal Receiver</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WW-BT UR
+UPC:
+814820024555
+</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1249/4547/BT_UR_Front__46259.1666361333.png?c=1</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>WW-BT VC-V2 | Wet Sounds™ Marine Bluetooth Knob With Volume Control</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>$129.99</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WW-BT VC-V2
+UPC:
+814820023022
+</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1248/4536/BT_VC_Web_1__79246.1666361101.png?c=1</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>WW-BT RS | Wet Sounds™ Marine Bluetooth Rocker Switch With Volume Control</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>$129.99</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WW-BT RS
+UPC:
+814820023015
+</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1247/4551/BT_RS_Front__57291.1666361561.png?c=1</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>WS-420 BT | Wet Sounds™ Marine Multi Zone 4-Band Parametric Equalizer w/ Integrated Bluetooth®</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-420 BT
+UPC:
+853414005150
+</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1246/4430/Front_420_BT_2__22878.1658239507.png?c=1</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>WS-220 BT | Wet Sounds™ Marine 4-Zone Level Controller w/ Integrated Bluetooth®</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-220 BT
+UPC:
+814820023268
+</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1245/4432/2_220BT_Front__40363.1658239691.png?c=1</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>WS-MC-20 | Wet Sounds™ 2-Zone Media Center w/ SiriusXM-Ready® and NMEA 2000 Connectivity</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-20
+UPC:
+814820029888
+</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1590/5319/MC-20_Hero_Image_Web__72689.1702572289.png?c=1</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>WS-MC-2 | Wet Sounds™ SiriusXM-Ready® AM/FM/Weather Band Media Center</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>$369.99</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-2
+UPC:
+814820025002
+</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1243/5311/MC-2_Hero_Image_Web__44421.1702572108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>WS-MC-1 | Wet Sounds™ 4 Zone Bluetooth® Marine Media Center</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-1
+UPC:
+814820025026
+</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1242/5308/MC-1_Hero_Image_Web__34655.1702567424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Sinister-SDX2 | Wet Sounds 2 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>$999.99</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+Sinister-SDX2
+UPC:
+814820024616
+</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1270/4142/Sinister_SDX2_Front__83389.1650295696.png?c=1</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr"/>
+      <c r="B369" t="inlineStr"/>
+      <c r="C369" t="inlineStr"/>
+      <c r="D369" t="inlineStr"/>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Sinister-SDX6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>$1,699.99</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+Sinister-SDX6
+UPC:
+814820024630
+</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1268/4155/Sinister_SDX6_Front__31215.1650296150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Sinister-SDX2500 | Wet Sounds Class-D Monoblock Subwoofer Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>$1,899.99</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+Sinister-SDX2500
+UPC:
+814820025910
+</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1267/2384/1_SDX_2500__36161__26701.1637194846.png?c=1</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>SYN-DX2 | Wet Sounds 2 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>$679.99</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+SYN-DX2
+UPC:
+814820022506
+</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1266/2531/1_DX_2__47232__85619.1637194871.png?c=1</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>SYN-DX4 | Wet Sounds 4 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>$1,079.99</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+SYN-DX4
+UPC:
+814820022537
+</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1265/2544/1_DX_4__30904__39249.1637593872.png?c=1</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr"/>
+      <c r="B374" t="inlineStr"/>
+      <c r="C374" t="inlineStr"/>
+      <c r="D374" t="inlineStr"/>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>SYN-DX6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+SYN-DX6
+UPC:
+814820022568
+</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1263/2546/1_DX_6__09919__62939.1637194874.png?c=1</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>HTX-1 | Wet Sounds Class-D Monoblock Subwoofer Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-1
+UPC:
+814820022209
+</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1262/3437/1_HTX_1__66896.1642091392.png?c=1</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>HTX-2 | Wet Sounds 2 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-2
+UPC:
+814820022179
+</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1261/1579/1_HTX_2__29615__16659.1637194674.png?c=1</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr"/>
+      <c r="B378" t="inlineStr"/>
+      <c r="C378" t="inlineStr"/>
+      <c r="D378" t="inlineStr"/>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>HTX-6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-6
+UPC:
+814820022162
+</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1259/1589/1_HTX_6__73141__79749.1642096762.png?c=1</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>STX MICRO-1 | Wet Sounds Compact Chassis Class-D Monoblock Marine A</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-1
+UPC:
+814820023329
+</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1258/2520/Micro_STX_Hero__81706__61326.1637194869.png?c=1</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>STX MICRO-4 | Wet Sounds Compact Chassis Class-D 4-Ch Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>$439.99</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-4
+UPC:
+814820023336
+</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1257/2526/Micro_STX_Hero__17041__18108.1637194870.png?c=1</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>REVO 10 HP S4 V3 | Wet Sounds REVO Series 10-inch High-Power Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 HP S4 V3
+UPC:
+810042171763
+</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1703/5455/REVO_10_V3_Black_Subwoofer_Front_Right_View__01889.1709138503.png?c=1</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>REVO 10 FA S4 V3 | Wet Sounds REVO Series 10-inch Free-Air Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 FA S4 V3
+UPC:
+810042171787
+</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1685/5459/REVO_10_V3_Black_Subwoofer_Front_Right_View__98932.1709138599.png?c=1</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>ZERO 12 S4 XZ-W | Wet Sounds Zero Series™ 12-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with White XZ Grille</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 12 S4 XZ-W
+UPC:
+810042173033
+</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1628/5555/ZERO_12_White_Front_Right_View__41353.1709140271.png?c=1</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>ZERO 10 S4 XZ-W | Wet Sounds Zero Series™ 10-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with White XZ Grille</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 10 S4 XZ-W
+UPC:
+810042173026
+</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1627/5545/ZERO_10_White_Front_Right_View__26419.1709140155.png?c=1</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>ZERO 12 S4 XZ-B | Wet Sounds Zero Series™ 12-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with Black XZ Grille</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 12 S4 XZ-B
+UPC:
+810042172784
+</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1626/5562/ZERO_12_Black_Front_Right_View__17233.1709140318.png?c=1</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>ZERO 10 S4 XZ-B | Wet Sounds Zero Series™ 10-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with Black XZ Grille</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 10 S4 XZ-B
+UPC:
+810042172777
+</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1625/5550/ZERO_10_Black_Front_Right_View__68235.1709140211.png?c=1</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>RECON 10 FA-BG | Wet Sounds RECON™ Series 10-inch Free-Air Marine Subwoofer - 4Ω Black with XS Black Grille</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 10 FA-BG
+UPC:
+814820027372
+</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1461/5528/RECON_10_BG_Front_Right_View__28741.1709139490.png?c=1</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>RECON 10 FA-S | Wet Sounds RECON™ Series 10-inch Free-Air Marine Subwoofer - 4Ω Black with XS Silver Grille</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 10 FA-S
+UPC:
+814820027273
+</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1460/5531/RECON_10_XS_Front_Right_View__43611.1709139537.png?c=1</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>REVO 8 FA S4-W | Wet Sounds REVO Series 8-inch Free-Air Marine Subwoofer - 4Ω White</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA : REVO 8 FA S4-W
+UPC:
+814820024814
+</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1458/5442/REVO_8_FA_White_Subwoofer_Front_Right_View__82195.1709138078.png?c=1</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>REVO 12 FA S4-W V2 | Wet Sounds REVO Series 12-inch Free-Air Marine Subwoofer - 4Ω White</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>$319.99</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 FA S4-W V2
+UPC:
+814820027679
+</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1457/5485/REVO_12_FA_HP_White_Subwoofer_Front_Right_View__62198.1709138924.png?c=1</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>REVO 12 FA S2-W V2 | Wet Sounds REVO Series 12-inch Free-Air Marine Subwoofer - 2Ω White</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>$319.99</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 FA S2-W V2
+UPC:
+814820027655
+</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1456/5493/REVO_12_FA_HP_White_Subwoofer_Front_Right_View__15118.1709138983.png?c=1</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>REVO 12 FA S2-B V2 | Wet Sounds REVO Series 12-inch Free-Air Marine Subwoofer - 2Ω Black</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>$319.99</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 FA S2-B V2
+UPC:
+814820027648
+</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1455/5495/REVO_12_FA_HP_Black_Subwoofer_Front_Right_View__24966.1709139072.png?c=1</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>REVO 12 FA S4-B V2 | Wet Sounds REVO Series 12-inch Free-Air Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>$319.99</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 FA S4-B V2
+UPC:
+814820027662
+</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1454/5501/REVO_12_FA_HP_Black_Subwoofer_Front_Right_View__14078.1709139143.png?c=1</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>RECON 10 FA-XW-W | Wet Sounds RECON™ Series 10-inch Free-Air Marine Subwoofer - 4Ω White with XW White Grille</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 10 FA-XW-W
+UPC:
+814820027532
+</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1446/5537/RECON_10_XW_Front_Right_View__89105.1709139670.png?c=1</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>REVO 10 FA S2-B V2 | Wet Sounds REVO Series 10-inch Free-Air Marine Subwoofer - 2Ω Black</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 FA S2-B V2
+UPC:
+814820027587
+</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1441/5467/REVO_10_FA_HP_Black_Subwoofer_Front_Right_View__66469.1709138695.png?c=1</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>REVO 10 FA S2-W V2 | Wet Sounds REVO Series 10-inch Free-Air Marine Subwoofer - 2Ω White</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 FA S2-W V2
+UPC:
+814820027594
+</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1440/5472/REVO_10_FA_HP_White_Subwoofer_Front_Right_View__41986.1709138755.png?c=1</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>REVO 10 FA S4-W V2 | Wet Sounds REVO Series 10-inch Free-Air Marine Subwoofer - 4Ω White</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 FA S4-W V2
+UPC:
+814820027617
+</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1429/5480/REVO_10_FA_HP_White_Subwoofer_Front_Right_View__74671.1709138816.png?c=1</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>REVO 8 FA S4-B | Wet Sounds REVO Series 8-inch Free-Air Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA : REVO 8 FA S4-B
+UPC:
+814820024807
+</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1427/5447/REVO_8_FA_Black_Subwoofer_Front_Right_View__93660.1709138157.png?c=1</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>REVO 12 HP S4 V3 | Wet Sounds REVO Series 12-inch High-Power Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 HP S4 V3
+UPC:
+810042171794
+</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1294/5511/REVO_12_V3_Subwoofer_Front_Right__20953.1709139217.png?c=1</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>REVO 12 XXX V4-B | Wet Sounds REVO Series XXX 12-inch SPL Marine Subwoofer - Dual 2Ω Black</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>$999.99</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XXX V4-B
+UPC:
+814820022261
+</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1291/5517/REVO_XXX12_Subwoofer_Front_Right_View__84159.1709139387.png?c=1</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>REVO 15 XXX V4-B | Wet Sounds REVO Series XXX 15-inch SPL Marine Subwoofer - Dual 2Ω Black</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>$1,549.99</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 15 XXX V4-B
+UPC:
+814820022254
+</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1290/5521/REVO_XXX15_Subwoofer_Front_Right_View__42432.1709139422.png?c=1</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Revolution Series 5x7 HLCD With Surface Mountable Roto-Mold Enclosure + Grill - White</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 5X7 SM-W
+UPC:
+810042170018
+</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1564/2595/0_REV_5x7__08818__09844.1637194884.png?c=1</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Revolution Series 6x9 HLCD With Surface Mountable Roto-Mold Enclosure + Grill - Black</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>$849.99</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 6X9 SM-B
+UPC:
+814820023121
+</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1438/2600/1_6x9_SM_Black__24204__20541.1637194884.png?c=1</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Revolution Series 6x9 HLCD With Surface Mountable Roto-Mold Enclosure + Grill - White</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>$849.99</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 6X9 SM-W
+UPC:
+814820023138
+</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1437/2602/1_6x9_SM_White__22030__64737.1637194885.png?c=1</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Wet Sounds REV 696 RS | Revolution Series 6 X 9 Inch EFG™ Pro-Axial™ Speaker</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 696 RS
+UPC:
+814820022896
+</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1333/2668/1_6x9_RS__72461__07501.1637194898.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ Shallow Mount 6.5" Ceiling Speakers</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>$269.99</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-SMC-65
+UPC:
+810042171114
+</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1589/4945/VS_SMC_65_Web__57267.1686758771.png?c=1</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>ADP REV HD X-W | Wet Sounds WHITE X Kit For REV HD Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV HD X-W
+UPC:
+810042172746
+</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1680/4860/REVHD_X_Mount_W_Back_Left__51149.1677095557.png?c=1</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>ADP REV HD X-B | Wet Sounds BLACK X Kit For REV HD Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV HD X-B
+UPC:
+810042172739
+</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1679/4859/REVHD_X_Mount_Back_Left__62192.1677095468.png?c=1</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:51:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>ADP Malibu G5-G  | Wet Sounds Brushed Tower Speaker Adapters For The Malibu G5 Tower</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G5-G
+UPC:
+810042171275
+</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1586/1503/1_Malibu_G5__12259__74117.1637194656.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>ADP NAU-FCTA  | Wet Sounds Brushed Tower Speaker Brackets For The 2019+ Nautique Flight Control Tower Actuated (FCTA)</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP NAU-FCTA
+UPC:
+814820029079
+</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1546/1509/1_Nautique_FLTA__78313__12581.1637194659.png?c=1</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>ADP TC3-SXM | Wet Sounds Stainless Steel Swivel Surface Mount (No Clamp) w/ Hardware</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-SXM
+UPC:
+853414005655
+</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1496/1560/1_TC3_SXM__75500__89888.1637194670.png?c=1</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>ADP NAUTIQUE G  | Wet Sounds Tower Speaker Brackets For The Upper Brackets For Nautique G Tower</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP NAUTIQUE G
+UPC:
+814820025811
+</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1436/1527/1_Nautique_G__82729__11690.1637194663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>ADP TC3-F-SILVER | Wet Sounds Silver Aluminum Clamp For Tube Diameter 1 7/8” To 3”</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-F-SILVER
+UPC:
+853414005624
+</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1432/1549/1_TC3_FC_SA__81562__43456.1637194668.png?c=1</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>ADP TC3-F | Wet Sounds Stainless Steel Fixed Position Clamp For Tube Diameter 1 7/8” To 3”</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-F
+UPC:
+853414005600
+</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1355/1547/1_TC3_FC__00488__91450.1637194666.png?c=1</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>ADP TC3-F MINI | Wet Sounds Stainless Steel Fixed Position Clamp For Tube Diameter 1” To 1 7/8”</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-F MINI
+UPC:
+853414005631
+</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1354/1548/1_TC3_FC_Mini__70229__76985.1637194667.png?c=1</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>ADP TC3-S | Wet Sounds Stainless Steel Swivel Clamp For Tube Diameter 1 7/8” To 3”</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-S
+UPC:
+853414005617
+</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1353/1553/0_TC3_SC__57230__35422.1637194668.png?c=1</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>ADP TC3-S MINI | Wet Sounds Stainless Steel Swivel Clamp For Tube Diameter 1” To 1 7/8”</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-S MINI
+UPC:
+853414005648
+</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1352/1557/1_Mini_Swivel_Clamp__77137__47956.1637194669.png?c=1</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>ADP ILLUSION DXT  | Wet Sounds REV 10 Tower Speaker Brackets For The Malibu X Tower Lower Mount</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>$129.99</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Illusion DXT
+UPC:
+814820020915
+</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1350/1476/1_Illusion_DXT__92533__35545.1637194651.png?c=1</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>ADP REV X-B | Wet Sounds BLACK X Kit For REV And ICON Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV X-B
+UPC:
+814820021042
+</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1349/1536/Black_X_Mount__86541__61693.1637194663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>ADP REV X-W | Wet Sounds WHITE X Kit For REV And ICON Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV X-W
+UPC:
+814820021059
+</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1348/1537/White_X_Mount__90066__12854.1637194664.png?c=1</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>ADP Gladiator-B | Wet Sounds Black Tower Speaker Brackets For The Centurion Gladiator Tower</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Gladiator-B
+UPC:
+814820020892
+</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1347/1468/1_Centurion_Gladiator_Black__82234__48144.1637194649.png?c=1</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>ADP GLADIATOR-P  | Wet Sounds POLISHED Tower Speaker Brackets For The Centurion Gladiator Brackets</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Gladiator-P
+UPC:
+814820020908
+</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1346/1472/1_Centurion_Gladiator_Polished__65776__54391.1637194650.png?c=1</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>ADP MALIBU G3 SINGLE-B  | Wet Sounds Black Tower Speaker Brackets For The Malibu G3 Single Speaker Mount</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G3 Single-B
+UPC:
+814820020977
+</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1345/1487/1_Malibu_G3_Single_Black__82146__64795.1637194654.png?c=1</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>ADP MALIBU G3 SINGLE-P  | Wet Sounds Silver Tower Speaker Brackets For The Malibu G3 Single Speaker Mount</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G3 Single-P
+UPC:
+814820020984
+</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1344/1495/1_Malibu_G3_Single__46289__10563.1637194656.png?c=1</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>ADP MC BRACKET-11  | Wet Sounds Brushed Tower Speaker Brackets For The Aluminum Mastercraft MC-11 Bracket</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP MC Bracket-11
+UPC:
+814820020991
+</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1343/1504/1_MC11__55068__77297.1637194657.png?c=1</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>ADP Nautique FC5-U  | Wet Sounds Tower Speaker Brackets For The Upper Brackets For Nautique FC5 Tower</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Nautique FC5-U
+UPC:
+814820021011
+</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1342/1520/1_Nautique_FC5_U__66384__59326.1637194661.png?c=1</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>ADP CENTURION MAXIMUS |Wet Sounds Black Tower Speaker Brackets For The Centurion Maximus Tower</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>$189.99</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP CENTURION MAXIMUS
+UPC:
+814820020861
+</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1341/1464/2_Centurion_Maximus__14356__62032.1637194648.png?c=1</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>ADP SUPRA-FxONE | Wet Sounds Supra FxONE Upper Tower Adapter Brackets W/ Bead Blast Finish</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP SUPRA-FxONE
+UPC:
+814820028102
+</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1340/1539/1_FxONE__81412__61611.1637194666.png?c=1</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>ADP NAUTIQUE FC5-L  | Wet Sounds Tower Speaker Brackets For The Lower Brackets For Nautique FC5 Tower</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Nautique FC5-L
+UPC:
+814820021004
+</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1339/1519/ADP-Nautique-FC5-L_MAIN-1__38608__44984.1637194660.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>ADP NAUTIQUE Z5 DROP 12  | Wet Sounds Nautique Drop Down Bracket For The Z5 Rack W/ 12 Inch Strut Tube</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Nautique Z5 Drop 12
+UPC:
+814820021028
+</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1338/1535/ADP-Naut-Z5-Drop-12_MAIN-1__81230__46666.1637194663.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>ADP MALIBU G3 DUAL-B  | Wet Sounds BLACK Tower Speaker Brackets For The Malibu G3 Dual Speaker Mount</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G3 Dual-B
+UPC:
+814820020939
+</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1337/1483/ADP-Malibu-G3-Dual-B_MAIN-1__64841__65072.1637194652.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XW-W GRILLE
+UPC:
+814820023435
+</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1677/4856/1_REVO_10_XWW_Grille__24247.1675358486.png?c=1</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 SW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 SW-B GRILLE
+UPC:
+814820023398
+</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1520/4591/1_REVO_12_SWB_Grille__89371.1666364087.png?c=1</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 SW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 SW-W GRILLE
+UPC:
+814820023404
+</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1519/4587/1_REVO_12_SWW_Grille__50214.1666364049.png?c=1</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-Black Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>$109.99</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-B-SS GRILLE
+UPC:
+814820022384
+</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1518/4597/1_REVO_12_XSBSS_Grille__83842.1666364127.png?c=1</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-Gunmetal Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>$109.99</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-G-SS GRILLE
+UPC:
+814820022377
+</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1517/4601/1_REVO_12_XSGSS_Grille__30565.1666364155.png?c=1</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-Silver Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-S GRILLE
+UPC:
+814820022360
+</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1516/4589/1_REVO_12_XSS_Grille__77253.1666364074.png?c=1</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-White Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>$109.99</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-W-SS GRILLE
+UPC:
+814820022353
+</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1515/4595/1_REVO_12_XSWSS_Grille__39058.1666364112.png?c=1</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XW-B GRILLE
+UPC:
+814820022346
+</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1514/4593/1_REVO_12_XWB_Grille__46551.1666364097.png?c=1</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XW-W GRILLE
+UPC:
+814820022278
+</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1513/4599/1_REVO_12_XWW_Grille__15735.1666364137.png?c=1</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XW-B GRILLE
+UPC:
+814820023428
+</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1511/4573/1_REVO_10_XWB_Grille__42960.1666363805.png?c=1</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XS-White Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>$84.99</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XS-W-SS GRILLE
+UPC:
+814820023411
+</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1510/4575/1_REVO_10_XSWSS_Grille__72598.1666363829.png?c=1</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XS-Silver Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XS-S GRILLE
+UPC:
+814820023466
+</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1509/4567/1_REVO_10_XSS_Grille__64207.1666363752.png?c=1</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XS-Gunmetal Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>$84.99</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XS-G-SS GRILLE
+UPC:
+814820023473
+</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1508/4571/1_REVO_10_XSGSS_Grille__26329.1666363793.png?c=1</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 SW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 SW-W GRILLE
+UPC:
+814820023497
+</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1506/4565/1_REVO_10_SWW_Grille__40203.1666363732.png?c=1</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 SW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 SW-B GRILLE
+UPC:
+814820023503
+</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1505/4569/1_REVO_10_SWB_Grille__02082.1666363765.png?c=1</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-Black Stainless Steel FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>$64.99</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-B-SS GRILLE
+UPC:
+814820024852
+</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1504/4561/1_REVO_8_XSBSS_Grille__79541.1666363683.png?c=1</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-Gunmetal Stainless Steel FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>$64.99</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-G-SS GRILLE
+UPC:
+814820024876
+</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1503/4562/1_REVO_8_XSGSS_Grille__14722.1666363693.png?c=1</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-White Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>$64.99</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-W-SS GRILLE
+UPC:
+814820024869
+</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1502/4557/1_REVO_8_XSWSS_Grille__28943.1666363543.png?c=1</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-Silver FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-S GRILLE
+UPC:
+814820024821
+</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1501/4555/1_REVO_8_XSS_Grille__95421.1666363515.png?c=1</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XW-Black FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XW-B GRILLE
+UPC:
+814820024838
+</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1500/4556/1_REVO_8_XWB_Grille__44024.1666363530.png?c=1</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XW-White FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XW-W GRILLE
+UPC:
+814820024845
+</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1499/4559/1_REVO_8_XWW_Grille__01114.1666363562.png?c=1</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 SW-White FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA SW-W GRILLE
+UPC:
+814820024890
+</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1498/4558/1_REVO_8_SWW_Grille__13637.1666363553.png?c=1</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 SW-Black FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA SW-B GRILLE
+UPC:
+814820024883
+</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1497/4560/1_REVO_8_SWB_Grille__93630.1666363571.png?c=1</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>REV 12 HD XS-W GRILLE | Wet Sounds REV 12 HD XS Grille White</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>$240.00</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XS-W GRILLE
+UPC:
+810042172609
+</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1665/4701/REV_10_HD_XS_W_Grille___42087.1668784791.1280.1280__32929.1668786228.png?c=1</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>REV 12 HD XW-B GRILLE | Wet Sounds REV 12 HD XW Grille Black</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XW-B GRILLE
+UPC:
+810042172616
+</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1664/4700/REV_10_HD_XW_B_Grille___44804.1668784874.1280.1280__10630.1668786179.png?c=1</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>REV 12 HD XW-W GRILLE | Wet Sounds REV 12 HD XW Grille White</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XW-W GRILLE
+UPC:
+810042172623
+</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1663/4699/REV_10_HD_XW_W_Grille___19216.1668784926.1280.1280__46160.1668786094.png?c=1</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>REV 12 HD XZ-W GRILLE | Wet Sounds REV 12 HD XZ Grille White</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-W GRILLE
+UPC:
+810042172470
+</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1662/4698/REV_10_HD_XZ_W_Grille___99703.1668785014.1280.1280__09363.1668786030.png?c=1</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>REV 12 HD XZ-B GRILLE | Wet Sounds REV 12 HD XZ Grille Black</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-B GRILLE
+UPC:
+810042172494
+</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1661/4697/REV_10_HD_XZ_B_Grille___55922.1668785058.1280.1280__50203.1668785972.png?c=1</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>REV 12 HD XS-B GRILLE | Wet Sounds REV 12 HD XS Grille Black</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>$240.00</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XS-B GRILLE
+UPC:
+810042172593
+</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1660/4696/REV_10_HD_XS_B_Grille___09337.1668784735.1280.1280__46044.1668785860.png?c=1</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>REV 10 HD XZ-B GRILLE | Wet Sounds REV 10 HD XZ Grille Black</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-B GRILLE
+UPC:
+810042172500
+</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1659/4695/REV_10_HD_XZ_B_Grille___55922.1668785058.png?c=1</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>REV 10 HD XZ-W GRILLE | Wet Sounds REV 10 HD XZ Grille White</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-W GRILLE
+UPC:
+810042172487
+</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1658/4694/REV_10_HD_XZ_W_Grille___99703.1668785014.png?c=1</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>REV 10 HD XW-W GRILLE | Wet Sounds REV 10 HD XW Grille White</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XW-W GRILLE
+UPC:
+810042172586
+</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1657/4693/REV_10_HD_XW_W_Grille___19216.1668784926.png?c=1</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>REV 10 HD XW-B GRILLE | Wet Sounds REV 10 HD XW Grille Black</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XW-B GRILLE
+UPC:
+810042172579
+</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1656/4692/REV_10_HD_XW_B_Grille___44804.1668784874.png?c=1</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>REV 10 HD XS-W GRILLE | Wet Sounds REV 10 HD XS Grille White</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>$190.00</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XS-W GRILLE
+UPC:
+810042172562
+</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1655/4691/REV_10_HD_XS_W_Grille___42087.1668784791.png?c=1</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>REV 10 HD XS-B GRILLE | Wet Sounds REV 10 HD XS Grille Black</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>$190.00</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XS-B GRILLE
+UPC:
+810042172555
+</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1642/4690/REV_10_HD_XS_B_Grille___09337.1668784735.png?c=1</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Revo 12 PSE | Wet Sounds Passive Radiator Subwoofer Enclosure</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>$1,499.95 - $1,579.95</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 PSE
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1527/2054/12_PSE_XS_B__74684__29674.1637194774.png?c=1</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>STEALTH AS-8 | Wet Sounds™ 8-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-8
+UPC:
+814820024791
+</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1360/5740/AS-8_Front_Right__03743.1713207541.png?c=1</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>STEALTH AS-6 | Wet Sounds™ 6.5-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-6
+UPC:
+814820023312
+</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1293/5731/AS-6_Front_Right__07941.1713207502.png?c=1</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>STEALTH AS-10 | Wet Sounds™ 10-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-10
+UPC:
+814820023251
+</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1292/5748/AS-10_Front_Right__50395.1713207575.png?c=1</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>REVO 8 XW-W V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 XW-W V3
+UPC:
+810042171992
+</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1702/5631/REVO_8_XW_W_Hero__32333.1709313500.png?c=1</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>AR-5 Defender Max | Wet Sounds 5-Speaker Defender Roof Audio System</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>$3,999.99</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+AR-5 Defender Max
+UPC:
+810042176805
+</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1699/5295/AR-5_Defender_Max_Audio_Roof_Front_View_R_Web__25866.1701290006.png?c=1</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>ZERO 12 ENC | Wet Sounds™ ZERO 12-inch Rotomold Enclosure</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>$369.99</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 12 ENC
+UPC:
+810042176447
+</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1694/5811/ZERO_12_ENC_Web_Hero_Solo__24519.1713280845.png?c=1</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>AR-AMP 2CH | Wet Sounds 2-CH Amplifier for Ranger Roof Audio System</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+AR-AMP 2CH
+UPC:
+810042173866
+</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1654/5306/AR-2CH_Front_View_Web__91025.1701293245.png?c=1</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>STEALTH XT 12-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 12-B
+UPC:
+810042173095
+</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1653/5275/Stealth_XT12_Hero__64541.1701045828.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>STEALTH XT 8-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 8-B
+UPC:
+810042173101
+</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1652/5276/Stealth_XT8_Hero__73552.1701045835.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>STEALTH XT 6-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 6-B
+UPC:
+810042173088
+</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1651/5277/Stealth_XT6_Hero__88966.1701045845.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>AR-5 Ranger Crew | Wet Sounds 5-Speaker Ranger Roof Audio System</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>$3,999.99</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+AR-5 Ranger Crew
+UPC:
+810042173651
+</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1643/5304/AR-5_Ranger_Crew_Audio_Roof_Front_View_R_Web__75719.1701290880.png?c=1</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>REV8™ White V2 | Wet Sounds Revolution Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1640/4375/REV8_W_Web_Hero__78931.1654888304.png?c=1</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>REV8™ Black V2 | Wet Sounds Revolution Series 8" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1639/4369/REV8_B_Web_Hero__69496.1646949336.1280.1280__81274.1654887818.png?c=1</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>REV10™ White V2 | Wet Sounds Revolution Series 10" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1638/4359/REV10_W_Web_Hero__38956.1654887066.png?c=1</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:52:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>REV10™ Black V2 | Wet Sounds Revolution Series 10" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1637/4351/REV10_B_Web_Hero__57402.1647007395.1280.1280__29553.1654886710.png?c=1</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>REV 410 Black V2 | Wet Sounds Revolution Series Dual 10" Black Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1636/4345/REV410_B_X_Web_Front___24105.1654881808.png?c=1</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>REV 410 White V2 | Wet Sounds Revolution Series Dual 10" White Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1635/4342/REV410_W_X_Web_Front___65923.1647007018.1280.1280__51826.1654881737.png?c=1</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>ICON8™ White V2  | Wet Sounds ICON Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>$599.99 - $1,349.99</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ICON 8-W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1634/4328/ICON8_W_Web_Hero__40196.1654880484.png?c=1</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr"/>
+      <c r="B487" t="inlineStr"/>
+      <c r="C487" t="inlineStr"/>
+      <c r="D487" t="inlineStr"/>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-W | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-W
+UPC:
+810042173019
+</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1624/5377/ZERO_8_W_Hero_Web__27066.1708447150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-B | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-B
+UPC:
+810042172760
+</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1623/5372/ZERO_8_B_Web_Hero__46095.1708447055.png?c=1</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-W | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-W
+UPC:
+810042173002
+</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1622/5353/ZERO_6_W_Web_Hero__48185.1708446825.png?c=1</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-B | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-B
+UPC:
+810042172753
+</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1621/5363/ZERO_6_B_Web_Hero__23189.1708446915.png?c=1</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>RECON 8-BG RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-BG RGB
+UPC:
+810042171817
+</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1617/5383/RECON_8-XS_Front_Right_Hero_G__04334.1708959945.png?c=1</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>RECON 6-BG RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG RGB
+UPC:
+810042171800
+</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1616/5415/RECON_6-XS_Front_Hero_G__11887.1708962166.png?c=1</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>WWX-DZ-BT | Wet Sounds™ Dual Zone Bluetooth Controller</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WWX-DZ-BT
+UPC:
+810042170803
+</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1565/4543/DZ_BT_Front__15731.1666361204.png?c=1</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Stealth HD Remote replacement</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+PT-STEALTH HD REMOTE
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1533/4196/Stealth_UHD_Remote_Front__77941.1652811658.png?c=1</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Revo 12 PSE | Wet Sounds Passive Radiator Subwoofer Enclosure</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>$1,499.95 - $1,579.95</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 PSE
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1527/2054/12_PSE_XS_B__74684__29674.1637194774.png?c=1</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>STEALTH-10 CORE-W | Wet Sounds STEALTH CORE 10 Speaker Non-Amplified Universal Soundbar</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-10 CORE-W
+UPC:
+814820023145
+</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1482/3363/1_Stealth_10_Core_W_Web__90688.1642004847.png?c=1</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>STEALTH-10 ULTRA HD-W | Wet Sounds All-In-One Amplified Bluetooth®  Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-10 ULTRA HD-W
+UPC:
+814820023282
+</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1480/3408/1_Stealth_10_UHD_W__97540.1642008122.png?c=1</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>STEALTH-6 ULTRA HD-W | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-6 ULTRA HD-W
+UPC:
+814820023305
+</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1479/3412/1_Stealth_6_UHD_W__23067.1642009031.png?c=1</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-W S2
+UPC:
+814820024722
+</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1459/5574/REVO_CX10_SW_W_Hero__01549.1709229069.png?c=1</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr"/>
+      <c r="B501" t="inlineStr"/>
+      <c r="C501" t="inlineStr"/>
+      <c r="D501" t="inlineStr"/>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr"/>
+      <c r="B502" t="inlineStr"/>
+      <c r="C502" t="inlineStr"/>
+      <c r="D502" t="inlineStr"/>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr"/>
+      <c r="B503" t="inlineStr"/>
+      <c r="C503" t="inlineStr"/>
+      <c r="D503" t="inlineStr"/>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>REVO 8-XSS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSS
+UPC:
+814820023213
+</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1450/5617/REVO_8_XS_S_Hero__59990.1709312658.png?c=1</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>REVO 8 SW-B V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 SW-B V3
+UPC:
+810042173064
+</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1449/5624/REVO_8_SW_B_Hero__54808.1709313038.png?c=1</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>REVO 8-SWW | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-SWW
+UPC:
+814820022322
+</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1448/5667/REVO_8_SW_W_Hero__17640.1709324663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>REVO 8-XWB | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XWB
+UPC:
+814820022339
+</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1447/5637/REVO_8_XW_B_Hero__85483.1709313935.png?c=1</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W RGB
+UPC:
+814820027518
+</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1445/5419/RECON_6-XS_Front_Hero_G__57907.1708962243.png?c=1</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>RECON 6-S RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S RGB
+UPC:
+814820027310
+</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1444/5405/RECON_6-XS_Hero_G__00191.1708962100.png?c=1</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>RECON 8 XW-W RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8 XW-W RGB
+UPC:
+814820027525
+</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1443/5393/RECON_8-XS_Front_Right_Hero_G__13110.1708960108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>RECON 8-S RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-S RGB
+UPC:
+814820027334
+</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1442/5388/RECON_8-XS_Front_Right_Hero_G__30821.1708960025.png?c=1</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>RECON 5-S | RECON™ Series 5.25-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 5-S
+UPC:
+814820027549
+</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1439/5403/RECON_5-XS_Hero__02225.1708961993.png?c=1</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.5 | Wet Sounds Stealth Clamp For 1.5" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.5
+UPC:
+853414005358
+</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1367/2414/1_1.50_RND_Clamps__21455__02143.1637194850.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.75 | Wet Sounds Stealth Clamp For 1.75" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.75
+UPC:
+853414005365
+</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1366/2417/1_1.75_RND_Clamps__59114__19242.1637194851.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ .75 | Wet Sounds Stealth Clamp For .75" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ .75
+UPC:
+853414005372
+</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1365/2427/1_0.75_Square_Clamps__66224__70772.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.0 | Wet Sounds Stealth Clamp For 1" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.0
+UPC:
+853414005389
+</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1364/2430/1_1.0_Square_Clamps__67269__49843.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.25 | Wet Sounds Stealth Clamp For 1.25" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.25
+UPC:
+853414005396
+</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1363/2433/1_1.25_Square_Clamps__83205__21949.1637194854.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 2.0 T | Wet Sounds Stealth Clamp For 2" Tube</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>$42.99</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 2.0 T
+UPC:
+810042172333
+</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1362/2420/1_2.0_RND_Clamps__29986__47318.1680276146.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>ST-ADP-SLIDER BRACKET | Wet Sounds Stealth Slider Bracket For STEALTH 6 &amp; STEALTH 10 Soundbars</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>$49.99</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SLIDER BRACKET
+UPC:
+853414005891
+</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1361/2423/1_Slider_Brackets__70189__99738.1637194852.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>STEALTH AS-8 | Wet Sounds™ 8-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-8
+UPC:
+814820024791
+</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1360/5740/AS-8_Front_Right__03743.1713207541.png?c=1</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>STEALTH-6 SURGE-B | Wet Sounds STEALTH SURGE 6 Speaker Amplified Universal Soundbar</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-6 SURGE-B
+UPC:
+814820024548
+</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1359/3378/1_Stealth_6_Surge_B_Web__61174.1642006568.png?c=1</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr"/>
+      <c r="B522" t="inlineStr"/>
+      <c r="C522" t="inlineStr"/>
+      <c r="D522" t="inlineStr"/>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr"/>
+      <c r="B523" t="inlineStr"/>
+      <c r="C523" t="inlineStr"/>
+      <c r="D523" t="inlineStr"/>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-W | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-W
+UPC:
+814820027464
+</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1331/4080/RECON_6_XW_Web_Hero__39058.1647027796.png?c=1</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>STEALTH AS-6 | Wet Sounds™ 6.5-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-6
+UPC:
+814820023312
+</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1293/5731/AS-6_Front_Right__07941.1713207502.png?c=1</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>STEALTH AS-10 | Wet Sounds™ 10-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-10
+UPC:
+814820023251
+</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1292/5748/AS-10_Front_Right__50395.1713207575.png?c=1</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>RECON 6-S | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S
+UPC:
+814820027303
+</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1289/5427/RECON_6-XS_Hero__59634.1708962364.png?c=1</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>RECON 6-BG | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black Grilles</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG
+UPC:
+814820027501
+</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1288/5432/RECON_6-XS_Front_Hero__48179.1708962424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White Grilles</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W
+UPC:
+814820027624
+</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1287/5438/RECON_6-XS_Front_Hero__59396.1708962477.png?c=1</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>REVO 6-XWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XWW
+UPC:
+814820023053
+</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1286/5669/REVO_6_XW_W_Hero__12806.1709581449.png?c=1</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>REVO 6-XSW-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSW-SS
+UPC:
+814820023060
+</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1285/5677/REVO_6_XS_W_SS_Hero__51031.1709581486.png?c=1</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>REVO 6-SWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWW
+UPC:
+814820022292
+</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1284/5683/REVO_6_SW_W_Hero__76882.1709581516.png?c=1</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr"/>
+      <c r="B533" t="inlineStr"/>
+      <c r="C533" t="inlineStr"/>
+      <c r="D533" t="inlineStr"/>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>REVO 6-XSG-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSG-SS
+UPC:
+814820023176
+</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1282/5693/REVO_6_XS_G_SS_Hero__95565.1709581601.png?c=1</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr"/>
+      <c r="B535" t="inlineStr"/>
+      <c r="C535" t="inlineStr"/>
+      <c r="D535" t="inlineStr"/>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>REVO 6 XS-B-SS V3 | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 XS-B-SS V3
+UPC:
+810042170148
+</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1280/5715/REVO_6_XS_B_SS_Hero__67615.1709581844.png?c=1</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>REVO 6-SWB | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWB
+UPC:
+814820022308
+</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1279/5709/REVO_6_SW_B_Hero__22160.1709581813.png?c=1</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-B S2
+UPC:
+814820024715
+</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1277/5571/REVO_CX10_SW_B_Hero__55586.1709151911.png?c=1</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-S S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-S S2
+UPC:
+814820024760
+</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1276/5588/REVO_CX10_XS_S_Hero__06379.1709231959.png?c=1</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-B S2
+UPC:
+814820024777
+</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1275/5601/REVO_CX10_XW_B_Hero__80563.1709232713.png?c=1</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-W S2
+UPC:
+814820024784
+</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1274/5606/REVO_CX10_XW_W_Hero__14177.1709237050.png?c=1</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-B-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-B-SS S2
+UPC:
+814820024739
+</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1273/5594/REVO_CX10_XS_B_SS_Hero__29022.1709232385.png?c=1</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-G-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-G-SS S2
+UPC:
+814820024753
+</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1272/5580/REVO_CX10_XS_G_SS_Hero__23286.1709230163.png?c=1</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-W-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-W-SS S2
+UPC:
+814820024746
+</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1271/5610/REVO_CX10_XS_W_SS_Hero__86437.1709237352.png?c=1</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>HTX-1 | Wet Sounds Class-D Monoblock Subwoofer Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-1
+UPC:
+814820022209
+</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1262/3437/1_HTX_1__66896.1642091392.png?c=1</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>HTX-2 | Wet Sounds 2 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-2
+UPC:
+814820022179
+</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1261/1579/1_HTX_2__29615__16659.1637194674.png?c=1</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr"/>
+      <c r="B547" t="inlineStr"/>
+      <c r="C547" t="inlineStr"/>
+      <c r="D547" t="inlineStr"/>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>HTX-6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-6
+UPC:
+814820022162
+</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1259/1589/1_HTX_6__73141__79749.1642096762.png?c=1</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>STX MICRO-1 | Wet Sounds Compact Chassis Class-D Monoblock Marine A</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-1
+UPC:
+814820023329
+</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1258/2520/Micro_STX_Hero__81706__61326.1637194869.png?c=1</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>STX MICRO-4 | Wet Sounds Compact Chassis Class-D 4-Ch Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>$439.99</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-4
+UPC:
+814820023336
+</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1257/2526/Micro_STX_Hero__17041__18108.1637194870.png?c=1</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>REVO 8 XW-W V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 XW-W V3
+UPC:
+810042171992
+</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1702/5631/REVO_8_XW_W_Hero__32333.1709313500.png?c=1</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>STEALTH XT 12-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 12-B
+UPC:
+810042173095
+</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1653/5275/Stealth_XT12_Hero__64541.1701045828.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>STEALTH XT 8-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 8-B
+UPC:
+810042173101
+</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1652/5276/Stealth_XT8_Hero__73552.1701045835.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>STEALTH XT 6-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 6-B
+UPC:
+810042173088
+</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1651/5277/Stealth_XT6_Hero__88966.1701045845.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-W | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-W
+UPC:
+810042173019
+</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1624/5377/ZERO_8_W_Hero_Web__27066.1708447150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-B | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-B
+UPC:
+810042172760
+</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1623/5372/ZERO_8_B_Web_Hero__46095.1708447055.png?c=1</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-W | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-W
+UPC:
+810042173002
+</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1622/5353/ZERO_6_W_Web_Hero__48185.1708446825.png?c=1</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-B | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-B
+UPC:
+810042172753
+</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1621/5363/ZERO_6_B_Web_Hero__23189.1708446915.png?c=1</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>RECON 8-BG RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-BG RGB
+UPC:
+810042171817
+</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1617/5383/RECON_8-XS_Front_Right_Hero_G__04334.1708959945.png?c=1</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>RECON 6-BG RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG RGB
+UPC:
+810042171800
+</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1616/5415/RECON_6-XS_Front_Hero_G__11887.1708962166.png?c=1</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>GC-AMP-KIT  | Wet Sounds Golf Cart Amp Wiring Kit for STX Micro-4</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>$89.99</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+GC-AMP-KIT
+UPC:
+810042171589
+</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1605/1569/GC-AMP-KIT__17000__26134.1637194671.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>GC-H4S | Wet Sounds Golf Cart Audio System Harness</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>$149.99</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+GC-H4S
+UPC:
+810042171299
+</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1597/1571/Golf_Cart_Harness_3__59544__36842.1637194672.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr"/>
+      <c r="B563" t="inlineStr"/>
+      <c r="C563" t="inlineStr"/>
+      <c r="D563" t="inlineStr"/>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr"/>
+      <c r="B564" t="inlineStr"/>
+      <c r="C564" t="inlineStr"/>
+      <c r="D564" t="inlineStr"/>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr"/>
+      <c r="B565" t="inlineStr"/>
+      <c r="C565" t="inlineStr"/>
+      <c r="D565" t="inlineStr"/>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:53:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>REVO 8-XSS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSS
+UPC:
+814820023213
+</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1450/5617/REVO_8_XS_S_Hero__59990.1709312658.png?c=1</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>REVO 8 SW-B V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 SW-B V3
+UPC:
+810042173064
+</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1449/5624/REVO_8_SW_B_Hero__54808.1709313038.png?c=1</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>REVO 8-SWW | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-SWW
+UPC:
+814820022322
+</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1448/5667/REVO_8_SW_W_Hero__17640.1709324663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>REVO 8-XWB | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XWB
+UPC:
+814820022339
+</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1447/5637/REVO_8_XW_B_Hero__85483.1709313935.png?c=1</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W RGB
+UPC:
+814820027518
+</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1445/5419/RECON_6-XS_Front_Hero_G__57907.1708962243.png?c=1</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>RECON 6-S RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S RGB
+UPC:
+814820027310
+</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1444/5405/RECON_6-XS_Hero_G__00191.1708962100.png?c=1</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>RECON 8 XW-W RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8 XW-W RGB
+UPC:
+814820027525
+</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1443/5393/RECON_8-XS_Front_Right_Hero_G__13110.1708960108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>RECON 8-S RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-S RGB
+UPC:
+814820027334
+</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1442/5388/RECON_8-XS_Front_Right_Hero_G__30821.1708960025.png?c=1</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>RECON 5-S | RECON™ Series 5.25-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 5-S
+UPC:
+814820027549
+</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1439/5403/RECON_5-XS_Hero__02225.1708961993.png?c=1</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.5 | Wet Sounds Stealth Clamp For 1.5" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.5
+UPC:
+853414005358
+</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1367/2414/1_1.50_RND_Clamps__21455__02143.1637194850.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.75 | Wet Sounds Stealth Clamp For 1.75" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.75
+UPC:
+853414005365
+</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1366/2417/1_1.75_RND_Clamps__59114__19242.1637194851.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ .75 | Wet Sounds Stealth Clamp For .75" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ .75
+UPC:
+853414005372
+</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1365/2427/1_0.75_Square_Clamps__66224__70772.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.0 | Wet Sounds Stealth Clamp For 1" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.0
+UPC:
+853414005389
+</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1364/2430/1_1.0_Square_Clamps__67269__49843.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.25 | Wet Sounds Stealth Clamp For 1.25" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.25
+UPC:
+853414005396
+</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1363/2433/1_1.25_Square_Clamps__83205__21949.1637194854.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 2.0 T | Wet Sounds Stealth Clamp For 2" Tube</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>$42.99</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 2.0 T
+UPC:
+810042172333
+</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1362/2420/1_2.0_RND_Clamps__29986__47318.1680276146.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>ST-ADP-SLIDER BRACKET | Wet Sounds Stealth Slider Bracket For STEALTH 6 &amp; STEALTH 10 Soundbars</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>$49.99</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SLIDER BRACKET
+UPC:
+853414005891
+</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1361/2423/1_Slider_Brackets__70189__99738.1637194852.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>STEALTH AS-8 | Wet Sounds™ 8-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-8
+UPC:
+814820024791
+</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1360/5740/AS-8_Front_Right__03743.1713207541.png?c=1</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>STEALTH AS-6 | Wet Sounds™ 6.5-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-6
+UPC:
+814820023312
+</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1293/5731/AS-6_Front_Right__07941.1713207502.png?c=1</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>STEALTH AS-10 | Wet Sounds™ 10-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-10
+UPC:
+814820023251
+</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1292/5748/AS-10_Front_Right__50395.1713207575.png?c=1</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>RECON 6-S | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S
+UPC:
+814820027303
+</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1289/5427/RECON_6-XS_Hero__59634.1708962364.png?c=1</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>RECON 6-BG | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black Grilles</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG
+UPC:
+814820027501
+</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1288/5432/RECON_6-XS_Front_Hero__48179.1708962424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White Grilles</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W
+UPC:
+814820027624
+</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1287/5438/RECON_6-XS_Front_Hero__59396.1708962477.png?c=1</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>REVO 6-XWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XWW
+UPC:
+814820023053
+</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1286/5669/REVO_6_XW_W_Hero__12806.1709581449.png?c=1</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>REVO 6-XSW-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSW-SS
+UPC:
+814820023060
+</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1285/5677/REVO_6_XS_W_SS_Hero__51031.1709581486.png?c=1</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>REVO 6-SWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWW
+UPC:
+814820022292
+</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1284/5683/REVO_6_SW_W_Hero__76882.1709581516.png?c=1</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr"/>
+      <c r="B591" t="inlineStr"/>
+      <c r="C591" t="inlineStr"/>
+      <c r="D591" t="inlineStr"/>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>REVO 6-XSG-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSG-SS
+UPC:
+814820023176
+</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1282/5693/REVO_6_XS_G_SS_Hero__95565.1709581601.png?c=1</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr"/>
+      <c r="B593" t="inlineStr"/>
+      <c r="C593" t="inlineStr"/>
+      <c r="D593" t="inlineStr"/>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>REVO 6 XS-B-SS V3 | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 XS-B-SS V3
+UPC:
+810042170148
+</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1280/5715/REVO_6_XS_B_SS_Hero__67615.1709581844.png?c=1</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>REVO 6-SWB | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWB
+UPC:
+814820022308
+</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1279/5709/REVO_6_SW_B_Hero__22160.1709581813.png?c=1</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 110v, 1200W 4 Channel Amplifier</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>$1,249.99</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-1200-AMP
+UPC:
+810042170773
+</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1684/4972/Venue_1200_Three_Quarter__05079.1688654940.png?c=1</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ LS Pro Package</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>$6,299.99</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-LS PRO PACKAGE
+UPC:
+810042171466
+</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1604/4999/VS_Package_Web__61197.1688658820.png?c=1</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ Shallow Mount 6.5" Ceiling Speakers</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>$269.99</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-SMC-65
+UPC:
+810042171114
+</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1589/4945/VS_SMC_65_Web__57267.1686758771.png?c=1</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 110v, 1200W 4 Channel Amplifier w/Enclosure</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>$1,999.98</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-AMPLIFIER SYSTEM-4
+UPC:
+810042171282
+</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1577/4998/VS_Amp_System__41906.1688658687.png?c=1</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 12" Landscape In-Ground Subwoofer</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>$1,499.99</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-12 LS-SUB
+UPC:
+810042170780
+</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1576/5000/OD_Sub_Front__38749.1688658990.png?c=1</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ Landscape Ground Spike</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>$99.99</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-LS-SP
+UPC:
+810042170223
+</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1575/5004/OD_Landscape_Spike__18057.1688659027.png?c=1</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 6x9" Black HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-69 PRO-B
+UPC:
+810042170209
+</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1574/4983/Venue_VS69_Hero_Pair_B__22533.1688657979.png?c=1</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 6x9" White HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-69 PRO-W
+UPC:
+810042170216
+</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1573/4978/Venue_VS69_Hero_Pair_W__06446.1688657950.png?c=1</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 8" White HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-8 PRO-W
+UPC:
+814820029499
+</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1572/4990/VS-8_W_Hero_Pair__68899.1688658629.png?c=1</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 8" Black HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-8 PRO-B
+UPC:
+814820029482
+</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1571/4994/VS-8_B_Hero_Pair__68789.1688658649.png?c=1</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>2024-04-17 13:54:39</t>
         </is>
       </c>
     </row>

--- a/Output_informacoes_produtos_wet_sounds.xlsx
+++ b/Output_informacoes_produtos_wet_sounds.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E605"/>
+  <dimension ref="A1:E907"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
@@ -10083,10 +10083,6 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="inlineStr"/>
-      <c r="B312" t="inlineStr"/>
-      <c r="C312" t="inlineStr"/>
-      <c r="D312" t="inlineStr"/>
       <c r="E312" t="inlineStr">
         <is>
           <t>2024-04-17 13:50:45</t>
@@ -10094,10 +10090,6 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="inlineStr"/>
-      <c r="B313" t="inlineStr"/>
-      <c r="C313" t="inlineStr"/>
-      <c r="D313" t="inlineStr"/>
       <c r="E313" t="inlineStr">
         <is>
           <t>2024-04-17 13:50:46</t>
@@ -10105,10 +10097,6 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="inlineStr"/>
-      <c r="B314" t="inlineStr"/>
-      <c r="C314" t="inlineStr"/>
-      <c r="D314" t="inlineStr"/>
       <c r="E314" t="inlineStr">
         <is>
           <t>2024-04-17 13:50:46</t>
@@ -10500,10 +10488,6 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="inlineStr"/>
-      <c r="B327" t="inlineStr"/>
-      <c r="C327" t="inlineStr"/>
-      <c r="D327" t="inlineStr"/>
       <c r="E327" t="inlineStr">
         <is>
           <t>2024-04-17 13:50:57</t>
@@ -10511,10 +10495,6 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="inlineStr"/>
-      <c r="B328" t="inlineStr"/>
-      <c r="C328" t="inlineStr"/>
-      <c r="D328" t="inlineStr"/>
       <c r="E328" t="inlineStr">
         <is>
           <t>2024-04-17 13:50:58</t>
@@ -10522,10 +10502,6 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="inlineStr"/>
-      <c r="B329" t="inlineStr"/>
-      <c r="C329" t="inlineStr"/>
-      <c r="D329" t="inlineStr"/>
       <c r="E329" t="inlineStr">
         <is>
           <t>2024-04-17 13:50:59</t>
@@ -10533,10 +10509,6 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="inlineStr"/>
-      <c r="B330" t="inlineStr"/>
-      <c r="C330" t="inlineStr"/>
-      <c r="D330" t="inlineStr"/>
       <c r="E330" t="inlineStr">
         <is>
           <t>2024-04-17 13:50:59</t>
@@ -10544,10 +10516,6 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="inlineStr"/>
-      <c r="B331" t="inlineStr"/>
-      <c r="C331" t="inlineStr"/>
-      <c r="D331" t="inlineStr"/>
       <c r="E331" t="inlineStr">
         <is>
           <t>2024-04-17 13:51:00</t>
@@ -10555,10 +10523,6 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="inlineStr"/>
-      <c r="B332" t="inlineStr"/>
-      <c r="C332" t="inlineStr"/>
-      <c r="D332" t="inlineStr"/>
       <c r="E332" t="inlineStr">
         <is>
           <t>2024-04-17 13:51:01</t>
@@ -11199,10 +11163,6 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="inlineStr"/>
-      <c r="B353" t="inlineStr"/>
-      <c r="C353" t="inlineStr"/>
-      <c r="D353" t="inlineStr"/>
       <c r="E353" t="inlineStr">
         <is>
           <t>2024-04-17 13:51:16</t>
@@ -11210,10 +11170,6 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr"/>
-      <c r="B354" t="inlineStr"/>
-      <c r="C354" t="inlineStr"/>
-      <c r="D354" t="inlineStr"/>
       <c r="E354" t="inlineStr">
         <is>
           <t>2024-04-17 13:51:17</t>
@@ -11668,10 +11624,6 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="inlineStr"/>
-      <c r="B369" t="inlineStr"/>
-      <c r="C369" t="inlineStr"/>
-      <c r="D369" t="inlineStr"/>
       <c r="E369" t="inlineStr">
         <is>
           <t>2024-04-17 13:51:28</t>
@@ -11807,10 +11759,6 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="inlineStr"/>
-      <c r="B374" t="inlineStr"/>
-      <c r="C374" t="inlineStr"/>
-      <c r="D374" t="inlineStr"/>
       <c r="E374" t="inlineStr">
         <is>
           <t>2024-04-17 13:51:31</t>
@@ -11914,10 +11862,6 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="inlineStr"/>
-      <c r="B378" t="inlineStr"/>
-      <c r="C378" t="inlineStr"/>
-      <c r="D378" t="inlineStr"/>
       <c r="E378" t="inlineStr">
         <is>
           <t>2024-04-17 13:51:34</t>
@@ -15373,10 +15317,6 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" t="inlineStr"/>
-      <c r="B487" t="inlineStr"/>
-      <c r="C487" t="inlineStr"/>
-      <c r="D487" t="inlineStr"/>
       <c r="E487" t="inlineStr">
         <is>
           <t>2024-04-17 13:53:03</t>
@@ -15798,10 +15738,6 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" t="inlineStr"/>
-      <c r="B501" t="inlineStr"/>
-      <c r="C501" t="inlineStr"/>
-      <c r="D501" t="inlineStr"/>
       <c r="E501" t="inlineStr">
         <is>
           <t>2024-04-17 13:53:13</t>
@@ -15809,10 +15745,6 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" t="inlineStr"/>
-      <c r="B502" t="inlineStr"/>
-      <c r="C502" t="inlineStr"/>
-      <c r="D502" t="inlineStr"/>
       <c r="E502" t="inlineStr">
         <is>
           <t>2024-04-17 13:53:14</t>
@@ -15820,10 +15752,6 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" t="inlineStr"/>
-      <c r="B503" t="inlineStr"/>
-      <c r="C503" t="inlineStr"/>
-      <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr">
         <is>
           <t>2024-04-17 13:53:14</t>
@@ -16407,10 +16335,6 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" t="inlineStr"/>
-      <c r="B522" t="inlineStr"/>
-      <c r="C522" t="inlineStr"/>
-      <c r="D522" t="inlineStr"/>
       <c r="E522" t="inlineStr">
         <is>
           <t>2024-04-17 13:53:28</t>
@@ -16418,10 +16342,6 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" t="inlineStr"/>
-      <c r="B523" t="inlineStr"/>
-      <c r="C523" t="inlineStr"/>
-      <c r="D523" t="inlineStr"/>
       <c r="E523" t="inlineStr">
         <is>
           <t>2024-04-17 13:53:29</t>
@@ -16717,10 +16637,6 @@
       </c>
     </row>
     <row r="533">
-      <c r="A533" t="inlineStr"/>
-      <c r="B533" t="inlineStr"/>
-      <c r="C533" t="inlineStr"/>
-      <c r="D533" t="inlineStr"/>
       <c r="E533" t="inlineStr">
         <is>
           <t>2024-04-17 13:53:36</t>
@@ -16760,10 +16676,6 @@
       </c>
     </row>
     <row r="535">
-      <c r="A535" t="inlineStr"/>
-      <c r="B535" t="inlineStr"/>
-      <c r="C535" t="inlineStr"/>
-      <c r="D535" t="inlineStr"/>
       <c r="E535" t="inlineStr">
         <is>
           <t>2024-04-17 13:53:37</t>
@@ -17123,10 +17035,6 @@
       </c>
     </row>
     <row r="547">
-      <c r="A547" t="inlineStr"/>
-      <c r="B547" t="inlineStr"/>
-      <c r="C547" t="inlineStr"/>
-      <c r="D547" t="inlineStr"/>
       <c r="E547" t="inlineStr">
         <is>
           <t>2024-04-17 13:53:47</t>
@@ -17614,10 +17522,6 @@
       </c>
     </row>
     <row r="563">
-      <c r="A563" t="inlineStr"/>
-      <c r="B563" t="inlineStr"/>
-      <c r="C563" t="inlineStr"/>
-      <c r="D563" t="inlineStr"/>
       <c r="E563" t="inlineStr">
         <is>
           <t>2024-04-17 13:53:58</t>
@@ -17625,10 +17529,6 @@
       </c>
     </row>
     <row r="564">
-      <c r="A564" t="inlineStr"/>
-      <c r="B564" t="inlineStr"/>
-      <c r="C564" t="inlineStr"/>
-      <c r="D564" t="inlineStr"/>
       <c r="E564" t="inlineStr">
         <is>
           <t>2024-04-17 13:53:58</t>
@@ -17636,10 +17536,6 @@
       </c>
     </row>
     <row r="565">
-      <c r="A565" t="inlineStr"/>
-      <c r="B565" t="inlineStr"/>
-      <c r="C565" t="inlineStr"/>
-      <c r="D565" t="inlineStr"/>
       <c r="E565" t="inlineStr">
         <is>
           <t>2024-04-17 13:53:59</t>
@@ -18447,10 +18343,6 @@
       </c>
     </row>
     <row r="591">
-      <c r="A591" t="inlineStr"/>
-      <c r="B591" t="inlineStr"/>
-      <c r="C591" t="inlineStr"/>
-      <c r="D591" t="inlineStr"/>
       <c r="E591" t="inlineStr">
         <is>
           <t>2024-04-17 13:54:29</t>
@@ -18490,10 +18382,6 @@
       </c>
     </row>
     <row r="593">
-      <c r="A593" t="inlineStr"/>
-      <c r="B593" t="inlineStr"/>
-      <c r="C593" t="inlineStr"/>
-      <c r="D593" t="inlineStr"/>
       <c r="E593" t="inlineStr">
         <is>
           <t>2024-04-17 13:54:31</t>
@@ -18881,6 +18769,9505 @@
       <c r="E605" t="inlineStr">
         <is>
           <t>2024-04-17 13:54:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>REVO 8 XW-W V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 XW-W V3
+UPC:
+810042171992
+</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1702/5631/REVO_8_XW_W_Hero__32333.1709313500.png?c=1</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:22:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-W | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-W
+UPC:
+810042173019
+</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1624/5377/ZERO_8_W_Hero_Web__27066.1708447150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:22:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-B | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-B
+UPC:
+810042172760
+</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1623/5372/ZERO_8_B_Web_Hero__46095.1708447055.png?c=1</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:22:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-W | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-W
+UPC:
+810042173002
+</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1622/5353/ZERO_6_W_Web_Hero__48185.1708446825.png?c=1</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:22:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-B | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-B
+UPC:
+810042172753
+</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1621/5363/ZERO_6_B_Web_Hero__23189.1708446915.png?c=1</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:22:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>RECON 8-BG RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-BG RGB
+UPC:
+810042171817
+</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1617/5383/RECON_8-XS_Front_Right_Hero_G__04334.1708959945.png?c=1</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:22:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>RECON 6-BG RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG RGB
+UPC:
+810042171800
+</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1616/5415/RECON_6-XS_Front_Hero_G__11887.1708962166.png?c=1</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:22:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-W S2
+UPC:
+814820024722
+</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1459/5574/REVO_CX10_SW_W_Hero__01549.1709229069.png?c=1</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:22:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>REVO 8-XSB-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSB-SS
+UPC:
+814820023046
+</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1453/5646/REVO_8_XS_B_SS_Hero__24569.1709314439.png?c=1</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:22:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>REVO 8-XSG-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSG-SS
+UPC:
+814820023206
+</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1452/5655/REVO_8_XS_G_SS_Hero__58795.1709314920.png?c=1</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>REVO 8-XSW-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSW-SS
+UPC:
+814820022421
+</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1451/5659/REVO_8_XS_W_SS_Hero__40898.1709324600.png?c=1</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>REVO 8-XSS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSS
+UPC:
+814820023213
+</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1450/5617/REVO_8_XS_S_Hero__59990.1709312658.png?c=1</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>REVO 8 SW-B V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 SW-B V3
+UPC:
+810042173064
+</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1449/5624/REVO_8_SW_B_Hero__54808.1709313038.png?c=1</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>REVO 8-SWW | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-SWW
+UPC:
+814820022322
+</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1448/5667/REVO_8_SW_W_Hero__17640.1709324663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>REVO 8-XWB | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XWB
+UPC:
+814820022339
+</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1447/5637/REVO_8_XW_B_Hero__85483.1709313935.png?c=1</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W RGB
+UPC:
+814820027518
+</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1445/5419/RECON_6-XS_Front_Hero_G__57907.1708962243.png?c=1</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>RECON 6-S RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S RGB
+UPC:
+814820027310
+</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1444/5405/RECON_6-XS_Hero_G__00191.1708962100.png?c=1</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>RECON 8 XW-W RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8 XW-W RGB
+UPC:
+814820027525
+</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1443/5393/RECON_8-XS_Front_Right_Hero_G__13110.1708960108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>RECON 8-S RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-S RGB
+UPC:
+814820027334
+</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1442/5388/RECON_8-XS_Front_Right_Hero_G__30821.1708960025.png?c=1</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>RECON 5-S | RECON™ Series 5.25-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 5-S
+UPC:
+814820027549
+</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1439/5403/RECON_5-XS_Hero__02225.1708961993.png?c=1</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>RECON 6-S | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S
+UPC:
+814820027303
+</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1289/5427/RECON_6-XS_Hero__59634.1708962364.png?c=1</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>RECON 6-BG | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black Grilles</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG
+UPC:
+814820027501
+</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1288/5432/RECON_6-XS_Front_Hero__48179.1708962424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White Grilles</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W
+UPC:
+814820027624
+</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1287/5438/RECON_6-XS_Front_Hero__59396.1708962477.png?c=1</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>REVO 6-XWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XWW
+UPC:
+814820023053
+</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1286/5669/REVO_6_XW_W_Hero__12806.1709581449.png?c=1</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>REVO 6-XSW-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSW-SS
+UPC:
+814820023060
+</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1285/5677/REVO_6_XS_W_SS_Hero__51031.1709581486.png?c=1</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>REVO 6-SWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWW
+UPC:
+814820022292
+</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1284/5683/REVO_6_SW_W_Hero__76882.1709581516.png?c=1</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr"/>
+      <c r="B632" t="inlineStr"/>
+      <c r="C632" t="inlineStr"/>
+      <c r="D632" t="inlineStr"/>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>REVO 6-XSG-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSG-SS
+UPC:
+814820023176
+</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1282/5693/REVO_6_XS_G_SS_Hero__95565.1709581601.png?c=1</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr"/>
+      <c r="B634" t="inlineStr"/>
+      <c r="C634" t="inlineStr"/>
+      <c r="D634" t="inlineStr"/>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>REVO 6 XS-B-SS V3 | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 XS-B-SS V3
+UPC:
+810042170148
+</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1280/5715/REVO_6_XS_B_SS_Hero__67615.1709581844.png?c=1</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>REVO 6-SWB | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWB
+UPC:
+814820022308
+</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1279/5709/REVO_6_SW_B_Hero__22160.1709581813.png?c=1</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-B S2
+UPC:
+814820024715
+</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1277/5571/REVO_CX10_SW_B_Hero__55586.1709151911.png?c=1</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-S S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-S S2
+UPC:
+814820024760
+</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1276/5588/REVO_CX10_XS_S_Hero__06379.1709231959.png?c=1</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-B S2
+UPC:
+814820024777
+</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1275/5601/REVO_CX10_XW_B_Hero__80563.1709232713.png?c=1</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-W S2
+UPC:
+814820024784
+</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1274/5606/REVO_CX10_XW_W_Hero__14177.1709237050.png?c=1</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-B-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-B-SS S2
+UPC:
+814820024739
+</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1273/5594/REVO_CX10_XS_B_SS_Hero__29022.1709232385.png?c=1</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-G-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-G-SS S2
+UPC:
+814820024753
+</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1272/5580/REVO_CX10_XS_G_SS_Hero__23286.1709230163.png?c=1</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-W-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-W-SS S2
+UPC:
+814820024746
+</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1271/5610/REVO_CX10_XS_W_SS_Hero__86437.1709237352.png?c=1</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>REV 10 HD White | Wet Sounds REV HD Series 10" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>$1,959.99</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-W-X
+UPC:
+810042177512
+</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1673/4823/REV10_HD_W_XZ_Hero_R__75858.1675269054.png?c=1</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>REV 10 HD Black | Wet Sounds REV HD Series 10" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>$1,959.99</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-B-X
+UPC:
+810042177307
+</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1669/4777/REV12_HD_B_XZ_Hero_R__25053.1673993030.png?c=1</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>REV 12 HD White | Wet Sounds REV HD Series 12" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>$2,309.99</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-W-X
+UPC:
+810042177031
+</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1649/4740/REV12_HD_W_XZ_Hero_R__07359.1672241311.png?c=1</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>REV8™ White V2 | Wet Sounds Revolution Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1640/4375/REV8_W_Web_Hero__78931.1654888304.png?c=1</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>REV8™ Black V2 | Wet Sounds Revolution Series 8" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1639/4369/REV8_B_Web_Hero__69496.1646949336.1280.1280__81274.1654887818.png?c=1</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>REV10™ White V2 | Wet Sounds Revolution Series 10" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1638/4359/REV10_W_Web_Hero__38956.1654887066.png?c=1</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>REV10™ Black V2 | Wet Sounds Revolution Series 10" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1637/4351/REV10_B_Web_Hero__57402.1647007395.1280.1280__29553.1654886710.png?c=1</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>REV 410 Black V2 | Wet Sounds Revolution Series Dual 10" Black Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1636/4345/REV410_B_X_Web_Front___24105.1654881808.png?c=1</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>REV 410 White V2 | Wet Sounds Revolution Series Dual 10" White Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1635/4342/REV410_W_X_Web_Front___65923.1647007018.1280.1280__51826.1654881737.png?c=1</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>ICON8™ White V2  | Wet Sounds ICON Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>$599.99 - $1,349.99</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ICON 8-W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1634/4328/ICON8_W_Web_Hero__40196.1654880484.png?c=1</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>REV 12 HD Black | Wet Sounds REV HD Series 12" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>$2,309.99</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-B-X
+UPC:
+810042176836
+</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1633/4724/REV12_HD_B_XZ_Hero_R__98406.1671112247.png?c=1</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-BG | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-BG
+UPC:
+810042171824
+</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1629/4183/RECON_6_BG_Web_Hero__17738.1651583337.png?c=1</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-B | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-B
+UPC:
+814820027457
+</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1332/4083/RECON_6_S_Web_Hero__43958.1647027848.png?c=1</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-W | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-W
+UPC:
+814820027464
+</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1331/4080/RECON_6_XW_Web_Hero__39058.1647027796.png?c=1</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>ICON8™ Black V2 | Wet Sounds ICON Series 8" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>$1,049.99 - $1,349.99</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ICON 8-B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1330/3705/ICON8_B_Web_Hero__60943.1646946843.png?c=1</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>WS-MC-5 | Wet Sounds™ AM/FM/Digital Tuner Media Center</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-5
+UPC:
+810042171596
+</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1615/5317/MC-5_Hero_Image_Web__90008.1702572189.png?c=1</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>WWX-DZ-BT | Wet Sounds™ Dual Zone Bluetooth Controller</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WWX-DZ-BT
+UPC:
+810042170803
+</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1565/4543/DZ_BT_Front__15731.1666361204.png?c=1</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>WS-420 SQ | Wet Sounds™ Marine Multi Zone 4-Band Parametric Equalizer</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-420 SQ
+UPC:
+853414005105
+</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1250/4427/420SQ_Front_with_Mic__47339.1658239355.png?c=1</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>WW-BT UR | Wet Sounds™ Marine Bluetooth Universal Receiver</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WW-BT UR
+UPC:
+814820024555
+</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1249/4547/BT_UR_Front__46259.1666361333.png?c=1</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>WW-BT VC-V2 | Wet Sounds™ Marine Bluetooth Knob With Volume Control</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>$129.99</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WW-BT VC-V2
+UPC:
+814820023022
+</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1248/4536/BT_VC_Web_1__79246.1666361101.png?c=1</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>WW-BT RS | Wet Sounds™ Marine Bluetooth Rocker Switch With Volume Control</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>$129.99</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WW-BT RS
+UPC:
+814820023015
+</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1247/4551/BT_RS_Front__57291.1666361561.png?c=1</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>WS-420 BT | Wet Sounds™ Marine Multi Zone 4-Band Parametric Equalizer w/ Integrated Bluetooth®</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-420 BT
+UPC:
+853414005150
+</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1246/4430/Front_420_BT_2__22878.1658239507.png?c=1</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>WS-220 BT | Wet Sounds™ Marine 4-Zone Level Controller w/ Integrated Bluetooth®</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-220 BT
+UPC:
+814820023268
+</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1245/4432/2_220BT_Front__40363.1658239691.png?c=1</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>WS-MC-20 | Wet Sounds™ 2-Zone Media Center w/ SiriusXM-Ready® and NMEA 2000 Connectivity</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-20
+UPC:
+814820029888
+</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1590/5319/MC-20_Hero_Image_Web__72689.1702572289.png?c=1</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>WS-MC-2 | Wet Sounds™ SiriusXM-Ready® AM/FM/Weather Band Media Center</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>$369.99</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-2
+UPC:
+814820025002
+</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1243/5311/MC-2_Hero_Image_Web__44421.1702572108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>WS-MC-1 | Wet Sounds™ 4 Zone Bluetooth® Marine Media Center</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-1
+UPC:
+814820025026
+</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1242/5308/MC-1_Hero_Image_Web__34655.1702567424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>Sinister-SDX2 | Wet Sounds 2 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>$999.99</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+Sinister-SDX2
+UPC:
+814820024616
+</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1270/4142/Sinister_SDX2_Front__83389.1650295696.png?c=1</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>Sinister-SDX4 | Wet Sounds 4 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>$1,079.99</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+Sinister-SDX4
+UPC:
+814820024623
+</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1269/4148/Sinister_SDX4_Front__15417.1650295937.png?c=1</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>Sinister-SDX6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>$1,699.99</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+Sinister-SDX6
+UPC:
+814820024630
+</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1268/4155/Sinister_SDX6_Front__31215.1650296150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>Sinister-SDX2500 | Wet Sounds Class-D Monoblock Subwoofer Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>$1,899.99</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+Sinister-SDX2500
+UPC:
+814820025910
+</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1267/2384/1_SDX_2500__36161__26701.1637194846.png?c=1</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>SYN-DX2 | Wet Sounds 2 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>$679.99</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+SYN-DX2
+UPC:
+814820022506
+</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1266/2531/1_DX_2__47232__85619.1637194871.png?c=1</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>SYN-DX4 | Wet Sounds 4 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>$1,079.99</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+SYN-DX4
+UPC:
+814820022537
+</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1265/2544/1_DX_4__30904__39249.1637593872.png?c=1</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>SYN-DX2.3 HP | Wet Sounds 2 Channel High Power Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+SYN-DX2.3 HP
+UPC:
+814820024562
+</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1264/2536/1_DX_HP__89213__65593.1637194872.png?c=1</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>SYN-DX6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+SYN-DX6
+UPC:
+814820022568
+</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1263/2546/1_DX_6__09919__62939.1637194874.png?c=1</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>HTX-1 | Wet Sounds Class-D Monoblock Subwoofer Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-1
+UPC:
+814820022209
+</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1262/3437/1_HTX_1__66896.1642091392.png?c=1</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>HTX-2 | Wet Sounds 2 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-2
+UPC:
+814820022179
+</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1261/1579/1_HTX_2__29615__16659.1637194674.png?c=1</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>HTX-4 | Wet Sounds 4 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-4
+UPC:
+814820022155
+</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1260/1584/1_HTX_4__75666__26453.1637194675.png?c=1</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>HTX-6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-6
+UPC:
+814820022162
+</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1259/1589/1_HTX_6__73141__79749.1642096762.png?c=1</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>STX MICRO-1 | Wet Sounds Compact Chassis Class-D Monoblock Marine A</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-1
+UPC:
+814820023329
+</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1258/2520/Micro_STX_Hero__81706__61326.1637194869.png?c=1</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>STX MICRO-4 | Wet Sounds Compact Chassis Class-D 4-Ch Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>$439.99</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-4
+UPC:
+814820023336
+</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1257/2526/Micro_STX_Hero__17041__18108.1637194870.png?c=1</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>REVO 10 HP S4 V3 | Wet Sounds REVO Series 10-inch High-Power Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 HP S4 V3
+UPC:
+810042171763
+</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1703/5455/REVO_10_V3_Black_Subwoofer_Front_Right_View__01889.1709138503.png?c=1</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>REVO 10 FA S4 V3 | Wet Sounds REVO Series 10-inch Free-Air Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 FA S4 V3
+UPC:
+810042171787
+</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1685/5459/REVO_10_V3_Black_Subwoofer_Front_Right_View__98932.1709138599.png?c=1</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>ZERO 12 S4 XZ-W | Wet Sounds Zero Series™ 12-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with White XZ Grille</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 12 S4 XZ-W
+UPC:
+810042173033
+</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1628/5555/ZERO_12_White_Front_Right_View__41353.1709140271.png?c=1</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>ZERO 10 S4 XZ-W | Wet Sounds Zero Series™ 10-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with White XZ Grille</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 10 S4 XZ-W
+UPC:
+810042173026
+</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1627/5545/ZERO_10_White_Front_Right_View__26419.1709140155.png?c=1</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>ZERO 12 S4 XZ-B | Wet Sounds Zero Series™ 12-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with Black XZ Grille</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 12 S4 XZ-B
+UPC:
+810042172784
+</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1626/5562/ZERO_12_Black_Front_Right_View__17233.1709140318.png?c=1</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>ZERO 10 S4 XZ-B | Wet Sounds Zero Series™ 10-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with Black XZ Grille</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 10 S4 XZ-B
+UPC:
+810042172777
+</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1625/5550/ZERO_10_Black_Front_Right_View__68235.1709140211.png?c=1</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>RECON 10 FA-BG | Wet Sounds RECON™ Series 10-inch Free-Air Marine Subwoofer - 4Ω Black with XS Black Grille</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 10 FA-BG
+UPC:
+814820027372
+</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1461/5528/RECON_10_BG_Front_Right_View__28741.1709139490.png?c=1</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>RECON 10 FA-S | Wet Sounds RECON™ Series 10-inch Free-Air Marine Subwoofer - 4Ω Black with XS Silver Grille</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 10 FA-S
+UPC:
+814820027273
+</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1460/5531/RECON_10_XS_Front_Right_View__43611.1709139537.png?c=1</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>REVO 8 FA S4-W | Wet Sounds REVO Series 8-inch Free-Air Marine Subwoofer - 4Ω White</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA : REVO 8 FA S4-W
+UPC:
+814820024814
+</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1458/5442/REVO_8_FA_White_Subwoofer_Front_Right_View__82195.1709138078.png?c=1</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>REVO 12 FA S4-W V2 | Wet Sounds REVO Series 12-inch Free-Air Marine Subwoofer - 4Ω White</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>$319.99</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 FA S4-W V2
+UPC:
+814820027679
+</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1457/5485/REVO_12_FA_HP_White_Subwoofer_Front_Right_View__62198.1709138924.png?c=1</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>REVO 12 FA S2-W V2 | Wet Sounds REVO Series 12-inch Free-Air Marine Subwoofer - 2Ω White</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>$319.99</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 FA S2-W V2
+UPC:
+814820027655
+</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1456/5493/REVO_12_FA_HP_White_Subwoofer_Front_Right_View__15118.1709138983.png?c=1</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>REVO 12 FA S2-B V2 | Wet Sounds REVO Series 12-inch Free-Air Marine Subwoofer - 2Ω Black</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>$319.99</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 FA S2-B V2
+UPC:
+814820027648
+</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1455/5495/REVO_12_FA_HP_Black_Subwoofer_Front_Right_View__24966.1709139072.png?c=1</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>REVO 12 FA S4-B V2 | Wet Sounds REVO Series 12-inch Free-Air Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>$319.99</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 FA S4-B V2
+UPC:
+814820027662
+</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1454/5501/REVO_12_FA_HP_Black_Subwoofer_Front_Right_View__14078.1709139143.png?c=1</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>RECON 10 FA-XW-W | Wet Sounds RECON™ Series 10-inch Free-Air Marine Subwoofer - 4Ω White with XW White Grille</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 10 FA-XW-W
+UPC:
+814820027532
+</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1446/5537/RECON_10_XW_Front_Right_View__89105.1709139670.png?c=1</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>REVO 10 FA S2-B V2 | Wet Sounds REVO Series 10-inch Free-Air Marine Subwoofer - 2Ω Black</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 FA S2-B V2
+UPC:
+814820027587
+</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1441/5467/REVO_10_FA_HP_Black_Subwoofer_Front_Right_View__66469.1709138695.png?c=1</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>REVO 10 FA S2-W V2 | Wet Sounds REVO Series 10-inch Free-Air Marine Subwoofer - 2Ω White</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 FA S2-W V2
+UPC:
+814820027594
+</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1440/5472/REVO_10_FA_HP_White_Subwoofer_Front_Right_View__41986.1709138755.png?c=1</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>REVO 10 FA S4-W V2 | Wet Sounds REVO Series 10-inch Free-Air Marine Subwoofer - 4Ω White</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 FA S4-W V2
+UPC:
+814820027617
+</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1429/5480/REVO_10_FA_HP_White_Subwoofer_Front_Right_View__74671.1709138816.png?c=1</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>REVO 8 FA S4-B | Wet Sounds REVO Series 8-inch Free-Air Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA : REVO 8 FA S4-B
+UPC:
+814820024807
+</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1427/5447/REVO_8_FA_Black_Subwoofer_Front_Right_View__93660.1709138157.png?c=1</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>REVO 12 HP S4 V3 | Wet Sounds REVO Series 12-inch High-Power Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 HP S4 V3
+UPC:
+810042171794
+</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1294/5511/REVO_12_V3_Subwoofer_Front_Right__20953.1709139217.png?c=1</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>REVO 12 XXX V4-B | Wet Sounds REVO Series XXX 12-inch SPL Marine Subwoofer - Dual 2Ω Black</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>$999.99</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XXX V4-B
+UPC:
+814820022261
+</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1291/5517/REVO_XXX12_Subwoofer_Front_Right_View__84159.1709139387.png?c=1</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>REVO 15 XXX V4-B | Wet Sounds REVO Series XXX 15-inch SPL Marine Subwoofer - Dual 2Ω Black</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>$1,549.99</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 15 XXX V4-B
+UPC:
+814820022254
+</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1290/5521/REVO_XXX15_Subwoofer_Front_Right_View__42432.1709139422.png?c=1</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Revolution Series 5x7 HLCD With Surface Mountable Roto-Mold Enclosure + Grill - White</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 5X7 SM-W
+UPC:
+810042170018
+</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1564/2595/0_REV_5x7__08818__09844.1637194884.png?c=1</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Revolution Series 6x9 HLCD With Surface Mountable Roto-Mold Enclosure + Grill - Black</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>$849.99</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 6X9 SM-B
+UPC:
+814820023121
+</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1438/2600/1_6x9_SM_Black__24204__20541.1637194884.png?c=1</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Revolution Series 6x9 HLCD With Surface Mountable Roto-Mold Enclosure + Grill - White</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>$849.99</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 6X9 SM-W
+UPC:
+814820023138
+</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1437/2602/1_6x9_SM_White__22030__64737.1637194885.png?c=1</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>Wet Sounds REV 696 RS | Revolution Series 6 X 9 Inch EFG™ Pro-Axial™ Speaker</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 696 RS
+UPC:
+814820022896
+</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1333/2668/1_6x9_RS__72461__07501.1637194898.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ Shallow Mount 6.5" Ceiling Speakers</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>$269.99</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-SMC-65
+UPC:
+810042171114
+</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1589/4945/VS_SMC_65_Web__57267.1686758771.png?c=1</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>ADP REV HD X-W | Wet Sounds WHITE X Kit For REV HD Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV HD X-W
+UPC:
+810042172746
+</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1680/4860/REVHD_X_Mount_W_Back_Left__51149.1677095557.png?c=1</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>ADP REV HD X-B | Wet Sounds BLACK X Kit For REV HD Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV HD X-B
+UPC:
+810042172739
+</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1679/4859/REVHD_X_Mount_Back_Left__62192.1677095468.png?c=1</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>ADP Malibu G5-G  | Wet Sounds Brushed Tower Speaker Adapters For The Malibu G5 Tower</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G5-G
+UPC:
+810042171275
+</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1586/1503/1_Malibu_G5__12259__74117.1637194656.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>ADP NAU-FCTA  | Wet Sounds Brushed Tower Speaker Brackets For The 2019+ Nautique Flight Control Tower Actuated (FCTA)</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP NAU-FCTA
+UPC:
+814820029079
+</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1546/1509/1_Nautique_FLTA__78313__12581.1637194659.png?c=1</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>ADP TC3-SXM | Wet Sounds Stainless Steel Swivel Surface Mount (No Clamp) w/ Hardware</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-SXM
+UPC:
+853414005655
+</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1496/1560/1_TC3_SXM__75500__89888.1637194670.png?c=1</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>ADP NAUTIQUE G  | Wet Sounds Tower Speaker Brackets For The Upper Brackets For Nautique G Tower</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP NAUTIQUE G
+UPC:
+814820025811
+</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1436/1527/1_Nautique_G__82729__11690.1637194663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>ADP TC3-F-SILVER | Wet Sounds Silver Aluminum Clamp For Tube Diameter 1 7/8” To 3”</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-F-SILVER
+UPC:
+853414005624
+</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1432/1549/1_TC3_FC_SA__81562__43456.1637194668.png?c=1</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>ADP TC3-F | Wet Sounds Stainless Steel Fixed Position Clamp For Tube Diameter 1 7/8” To 3”</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-F
+UPC:
+853414005600
+</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1355/1547/1_TC3_FC__00488__91450.1637194666.png?c=1</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>ADP TC3-F MINI | Wet Sounds Stainless Steel Fixed Position Clamp For Tube Diameter 1” To 1 7/8”</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-F MINI
+UPC:
+853414005631
+</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1354/1548/1_TC3_FC_Mini__70229__76985.1637194667.png?c=1</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>ADP TC3-S | Wet Sounds Stainless Steel Swivel Clamp For Tube Diameter 1 7/8” To 3”</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-S
+UPC:
+853414005617
+</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1353/1553/0_TC3_SC__57230__35422.1637194668.png?c=1</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>ADP TC3-S MINI | Wet Sounds Stainless Steel Swivel Clamp For Tube Diameter 1” To 1 7/8”</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-S MINI
+UPC:
+853414005648
+</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1352/1557/1_Mini_Swivel_Clamp__77137__47956.1637194669.png?c=1</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>ADP ILLUSION DXT  | Wet Sounds REV 10 Tower Speaker Brackets For The Malibu X Tower Lower Mount</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>$129.99</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Illusion DXT
+UPC:
+814820020915
+</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1350/1476/1_Illusion_DXT__92533__35545.1637194651.png?c=1</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>ADP REV X-B | Wet Sounds BLACK X Kit For REV And ICON Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV X-B
+UPC:
+814820021042
+</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1349/1536/Black_X_Mount__86541__61693.1637194663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>ADP REV X-W | Wet Sounds WHITE X Kit For REV And ICON Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV X-W
+UPC:
+814820021059
+</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1348/1537/White_X_Mount__90066__12854.1637194664.png?c=1</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>ADP Gladiator-B | Wet Sounds Black Tower Speaker Brackets For The Centurion Gladiator Tower</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Gladiator-B
+UPC:
+814820020892
+</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1347/1468/1_Centurion_Gladiator_Black__82234__48144.1637194649.png?c=1</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>ADP GLADIATOR-P  | Wet Sounds POLISHED Tower Speaker Brackets For The Centurion Gladiator Brackets</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Gladiator-P
+UPC:
+814820020908
+</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1346/1472/1_Centurion_Gladiator_Polished__65776__54391.1637194650.png?c=1</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>ADP MALIBU G3 SINGLE-B  | Wet Sounds Black Tower Speaker Brackets For The Malibu G3 Single Speaker Mount</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G3 Single-B
+UPC:
+814820020977
+</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1345/1487/1_Malibu_G3_Single_Black__82146__64795.1637194654.png?c=1</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>ADP MALIBU G3 SINGLE-P  | Wet Sounds Silver Tower Speaker Brackets For The Malibu G3 Single Speaker Mount</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G3 Single-P
+UPC:
+814820020984
+</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1344/1495/1_Malibu_G3_Single__46289__10563.1637194656.png?c=1</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>ADP MC BRACKET-11  | Wet Sounds Brushed Tower Speaker Brackets For The Aluminum Mastercraft MC-11 Bracket</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP MC Bracket-11
+UPC:
+814820020991
+</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1343/1504/1_MC11__55068__77297.1637194657.png?c=1</t>
+        </is>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>ADP Nautique FC5-U  | Wet Sounds Tower Speaker Brackets For The Upper Brackets For Nautique FC5 Tower</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Nautique FC5-U
+UPC:
+814820021011
+</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1342/1520/1_Nautique_FC5_U__66384__59326.1637194661.png?c=1</t>
+        </is>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>ADP CENTURION MAXIMUS |Wet Sounds Black Tower Speaker Brackets For The Centurion Maximus Tower</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>$189.99</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP CENTURION MAXIMUS
+UPC:
+814820020861
+</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1341/1464/2_Centurion_Maximus__14356__62032.1637194648.png?c=1</t>
+        </is>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>ADP SUPRA-FxONE | Wet Sounds Supra FxONE Upper Tower Adapter Brackets W/ Bead Blast Finish</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP SUPRA-FxONE
+UPC:
+814820028102
+</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1340/1539/1_FxONE__81412__61611.1637194666.png?c=1</t>
+        </is>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>ADP NAUTIQUE FC5-L  | Wet Sounds Tower Speaker Brackets For The Lower Brackets For Nautique FC5 Tower</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Nautique FC5-L
+UPC:
+814820021004
+</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1339/1519/ADP-Nautique-FC5-L_MAIN-1__38608__44984.1637194660.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>ADP NAUTIQUE Z5 DROP 12  | Wet Sounds Nautique Drop Down Bracket For The Z5 Rack W/ 12 Inch Strut Tube</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Nautique Z5 Drop 12
+UPC:
+814820021028
+</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1338/1535/ADP-Naut-Z5-Drop-12_MAIN-1__81230__46666.1637194663.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>ADP MALIBU G3 DUAL-B  | Wet Sounds BLACK Tower Speaker Brackets For The Malibu G3 Dual Speaker Mount</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G3 Dual-B
+UPC:
+814820020939
+</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1337/1483/ADP-Malibu-G3-Dual-B_MAIN-1__64841__65072.1637194652.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XW-W GRILLE
+UPC:
+814820023435
+</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1677/4856/1_REVO_10_XWW_Grille__24247.1675358486.png?c=1</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 SW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 SW-B GRILLE
+UPC:
+814820023398
+</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1520/4591/1_REVO_12_SWB_Grille__89371.1666364087.png?c=1</t>
+        </is>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 SW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 SW-W GRILLE
+UPC:
+814820023404
+</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1519/4587/1_REVO_12_SWW_Grille__50214.1666364049.png?c=1</t>
+        </is>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-Black Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>$109.99</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-B-SS GRILLE
+UPC:
+814820022384
+</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1518/4597/1_REVO_12_XSBSS_Grille__83842.1666364127.png?c=1</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-Gunmetal Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>$109.99</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-G-SS GRILLE
+UPC:
+814820022377
+</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1517/4601/1_REVO_12_XSGSS_Grille__30565.1666364155.png?c=1</t>
+        </is>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-Silver Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-S GRILLE
+UPC:
+814820022360
+</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1516/4589/1_REVO_12_XSS_Grille__77253.1666364074.png?c=1</t>
+        </is>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-White Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>$109.99</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-W-SS GRILLE
+UPC:
+814820022353
+</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1515/4595/1_REVO_12_XSWSS_Grille__39058.1666364112.png?c=1</t>
+        </is>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XW-B GRILLE
+UPC:
+814820022346
+</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1514/4593/1_REVO_12_XWB_Grille__46551.1666364097.png?c=1</t>
+        </is>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XW-W GRILLE
+UPC:
+814820022278
+</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1513/4599/1_REVO_12_XWW_Grille__15735.1666364137.png?c=1</t>
+        </is>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XW-B GRILLE
+UPC:
+814820023428
+</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1511/4573/1_REVO_10_XWB_Grille__42960.1666363805.png?c=1</t>
+        </is>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XS-White Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>$84.99</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XS-W-SS GRILLE
+UPC:
+814820023411
+</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1510/4575/1_REVO_10_XSWSS_Grille__72598.1666363829.png?c=1</t>
+        </is>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XS-Silver Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XS-S GRILLE
+UPC:
+814820023466
+</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1509/4567/1_REVO_10_XSS_Grille__64207.1666363752.png?c=1</t>
+        </is>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XS-Gunmetal Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>$84.99</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XS-G-SS GRILLE
+UPC:
+814820023473
+</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1508/4571/1_REVO_10_XSGSS_Grille__26329.1666363793.png?c=1</t>
+        </is>
+      </c>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 SW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 SW-W GRILLE
+UPC:
+814820023497
+</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1506/4565/1_REVO_10_SWW_Grille__40203.1666363732.png?c=1</t>
+        </is>
+      </c>
+      <c r="E748" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 SW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 SW-B GRILLE
+UPC:
+814820023503
+</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1505/4569/1_REVO_10_SWB_Grille__02082.1666363765.png?c=1</t>
+        </is>
+      </c>
+      <c r="E749" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-Black Stainless Steel FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>$64.99</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-B-SS GRILLE
+UPC:
+814820024852
+</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1504/4561/1_REVO_8_XSBSS_Grille__79541.1666363683.png?c=1</t>
+        </is>
+      </c>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-Gunmetal Stainless Steel FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>$64.99</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-G-SS GRILLE
+UPC:
+814820024876
+</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1503/4562/1_REVO_8_XSGSS_Grille__14722.1666363693.png?c=1</t>
+        </is>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-White Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>$64.99</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-W-SS GRILLE
+UPC:
+814820024869
+</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1502/4557/1_REVO_8_XSWSS_Grille__28943.1666363543.png?c=1</t>
+        </is>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-Silver FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-S GRILLE
+UPC:
+814820024821
+</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1501/4555/1_REVO_8_XSS_Grille__95421.1666363515.png?c=1</t>
+        </is>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XW-Black FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XW-B GRILLE
+UPC:
+814820024838
+</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1500/4556/1_REVO_8_XWB_Grille__44024.1666363530.png?c=1</t>
+        </is>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XW-White FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XW-W GRILLE
+UPC:
+814820024845
+</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1499/4559/1_REVO_8_XWW_Grille__01114.1666363562.png?c=1</t>
+        </is>
+      </c>
+      <c r="E755" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 SW-White FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA SW-W GRILLE
+UPC:
+814820024890
+</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1498/4558/1_REVO_8_SWW_Grille__13637.1666363553.png?c=1</t>
+        </is>
+      </c>
+      <c r="E756" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 SW-Black FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA SW-B GRILLE
+UPC:
+814820024883
+</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1497/4560/1_REVO_8_SWB_Grille__93630.1666363571.png?c=1</t>
+        </is>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>REV 12 HD XS-W GRILLE | Wet Sounds REV 12 HD XS Grille White</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>$240.00</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XS-W GRILLE
+UPC:
+810042172609
+</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1665/4701/REV_10_HD_XS_W_Grille___42087.1668784791.1280.1280__32929.1668786228.png?c=1</t>
+        </is>
+      </c>
+      <c r="E758" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>REV 12 HD XW-B GRILLE | Wet Sounds REV 12 HD XW Grille Black</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XW-B GRILLE
+UPC:
+810042172616
+</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1664/4700/REV_10_HD_XW_B_Grille___44804.1668784874.1280.1280__10630.1668786179.png?c=1</t>
+        </is>
+      </c>
+      <c r="E759" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>REV 12 HD XW-W GRILLE | Wet Sounds REV 12 HD XW Grille White</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XW-W GRILLE
+UPC:
+810042172623
+</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1663/4699/REV_10_HD_XW_W_Grille___19216.1668784926.1280.1280__46160.1668786094.png?c=1</t>
+        </is>
+      </c>
+      <c r="E760" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>REV 12 HD XZ-W GRILLE | Wet Sounds REV 12 HD XZ Grille White</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-W GRILLE
+UPC:
+810042172470
+</t>
+        </is>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1662/4698/REV_10_HD_XZ_W_Grille___99703.1668785014.1280.1280__09363.1668786030.png?c=1</t>
+        </is>
+      </c>
+      <c r="E761" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>REV 12 HD XZ-B GRILLE | Wet Sounds REV 12 HD XZ Grille Black</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-B GRILLE
+UPC:
+810042172494
+</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1661/4697/REV_10_HD_XZ_B_Grille___55922.1668785058.1280.1280__50203.1668785972.png?c=1</t>
+        </is>
+      </c>
+      <c r="E762" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>REV 12 HD XS-B GRILLE | Wet Sounds REV 12 HD XS Grille Black</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>$240.00</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XS-B GRILLE
+UPC:
+810042172593
+</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1660/4696/REV_10_HD_XS_B_Grille___09337.1668784735.1280.1280__46044.1668785860.png?c=1</t>
+        </is>
+      </c>
+      <c r="E763" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>REV 10 HD XZ-B GRILLE | Wet Sounds REV 10 HD XZ Grille Black</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-B GRILLE
+UPC:
+810042172500
+</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1659/4695/REV_10_HD_XZ_B_Grille___55922.1668785058.png?c=1</t>
+        </is>
+      </c>
+      <c r="E764" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>REV 10 HD XZ-W GRILLE | Wet Sounds REV 10 HD XZ Grille White</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-W GRILLE
+UPC:
+810042172487
+</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1658/4694/REV_10_HD_XZ_W_Grille___99703.1668785014.png?c=1</t>
+        </is>
+      </c>
+      <c r="E765" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>REV 10 HD XW-W GRILLE | Wet Sounds REV 10 HD XW Grille White</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XW-W GRILLE
+UPC:
+810042172586
+</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1657/4693/REV_10_HD_XW_W_Grille___19216.1668784926.png?c=1</t>
+        </is>
+      </c>
+      <c r="E766" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>REV 10 HD XW-B GRILLE | Wet Sounds REV 10 HD XW Grille Black</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XW-B GRILLE
+UPC:
+810042172579
+</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1656/4692/REV_10_HD_XW_B_Grille___44804.1668784874.png?c=1</t>
+        </is>
+      </c>
+      <c r="E767" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>REV 10 HD XS-W GRILLE | Wet Sounds REV 10 HD XS Grille White</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>$190.00</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XS-W GRILLE
+UPC:
+810042172562
+</t>
+        </is>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1655/4691/REV_10_HD_XS_W_Grille___42087.1668784791.png?c=1</t>
+        </is>
+      </c>
+      <c r="E768" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>REV 10 HD XS-B GRILLE | Wet Sounds REV 10 HD XS Grille Black</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>$190.00</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XS-B GRILLE
+UPC:
+810042172555
+</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1642/4690/REV_10_HD_XS_B_Grille___09337.1668784735.png?c=1</t>
+        </is>
+      </c>
+      <c r="E769" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>Revo 12 PSE | Wet Sounds Passive Radiator Subwoofer Enclosure</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>$1,499.95 - $1,579.95</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 PSE
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1527/2054/12_PSE_XS_B__74684__29674.1637194774.png?c=1</t>
+        </is>
+      </c>
+      <c r="E770" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>STEALTH AS-8 | Wet Sounds™ 8-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-8
+UPC:
+814820024791
+</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1360/5740/AS-8_Front_Right__03743.1713207541.png?c=1</t>
+        </is>
+      </c>
+      <c r="E771" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>STEALTH AS-6 | Wet Sounds™ 6.5-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-6
+UPC:
+814820023312
+</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1293/5731/AS-6_Front_Right__07941.1713207502.png?c=1</t>
+        </is>
+      </c>
+      <c r="E772" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>STEALTH AS-10 | Wet Sounds™ 10-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-10
+UPC:
+814820023251
+</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1292/5748/AS-10_Front_Right__50395.1713207575.png?c=1</t>
+        </is>
+      </c>
+      <c r="E773" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>REVO 8 XW-W V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 XW-W V3
+UPC:
+810042171992
+</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1702/5631/REVO_8_XW_W_Hero__32333.1709313500.png?c=1</t>
+        </is>
+      </c>
+      <c r="E774" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>AR-5 Defender Max | Wet Sounds 5-Speaker Defender Roof Audio System</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>$3,999.99</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+AR-5 Defender Max
+UPC:
+810042176805
+</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1699/5295/AR-5_Defender_Max_Audio_Roof_Front_View_R_Web__25866.1701290006.png?c=1</t>
+        </is>
+      </c>
+      <c r="E775" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>ZERO 12 ENC | Wet Sounds™ ZERO 12-inch Rotomold Enclosure</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>$369.99</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 12 ENC
+UPC:
+810042176447
+</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1694/5811/ZERO_12_ENC_Web_Hero_Solo__24519.1713280845.png?c=1</t>
+        </is>
+      </c>
+      <c r="E776" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>AR-AMP 2CH | Wet Sounds 2-CH Amplifier for Ranger Roof Audio System</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+AR-AMP 2CH
+UPC:
+810042173866
+</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1654/5306/AR-2CH_Front_View_Web__91025.1701293245.png?c=1</t>
+        </is>
+      </c>
+      <c r="E777" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>STEALTH XT 12-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 12-B
+UPC:
+810042173095
+</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1653/5275/Stealth_XT12_Hero__64541.1701045828.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E778" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>STEALTH XT 8-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 8-B
+UPC:
+810042173101
+</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1652/5276/Stealth_XT8_Hero__73552.1701045835.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E779" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>STEALTH XT 6-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 6-B
+UPC:
+810042173088
+</t>
+        </is>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1651/5277/Stealth_XT6_Hero__88966.1701045845.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E780" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>AR-5 Ranger Crew | Wet Sounds 5-Speaker Ranger Roof Audio System</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>$3,999.99</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+AR-5 Ranger Crew
+UPC:
+810042173651
+</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1643/5304/AR-5_Ranger_Crew_Audio_Roof_Front_View_R_Web__75719.1701290880.png?c=1</t>
+        </is>
+      </c>
+      <c r="E781" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>REV8™ White V2 | Wet Sounds Revolution Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1640/4375/REV8_W_Web_Hero__78931.1654888304.png?c=1</t>
+        </is>
+      </c>
+      <c r="E782" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>REV8™ Black V2 | Wet Sounds Revolution Series 8" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1639/4369/REV8_B_Web_Hero__69496.1646949336.1280.1280__81274.1654887818.png?c=1</t>
+        </is>
+      </c>
+      <c r="E783" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>REV10™ White V2 | Wet Sounds Revolution Series 10" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1638/4359/REV10_W_Web_Hero__38956.1654887066.png?c=1</t>
+        </is>
+      </c>
+      <c r="E784" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>REV10™ Black V2 | Wet Sounds Revolution Series 10" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1637/4351/REV10_B_Web_Hero__57402.1647007395.1280.1280__29553.1654886710.png?c=1</t>
+        </is>
+      </c>
+      <c r="E785" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>REV 410 Black V2 | Wet Sounds Revolution Series Dual 10" Black Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1636/4345/REV410_B_X_Web_Front___24105.1654881808.png?c=1</t>
+        </is>
+      </c>
+      <c r="E786" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>REV 410 White V2 | Wet Sounds Revolution Series Dual 10" White Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1635/4342/REV410_W_X_Web_Front___65923.1647007018.1280.1280__51826.1654881737.png?c=1</t>
+        </is>
+      </c>
+      <c r="E787" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>ICON8™ White V2  | Wet Sounds ICON Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>$599.99 - $1,349.99</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ICON 8-W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1634/4328/ICON8_W_Web_Hero__40196.1654880484.png?c=1</t>
+        </is>
+      </c>
+      <c r="E788" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-BG | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-BG
+UPC:
+810042171824
+</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1629/4183/RECON_6_BG_Web_Hero__17738.1651583337.png?c=1</t>
+        </is>
+      </c>
+      <c r="E789" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-W | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-W
+UPC:
+810042173019
+</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1624/5377/ZERO_8_W_Hero_Web__27066.1708447150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E790" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-B | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-B
+UPC:
+810042172760
+</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1623/5372/ZERO_8_B_Web_Hero__46095.1708447055.png?c=1</t>
+        </is>
+      </c>
+      <c r="E791" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-W | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-W
+UPC:
+810042173002
+</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1622/5353/ZERO_6_W_Web_Hero__48185.1708446825.png?c=1</t>
+        </is>
+      </c>
+      <c r="E792" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-B | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-B
+UPC:
+810042172753
+</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1621/5363/ZERO_6_B_Web_Hero__23189.1708446915.png?c=1</t>
+        </is>
+      </c>
+      <c r="E793" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>RECON 8-BG RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-BG RGB
+UPC:
+810042171817
+</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1617/5383/RECON_8-XS_Front_Right_Hero_G__04334.1708959945.png?c=1</t>
+        </is>
+      </c>
+      <c r="E794" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>RECON 6-BG RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG RGB
+UPC:
+810042171800
+</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1616/5415/RECON_6-XS_Front_Hero_G__11887.1708962166.png?c=1</t>
+        </is>
+      </c>
+      <c r="E795" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:24:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>WWX-DZ-BT | Wet Sounds™ Dual Zone Bluetooth Controller</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WWX-DZ-BT
+UPC:
+810042170803
+</t>
+        </is>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1565/4543/DZ_BT_Front__15731.1666361204.png?c=1</t>
+        </is>
+      </c>
+      <c r="E796" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>Stealth HD Remote replacement</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+PT-STEALTH HD REMOTE
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1533/4196/Stealth_UHD_Remote_Front__77941.1652811658.png?c=1</t>
+        </is>
+      </c>
+      <c r="E797" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>Revo 12 PSE | Wet Sounds Passive Radiator Subwoofer Enclosure</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>$1,499.95 - $1,579.95</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 PSE
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1527/2054/12_PSE_XS_B__74684__29674.1637194774.png?c=1</t>
+        </is>
+      </c>
+      <c r="E798" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>STEALTH-10 CORE-W | Wet Sounds STEALTH CORE 10 Speaker Non-Amplified Universal Soundbar</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-10 CORE-W
+UPC:
+814820023145
+</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1482/3363/1_Stealth_10_Core_W_Web__90688.1642004847.png?c=1</t>
+        </is>
+      </c>
+      <c r="E799" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>STEALTH-10 ULTRA HD-W | Wet Sounds All-In-One Amplified Bluetooth®  Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-10 ULTRA HD-W
+UPC:
+814820023282
+</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1480/3408/1_Stealth_10_UHD_W__97540.1642008122.png?c=1</t>
+        </is>
+      </c>
+      <c r="E800" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>STEALTH-6 ULTRA HD-W | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-6 ULTRA HD-W
+UPC:
+814820023305
+</t>
+        </is>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1479/3412/1_Stealth_6_UHD_W__23067.1642009031.png?c=1</t>
+        </is>
+      </c>
+      <c r="E801" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-W S2
+UPC:
+814820024722
+</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1459/5574/REVO_CX10_SW_W_Hero__01549.1709229069.png?c=1</t>
+        </is>
+      </c>
+      <c r="E802" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>REVO 8-XSB-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSB-SS
+UPC:
+814820023046
+</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1453/5646/REVO_8_XS_B_SS_Hero__24569.1709314439.png?c=1</t>
+        </is>
+      </c>
+      <c r="E803" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>REVO 8-XSG-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSG-SS
+UPC:
+814820023206
+</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1452/5655/REVO_8_XS_G_SS_Hero__58795.1709314920.png?c=1</t>
+        </is>
+      </c>
+      <c r="E804" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>REVO 8-XSW-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSW-SS
+UPC:
+814820022421
+</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1451/5659/REVO_8_XS_W_SS_Hero__40898.1709324600.png?c=1</t>
+        </is>
+      </c>
+      <c r="E805" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>REVO 8-XSS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSS
+UPC:
+814820023213
+</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1450/5617/REVO_8_XS_S_Hero__59990.1709312658.png?c=1</t>
+        </is>
+      </c>
+      <c r="E806" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>REVO 8 SW-B V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 SW-B V3
+UPC:
+810042173064
+</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1449/5624/REVO_8_SW_B_Hero__54808.1709313038.png?c=1</t>
+        </is>
+      </c>
+      <c r="E807" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>REVO 8-SWW | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-SWW
+UPC:
+814820022322
+</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1448/5667/REVO_8_SW_W_Hero__17640.1709324663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E808" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>REVO 8-XWB | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XWB
+UPC:
+814820022339
+</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1447/5637/REVO_8_XW_B_Hero__85483.1709313935.png?c=1</t>
+        </is>
+      </c>
+      <c r="E809" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W RGB
+UPC:
+814820027518
+</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1445/5419/RECON_6-XS_Front_Hero_G__57907.1708962243.png?c=1</t>
+        </is>
+      </c>
+      <c r="E810" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>RECON 6-S RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S RGB
+UPC:
+814820027310
+</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1444/5405/RECON_6-XS_Hero_G__00191.1708962100.png?c=1</t>
+        </is>
+      </c>
+      <c r="E811" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>RECON 8 XW-W RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8 XW-W RGB
+UPC:
+814820027525
+</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1443/5393/RECON_8-XS_Front_Right_Hero_G__13110.1708960108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E812" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>RECON 8-S RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-S RGB
+UPC:
+814820027334
+</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1442/5388/RECON_8-XS_Front_Right_Hero_G__30821.1708960025.png?c=1</t>
+        </is>
+      </c>
+      <c r="E813" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>RECON 5-S | RECON™ Series 5.25-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 5-S
+UPC:
+814820027549
+</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1439/5403/RECON_5-XS_Hero__02225.1708961993.png?c=1</t>
+        </is>
+      </c>
+      <c r="E814" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.5 | Wet Sounds Stealth Clamp For 1.5" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.5
+UPC:
+853414005358
+</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1367/2414/1_1.50_RND_Clamps__21455__02143.1637194850.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E815" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.75 | Wet Sounds Stealth Clamp For 1.75" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.75
+UPC:
+853414005365
+</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1366/2417/1_1.75_RND_Clamps__59114__19242.1637194851.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E816" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ .75 | Wet Sounds Stealth Clamp For .75" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ .75
+UPC:
+853414005372
+</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1365/2427/1_0.75_Square_Clamps__66224__70772.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E817" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.0 | Wet Sounds Stealth Clamp For 1" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.0
+UPC:
+853414005389
+</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1364/2430/1_1.0_Square_Clamps__67269__49843.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E818" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.25 | Wet Sounds Stealth Clamp For 1.25" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.25
+UPC:
+853414005396
+</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1363/2433/1_1.25_Square_Clamps__83205__21949.1637194854.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E819" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 2.0 T | Wet Sounds Stealth Clamp For 2" Tube</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>$42.99</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 2.0 T
+UPC:
+810042172333
+</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1362/2420/1_2.0_RND_Clamps__29986__47318.1680276146.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E820" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>ST-ADP-SLIDER BRACKET | Wet Sounds Stealth Slider Bracket For STEALTH 6 &amp; STEALTH 10 Soundbars</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>$49.99</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SLIDER BRACKET
+UPC:
+853414005891
+</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1361/2423/1_Slider_Brackets__70189__99738.1637194852.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E821" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>STEALTH AS-8 | Wet Sounds™ 8-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-8
+UPC:
+814820024791
+</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1360/5740/AS-8_Front_Right__03743.1713207541.png?c=1</t>
+        </is>
+      </c>
+      <c r="E822" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>STEALTH-6 SURGE-B | Wet Sounds STEALTH SURGE 6 Speaker Amplified Universal Soundbar</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-6 SURGE-B
+UPC:
+814820024548
+</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1359/3378/1_Stealth_6_Surge_B_Web__61174.1642006568.png?c=1</t>
+        </is>
+      </c>
+      <c r="E823" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr"/>
+      <c r="B824" t="inlineStr"/>
+      <c r="C824" t="inlineStr"/>
+      <c r="D824" t="inlineStr"/>
+      <c r="E824" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-B | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-B
+UPC:
+814820027457
+</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1332/4083/RECON_6_S_Web_Hero__43958.1647027848.png?c=1</t>
+        </is>
+      </c>
+      <c r="E825" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-W | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-W
+UPC:
+814820027464
+</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1331/4080/RECON_6_XW_Web_Hero__39058.1647027796.png?c=1</t>
+        </is>
+      </c>
+      <c r="E826" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>STEALTH AS-6 | Wet Sounds™ 6.5-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-6
+UPC:
+814820023312
+</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1293/5731/AS-6_Front_Right__07941.1713207502.png?c=1</t>
+        </is>
+      </c>
+      <c r="E827" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>STEALTH AS-10 | Wet Sounds™ 10-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-10
+UPC:
+814820023251
+</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1292/5748/AS-10_Front_Right__50395.1713207575.png?c=1</t>
+        </is>
+      </c>
+      <c r="E828" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>RECON 6-S | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S
+UPC:
+814820027303
+</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1289/5427/RECON_6-XS_Hero__59634.1708962364.png?c=1</t>
+        </is>
+      </c>
+      <c r="E829" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>RECON 6-BG | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black Grilles</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG
+UPC:
+814820027501
+</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1288/5432/RECON_6-XS_Front_Hero__48179.1708962424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E830" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White Grilles</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W
+UPC:
+814820027624
+</t>
+        </is>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1287/5438/RECON_6-XS_Front_Hero__59396.1708962477.png?c=1</t>
+        </is>
+      </c>
+      <c r="E831" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>REVO 6-XWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XWW
+UPC:
+814820023053
+</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1286/5669/REVO_6_XW_W_Hero__12806.1709581449.png?c=1</t>
+        </is>
+      </c>
+      <c r="E832" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>REVO 6-XSW-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSW-SS
+UPC:
+814820023060
+</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1285/5677/REVO_6_XS_W_SS_Hero__51031.1709581486.png?c=1</t>
+        </is>
+      </c>
+      <c r="E833" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>REVO 6-SWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWW
+UPC:
+814820022292
+</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1284/5683/REVO_6_SW_W_Hero__76882.1709581516.png?c=1</t>
+        </is>
+      </c>
+      <c r="E834" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr"/>
+      <c r="B835" t="inlineStr"/>
+      <c r="C835" t="inlineStr"/>
+      <c r="D835" t="inlineStr"/>
+      <c r="E835" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>REVO 6-XSG-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSG-SS
+UPC:
+814820023176
+</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1282/5693/REVO_6_XS_G_SS_Hero__95565.1709581601.png?c=1</t>
+        </is>
+      </c>
+      <c r="E836" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr"/>
+      <c r="B837" t="inlineStr"/>
+      <c r="C837" t="inlineStr"/>
+      <c r="D837" t="inlineStr"/>
+      <c r="E837" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>REVO 6 XS-B-SS V3 | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 XS-B-SS V3
+UPC:
+810042170148
+</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1280/5715/REVO_6_XS_B_SS_Hero__67615.1709581844.png?c=1</t>
+        </is>
+      </c>
+      <c r="E838" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>REVO 6-SWB | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWB
+UPC:
+814820022308
+</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1279/5709/REVO_6_SW_B_Hero__22160.1709581813.png?c=1</t>
+        </is>
+      </c>
+      <c r="E839" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-B S2
+UPC:
+814820024715
+</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1277/5571/REVO_CX10_SW_B_Hero__55586.1709151911.png?c=1</t>
+        </is>
+      </c>
+      <c r="E840" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-S S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-S S2
+UPC:
+814820024760
+</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1276/5588/REVO_CX10_XS_S_Hero__06379.1709231959.png?c=1</t>
+        </is>
+      </c>
+      <c r="E841" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-B S2
+UPC:
+814820024777
+</t>
+        </is>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1275/5601/REVO_CX10_XW_B_Hero__80563.1709232713.png?c=1</t>
+        </is>
+      </c>
+      <c r="E842" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-W S2
+UPC:
+814820024784
+</t>
+        </is>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1274/5606/REVO_CX10_XW_W_Hero__14177.1709237050.png?c=1</t>
+        </is>
+      </c>
+      <c r="E843" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-B-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-B-SS S2
+UPC:
+814820024739
+</t>
+        </is>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1273/5594/REVO_CX10_XS_B_SS_Hero__29022.1709232385.png?c=1</t>
+        </is>
+      </c>
+      <c r="E844" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-G-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-G-SS S2
+UPC:
+814820024753
+</t>
+        </is>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1272/5580/REVO_CX10_XS_G_SS_Hero__23286.1709230163.png?c=1</t>
+        </is>
+      </c>
+      <c r="E845" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-W-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-W-SS S2
+UPC:
+814820024746
+</t>
+        </is>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1271/5610/REVO_CX10_XS_W_SS_Hero__86437.1709237352.png?c=1</t>
+        </is>
+      </c>
+      <c r="E846" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>HTX-1 | Wet Sounds Class-D Monoblock Subwoofer Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-1
+UPC:
+814820022209
+</t>
+        </is>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1262/3437/1_HTX_1__66896.1642091392.png?c=1</t>
+        </is>
+      </c>
+      <c r="E847" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>HTX-2 | Wet Sounds 2 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-2
+UPC:
+814820022179
+</t>
+        </is>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1261/1579/1_HTX_2__29615__16659.1637194674.png?c=1</t>
+        </is>
+      </c>
+      <c r="E848" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>HTX-4 | Wet Sounds 4 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-4
+UPC:
+814820022155
+</t>
+        </is>
+      </c>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1260/1584/1_HTX_4__75666__26453.1637194675.png?c=1</t>
+        </is>
+      </c>
+      <c r="E849" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>HTX-6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-6
+UPC:
+814820022162
+</t>
+        </is>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1259/1589/1_HTX_6__73141__79749.1642096762.png?c=1</t>
+        </is>
+      </c>
+      <c r="E850" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>STX MICRO-1 | Wet Sounds Compact Chassis Class-D Monoblock Marine A</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-1
+UPC:
+814820023329
+</t>
+        </is>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1258/2520/Micro_STX_Hero__81706__61326.1637194869.png?c=1</t>
+        </is>
+      </c>
+      <c r="E851" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>STX MICRO-4 | Wet Sounds Compact Chassis Class-D 4-Ch Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>$439.99</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-4
+UPC:
+814820023336
+</t>
+        </is>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1257/2526/Micro_STX_Hero__17041__18108.1637194870.png?c=1</t>
+        </is>
+      </c>
+      <c r="E852" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>REVO 8 XW-W V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 XW-W V3
+UPC:
+810042171992
+</t>
+        </is>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1702/5631/REVO_8_XW_W_Hero__32333.1709313500.png?c=1</t>
+        </is>
+      </c>
+      <c r="E853" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>STEALTH XT 12-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 12-B
+UPC:
+810042173095
+</t>
+        </is>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1653/5275/Stealth_XT12_Hero__64541.1701045828.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E854" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>STEALTH XT 8-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 8-B
+UPC:
+810042173101
+</t>
+        </is>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1652/5276/Stealth_XT8_Hero__73552.1701045835.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E855" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>STEALTH XT 6-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 6-B
+UPC:
+810042173088
+</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1651/5277/Stealth_XT6_Hero__88966.1701045845.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E856" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-W | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-W
+UPC:
+810042173019
+</t>
+        </is>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1624/5377/ZERO_8_W_Hero_Web__27066.1708447150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E857" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-B | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-B
+UPC:
+810042172760
+</t>
+        </is>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1623/5372/ZERO_8_B_Web_Hero__46095.1708447055.png?c=1</t>
+        </is>
+      </c>
+      <c r="E858" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-W | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-W
+UPC:
+810042173002
+</t>
+        </is>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1622/5353/ZERO_6_W_Web_Hero__48185.1708446825.png?c=1</t>
+        </is>
+      </c>
+      <c r="E859" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-B | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-B
+UPC:
+810042172753
+</t>
+        </is>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1621/5363/ZERO_6_B_Web_Hero__23189.1708446915.png?c=1</t>
+        </is>
+      </c>
+      <c r="E860" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>RECON 8-BG RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-BG RGB
+UPC:
+810042171817
+</t>
+        </is>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1617/5383/RECON_8-XS_Front_Right_Hero_G__04334.1708959945.png?c=1</t>
+        </is>
+      </c>
+      <c r="E861" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>RECON 6-BG RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG RGB
+UPC:
+810042171800
+</t>
+        </is>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1616/5415/RECON_6-XS_Front_Hero_G__11887.1708962166.png?c=1</t>
+        </is>
+      </c>
+      <c r="E862" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>GC-AMP-KIT  | Wet Sounds Golf Cart Amp Wiring Kit for STX Micro-4</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>$89.99</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+GC-AMP-KIT
+UPC:
+810042171589
+</t>
+        </is>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1605/1569/GC-AMP-KIT__17000__26134.1637194671.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E863" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>GC-H4S | Wet Sounds Golf Cart Audio System Harness</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>$149.99</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+GC-H4S
+UPC:
+810042171299
+</t>
+        </is>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1597/1571/Golf_Cart_Harness_3__59544__36842.1637194672.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E864" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>REVO 8-XSB-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSB-SS
+UPC:
+814820023046
+</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1453/5646/REVO_8_XS_B_SS_Hero__24569.1709314439.png?c=1</t>
+        </is>
+      </c>
+      <c r="E865" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>REVO 8-XSG-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSG-SS
+UPC:
+814820023206
+</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1452/5655/REVO_8_XS_G_SS_Hero__58795.1709314920.png?c=1</t>
+        </is>
+      </c>
+      <c r="E866" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>REVO 8-XSW-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSW-SS
+UPC:
+814820022421
+</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1451/5659/REVO_8_XS_W_SS_Hero__40898.1709324600.png?c=1</t>
+        </is>
+      </c>
+      <c r="E867" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>REVO 8-XSS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSS
+UPC:
+814820023213
+</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1450/5617/REVO_8_XS_S_Hero__59990.1709312658.png?c=1</t>
+        </is>
+      </c>
+      <c r="E868" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>REVO 8 SW-B V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 SW-B V3
+UPC:
+810042173064
+</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1449/5624/REVO_8_SW_B_Hero__54808.1709313038.png?c=1</t>
+        </is>
+      </c>
+      <c r="E869" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>REVO 8-SWW | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-SWW
+UPC:
+814820022322
+</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1448/5667/REVO_8_SW_W_Hero__17640.1709324663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E870" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>REVO 8-XWB | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XWB
+UPC:
+814820022339
+</t>
+        </is>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1447/5637/REVO_8_XW_B_Hero__85483.1709313935.png?c=1</t>
+        </is>
+      </c>
+      <c r="E871" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W RGB
+UPC:
+814820027518
+</t>
+        </is>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1445/5419/RECON_6-XS_Front_Hero_G__57907.1708962243.png?c=1</t>
+        </is>
+      </c>
+      <c r="E872" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>RECON 6-S RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S RGB
+UPC:
+814820027310
+</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1444/5405/RECON_6-XS_Hero_G__00191.1708962100.png?c=1</t>
+        </is>
+      </c>
+      <c r="E873" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>RECON 8 XW-W RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8 XW-W RGB
+UPC:
+814820027525
+</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1443/5393/RECON_8-XS_Front_Right_Hero_G__13110.1708960108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E874" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>RECON 8-S RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-S RGB
+UPC:
+814820027334
+</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1442/5388/RECON_8-XS_Front_Right_Hero_G__30821.1708960025.png?c=1</t>
+        </is>
+      </c>
+      <c r="E875" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>RECON 5-S | RECON™ Series 5.25-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 5-S
+UPC:
+814820027549
+</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1439/5403/RECON_5-XS_Hero__02225.1708961993.png?c=1</t>
+        </is>
+      </c>
+      <c r="E876" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.5 | Wet Sounds Stealth Clamp For 1.5" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.5
+UPC:
+853414005358
+</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1367/2414/1_1.50_RND_Clamps__21455__02143.1637194850.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E877" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.75 | Wet Sounds Stealth Clamp For 1.75" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.75
+UPC:
+853414005365
+</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1366/2417/1_1.75_RND_Clamps__59114__19242.1637194851.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E878" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ .75 | Wet Sounds Stealth Clamp For .75" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ .75
+UPC:
+853414005372
+</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1365/2427/1_0.75_Square_Clamps__66224__70772.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E879" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.0 | Wet Sounds Stealth Clamp For 1" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.0
+UPC:
+853414005389
+</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1364/2430/1_1.0_Square_Clamps__67269__49843.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E880" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.25 | Wet Sounds Stealth Clamp For 1.25" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.25
+UPC:
+853414005396
+</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1363/2433/1_1.25_Square_Clamps__83205__21949.1637194854.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E881" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 2.0 T | Wet Sounds Stealth Clamp For 2" Tube</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>$42.99</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 2.0 T
+UPC:
+810042172333
+</t>
+        </is>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1362/2420/1_2.0_RND_Clamps__29986__47318.1680276146.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E882" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>ST-ADP-SLIDER BRACKET | Wet Sounds Stealth Slider Bracket For STEALTH 6 &amp; STEALTH 10 Soundbars</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>$49.99</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SLIDER BRACKET
+UPC:
+853414005891
+</t>
+        </is>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1361/2423/1_Slider_Brackets__70189__99738.1637194852.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E883" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>STEALTH AS-8 | Wet Sounds™ 8-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-8
+UPC:
+814820024791
+</t>
+        </is>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1360/5740/AS-8_Front_Right__03743.1713207541.png?c=1</t>
+        </is>
+      </c>
+      <c r="E884" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:25:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>STEALTH AS-6 | Wet Sounds™ 6.5-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-6
+UPC:
+814820023312
+</t>
+        </is>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1293/5731/AS-6_Front_Right__07941.1713207502.png?c=1</t>
+        </is>
+      </c>
+      <c r="E885" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:26:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>STEALTH AS-10 | Wet Sounds™ 10-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-10
+UPC:
+814820023251
+</t>
+        </is>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1292/5748/AS-10_Front_Right__50395.1713207575.png?c=1</t>
+        </is>
+      </c>
+      <c r="E886" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:26:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>RECON 6-S | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S
+UPC:
+814820027303
+</t>
+        </is>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1289/5427/RECON_6-XS_Hero__59634.1708962364.png?c=1</t>
+        </is>
+      </c>
+      <c r="E887" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:26:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>RECON 6-BG | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black Grilles</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG
+UPC:
+814820027501
+</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1288/5432/RECON_6-XS_Front_Hero__48179.1708962424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E888" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:26:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White Grilles</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W
+UPC:
+814820027624
+</t>
+        </is>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1287/5438/RECON_6-XS_Front_Hero__59396.1708962477.png?c=1</t>
+        </is>
+      </c>
+      <c r="E889" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:26:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>REVO 6-XWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XWW
+UPC:
+814820023053
+</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1286/5669/REVO_6_XW_W_Hero__12806.1709581449.png?c=1</t>
+        </is>
+      </c>
+      <c r="E890" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:26:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>REVO 6-XSW-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSW-SS
+UPC:
+814820023060
+</t>
+        </is>
+      </c>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1285/5677/REVO_6_XS_W_SS_Hero__51031.1709581486.png?c=1</t>
+        </is>
+      </c>
+      <c r="E891" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:26:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>REVO 6-SWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWW
+UPC:
+814820022292
+</t>
+        </is>
+      </c>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1284/5683/REVO_6_SW_W_Hero__76882.1709581516.png?c=1</t>
+        </is>
+      </c>
+      <c r="E892" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:26:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr"/>
+      <c r="B893" t="inlineStr"/>
+      <c r="C893" t="inlineStr"/>
+      <c r="D893" t="inlineStr"/>
+      <c r="E893" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:26:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>REVO 6-XSG-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSG-SS
+UPC:
+814820023176
+</t>
+        </is>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1282/5693/REVO_6_XS_G_SS_Hero__95565.1709581601.png?c=1</t>
+        </is>
+      </c>
+      <c r="E894" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:26:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr"/>
+      <c r="B895" t="inlineStr"/>
+      <c r="C895" t="inlineStr"/>
+      <c r="D895" t="inlineStr"/>
+      <c r="E895" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:26:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>REVO 6 XS-B-SS V3 | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 XS-B-SS V3
+UPC:
+810042170148
+</t>
+        </is>
+      </c>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1280/5715/REVO_6_XS_B_SS_Hero__67615.1709581844.png?c=1</t>
+        </is>
+      </c>
+      <c r="E896" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:26:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>REVO 6-SWB | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWB
+UPC:
+814820022308
+</t>
+        </is>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1279/5709/REVO_6_SW_B_Hero__22160.1709581813.png?c=1</t>
+        </is>
+      </c>
+      <c r="E897" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:26:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 110v, 1200W 4 Channel Amplifier</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>$1,249.99</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-1200-AMP
+UPC:
+810042170773
+</t>
+        </is>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1684/4972/Venue_1200_Three_Quarter__05079.1688654940.png?c=1</t>
+        </is>
+      </c>
+      <c r="E898" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:26:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ LS Pro Package</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>$6,299.99</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-LS PRO PACKAGE
+UPC:
+810042171466
+</t>
+        </is>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1604/4999/VS_Package_Web__61197.1688658820.png?c=1</t>
+        </is>
+      </c>
+      <c r="E899" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:26:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ Shallow Mount 6.5" Ceiling Speakers</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>$269.99</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-SMC-65
+UPC:
+810042171114
+</t>
+        </is>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1589/4945/VS_SMC_65_Web__57267.1686758771.png?c=1</t>
+        </is>
+      </c>
+      <c r="E900" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:26:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 110v, 1200W 4 Channel Amplifier w/Enclosure</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>$1,999.98</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-AMPLIFIER SYSTEM-4
+UPC:
+810042171282
+</t>
+        </is>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1577/4998/VS_Amp_System__41906.1688658687.png?c=1</t>
+        </is>
+      </c>
+      <c r="E901" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:26:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 12" Landscape In-Ground Subwoofer</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>$1,499.99</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-12 LS-SUB
+UPC:
+810042170780
+</t>
+        </is>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1576/5000/OD_Sub_Front__38749.1688658990.png?c=1</t>
+        </is>
+      </c>
+      <c r="E902" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:26:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ Landscape Ground Spike</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>$99.99</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-LS-SP
+UPC:
+810042170223
+</t>
+        </is>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1575/5004/OD_Landscape_Spike__18057.1688659027.png?c=1</t>
+        </is>
+      </c>
+      <c r="E903" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:26:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 6x9" Black HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-69 PRO-B
+UPC:
+810042170209
+</t>
+        </is>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1574/4983/Venue_VS69_Hero_Pair_B__22533.1688657979.png?c=1</t>
+        </is>
+      </c>
+      <c r="E904" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:26:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 6x9" White HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-69 PRO-W
+UPC:
+810042170216
+</t>
+        </is>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1573/4978/Venue_VS69_Hero_Pair_W__06446.1688657950.png?c=1</t>
+        </is>
+      </c>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:26:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 8" White HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-8 PRO-W
+UPC:
+814820029499
+</t>
+        </is>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1572/4990/VS-8_W_Hero_Pair__68899.1688658629.png?c=1</t>
+        </is>
+      </c>
+      <c r="E906" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:26:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 8" Black HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-8 PRO-B
+UPC:
+814820029482
+</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1571/4994/VS-8_B_Hero_Pair__68789.1688658649.png?c=1</t>
+        </is>
+      </c>
+      <c r="E907" t="inlineStr">
+        <is>
+          <t>2024-04-18 09:26:14</t>
         </is>
       </c>
     </row>

--- a/Output_informacoes_produtos_wet_sounds.xlsx
+++ b/Output_informacoes_produtos_wet_sounds.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E907"/>
+  <dimension ref="A1:E1209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
@@ -19605,10 +19605,6 @@
       </c>
     </row>
     <row r="632">
-      <c r="A632" t="inlineStr"/>
-      <c r="B632" t="inlineStr"/>
-      <c r="C632" t="inlineStr"/>
-      <c r="D632" t="inlineStr"/>
       <c r="E632" t="inlineStr">
         <is>
           <t>2024-04-18 09:23:12</t>
@@ -19648,10 +19644,6 @@
       </c>
     </row>
     <row r="634">
-      <c r="A634" t="inlineStr"/>
-      <c r="B634" t="inlineStr"/>
-      <c r="C634" t="inlineStr"/>
-      <c r="D634" t="inlineStr"/>
       <c r="E634" t="inlineStr">
         <is>
           <t>2024-04-18 09:23:13</t>
@@ -25689,10 +25681,6 @@
       </c>
     </row>
     <row r="824">
-      <c r="A824" t="inlineStr"/>
-      <c r="B824" t="inlineStr"/>
-      <c r="C824" t="inlineStr"/>
-      <c r="D824" t="inlineStr"/>
       <c r="E824" t="inlineStr">
         <is>
           <t>2024-04-18 09:25:20</t>
@@ -26020,10 +26008,6 @@
       </c>
     </row>
     <row r="835">
-      <c r="A835" t="inlineStr"/>
-      <c r="B835" t="inlineStr"/>
-      <c r="C835" t="inlineStr"/>
-      <c r="D835" t="inlineStr"/>
       <c r="E835" t="inlineStr">
         <is>
           <t>2024-04-18 09:25:28</t>
@@ -26063,10 +26047,6 @@
       </c>
     </row>
     <row r="837">
-      <c r="A837" t="inlineStr"/>
-      <c r="B837" t="inlineStr"/>
-      <c r="C837" t="inlineStr"/>
-      <c r="D837" t="inlineStr"/>
       <c r="E837" t="inlineStr">
         <is>
           <t>2024-04-18 09:25:29</t>
@@ -27834,10 +27814,6 @@
       </c>
     </row>
     <row r="893">
-      <c r="A893" t="inlineStr"/>
-      <c r="B893" t="inlineStr"/>
-      <c r="C893" t="inlineStr"/>
-      <c r="D893" t="inlineStr"/>
       <c r="E893" t="inlineStr">
         <is>
           <t>2024-04-18 09:26:05</t>
@@ -27877,10 +27853,6 @@
       </c>
     </row>
     <row r="895">
-      <c r="A895" t="inlineStr"/>
-      <c r="B895" t="inlineStr"/>
-      <c r="C895" t="inlineStr"/>
-      <c r="D895" t="inlineStr"/>
       <c r="E895" t="inlineStr">
         <is>
           <t>2024-04-18 09:26:07</t>
@@ -28268,6 +28240,9505 @@
       <c r="E907" t="inlineStr">
         <is>
           <t>2024-04-18 09:26:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>REVO 8 XW-W V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 XW-W V3
+UPC:
+810042171992
+</t>
+        </is>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1702/5631/REVO_8_XW_W_Hero__32333.1709313500.png?c=1</t>
+        </is>
+      </c>
+      <c r="E908" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-W | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-W
+UPC:
+810042173019
+</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1624/5377/ZERO_8_W_Hero_Web__27066.1708447150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E909" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-B | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-B
+UPC:
+810042172760
+</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1623/5372/ZERO_8_B_Web_Hero__46095.1708447055.png?c=1</t>
+        </is>
+      </c>
+      <c r="E910" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-W | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-W
+UPC:
+810042173002
+</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1622/5353/ZERO_6_W_Web_Hero__48185.1708446825.png?c=1</t>
+        </is>
+      </c>
+      <c r="E911" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-B | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-B
+UPC:
+810042172753
+</t>
+        </is>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1621/5363/ZERO_6_B_Web_Hero__23189.1708446915.png?c=1</t>
+        </is>
+      </c>
+      <c r="E912" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>RECON 8-BG RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-BG RGB
+UPC:
+810042171817
+</t>
+        </is>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1617/5383/RECON_8-XS_Front_Right_Hero_G__04334.1708959945.png?c=1</t>
+        </is>
+      </c>
+      <c r="E913" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>RECON 6-BG RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG RGB
+UPC:
+810042171800
+</t>
+        </is>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1616/5415/RECON_6-XS_Front_Hero_G__11887.1708962166.png?c=1</t>
+        </is>
+      </c>
+      <c r="E914" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-W S2
+UPC:
+814820024722
+</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1459/5574/REVO_CX10_SW_W_Hero__01549.1709229069.png?c=1</t>
+        </is>
+      </c>
+      <c r="E915" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>REVO 8-XSB-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSB-SS
+UPC:
+814820023046
+</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1453/5646/REVO_8_XS_B_SS_Hero__24569.1709314439.png?c=1</t>
+        </is>
+      </c>
+      <c r="E916" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>REVO 8-XSG-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSG-SS
+UPC:
+814820023206
+</t>
+        </is>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1452/5655/REVO_8_XS_G_SS_Hero__58795.1709314920.png?c=1</t>
+        </is>
+      </c>
+      <c r="E917" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>REVO 8-XSW-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSW-SS
+UPC:
+814820022421
+</t>
+        </is>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1451/5659/REVO_8_XS_W_SS_Hero__40898.1709324600.png?c=1</t>
+        </is>
+      </c>
+      <c r="E918" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>REVO 8-XSS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSS
+UPC:
+814820023213
+</t>
+        </is>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1450/5617/REVO_8_XS_S_Hero__59990.1709312658.png?c=1</t>
+        </is>
+      </c>
+      <c r="E919" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>REVO 8 SW-B V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 SW-B V3
+UPC:
+810042173064
+</t>
+        </is>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1449/5624/REVO_8_SW_B_Hero__54808.1709313038.png?c=1</t>
+        </is>
+      </c>
+      <c r="E920" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>REVO 8-SWW | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-SWW
+UPC:
+814820022322
+</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1448/5667/REVO_8_SW_W_Hero__17640.1709324663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E921" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>REVO 8-XWB | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XWB
+UPC:
+814820022339
+</t>
+        </is>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1447/5637/REVO_8_XW_B_Hero__85483.1709313935.png?c=1</t>
+        </is>
+      </c>
+      <c r="E922" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W RGB
+UPC:
+814820027518
+</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1445/5419/RECON_6-XS_Front_Hero_G__57907.1708962243.png?c=1</t>
+        </is>
+      </c>
+      <c r="E923" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>RECON 6-S RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S RGB
+UPC:
+814820027310
+</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1444/5405/RECON_6-XS_Hero_G__00191.1708962100.png?c=1</t>
+        </is>
+      </c>
+      <c r="E924" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>RECON 8 XW-W RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8 XW-W RGB
+UPC:
+814820027525
+</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1443/5393/RECON_8-XS_Front_Right_Hero_G__13110.1708960108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E925" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>RECON 8-S RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-S RGB
+UPC:
+814820027334
+</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1442/5388/RECON_8-XS_Front_Right_Hero_G__30821.1708960025.png?c=1</t>
+        </is>
+      </c>
+      <c r="E926" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>RECON 5-S | RECON™ Series 5.25-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 5-S
+UPC:
+814820027549
+</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1439/5403/RECON_5-XS_Hero__02225.1708961993.png?c=1</t>
+        </is>
+      </c>
+      <c r="E927" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>RECON 6-S | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S
+UPC:
+814820027303
+</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1289/5427/RECON_6-XS_Hero__59634.1708962364.png?c=1</t>
+        </is>
+      </c>
+      <c r="E928" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>RECON 6-BG | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black Grilles</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG
+UPC:
+814820027501
+</t>
+        </is>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1288/5432/RECON_6-XS_Front_Hero__48179.1708962424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E929" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White Grilles</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W
+UPC:
+814820027624
+</t>
+        </is>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1287/5438/RECON_6-XS_Front_Hero__59396.1708962477.png?c=1</t>
+        </is>
+      </c>
+      <c r="E930" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>REVO 6-XWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XWW
+UPC:
+814820023053
+</t>
+        </is>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1286/5669/REVO_6_XW_W_Hero__12806.1709581449.png?c=1</t>
+        </is>
+      </c>
+      <c r="E931" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>REVO 6-XSW-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSW-SS
+UPC:
+814820023060
+</t>
+        </is>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1285/5677/REVO_6_XS_W_SS_Hero__51031.1709581486.png?c=1</t>
+        </is>
+      </c>
+      <c r="E932" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>REVO 6-SWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWW
+UPC:
+814820022292
+</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1284/5683/REVO_6_SW_W_Hero__76882.1709581516.png?c=1</t>
+        </is>
+      </c>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr"/>
+      <c r="B934" t="inlineStr"/>
+      <c r="C934" t="inlineStr"/>
+      <c r="D934" t="inlineStr"/>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>REVO 6-XSG-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSG-SS
+UPC:
+814820023176
+</t>
+        </is>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1282/5693/REVO_6_XS_G_SS_Hero__95565.1709581601.png?c=1</t>
+        </is>
+      </c>
+      <c r="E935" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr"/>
+      <c r="B936" t="inlineStr"/>
+      <c r="C936" t="inlineStr"/>
+      <c r="D936" t="inlineStr"/>
+      <c r="E936" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>REVO 6 XS-B-SS V3 | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 XS-B-SS V3
+UPC:
+810042170148
+</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1280/5715/REVO_6_XS_B_SS_Hero__67615.1709581844.png?c=1</t>
+        </is>
+      </c>
+      <c r="E937" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>REVO 6-SWB | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWB
+UPC:
+814820022308
+</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1279/5709/REVO_6_SW_B_Hero__22160.1709581813.png?c=1</t>
+        </is>
+      </c>
+      <c r="E938" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-B S2
+UPC:
+814820024715
+</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1277/5571/REVO_CX10_SW_B_Hero__55586.1709151911.png?c=1</t>
+        </is>
+      </c>
+      <c r="E939" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-S S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-S S2
+UPC:
+814820024760
+</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1276/5588/REVO_CX10_XS_S_Hero__06379.1709231959.png?c=1</t>
+        </is>
+      </c>
+      <c r="E940" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-B S2
+UPC:
+814820024777
+</t>
+        </is>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1275/5601/REVO_CX10_XW_B_Hero__80563.1709232713.png?c=1</t>
+        </is>
+      </c>
+      <c r="E941" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-W S2
+UPC:
+814820024784
+</t>
+        </is>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1274/5606/REVO_CX10_XW_W_Hero__14177.1709237050.png?c=1</t>
+        </is>
+      </c>
+      <c r="E942" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-B-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-B-SS S2
+UPC:
+814820024739
+</t>
+        </is>
+      </c>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1273/5594/REVO_CX10_XS_B_SS_Hero__29022.1709232385.png?c=1</t>
+        </is>
+      </c>
+      <c r="E943" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-G-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-G-SS S2
+UPC:
+814820024753
+</t>
+        </is>
+      </c>
+      <c r="D944" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1272/5580/REVO_CX10_XS_G_SS_Hero__23286.1709230163.png?c=1</t>
+        </is>
+      </c>
+      <c r="E944" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-W-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-W-SS S2
+UPC:
+814820024746
+</t>
+        </is>
+      </c>
+      <c r="D945" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1271/5610/REVO_CX10_XS_W_SS_Hero__86437.1709237352.png?c=1</t>
+        </is>
+      </c>
+      <c r="E945" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>REV 10 HD White | Wet Sounds REV HD Series 10" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>$1,959.99</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-W-X
+UPC:
+810042177512
+</t>
+        </is>
+      </c>
+      <c r="D946" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1673/4823/REV10_HD_W_XZ_Hero_R__75858.1675269054.png?c=1</t>
+        </is>
+      </c>
+      <c r="E946" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>REV 10 HD Black | Wet Sounds REV HD Series 10" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>$1,959.99</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-B-X
+UPC:
+810042177307
+</t>
+        </is>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1669/4777/REV12_HD_B_XZ_Hero_R__25053.1673993030.png?c=1</t>
+        </is>
+      </c>
+      <c r="E947" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>REV 12 HD White | Wet Sounds REV HD Series 12" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>$2,309.99</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-W-X
+UPC:
+810042177031
+</t>
+        </is>
+      </c>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1649/4740/REV12_HD_W_XZ_Hero_R__07359.1672241311.png?c=1</t>
+        </is>
+      </c>
+      <c r="E948" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>REV8™ White V2 | Wet Sounds Revolution Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D949" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1640/4375/REV8_W_Web_Hero__78931.1654888304.png?c=1</t>
+        </is>
+      </c>
+      <c r="E949" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>REV8™ Black V2 | Wet Sounds Revolution Series 8" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D950" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1639/4369/REV8_B_Web_Hero__69496.1646949336.1280.1280__81274.1654887818.png?c=1</t>
+        </is>
+      </c>
+      <c r="E950" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>REV10™ White V2 | Wet Sounds Revolution Series 10" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1638/4359/REV10_W_Web_Hero__38956.1654887066.png?c=1</t>
+        </is>
+      </c>
+      <c r="E951" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>REV10™ Black V2 | Wet Sounds Revolution Series 10" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1637/4351/REV10_B_Web_Hero__57402.1647007395.1280.1280__29553.1654886710.png?c=1</t>
+        </is>
+      </c>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>REV 410 Black V2 | Wet Sounds Revolution Series Dual 10" Black Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1636/4345/REV410_B_X_Web_Front___24105.1654881808.png?c=1</t>
+        </is>
+      </c>
+      <c r="E953" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>REV 410 White V2 | Wet Sounds Revolution Series Dual 10" White Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1635/4342/REV410_W_X_Web_Front___65923.1647007018.1280.1280__51826.1654881737.png?c=1</t>
+        </is>
+      </c>
+      <c r="E954" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>ICON8™ White V2  | Wet Sounds ICON Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>$599.99 - $1,349.99</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ICON 8-W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1634/4328/ICON8_W_Web_Hero__40196.1654880484.png?c=1</t>
+        </is>
+      </c>
+      <c r="E955" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>REV 12 HD Black | Wet Sounds REV HD Series 12" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>$2,309.99</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-B-X
+UPC:
+810042176836
+</t>
+        </is>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1633/4724/REV12_HD_B_XZ_Hero_R__98406.1671112247.png?c=1</t>
+        </is>
+      </c>
+      <c r="E956" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-BG | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-BG
+UPC:
+810042171824
+</t>
+        </is>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1629/4183/RECON_6_BG_Web_Hero__17738.1651583337.png?c=1</t>
+        </is>
+      </c>
+      <c r="E957" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-B | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-B
+UPC:
+814820027457
+</t>
+        </is>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1332/4083/RECON_6_S_Web_Hero__43958.1647027848.png?c=1</t>
+        </is>
+      </c>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-W | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-W
+UPC:
+814820027464
+</t>
+        </is>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1331/4080/RECON_6_XW_Web_Hero__39058.1647027796.png?c=1</t>
+        </is>
+      </c>
+      <c r="E959" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>ICON8™ Black V2 | Wet Sounds ICON Series 8" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>$1,049.99 - $1,349.99</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ICON 8-B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1330/3705/ICON8_B_Web_Hero__60943.1646946843.png?c=1</t>
+        </is>
+      </c>
+      <c r="E960" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>WS-MC-5 | Wet Sounds™ AM/FM/Digital Tuner Media Center</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-5
+UPC:
+810042171596
+</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1615/5317/MC-5_Hero_Image_Web__90008.1702572189.png?c=1</t>
+        </is>
+      </c>
+      <c r="E961" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>WWX-DZ-BT | Wet Sounds™ Dual Zone Bluetooth Controller</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WWX-DZ-BT
+UPC:
+810042170803
+</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1565/4543/DZ_BT_Front__15731.1666361204.png?c=1</t>
+        </is>
+      </c>
+      <c r="E962" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>WS-420 SQ | Wet Sounds™ Marine Multi Zone 4-Band Parametric Equalizer</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-420 SQ
+UPC:
+853414005105
+</t>
+        </is>
+      </c>
+      <c r="D963" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1250/4427/420SQ_Front_with_Mic__47339.1658239355.png?c=1</t>
+        </is>
+      </c>
+      <c r="E963" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>WW-BT UR | Wet Sounds™ Marine Bluetooth Universal Receiver</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WW-BT UR
+UPC:
+814820024555
+</t>
+        </is>
+      </c>
+      <c r="D964" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1249/4547/BT_UR_Front__46259.1666361333.png?c=1</t>
+        </is>
+      </c>
+      <c r="E964" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>WW-BT VC-V2 | Wet Sounds™ Marine Bluetooth Knob With Volume Control</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>$129.99</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WW-BT VC-V2
+UPC:
+814820023022
+</t>
+        </is>
+      </c>
+      <c r="D965" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1248/4536/BT_VC_Web_1__79246.1666361101.png?c=1</t>
+        </is>
+      </c>
+      <c r="E965" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>WW-BT RS | Wet Sounds™ Marine Bluetooth Rocker Switch With Volume Control</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>$129.99</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WW-BT RS
+UPC:
+814820023015
+</t>
+        </is>
+      </c>
+      <c r="D966" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1247/4551/BT_RS_Front__57291.1666361561.png?c=1</t>
+        </is>
+      </c>
+      <c r="E966" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>WS-420 BT | Wet Sounds™ Marine Multi Zone 4-Band Parametric Equalizer w/ Integrated Bluetooth®</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-420 BT
+UPC:
+853414005150
+</t>
+        </is>
+      </c>
+      <c r="D967" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1246/4430/Front_420_BT_2__22878.1658239507.png?c=1</t>
+        </is>
+      </c>
+      <c r="E967" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>WS-220 BT | Wet Sounds™ Marine 4-Zone Level Controller w/ Integrated Bluetooth®</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-220 BT
+UPC:
+814820023268
+</t>
+        </is>
+      </c>
+      <c r="D968" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1245/4432/2_220BT_Front__40363.1658239691.png?c=1</t>
+        </is>
+      </c>
+      <c r="E968" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>WS-MC-20 | Wet Sounds™ 2-Zone Media Center w/ SiriusXM-Ready® and NMEA 2000 Connectivity</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-20
+UPC:
+814820029888
+</t>
+        </is>
+      </c>
+      <c r="D969" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1590/5319/MC-20_Hero_Image_Web__72689.1702572289.png?c=1</t>
+        </is>
+      </c>
+      <c r="E969" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>WS-MC-2 | Wet Sounds™ SiriusXM-Ready® AM/FM/Weather Band Media Center</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>$369.99</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-2
+UPC:
+814820025002
+</t>
+        </is>
+      </c>
+      <c r="D970" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1243/5311/MC-2_Hero_Image_Web__44421.1702572108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E970" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>WS-MC-1 | Wet Sounds™ 4 Zone Bluetooth® Marine Media Center</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-1
+UPC:
+814820025026
+</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1242/5308/MC-1_Hero_Image_Web__34655.1702567424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>Sinister-SDX2 | Wet Sounds 2 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>$999.99</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+Sinister-SDX2
+UPC:
+814820024616
+</t>
+        </is>
+      </c>
+      <c r="D972" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1270/4142/Sinister_SDX2_Front__83389.1650295696.png?c=1</t>
+        </is>
+      </c>
+      <c r="E972" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>Sinister-SDX4 | Wet Sounds 4 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>$1,079.99</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+Sinister-SDX4
+UPC:
+814820024623
+</t>
+        </is>
+      </c>
+      <c r="D973" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1269/4148/Sinister_SDX4_Front__15417.1650295937.png?c=1</t>
+        </is>
+      </c>
+      <c r="E973" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>Sinister-SDX6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>$1,699.99</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+Sinister-SDX6
+UPC:
+814820024630
+</t>
+        </is>
+      </c>
+      <c r="D974" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1268/4155/Sinister_SDX6_Front__31215.1650296150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E974" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>Sinister-SDX2500 | Wet Sounds Class-D Monoblock Subwoofer Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>$1,899.99</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+Sinister-SDX2500
+UPC:
+814820025910
+</t>
+        </is>
+      </c>
+      <c r="D975" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1267/2384/1_SDX_2500__36161__26701.1637194846.png?c=1</t>
+        </is>
+      </c>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>SYN-DX2 | Wet Sounds 2 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>$679.99</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+SYN-DX2
+UPC:
+814820022506
+</t>
+        </is>
+      </c>
+      <c r="D976" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1266/2531/1_DX_2__47232__85619.1637194871.png?c=1</t>
+        </is>
+      </c>
+      <c r="E976" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>SYN-DX4 | Wet Sounds 4 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>$1,079.99</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+SYN-DX4
+UPC:
+814820022537
+</t>
+        </is>
+      </c>
+      <c r="D977" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1265/2544/1_DX_4__30904__39249.1637593872.png?c=1</t>
+        </is>
+      </c>
+      <c r="E977" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>SYN-DX2.3 HP | Wet Sounds 2 Channel High Power Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+SYN-DX2.3 HP
+UPC:
+814820024562
+</t>
+        </is>
+      </c>
+      <c r="D978" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1264/2536/1_DX_HP__89213__65593.1637194872.png?c=1</t>
+        </is>
+      </c>
+      <c r="E978" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>SYN-DX6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+SYN-DX6
+UPC:
+814820022568
+</t>
+        </is>
+      </c>
+      <c r="D979" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1263/2546/1_DX_6__09919__62939.1637194874.png?c=1</t>
+        </is>
+      </c>
+      <c r="E979" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>HTX-1 | Wet Sounds Class-D Monoblock Subwoofer Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-1
+UPC:
+814820022209
+</t>
+        </is>
+      </c>
+      <c r="D980" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1262/3437/1_HTX_1__66896.1642091392.png?c=1</t>
+        </is>
+      </c>
+      <c r="E980" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>HTX-2 | Wet Sounds 2 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-2
+UPC:
+814820022179
+</t>
+        </is>
+      </c>
+      <c r="D981" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1261/1579/1_HTX_2__29615__16659.1637194674.png?c=1</t>
+        </is>
+      </c>
+      <c r="E981" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>HTX-4 | Wet Sounds 4 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-4
+UPC:
+814820022155
+</t>
+        </is>
+      </c>
+      <c r="D982" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1260/1584/1_HTX_4__75666__26453.1637194675.png?c=1</t>
+        </is>
+      </c>
+      <c r="E982" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>HTX-6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-6
+UPC:
+814820022162
+</t>
+        </is>
+      </c>
+      <c r="D983" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1259/1589/1_HTX_6__73141__79749.1642096762.png?c=1</t>
+        </is>
+      </c>
+      <c r="E983" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:24:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>STX MICRO-1 | Wet Sounds Compact Chassis Class-D Monoblock Marine A</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-1
+UPC:
+814820023329
+</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1258/2520/Micro_STX_Hero__81706__61326.1637194869.png?c=1</t>
+        </is>
+      </c>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>STX MICRO-4 | Wet Sounds Compact Chassis Class-D 4-Ch Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>$439.99</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-4
+UPC:
+814820023336
+</t>
+        </is>
+      </c>
+      <c r="D985" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1257/2526/Micro_STX_Hero__17041__18108.1637194870.png?c=1</t>
+        </is>
+      </c>
+      <c r="E985" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>REVO 10 HP S4 V3 | Wet Sounds REVO Series 10-inch High-Power Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 HP S4 V3
+UPC:
+810042171763
+</t>
+        </is>
+      </c>
+      <c r="D986" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1703/5455/REVO_10_V3_Black_Subwoofer_Front_Right_View__01889.1709138503.png?c=1</t>
+        </is>
+      </c>
+      <c r="E986" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>REVO 10 FA S4 V3 | Wet Sounds REVO Series 10-inch Free-Air Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 FA S4 V3
+UPC:
+810042171787
+</t>
+        </is>
+      </c>
+      <c r="D987" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1685/5459/REVO_10_V3_Black_Subwoofer_Front_Right_View__98932.1709138599.png?c=1</t>
+        </is>
+      </c>
+      <c r="E987" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>ZERO 12 S4 XZ-W | Wet Sounds Zero Series™ 12-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with White XZ Grille</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 12 S4 XZ-W
+UPC:
+810042173033
+</t>
+        </is>
+      </c>
+      <c r="D988" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1628/5555/ZERO_12_White_Front_Right_View__41353.1709140271.png?c=1</t>
+        </is>
+      </c>
+      <c r="E988" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>ZERO 10 S4 XZ-W | Wet Sounds Zero Series™ 10-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with White XZ Grille</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 10 S4 XZ-W
+UPC:
+810042173026
+</t>
+        </is>
+      </c>
+      <c r="D989" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1627/5545/ZERO_10_White_Front_Right_View__26419.1709140155.png?c=1</t>
+        </is>
+      </c>
+      <c r="E989" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>ZERO 12 S4 XZ-B | Wet Sounds Zero Series™ 12-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with Black XZ Grille</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 12 S4 XZ-B
+UPC:
+810042172784
+</t>
+        </is>
+      </c>
+      <c r="D990" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1626/5562/ZERO_12_Black_Front_Right_View__17233.1709140318.png?c=1</t>
+        </is>
+      </c>
+      <c r="E990" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>ZERO 10 S4 XZ-B | Wet Sounds Zero Series™ 10-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with Black XZ Grille</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 10 S4 XZ-B
+UPC:
+810042172777
+</t>
+        </is>
+      </c>
+      <c r="D991" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1625/5550/ZERO_10_Black_Front_Right_View__68235.1709140211.png?c=1</t>
+        </is>
+      </c>
+      <c r="E991" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>RECON 10 FA-BG | Wet Sounds RECON™ Series 10-inch Free-Air Marine Subwoofer - 4Ω Black with XS Black Grille</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 10 FA-BG
+UPC:
+814820027372
+</t>
+        </is>
+      </c>
+      <c r="D992" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1461/5528/RECON_10_BG_Front_Right_View__28741.1709139490.png?c=1</t>
+        </is>
+      </c>
+      <c r="E992" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>RECON 10 FA-S | Wet Sounds RECON™ Series 10-inch Free-Air Marine Subwoofer - 4Ω Black with XS Silver Grille</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 10 FA-S
+UPC:
+814820027273
+</t>
+        </is>
+      </c>
+      <c r="D993" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1460/5531/RECON_10_XS_Front_Right_View__43611.1709139537.png?c=1</t>
+        </is>
+      </c>
+      <c r="E993" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>REVO 8 FA S4-W | Wet Sounds REVO Series 8-inch Free-Air Marine Subwoofer - 4Ω White</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA : REVO 8 FA S4-W
+UPC:
+814820024814
+</t>
+        </is>
+      </c>
+      <c r="D994" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1458/5442/REVO_8_FA_White_Subwoofer_Front_Right_View__82195.1709138078.png?c=1</t>
+        </is>
+      </c>
+      <c r="E994" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>REVO 12 FA S4-W V2 | Wet Sounds REVO Series 12-inch Free-Air Marine Subwoofer - 4Ω White</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>$319.99</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 FA S4-W V2
+UPC:
+814820027679
+</t>
+        </is>
+      </c>
+      <c r="D995" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1457/5485/REVO_12_FA_HP_White_Subwoofer_Front_Right_View__62198.1709138924.png?c=1</t>
+        </is>
+      </c>
+      <c r="E995" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>REVO 12 FA S2-W V2 | Wet Sounds REVO Series 12-inch Free-Air Marine Subwoofer - 2Ω White</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>$319.99</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 FA S2-W V2
+UPC:
+814820027655
+</t>
+        </is>
+      </c>
+      <c r="D996" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1456/5493/REVO_12_FA_HP_White_Subwoofer_Front_Right_View__15118.1709138983.png?c=1</t>
+        </is>
+      </c>
+      <c r="E996" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>REVO 12 FA S2-B V2 | Wet Sounds REVO Series 12-inch Free-Air Marine Subwoofer - 2Ω Black</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>$319.99</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 FA S2-B V2
+UPC:
+814820027648
+</t>
+        </is>
+      </c>
+      <c r="D997" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1455/5495/REVO_12_FA_HP_Black_Subwoofer_Front_Right_View__24966.1709139072.png?c=1</t>
+        </is>
+      </c>
+      <c r="E997" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>REVO 12 FA S4-B V2 | Wet Sounds REVO Series 12-inch Free-Air Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>$319.99</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 FA S4-B V2
+UPC:
+814820027662
+</t>
+        </is>
+      </c>
+      <c r="D998" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1454/5501/REVO_12_FA_HP_Black_Subwoofer_Front_Right_View__14078.1709139143.png?c=1</t>
+        </is>
+      </c>
+      <c r="E998" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>RECON 10 FA-XW-W | Wet Sounds RECON™ Series 10-inch Free-Air Marine Subwoofer - 4Ω White with XW White Grille</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 10 FA-XW-W
+UPC:
+814820027532
+</t>
+        </is>
+      </c>
+      <c r="D999" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1446/5537/RECON_10_XW_Front_Right_View__89105.1709139670.png?c=1</t>
+        </is>
+      </c>
+      <c r="E999" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>REVO 10 FA S2-B V2 | Wet Sounds REVO Series 10-inch Free-Air Marine Subwoofer - 2Ω Black</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 FA S2-B V2
+UPC:
+814820027587
+</t>
+        </is>
+      </c>
+      <c r="D1000" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1441/5467/REVO_10_FA_HP_Black_Subwoofer_Front_Right_View__66469.1709138695.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1000" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>REVO 10 FA S2-W V2 | Wet Sounds REVO Series 10-inch Free-Air Marine Subwoofer - 2Ω White</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 FA S2-W V2
+UPC:
+814820027594
+</t>
+        </is>
+      </c>
+      <c r="D1001" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1440/5472/REVO_10_FA_HP_White_Subwoofer_Front_Right_View__41986.1709138755.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1001" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>REVO 10 FA S4-W V2 | Wet Sounds REVO Series 10-inch Free-Air Marine Subwoofer - 4Ω White</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 FA S4-W V2
+UPC:
+814820027617
+</t>
+        </is>
+      </c>
+      <c r="D1002" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1429/5480/REVO_10_FA_HP_White_Subwoofer_Front_Right_View__74671.1709138816.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1002" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>REVO 8 FA S4-B | Wet Sounds REVO Series 8-inch Free-Air Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA : REVO 8 FA S4-B
+UPC:
+814820024807
+</t>
+        </is>
+      </c>
+      <c r="D1003" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1427/5447/REVO_8_FA_Black_Subwoofer_Front_Right_View__93660.1709138157.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1003" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>REVO 12 HP S4 V3 | Wet Sounds REVO Series 12-inch High-Power Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 HP S4 V3
+UPC:
+810042171794
+</t>
+        </is>
+      </c>
+      <c r="D1004" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1294/5511/REVO_12_V3_Subwoofer_Front_Right__20953.1709139217.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1004" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>REVO 12 XXX V4-B | Wet Sounds REVO Series XXX 12-inch SPL Marine Subwoofer - Dual 2Ω Black</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>$999.99</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XXX V4-B
+UPC:
+814820022261
+</t>
+        </is>
+      </c>
+      <c r="D1005" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1291/5517/REVO_XXX12_Subwoofer_Front_Right_View__84159.1709139387.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1005" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>REVO 15 XXX V4-B | Wet Sounds REVO Series XXX 15-inch SPL Marine Subwoofer - Dual 2Ω Black</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>$1,549.99</t>
+        </is>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 15 XXX V4-B
+UPC:
+814820022254
+</t>
+        </is>
+      </c>
+      <c r="D1006" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1290/5521/REVO_XXX15_Subwoofer_Front_Right_View__42432.1709139422.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1006" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Revolution Series 5x7 HLCD With Surface Mountable Roto-Mold Enclosure + Grill - White</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 5X7 SM-W
+UPC:
+810042170018
+</t>
+        </is>
+      </c>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1564/2595/0_REV_5x7__08818__09844.1637194884.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1007" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Revolution Series 6x9 HLCD With Surface Mountable Roto-Mold Enclosure + Grill - Black</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>$849.99</t>
+        </is>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 6X9 SM-B
+UPC:
+814820023121
+</t>
+        </is>
+      </c>
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1438/2600/1_6x9_SM_Black__24204__20541.1637194884.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1008" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Revolution Series 6x9 HLCD With Surface Mountable Roto-Mold Enclosure + Grill - White</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>$849.99</t>
+        </is>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 6X9 SM-W
+UPC:
+814820023138
+</t>
+        </is>
+      </c>
+      <c r="D1009" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1437/2602/1_6x9_SM_White__22030__64737.1637194885.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1009" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>Wet Sounds REV 696 RS | Revolution Series 6 X 9 Inch EFG™ Pro-Axial™ Speaker</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 696 RS
+UPC:
+814820022896
+</t>
+        </is>
+      </c>
+      <c r="D1010" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1333/2668/1_6x9_RS__72461__07501.1637194898.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1010" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ Shallow Mount 6.5" Ceiling Speakers</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>$269.99</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-SMC-65
+UPC:
+810042171114
+</t>
+        </is>
+      </c>
+      <c r="D1011" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1589/4945/VS_SMC_65_Web__57267.1686758771.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1011" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>ADP REV HD X-W | Wet Sounds WHITE X Kit For REV HD Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV HD X-W
+UPC:
+810042172746
+</t>
+        </is>
+      </c>
+      <c r="D1012" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1680/4860/REVHD_X_Mount_W_Back_Left__51149.1677095557.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1012" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>ADP REV HD X-B | Wet Sounds BLACK X Kit For REV HD Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV HD X-B
+UPC:
+810042172739
+</t>
+        </is>
+      </c>
+      <c r="D1013" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1679/4859/REVHD_X_Mount_Back_Left__62192.1677095468.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1013" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>ADP Malibu G5-G  | Wet Sounds Brushed Tower Speaker Adapters For The Malibu G5 Tower</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G5-G
+UPC:
+810042171275
+</t>
+        </is>
+      </c>
+      <c r="D1014" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1586/1503/1_Malibu_G5__12259__74117.1637194656.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1014" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>ADP NAU-FCTA  | Wet Sounds Brushed Tower Speaker Brackets For The 2019+ Nautique Flight Control Tower Actuated (FCTA)</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP NAU-FCTA
+UPC:
+814820029079
+</t>
+        </is>
+      </c>
+      <c r="D1015" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1546/1509/1_Nautique_FLTA__78313__12581.1637194659.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1015" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>ADP TC3-SXM | Wet Sounds Stainless Steel Swivel Surface Mount (No Clamp) w/ Hardware</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-SXM
+UPC:
+853414005655
+</t>
+        </is>
+      </c>
+      <c r="D1016" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1496/1560/1_TC3_SXM__75500__89888.1637194670.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1016" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>ADP NAUTIQUE G  | Wet Sounds Tower Speaker Brackets For The Upper Brackets For Nautique G Tower</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP NAUTIQUE G
+UPC:
+814820025811
+</t>
+        </is>
+      </c>
+      <c r="D1017" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1436/1527/1_Nautique_G__82729__11690.1637194663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1017" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>ADP TC3-F-SILVER | Wet Sounds Silver Aluminum Clamp For Tube Diameter 1 7/8” To 3”</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-F-SILVER
+UPC:
+853414005624
+</t>
+        </is>
+      </c>
+      <c r="D1018" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1432/1549/1_TC3_FC_SA__81562__43456.1637194668.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1018" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>ADP TC3-F | Wet Sounds Stainless Steel Fixed Position Clamp For Tube Diameter 1 7/8” To 3”</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-F
+UPC:
+853414005600
+</t>
+        </is>
+      </c>
+      <c r="D1019" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1355/1547/1_TC3_FC__00488__91450.1637194666.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1019" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>ADP TC3-F MINI | Wet Sounds Stainless Steel Fixed Position Clamp For Tube Diameter 1” To 1 7/8”</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-F MINI
+UPC:
+853414005631
+</t>
+        </is>
+      </c>
+      <c r="D1020" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1354/1548/1_TC3_FC_Mini__70229__76985.1637194667.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1020" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>ADP TC3-S | Wet Sounds Stainless Steel Swivel Clamp For Tube Diameter 1 7/8” To 3”</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-S
+UPC:
+853414005617
+</t>
+        </is>
+      </c>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1353/1553/0_TC3_SC__57230__35422.1637194668.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1021" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>ADP TC3-S MINI | Wet Sounds Stainless Steel Swivel Clamp For Tube Diameter 1” To 1 7/8”</t>
+        </is>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-S MINI
+UPC:
+853414005648
+</t>
+        </is>
+      </c>
+      <c r="D1022" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1352/1557/1_Mini_Swivel_Clamp__77137__47956.1637194669.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1022" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>ADP ILLUSION DXT  | Wet Sounds REV 10 Tower Speaker Brackets For The Malibu X Tower Lower Mount</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>$129.99</t>
+        </is>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Illusion DXT
+UPC:
+814820020915
+</t>
+        </is>
+      </c>
+      <c r="D1023" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1350/1476/1_Illusion_DXT__92533__35545.1637194651.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1023" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>ADP REV X-B | Wet Sounds BLACK X Kit For REV And ICON Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV X-B
+UPC:
+814820021042
+</t>
+        </is>
+      </c>
+      <c r="D1024" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1349/1536/Black_X_Mount__86541__61693.1637194663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1024" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>ADP REV X-W | Wet Sounds WHITE X Kit For REV And ICON Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV X-W
+UPC:
+814820021059
+</t>
+        </is>
+      </c>
+      <c r="D1025" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1348/1537/White_X_Mount__90066__12854.1637194664.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1025" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>ADP Gladiator-B | Wet Sounds Black Tower Speaker Brackets For The Centurion Gladiator Tower</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Gladiator-B
+UPC:
+814820020892
+</t>
+        </is>
+      </c>
+      <c r="D1026" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1347/1468/1_Centurion_Gladiator_Black__82234__48144.1637194649.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1026" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>ADP GLADIATOR-P  | Wet Sounds POLISHED Tower Speaker Brackets For The Centurion Gladiator Brackets</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Gladiator-P
+UPC:
+814820020908
+</t>
+        </is>
+      </c>
+      <c r="D1027" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1346/1472/1_Centurion_Gladiator_Polished__65776__54391.1637194650.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1027" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>ADP MALIBU G3 SINGLE-B  | Wet Sounds Black Tower Speaker Brackets For The Malibu G3 Single Speaker Mount</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G3 Single-B
+UPC:
+814820020977
+</t>
+        </is>
+      </c>
+      <c r="D1028" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1345/1487/1_Malibu_G3_Single_Black__82146__64795.1637194654.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1028" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>ADP MALIBU G3 SINGLE-P  | Wet Sounds Silver Tower Speaker Brackets For The Malibu G3 Single Speaker Mount</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G3 Single-P
+UPC:
+814820020984
+</t>
+        </is>
+      </c>
+      <c r="D1029" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1344/1495/1_Malibu_G3_Single__46289__10563.1637194656.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1029" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>ADP MC BRACKET-11  | Wet Sounds Brushed Tower Speaker Brackets For The Aluminum Mastercraft MC-11 Bracket</t>
+        </is>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="C1030" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP MC Bracket-11
+UPC:
+814820020991
+</t>
+        </is>
+      </c>
+      <c r="D1030" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1343/1504/1_MC11__55068__77297.1637194657.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1030" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>ADP Nautique FC5-U  | Wet Sounds Tower Speaker Brackets For The Upper Brackets For Nautique FC5 Tower</t>
+        </is>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Nautique FC5-U
+UPC:
+814820021011
+</t>
+        </is>
+      </c>
+      <c r="D1031" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1342/1520/1_Nautique_FC5_U__66384__59326.1637194661.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1031" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>ADP CENTURION MAXIMUS |Wet Sounds Black Tower Speaker Brackets For The Centurion Maximus Tower</t>
+        </is>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>$189.99</t>
+        </is>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP CENTURION MAXIMUS
+UPC:
+814820020861
+</t>
+        </is>
+      </c>
+      <c r="D1032" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1341/1464/2_Centurion_Maximus__14356__62032.1637194648.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1032" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>ADP SUPRA-FxONE | Wet Sounds Supra FxONE Upper Tower Adapter Brackets W/ Bead Blast Finish</t>
+        </is>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP SUPRA-FxONE
+UPC:
+814820028102
+</t>
+        </is>
+      </c>
+      <c r="D1033" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1340/1539/1_FxONE__81412__61611.1637194666.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1033" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>ADP NAUTIQUE FC5-L  | Wet Sounds Tower Speaker Brackets For The Lower Brackets For Nautique FC5 Tower</t>
+        </is>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C1034" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Nautique FC5-L
+UPC:
+814820021004
+</t>
+        </is>
+      </c>
+      <c r="D1034" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1339/1519/ADP-Nautique-FC5-L_MAIN-1__38608__44984.1637194660.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1034" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>ADP NAUTIQUE Z5 DROP 12  | Wet Sounds Nautique Drop Down Bracket For The Z5 Rack W/ 12 Inch Strut Tube</t>
+        </is>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C1035" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Nautique Z5 Drop 12
+UPC:
+814820021028
+</t>
+        </is>
+      </c>
+      <c r="D1035" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1338/1535/ADP-Naut-Z5-Drop-12_MAIN-1__81230__46666.1637194663.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1035" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>ADP MALIBU G3 DUAL-B  | Wet Sounds BLACK Tower Speaker Brackets For The Malibu G3 Dual Speaker Mount</t>
+        </is>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="C1036" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G3 Dual-B
+UPC:
+814820020939
+</t>
+        </is>
+      </c>
+      <c r="D1036" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1337/1483/ADP-Malibu-G3-Dual-B_MAIN-1__64841__65072.1637194652.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1036" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C1037" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XW-W GRILLE
+UPC:
+814820023435
+</t>
+        </is>
+      </c>
+      <c r="D1037" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1677/4856/1_REVO_10_XWW_Grille__24247.1675358486.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1037" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 SW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C1038" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 SW-B GRILLE
+UPC:
+814820023398
+</t>
+        </is>
+      </c>
+      <c r="D1038" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1520/4591/1_REVO_12_SWB_Grille__89371.1666364087.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1038" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 SW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 SW-W GRILLE
+UPC:
+814820023404
+</t>
+        </is>
+      </c>
+      <c r="D1039" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1519/4587/1_REVO_12_SWW_Grille__50214.1666364049.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1039" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-Black Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>$109.99</t>
+        </is>
+      </c>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-B-SS GRILLE
+UPC:
+814820022384
+</t>
+        </is>
+      </c>
+      <c r="D1040" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1518/4597/1_REVO_12_XSBSS_Grille__83842.1666364127.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1040" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-Gunmetal Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>$109.99</t>
+        </is>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-G-SS GRILLE
+UPC:
+814820022377
+</t>
+        </is>
+      </c>
+      <c r="D1041" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1517/4601/1_REVO_12_XSGSS_Grille__30565.1666364155.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1041" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-Silver Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-S GRILLE
+UPC:
+814820022360
+</t>
+        </is>
+      </c>
+      <c r="D1042" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1516/4589/1_REVO_12_XSS_Grille__77253.1666364074.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1042" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-White Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>$109.99</t>
+        </is>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-W-SS GRILLE
+UPC:
+814820022353
+</t>
+        </is>
+      </c>
+      <c r="D1043" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1515/4595/1_REVO_12_XSWSS_Grille__39058.1666364112.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1043" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XW-B GRILLE
+UPC:
+814820022346
+</t>
+        </is>
+      </c>
+      <c r="D1044" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1514/4593/1_REVO_12_XWB_Grille__46551.1666364097.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1044" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XW-W GRILLE
+UPC:
+814820022278
+</t>
+        </is>
+      </c>
+      <c r="D1045" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1513/4599/1_REVO_12_XWW_Grille__15735.1666364137.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1045" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XW-B GRILLE
+UPC:
+814820023428
+</t>
+        </is>
+      </c>
+      <c r="D1046" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1511/4573/1_REVO_10_XWB_Grille__42960.1666363805.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1046" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XS-White Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>$84.99</t>
+        </is>
+      </c>
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XS-W-SS GRILLE
+UPC:
+814820023411
+</t>
+        </is>
+      </c>
+      <c r="D1047" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1510/4575/1_REVO_10_XSWSS_Grille__72598.1666363829.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1047" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XS-Silver Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XS-S GRILLE
+UPC:
+814820023466
+</t>
+        </is>
+      </c>
+      <c r="D1048" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1509/4567/1_REVO_10_XSS_Grille__64207.1666363752.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1048" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XS-Gunmetal Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>$84.99</t>
+        </is>
+      </c>
+      <c r="C1049" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XS-G-SS GRILLE
+UPC:
+814820023473
+</t>
+        </is>
+      </c>
+      <c r="D1049" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1508/4571/1_REVO_10_XSGSS_Grille__26329.1666363793.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1049" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 SW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C1050" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 SW-W GRILLE
+UPC:
+814820023497
+</t>
+        </is>
+      </c>
+      <c r="D1050" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1506/4565/1_REVO_10_SWW_Grille__40203.1666363732.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1050" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 SW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C1051" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 SW-B GRILLE
+UPC:
+814820023503
+</t>
+        </is>
+      </c>
+      <c r="D1051" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1505/4569/1_REVO_10_SWB_Grille__02082.1666363765.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1051" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-Black Stainless Steel FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>$64.99</t>
+        </is>
+      </c>
+      <c r="C1052" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-B-SS GRILLE
+UPC:
+814820024852
+</t>
+        </is>
+      </c>
+      <c r="D1052" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1504/4561/1_REVO_8_XSBSS_Grille__79541.1666363683.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1052" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-Gunmetal Stainless Steel FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>$64.99</t>
+        </is>
+      </c>
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-G-SS GRILLE
+UPC:
+814820024876
+</t>
+        </is>
+      </c>
+      <c r="D1053" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1503/4562/1_REVO_8_XSGSS_Grille__14722.1666363693.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1053" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-White Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>$64.99</t>
+        </is>
+      </c>
+      <c r="C1054" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-W-SS GRILLE
+UPC:
+814820024869
+</t>
+        </is>
+      </c>
+      <c r="D1054" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1502/4557/1_REVO_8_XSWSS_Grille__28943.1666363543.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1054" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-Silver FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C1055" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-S GRILLE
+UPC:
+814820024821
+</t>
+        </is>
+      </c>
+      <c r="D1055" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1501/4555/1_REVO_8_XSS_Grille__95421.1666363515.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1055" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XW-Black FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C1056" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XW-B GRILLE
+UPC:
+814820024838
+</t>
+        </is>
+      </c>
+      <c r="D1056" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1500/4556/1_REVO_8_XWB_Grille__44024.1666363530.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1056" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XW-White FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C1057" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XW-W GRILLE
+UPC:
+814820024845
+</t>
+        </is>
+      </c>
+      <c r="D1057" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1499/4559/1_REVO_8_XWW_Grille__01114.1666363562.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1057" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 SW-White FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C1058" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA SW-W GRILLE
+UPC:
+814820024890
+</t>
+        </is>
+      </c>
+      <c r="D1058" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1498/4558/1_REVO_8_SWW_Grille__13637.1666363553.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1058" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 SW-Black FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C1059" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA SW-B GRILLE
+UPC:
+814820024883
+</t>
+        </is>
+      </c>
+      <c r="D1059" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1497/4560/1_REVO_8_SWB_Grille__93630.1666363571.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1059" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>REV 12 HD XS-W GRILLE | Wet Sounds REV 12 HD XS Grille White</t>
+        </is>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>$240.00</t>
+        </is>
+      </c>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XS-W GRILLE
+UPC:
+810042172609
+</t>
+        </is>
+      </c>
+      <c r="D1060" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1665/4701/REV_10_HD_XS_W_Grille___42087.1668784791.1280.1280__32929.1668786228.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1060" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>REV 12 HD XW-B GRILLE | Wet Sounds REV 12 HD XW Grille Black</t>
+        </is>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C1061" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XW-B GRILLE
+UPC:
+810042172616
+</t>
+        </is>
+      </c>
+      <c r="D1061" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1664/4700/REV_10_HD_XW_B_Grille___44804.1668784874.1280.1280__10630.1668786179.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1061" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>REV 12 HD XW-W GRILLE | Wet Sounds REV 12 HD XW Grille White</t>
+        </is>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XW-W GRILLE
+UPC:
+810042172623
+</t>
+        </is>
+      </c>
+      <c r="D1062" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1663/4699/REV_10_HD_XW_W_Grille___19216.1668784926.1280.1280__46160.1668786094.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1062" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>REV 12 HD XZ-W GRILLE | Wet Sounds REV 12 HD XZ Grille White</t>
+        </is>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-W GRILLE
+UPC:
+810042172470
+</t>
+        </is>
+      </c>
+      <c r="D1063" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1662/4698/REV_10_HD_XZ_W_Grille___99703.1668785014.1280.1280__09363.1668786030.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1063" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>REV 12 HD XZ-B GRILLE | Wet Sounds REV 12 HD XZ Grille Black</t>
+        </is>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-B GRILLE
+UPC:
+810042172494
+</t>
+        </is>
+      </c>
+      <c r="D1064" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1661/4697/REV_10_HD_XZ_B_Grille___55922.1668785058.1280.1280__50203.1668785972.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1064" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>REV 12 HD XS-B GRILLE | Wet Sounds REV 12 HD XS Grille Black</t>
+        </is>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>$240.00</t>
+        </is>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XS-B GRILLE
+UPC:
+810042172593
+</t>
+        </is>
+      </c>
+      <c r="D1065" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1660/4696/REV_10_HD_XS_B_Grille___09337.1668784735.1280.1280__46044.1668785860.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1065" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>REV 10 HD XZ-B GRILLE | Wet Sounds REV 10 HD XZ Grille Black</t>
+        </is>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C1066" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-B GRILLE
+UPC:
+810042172500
+</t>
+        </is>
+      </c>
+      <c r="D1066" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1659/4695/REV_10_HD_XZ_B_Grille___55922.1668785058.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1066" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>REV 10 HD XZ-W GRILLE | Wet Sounds REV 10 HD XZ Grille White</t>
+        </is>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C1067" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-W GRILLE
+UPC:
+810042172487
+</t>
+        </is>
+      </c>
+      <c r="D1067" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1658/4694/REV_10_HD_XZ_W_Grille___99703.1668785014.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1067" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>REV 10 HD XW-W GRILLE | Wet Sounds REV 10 HD XW Grille White</t>
+        </is>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XW-W GRILLE
+UPC:
+810042172586
+</t>
+        </is>
+      </c>
+      <c r="D1068" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1657/4693/REV_10_HD_XW_W_Grille___19216.1668784926.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1068" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>REV 10 HD XW-B GRILLE | Wet Sounds REV 10 HD XW Grille Black</t>
+        </is>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XW-B GRILLE
+UPC:
+810042172579
+</t>
+        </is>
+      </c>
+      <c r="D1069" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1656/4692/REV_10_HD_XW_B_Grille___44804.1668784874.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1069" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>REV 10 HD XS-W GRILLE | Wet Sounds REV 10 HD XS Grille White</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>$190.00</t>
+        </is>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XS-W GRILLE
+UPC:
+810042172562
+</t>
+        </is>
+      </c>
+      <c r="D1070" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1655/4691/REV_10_HD_XS_W_Grille___42087.1668784791.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1070" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>REV 10 HD XS-B GRILLE | Wet Sounds REV 10 HD XS Grille Black</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>$190.00</t>
+        </is>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XS-B GRILLE
+UPC:
+810042172555
+</t>
+        </is>
+      </c>
+      <c r="D1071" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1642/4690/REV_10_HD_XS_B_Grille___09337.1668784735.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1071" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>Revo 12 PSE | Wet Sounds Passive Radiator Subwoofer Enclosure</t>
+        </is>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>$1,499.95 - $1,579.95</t>
+        </is>
+      </c>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 PSE
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1072" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1527/2054/12_PSE_XS_B__74684__29674.1637194774.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1072" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>STEALTH AS-8 | Wet Sounds™ 8-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-8
+UPC:
+814820024791
+</t>
+        </is>
+      </c>
+      <c r="D1073" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1360/5740/AS-8_Front_Right__03743.1713207541.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1073" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:25:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>STEALTH AS-6 | Wet Sounds™ 6.5-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1074" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-6
+UPC:
+814820023312
+</t>
+        </is>
+      </c>
+      <c r="D1074" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1293/5731/AS-6_Front_Right__07941.1713207502.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1074" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>STEALTH AS-10 | Wet Sounds™ 10-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-10
+UPC:
+814820023251
+</t>
+        </is>
+      </c>
+      <c r="D1075" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1292/5748/AS-10_Front_Right__50395.1713207575.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1075" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>REVO 8 XW-W V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 XW-W V3
+UPC:
+810042171992
+</t>
+        </is>
+      </c>
+      <c r="D1076" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1702/5631/REVO_8_XW_W_Hero__32333.1709313500.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1076" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>AR-5 Defender Max | Wet Sounds 5-Speaker Defender Roof Audio System</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>$3,999.99</t>
+        </is>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+AR-5 Defender Max
+UPC:
+810042176805
+</t>
+        </is>
+      </c>
+      <c r="D1077" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1699/5295/AR-5_Defender_Max_Audio_Roof_Front_View_R_Web__25866.1701290006.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1077" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>ZERO 12 ENC | Wet Sounds™ ZERO 12-inch Rotomold Enclosure</t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>$369.99</t>
+        </is>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 12 ENC
+UPC:
+810042176447
+</t>
+        </is>
+      </c>
+      <c r="D1078" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1694/5811/ZERO_12_ENC_Web_Hero_Solo__24519.1713280845.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1078" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>AR-AMP 2CH | Wet Sounds 2-CH Amplifier for Ranger Roof Audio System</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+AR-AMP 2CH
+UPC:
+810042173866
+</t>
+        </is>
+      </c>
+      <c r="D1079" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1654/5306/AR-2CH_Front_View_Web__91025.1701293245.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1079" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>STEALTH XT 12-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 12-B
+UPC:
+810042173095
+</t>
+        </is>
+      </c>
+      <c r="D1080" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1653/5275/Stealth_XT12_Hero__64541.1701045828.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1080" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>STEALTH XT 8-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 8-B
+UPC:
+810042173101
+</t>
+        </is>
+      </c>
+      <c r="D1081" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1652/5276/Stealth_XT8_Hero__73552.1701045835.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1081" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>STEALTH XT 6-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 6-B
+UPC:
+810042173088
+</t>
+        </is>
+      </c>
+      <c r="D1082" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1651/5277/Stealth_XT6_Hero__88966.1701045845.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1082" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>AR-5 Ranger Crew | Wet Sounds™ 5-Speaker Ranger Roof Audio System</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>$3,999.99</t>
+        </is>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+AR-5 Ranger Crew
+UPC:
+810042173651
+</t>
+        </is>
+      </c>
+      <c r="D1083" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1643/5304/AR-5_Ranger_Crew_Audio_Roof_Front_View_R_Web__75719.1701290880.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1083" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>REV8™ White V2 | Wet Sounds Revolution Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1084" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1640/4375/REV8_W_Web_Hero__78931.1654888304.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1084" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>REV8™ Black V2 | Wet Sounds Revolution Series 8" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1085" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1639/4369/REV8_B_Web_Hero__69496.1646949336.1280.1280__81274.1654887818.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1085" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>REV10™ White V2 | Wet Sounds Revolution Series 10" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1086" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1638/4359/REV10_W_Web_Hero__38956.1654887066.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1086" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>REV10™ Black V2 | Wet Sounds Revolution Series 10" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1087" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1637/4351/REV10_B_Web_Hero__57402.1647007395.1280.1280__29553.1654886710.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1087" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>REV 410 Black V2 | Wet Sounds Revolution Series Dual 10" Black Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1088" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1636/4345/REV410_B_X_Web_Front___24105.1654881808.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1088" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>REV 410 White V2 | Wet Sounds Revolution Series Dual 10" White Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1089" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1635/4342/REV410_W_X_Web_Front___65923.1647007018.1280.1280__51826.1654881737.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1089" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>ICON8™ White V2  | Wet Sounds ICON Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>$599.99 - $1,349.99</t>
+        </is>
+      </c>
+      <c r="C1090" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ICON 8-W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1090" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1634/4328/ICON8_W_Web_Hero__40196.1654880484.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1090" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-BG | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-BG
+UPC:
+810042171824
+</t>
+        </is>
+      </c>
+      <c r="D1091" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1629/4183/RECON_6_BG_Web_Hero__17738.1651583337.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1091" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-W | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-W
+UPC:
+810042173019
+</t>
+        </is>
+      </c>
+      <c r="D1092" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1624/5377/ZERO_8_W_Hero_Web__27066.1708447150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1092" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-B | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-B
+UPC:
+810042172760
+</t>
+        </is>
+      </c>
+      <c r="D1093" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1623/5372/ZERO_8_B_Web_Hero__46095.1708447055.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1093" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-W | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-W
+UPC:
+810042173002
+</t>
+        </is>
+      </c>
+      <c r="D1094" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1622/5353/ZERO_6_W_Web_Hero__48185.1708446825.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1094" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-B | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-B
+UPC:
+810042172753
+</t>
+        </is>
+      </c>
+      <c r="D1095" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1621/5363/ZERO_6_B_Web_Hero__23189.1708446915.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1095" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>RECON 8-BG RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C1096" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-BG RGB
+UPC:
+810042171817
+</t>
+        </is>
+      </c>
+      <c r="D1096" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1617/5383/RECON_8-XS_Front_Right_Hero_G__04334.1708959945.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1096" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>RECON 6-BG RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG RGB
+UPC:
+810042171800
+</t>
+        </is>
+      </c>
+      <c r="D1097" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1616/5415/RECON_6-XS_Front_Hero_G__11887.1708962166.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1097" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>WWX-DZ-BT | Wet Sounds™ Dual Zone Bluetooth Controller</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WWX-DZ-BT
+UPC:
+810042170803
+</t>
+        </is>
+      </c>
+      <c r="D1098" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1565/4543/DZ_BT_Front__15731.1666361204.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1098" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>Stealth HD Remote replacement</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+PT-STEALTH HD REMOTE
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1099" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1533/4196/Stealth_UHD_Remote_Front__77941.1652811658.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1099" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>Revo 12 PSE | Wet Sounds Passive Radiator Subwoofer Enclosure</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>$1,499.95 - $1,579.95</t>
+        </is>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 PSE
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1100" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1527/2054/12_PSE_XS_B__74684__29674.1637194774.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1100" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>STEALTH-10 CORE-W | Wet Sounds STEALTH CORE 10 Speaker Non-Amplified Universal Soundbar</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-10 CORE-W
+UPC:
+814820023145
+</t>
+        </is>
+      </c>
+      <c r="D1101" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1482/3363/1_Stealth_10_Core_W_Web__90688.1642004847.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1101" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>STEALTH-10 ULTRA HD-W | Wet Sounds All-In-One Amplified Bluetooth®  Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-10 ULTRA HD-W
+UPC:
+814820023282
+</t>
+        </is>
+      </c>
+      <c r="D1102" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1480/3408/1_Stealth_10_UHD_W__97540.1642008122.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1102" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>STEALTH-6 ULTRA HD-W | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-6 ULTRA HD-W
+UPC:
+814820023305
+</t>
+        </is>
+      </c>
+      <c r="D1103" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1479/3412/1_Stealth_6_UHD_W__23067.1642009031.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1103" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-W S2
+UPC:
+814820024722
+</t>
+        </is>
+      </c>
+      <c r="D1104" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1459/5574/REVO_CX10_SW_W_Hero__01549.1709229069.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1104" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>REVO 8-XSB-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C1105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSB-SS
+UPC:
+814820023046
+</t>
+        </is>
+      </c>
+      <c r="D1105" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1453/5646/REVO_8_XS_B_SS_Hero__24569.1709314439.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1105" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>REVO 8-XSG-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C1106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSG-SS
+UPC:
+814820023206
+</t>
+        </is>
+      </c>
+      <c r="D1106" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1452/5655/REVO_8_XS_G_SS_Hero__58795.1709314920.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1106" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>REVO 8-XSW-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C1107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSW-SS
+UPC:
+814820022421
+</t>
+        </is>
+      </c>
+      <c r="D1107" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1451/5659/REVO_8_XS_W_SS_Hero__40898.1709324600.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1107" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>REVO 8-XSS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C1108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSS
+UPC:
+814820023213
+</t>
+        </is>
+      </c>
+      <c r="D1108" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1450/5617/REVO_8_XS_S_Hero__59990.1709312658.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1108" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>REVO 8 SW-B V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C1109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 SW-B V3
+UPC:
+810042173064
+</t>
+        </is>
+      </c>
+      <c r="D1109" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1449/5624/REVO_8_SW_B_Hero__54808.1709313038.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1109" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>REVO 8-SWW | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C1110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-SWW
+UPC:
+814820022322
+</t>
+        </is>
+      </c>
+      <c r="D1110" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1448/5667/REVO_8_SW_W_Hero__17640.1709324663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1110" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>REVO 8-XWB | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C1111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XWB
+UPC:
+814820022339
+</t>
+        </is>
+      </c>
+      <c r="D1111" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1447/5637/REVO_8_XW_B_Hero__85483.1709313935.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1111" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W RGB
+UPC:
+814820027518
+</t>
+        </is>
+      </c>
+      <c r="D1112" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1445/5419/RECON_6-XS_Front_Hero_G__57907.1708962243.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1112" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>RECON 6-S RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S RGB
+UPC:
+814820027310
+</t>
+        </is>
+      </c>
+      <c r="D1113" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1444/5405/RECON_6-XS_Hero_G__00191.1708962100.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1113" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>RECON 8 XW-W RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8 XW-W RGB
+UPC:
+814820027525
+</t>
+        </is>
+      </c>
+      <c r="D1114" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1443/5393/RECON_8-XS_Front_Right_Hero_G__13110.1708960108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1114" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>RECON 8-S RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-S RGB
+UPC:
+814820027334
+</t>
+        </is>
+      </c>
+      <c r="D1115" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1442/5388/RECON_8-XS_Front_Right_Hero_G__30821.1708960025.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1115" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>RECON 5-S | RECON™ Series 5.25-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 5-S
+UPC:
+814820027549
+</t>
+        </is>
+      </c>
+      <c r="D1116" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1439/5403/RECON_5-XS_Hero__02225.1708961993.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1116" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.5 | Wet Sounds Stealth Clamp For 1.5" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.5
+UPC:
+853414005358
+</t>
+        </is>
+      </c>
+      <c r="D1117" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1367/2414/1_1.50_RND_Clamps__21455__02143.1637194850.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1117" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.75 | Wet Sounds Stealth Clamp For 1.75" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.75
+UPC:
+853414005365
+</t>
+        </is>
+      </c>
+      <c r="D1118" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1366/2417/1_1.75_RND_Clamps__59114__19242.1637194851.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1118" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ .75 | Wet Sounds Stealth Clamp For .75" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ .75
+UPC:
+853414005372
+</t>
+        </is>
+      </c>
+      <c r="D1119" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1365/2427/1_0.75_Square_Clamps__66224__70772.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1119" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.0 | Wet Sounds Stealth Clamp For 1" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.0
+UPC:
+853414005389
+</t>
+        </is>
+      </c>
+      <c r="D1120" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1364/2430/1_1.0_Square_Clamps__67269__49843.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1120" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.25 | Wet Sounds Stealth Clamp For 1.25" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.25
+UPC:
+853414005396
+</t>
+        </is>
+      </c>
+      <c r="D1121" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1363/2433/1_1.25_Square_Clamps__83205__21949.1637194854.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1121" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 2.0 T | Wet Sounds Stealth Clamp For 2" Tube</t>
+        </is>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>$42.99</t>
+        </is>
+      </c>
+      <c r="C1122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 2.0 T
+UPC:
+810042172333
+</t>
+        </is>
+      </c>
+      <c r="D1122" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1362/2420/1_2.0_RND_Clamps__29986__47318.1680276146.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1122" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>ST-ADP-SLIDER BRACKET | Wet Sounds Stealth Slider Bracket For STEALTH 6 &amp; STEALTH 10 Soundbars</t>
+        </is>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>$49.99</t>
+        </is>
+      </c>
+      <c r="C1123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SLIDER BRACKET
+UPC:
+853414005891
+</t>
+        </is>
+      </c>
+      <c r="D1123" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1361/2423/1_Slider_Brackets__70189__99738.1637194852.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1123" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>STEALTH AS-8 | Wet Sounds™ 8-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C1124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-8
+UPC:
+814820024791
+</t>
+        </is>
+      </c>
+      <c r="D1124" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1360/5740/AS-8_Front_Right__03743.1713207541.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1124" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>STEALTH-6 SURGE-B | Wet Sounds STEALTH SURGE 6 Speaker Amplified Universal Soundbar</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-6 SURGE-B
+UPC:
+814820024548
+</t>
+        </is>
+      </c>
+      <c r="D1125" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1359/3378/1_Stealth_6_Surge_B_Web__61174.1642006568.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1125" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr"/>
+      <c r="B1126" t="inlineStr"/>
+      <c r="C1126" t="inlineStr"/>
+      <c r="D1126" t="inlineStr"/>
+      <c r="E1126" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-B | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-B
+UPC:
+814820027457
+</t>
+        </is>
+      </c>
+      <c r="D1127" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1332/4083/RECON_6_S_Web_Hero__43958.1647027848.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1127" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-W | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C1128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-W
+UPC:
+814820027464
+</t>
+        </is>
+      </c>
+      <c r="D1128" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1331/4080/RECON_6_XW_Web_Hero__39058.1647027796.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1128" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>STEALTH AS-6 | Wet Sounds™ 6.5-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-6
+UPC:
+814820023312
+</t>
+        </is>
+      </c>
+      <c r="D1129" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1293/5731/AS-6_Front_Right__07941.1713207502.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1129" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>STEALTH AS-10 | Wet Sounds™ 10-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-10
+UPC:
+814820023251
+</t>
+        </is>
+      </c>
+      <c r="D1130" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1292/5748/AS-10_Front_Right__50395.1713207575.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1130" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>RECON 6-S | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S
+UPC:
+814820027303
+</t>
+        </is>
+      </c>
+      <c r="D1131" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1289/5427/RECON_6-XS_Hero__59634.1708962364.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1131" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>RECON 6-BG | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black Grilles</t>
+        </is>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG
+UPC:
+814820027501
+</t>
+        </is>
+      </c>
+      <c r="D1132" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1288/5432/RECON_6-XS_Front_Hero__48179.1708962424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1132" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White Grilles</t>
+        </is>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W
+UPC:
+814820027624
+</t>
+        </is>
+      </c>
+      <c r="D1133" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1287/5438/RECON_6-XS_Front_Hero__59396.1708962477.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1133" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>REVO 6-XWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XWW
+UPC:
+814820023053
+</t>
+        </is>
+      </c>
+      <c r="D1134" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1286/5669/REVO_6_XW_W_Hero__12806.1709581449.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1134" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>REVO 6-XSW-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C1135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSW-SS
+UPC:
+814820023060
+</t>
+        </is>
+      </c>
+      <c r="D1135" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1285/5677/REVO_6_XS_W_SS_Hero__51031.1709581486.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1135" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>REVO 6-SWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWW
+UPC:
+814820022292
+</t>
+        </is>
+      </c>
+      <c r="D1136" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1284/5683/REVO_6_SW_W_Hero__76882.1709581516.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1136" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr"/>
+      <c r="B1137" t="inlineStr"/>
+      <c r="C1137" t="inlineStr"/>
+      <c r="D1137" t="inlineStr"/>
+      <c r="E1137" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>REVO 6-XSG-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C1138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSG-SS
+UPC:
+814820023176
+</t>
+        </is>
+      </c>
+      <c r="D1138" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1282/5693/REVO_6_XS_G_SS_Hero__95565.1709581601.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1138" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr"/>
+      <c r="B1139" t="inlineStr"/>
+      <c r="C1139" t="inlineStr"/>
+      <c r="D1139" t="inlineStr"/>
+      <c r="E1139" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>REVO 6 XS-B-SS V3 | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="C1140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 XS-B-SS V3
+UPC:
+810042170148
+</t>
+        </is>
+      </c>
+      <c r="D1140" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1280/5715/REVO_6_XS_B_SS_Hero__67615.1709581844.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1140" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>REVO 6-SWB | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWB
+UPC:
+814820022308
+</t>
+        </is>
+      </c>
+      <c r="D1141" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1279/5709/REVO_6_SW_B_Hero__22160.1709581813.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1141" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-B S2
+UPC:
+814820024715
+</t>
+        </is>
+      </c>
+      <c r="D1142" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1277/5571/REVO_CX10_SW_B_Hero__55586.1709151911.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1142" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-S S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-S S2
+UPC:
+814820024760
+</t>
+        </is>
+      </c>
+      <c r="D1143" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1276/5588/REVO_CX10_XS_S_Hero__06379.1709231959.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1143" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-B S2
+UPC:
+814820024777
+</t>
+        </is>
+      </c>
+      <c r="D1144" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1275/5601/REVO_CX10_XW_B_Hero__80563.1709232713.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1144" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-W S2
+UPC:
+814820024784
+</t>
+        </is>
+      </c>
+      <c r="D1145" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1274/5606/REVO_CX10_XW_W_Hero__14177.1709237050.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1145" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-B-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-B-SS S2
+UPC:
+814820024739
+</t>
+        </is>
+      </c>
+      <c r="D1146" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1273/5594/REVO_CX10_XS_B_SS_Hero__29022.1709232385.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1146" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-G-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-G-SS S2
+UPC:
+814820024753
+</t>
+        </is>
+      </c>
+      <c r="D1147" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1272/5580/REVO_CX10_XS_G_SS_Hero__23286.1709230163.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1147" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-W-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-W-SS S2
+UPC:
+814820024746
+</t>
+        </is>
+      </c>
+      <c r="D1148" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1271/5610/REVO_CX10_XS_W_SS_Hero__86437.1709237352.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1148" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>HTX-1 | Wet Sounds Class-D Monoblock Subwoofer Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-1
+UPC:
+814820022209
+</t>
+        </is>
+      </c>
+      <c r="D1149" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1262/3437/1_HTX_1__66896.1642091392.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1149" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>HTX-2 | Wet Sounds 2 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-2
+UPC:
+814820022179
+</t>
+        </is>
+      </c>
+      <c r="D1150" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1261/1579/1_HTX_2__29615__16659.1637194674.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1150" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>HTX-4 | Wet Sounds 4 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-4
+UPC:
+814820022155
+</t>
+        </is>
+      </c>
+      <c r="D1151" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1260/1584/1_HTX_4__75666__26453.1637194675.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1151" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>HTX-6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-6
+UPC:
+814820022162
+</t>
+        </is>
+      </c>
+      <c r="D1152" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1259/1589/1_HTX_6__73141__79749.1642096762.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1152" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>STX MICRO-1 | Wet Sounds Compact Chassis Class-D Monoblock Marine A</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-1
+UPC:
+814820023329
+</t>
+        </is>
+      </c>
+      <c r="D1153" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1258/2520/Micro_STX_Hero__81706__61326.1637194869.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1153" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>STX MICRO-4 | Wet Sounds Compact Chassis Class-D 4-Ch Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>$439.99</t>
+        </is>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-4
+UPC:
+814820023336
+</t>
+        </is>
+      </c>
+      <c r="D1154" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1257/2526/Micro_STX_Hero__17041__18108.1637194870.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1154" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>REVO 8 XW-W V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 XW-W V3
+UPC:
+810042171992
+</t>
+        </is>
+      </c>
+      <c r="D1155" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1702/5631/REVO_8_XW_W_Hero__32333.1709313500.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1155" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>STEALTH XT 12-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 12-B
+UPC:
+810042173095
+</t>
+        </is>
+      </c>
+      <c r="D1156" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1653/5275/Stealth_XT12_Hero__64541.1701045828.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1156" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>STEALTH XT 8-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 8-B
+UPC:
+810042173101
+</t>
+        </is>
+      </c>
+      <c r="D1157" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1652/5276/Stealth_XT8_Hero__73552.1701045835.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1157" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>STEALTH XT 6-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 6-B
+UPC:
+810042173088
+</t>
+        </is>
+      </c>
+      <c r="D1158" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1651/5277/Stealth_XT6_Hero__88966.1701045845.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1158" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-W | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-W
+UPC:
+810042173019
+</t>
+        </is>
+      </c>
+      <c r="D1159" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1624/5377/ZERO_8_W_Hero_Web__27066.1708447150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1159" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-B | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-B
+UPC:
+810042172760
+</t>
+        </is>
+      </c>
+      <c r="D1160" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1623/5372/ZERO_8_B_Web_Hero__46095.1708447055.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1160" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-W | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-W
+UPC:
+810042173002
+</t>
+        </is>
+      </c>
+      <c r="D1161" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1622/5353/ZERO_6_W_Web_Hero__48185.1708446825.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1161" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:26:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-B | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-B
+UPC:
+810042172753
+</t>
+        </is>
+      </c>
+      <c r="D1162" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1621/5363/ZERO_6_B_Web_Hero__23189.1708446915.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1162" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>RECON 8-BG RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-BG RGB
+UPC:
+810042171817
+</t>
+        </is>
+      </c>
+      <c r="D1163" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1617/5383/RECON_8-XS_Front_Right_Hero_G__04334.1708959945.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1163" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>RECON 6-BG RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG RGB
+UPC:
+810042171800
+</t>
+        </is>
+      </c>
+      <c r="D1164" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1616/5415/RECON_6-XS_Front_Hero_G__11887.1708962166.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1164" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>GC-AMP-KIT  | Wet Sounds Golf Cart Amp Wiring Kit for STX Micro-4</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>$89.99</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+GC-AMP-KIT
+UPC:
+810042171589
+</t>
+        </is>
+      </c>
+      <c r="D1165" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1605/1569/GC-AMP-KIT__17000__26134.1637194671.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1165" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>GC-H4S | Wet Sounds Golf Cart Audio System Harness</t>
+        </is>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>$149.99</t>
+        </is>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+GC-H4S
+UPC:
+810042171299
+</t>
+        </is>
+      </c>
+      <c r="D1166" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1597/1571/Golf_Cart_Harness_3__59544__36842.1637194672.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1166" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>REVO 8-XSB-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSB-SS
+UPC:
+814820023046
+</t>
+        </is>
+      </c>
+      <c r="D1167" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1453/5646/REVO_8_XS_B_SS_Hero__24569.1709314439.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1167" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>REVO 8-XSG-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSG-SS
+UPC:
+814820023206
+</t>
+        </is>
+      </c>
+      <c r="D1168" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1452/5655/REVO_8_XS_G_SS_Hero__58795.1709314920.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1168" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>REVO 8-XSW-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSW-SS
+UPC:
+814820022421
+</t>
+        </is>
+      </c>
+      <c r="D1169" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1451/5659/REVO_8_XS_W_SS_Hero__40898.1709324600.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1169" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>REVO 8-XSS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSS
+UPC:
+814820023213
+</t>
+        </is>
+      </c>
+      <c r="D1170" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1450/5617/REVO_8_XS_S_Hero__59990.1709312658.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1170" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>REVO 8 SW-B V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 SW-B V3
+UPC:
+810042173064
+</t>
+        </is>
+      </c>
+      <c r="D1171" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1449/5624/REVO_8_SW_B_Hero__54808.1709313038.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1171" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>REVO 8-SWW | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-SWW
+UPC:
+814820022322
+</t>
+        </is>
+      </c>
+      <c r="D1172" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1448/5667/REVO_8_SW_W_Hero__17640.1709324663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1172" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>REVO 8-XWB | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XWB
+UPC:
+814820022339
+</t>
+        </is>
+      </c>
+      <c r="D1173" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1447/5637/REVO_8_XW_B_Hero__85483.1709313935.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1173" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W RGB
+UPC:
+814820027518
+</t>
+        </is>
+      </c>
+      <c r="D1174" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1445/5419/RECON_6-XS_Front_Hero_G__57907.1708962243.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1174" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>RECON 6-S RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S RGB
+UPC:
+814820027310
+</t>
+        </is>
+      </c>
+      <c r="D1175" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1444/5405/RECON_6-XS_Hero_G__00191.1708962100.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t>RECON 8 XW-W RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8 XW-W RGB
+UPC:
+814820027525
+</t>
+        </is>
+      </c>
+      <c r="D1176" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1443/5393/RECON_8-XS_Front_Right_Hero_G__13110.1708960108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1176" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>RECON 8-S RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-S RGB
+UPC:
+814820027334
+</t>
+        </is>
+      </c>
+      <c r="D1177" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1442/5388/RECON_8-XS_Front_Right_Hero_G__30821.1708960025.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1177" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>RECON 5-S | RECON™ Series 5.25-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 5-S
+UPC:
+814820027549
+</t>
+        </is>
+      </c>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1439/5403/RECON_5-XS_Hero__02225.1708961993.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1178" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.5 | Wet Sounds Stealth Clamp For 1.5" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.5
+UPC:
+853414005358
+</t>
+        </is>
+      </c>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1367/2414/1_1.50_RND_Clamps__21455__02143.1637194850.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1179" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.75 | Wet Sounds Stealth Clamp For 1.75" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.75
+UPC:
+853414005365
+</t>
+        </is>
+      </c>
+      <c r="D1180" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1366/2417/1_1.75_RND_Clamps__59114__19242.1637194851.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1180" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ .75 | Wet Sounds Stealth Clamp For .75" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ .75
+UPC:
+853414005372
+</t>
+        </is>
+      </c>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1365/2427/1_0.75_Square_Clamps__66224__70772.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.0 | Wet Sounds Stealth Clamp For 1" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.0
+UPC:
+853414005389
+</t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1364/2430/1_1.0_Square_Clamps__67269__49843.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1182" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.25 | Wet Sounds Stealth Clamp For 1.25" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.25
+UPC:
+853414005396
+</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1363/2433/1_1.25_Square_Clamps__83205__21949.1637194854.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1183" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 2.0 T | Wet Sounds Stealth Clamp For 2" Tube</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>$42.99</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 2.0 T
+UPC:
+810042172333
+</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1362/2420/1_2.0_RND_Clamps__29986__47318.1680276146.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1184" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>ST-ADP-SLIDER BRACKET | Wet Sounds Stealth Slider Bracket For STEALTH 6 &amp; STEALTH 10 Soundbars</t>
+        </is>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>$49.99</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SLIDER BRACKET
+UPC:
+853414005891
+</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1361/2423/1_Slider_Brackets__70189__99738.1637194852.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1185" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>STEALTH AS-8 | Wet Sounds™ 8-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-8
+UPC:
+814820024791
+</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1360/5740/AS-8_Front_Right__03743.1713207541.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1186" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>STEALTH AS-6 | Wet Sounds™ 6.5-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-6
+UPC:
+814820023312
+</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1293/5731/AS-6_Front_Right__07941.1713207502.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1187" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>STEALTH AS-10 | Wet Sounds™ 10-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-10
+UPC:
+814820023251
+</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1292/5748/AS-10_Front_Right__50395.1713207575.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1188" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>RECON 6-S | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S
+UPC:
+814820027303
+</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1289/5427/RECON_6-XS_Hero__59634.1708962364.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1189" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>RECON 6-BG | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black Grilles</t>
+        </is>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG
+UPC:
+814820027501
+</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1288/5432/RECON_6-XS_Front_Hero__48179.1708962424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1190" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White Grilles</t>
+        </is>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W
+UPC:
+814820027624
+</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1287/5438/RECON_6-XS_Front_Hero__59396.1708962477.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1191" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>REVO 6-XWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XWW
+UPC:
+814820023053
+</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1286/5669/REVO_6_XW_W_Hero__12806.1709581449.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1192" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>REVO 6-XSW-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSW-SS
+UPC:
+814820023060
+</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1285/5677/REVO_6_XS_W_SS_Hero__51031.1709581486.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1193" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>REVO 6-SWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWW
+UPC:
+814820022292
+</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1284/5683/REVO_6_SW_W_Hero__76882.1709581516.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1194" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr"/>
+      <c r="B1195" t="inlineStr"/>
+      <c r="C1195" t="inlineStr"/>
+      <c r="D1195" t="inlineStr"/>
+      <c r="E1195" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>REVO 6-XSG-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSG-SS
+UPC:
+814820023176
+</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1282/5693/REVO_6_XS_G_SS_Hero__95565.1709581601.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr"/>
+      <c r="B1197" t="inlineStr"/>
+      <c r="C1197" t="inlineStr"/>
+      <c r="D1197" t="inlineStr"/>
+      <c r="E1197" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>REVO 6 XS-B-SS V3 | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 XS-B-SS V3
+UPC:
+810042170148
+</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1280/5715/REVO_6_XS_B_SS_Hero__67615.1709581844.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1198" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>REVO 6-SWB | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWB
+UPC:
+814820022308
+</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1279/5709/REVO_6_SW_B_Hero__22160.1709581813.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1199" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 110v, 1200W 4 Channel Amplifier</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>$1,249.99</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-1200-AMP
+UPC:
+810042170773
+</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1684/4972/Venue_1200_Three_Quarter__05079.1688654940.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1200" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ LS Pro Package</t>
+        </is>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>$6,299.99</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-LS PRO PACKAGE
+UPC:
+810042171466
+</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1604/4999/VS_Package_Web__61197.1688658820.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1201" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ Shallow Mount 6.5" Ceiling Speakers</t>
+        </is>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>$269.99</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-SMC-65
+UPC:
+810042171114
+</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1589/4945/VS_SMC_65_Web__57267.1686758771.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1202" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 110v, 1200W 4 Channel Amplifier w/Enclosure</t>
+        </is>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>$1,999.98</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-AMPLIFIER SYSTEM-4
+UPC:
+810042171282
+</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1577/4998/VS_Amp_System__41906.1688658687.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1203" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 12" Landscape In-Ground Subwoofer</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>$1,499.99</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-12 LS-SUB
+UPC:
+810042170780
+</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1576/5000/OD_Sub_Front__38749.1688658990.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1204" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ Landscape Ground Spike</t>
+        </is>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>$99.99</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-LS-SP
+UPC:
+810042170223
+</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1575/5004/OD_Landscape_Spike__18057.1688659027.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1205" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 6x9" Black HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-69 PRO-B
+UPC:
+810042170209
+</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1574/4983/Venue_VS69_Hero_Pair_B__22533.1688657979.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1206" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 6x9" White HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-69 PRO-W
+UPC:
+810042170216
+</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1573/4978/Venue_VS69_Hero_Pair_W__06446.1688657950.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1207" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 8" White HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-8 PRO-W
+UPC:
+814820029499
+</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1572/4990/VS-8_W_Hero_Pair__68899.1688658629.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1208" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 8" Black HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-8 PRO-B
+UPC:
+814820029482
+</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1571/4994/VS-8_B_Hero_Pair__68789.1688658649.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1209" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:27:30</t>
         </is>
       </c>
     </row>

--- a/Output_informacoes_produtos_wet_sounds.xlsx
+++ b/Output_informacoes_produtos_wet_sounds.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1209"/>
+  <dimension ref="A1:E1511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
@@ -29076,10 +29076,6 @@
       </c>
     </row>
     <row r="934">
-      <c r="A934" t="inlineStr"/>
-      <c r="B934" t="inlineStr"/>
-      <c r="C934" t="inlineStr"/>
-      <c r="D934" t="inlineStr"/>
       <c r="E934" t="inlineStr">
         <is>
           <t>2024-04-19 09:24:24</t>
@@ -29119,10 +29115,6 @@
       </c>
     </row>
     <row r="936">
-      <c r="A936" t="inlineStr"/>
-      <c r="B936" t="inlineStr"/>
-      <c r="C936" t="inlineStr"/>
-      <c r="D936" t="inlineStr"/>
       <c r="E936" t="inlineStr">
         <is>
           <t>2024-04-19 09:24:25</t>
@@ -35160,10 +35152,6 @@
       </c>
     </row>
     <row r="1126">
-      <c r="A1126" t="inlineStr"/>
-      <c r="B1126" t="inlineStr"/>
-      <c r="C1126" t="inlineStr"/>
-      <c r="D1126" t="inlineStr"/>
       <c r="E1126" t="inlineStr">
         <is>
           <t>2024-04-19 09:26:35</t>
@@ -35491,10 +35479,6 @@
       </c>
     </row>
     <row r="1137">
-      <c r="A1137" t="inlineStr"/>
-      <c r="B1137" t="inlineStr"/>
-      <c r="C1137" t="inlineStr"/>
-      <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr">
         <is>
           <t>2024-04-19 09:26:43</t>
@@ -35534,10 +35518,6 @@
       </c>
     </row>
     <row r="1139">
-      <c r="A1139" t="inlineStr"/>
-      <c r="B1139" t="inlineStr"/>
-      <c r="C1139" t="inlineStr"/>
-      <c r="D1139" t="inlineStr"/>
       <c r="E1139" t="inlineStr">
         <is>
           <t>2024-04-19 09:26:44</t>
@@ -37305,10 +37285,6 @@
       </c>
     </row>
     <row r="1195">
-      <c r="A1195" t="inlineStr"/>
-      <c r="B1195" t="inlineStr"/>
-      <c r="C1195" t="inlineStr"/>
-      <c r="D1195" t="inlineStr"/>
       <c r="E1195" t="inlineStr">
         <is>
           <t>2024-04-19 09:27:20</t>
@@ -37348,10 +37324,6 @@
       </c>
     </row>
     <row r="1197">
-      <c r="A1197" t="inlineStr"/>
-      <c r="B1197" t="inlineStr"/>
-      <c r="C1197" t="inlineStr"/>
-      <c r="D1197" t="inlineStr"/>
       <c r="E1197" t="inlineStr">
         <is>
           <t>2024-04-19 09:27:22</t>
@@ -37739,6 +37711,9505 @@
       <c r="E1209" t="inlineStr">
         <is>
           <t>2024-04-19 09:27:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="inlineStr">
+        <is>
+          <t>REVO 8 XW-W V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 XW-W V3
+UPC:
+810042171992
+</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1702/5631/REVO_8_XW_W_Hero__32333.1709313500.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1210" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:18:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-W | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-W
+UPC:
+810042173019
+</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1624/5377/ZERO_8_W_Hero_Web__27066.1708447150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1211" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:18:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-B | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-B
+UPC:
+810042172760
+</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1623/5372/ZERO_8_B_Web_Hero__46095.1708447055.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1212" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:18:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-W | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-W
+UPC:
+810042173002
+</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1622/5353/ZERO_6_W_Web_Hero__48185.1708446825.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1213" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:18:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-B | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-B
+UPC:
+810042172753
+</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1621/5363/ZERO_6_B_Web_Hero__23189.1708446915.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1214" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:18:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="inlineStr">
+        <is>
+          <t>RECON 8-BG RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-BG RGB
+UPC:
+810042171817
+</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1617/5383/RECON_8-XS_Front_Right_Hero_G__04334.1708959945.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1215" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:18:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="inlineStr">
+        <is>
+          <t>RECON 6-BG RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG RGB
+UPC:
+810042171800
+</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1616/5415/RECON_6-XS_Front_Hero_G__11887.1708962166.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1216" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:18:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-W S2
+UPC:
+814820024722
+</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1459/5574/REVO_CX10_SW_W_Hero__01549.1709229069.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1217" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:18:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="inlineStr">
+        <is>
+          <t>REVO 8-XSB-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSB-SS
+UPC:
+814820023046
+</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1453/5646/REVO_8_XS_B_SS_Hero__24569.1709314439.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1218" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:18:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="inlineStr">
+        <is>
+          <t>REVO 8-XSG-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSG-SS
+UPC:
+814820023206
+</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1452/5655/REVO_8_XS_G_SS_Hero__58795.1709314920.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1219" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:18:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>REVO 8-XSW-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSW-SS
+UPC:
+814820022421
+</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1451/5659/REVO_8_XS_W_SS_Hero__40898.1709324600.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1220" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:18:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="inlineStr">
+        <is>
+          <t>REVO 8-XSS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSS
+UPC:
+814820023213
+</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1450/5617/REVO_8_XS_S_Hero__59990.1709312658.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1221" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:18:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="inlineStr">
+        <is>
+          <t>REVO 8 SW-B V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 SW-B V3
+UPC:
+810042173064
+</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1449/5624/REVO_8_SW_B_Hero__54808.1709313038.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1222" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:18:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="inlineStr">
+        <is>
+          <t>REVO 8-SWW | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-SWW
+UPC:
+814820022322
+</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1448/5667/REVO_8_SW_W_Hero__17640.1709324663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1223" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:18:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="inlineStr">
+        <is>
+          <t>REVO 8-XWB | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XWB
+UPC:
+814820022339
+</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1447/5637/REVO_8_XW_B_Hero__85483.1709313935.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1224" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:18:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W RGB
+UPC:
+814820027518
+</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1445/5419/RECON_6-XS_Front_Hero_G__57907.1708962243.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1225" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:18:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="inlineStr">
+        <is>
+          <t>RECON 6-S RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S RGB
+UPC:
+814820027310
+</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1444/5405/RECON_6-XS_Hero_G__00191.1708962100.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1226" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:18:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t>RECON 8 XW-W RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8 XW-W RGB
+UPC:
+814820027525
+</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1443/5393/RECON_8-XS_Front_Right_Hero_G__13110.1708960108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1227" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:18:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t>RECON 8-S RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-S RGB
+UPC:
+814820027334
+</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1442/5388/RECON_8-XS_Front_Right_Hero_G__30821.1708960025.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1228" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:18:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>RECON 5-S | RECON™ Series 5.25-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 5-S
+UPC:
+814820027549
+</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1439/5403/RECON_5-XS_Hero__02225.1708961993.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1229" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:18:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr">
+        <is>
+          <t>RECON 6-S | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S
+UPC:
+814820027303
+</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1289/5427/RECON_6-XS_Hero__59634.1708962364.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1230" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:18:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t>RECON 6-BG | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black Grilles</t>
+        </is>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG
+UPC:
+814820027501
+</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1288/5432/RECON_6-XS_Front_Hero__48179.1708962424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1231" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:18:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White Grilles</t>
+        </is>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W
+UPC:
+814820027624
+</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1287/5438/RECON_6-XS_Front_Hero__59396.1708962477.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1232" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
+        <is>
+          <t>REVO 6-XWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XWW
+UPC:
+814820023053
+</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1286/5669/REVO_6_XW_W_Hero__12806.1709581449.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1233" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>REVO 6-XSW-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSW-SS
+UPC:
+814820023060
+</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1285/5677/REVO_6_XS_W_SS_Hero__51031.1709581486.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1234" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t>REVO 6-SWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWW
+UPC:
+814820022292
+</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1284/5683/REVO_6_SW_W_Hero__76882.1709581516.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1235" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr"/>
+      <c r="B1236" t="inlineStr"/>
+      <c r="C1236" t="inlineStr"/>
+      <c r="D1236" t="inlineStr"/>
+      <c r="E1236" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>REVO 6-XSG-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSG-SS
+UPC:
+814820023176
+</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1282/5693/REVO_6_XS_G_SS_Hero__95565.1709581601.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1237" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr"/>
+      <c r="B1238" t="inlineStr"/>
+      <c r="C1238" t="inlineStr"/>
+      <c r="D1238" t="inlineStr"/>
+      <c r="E1238" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t>REVO 6 XS-B-SS V3 | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 XS-B-SS V3
+UPC:
+810042170148
+</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1280/5715/REVO_6_XS_B_SS_Hero__67615.1709581844.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1239" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t>REVO 6-SWB | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWB
+UPC:
+814820022308
+</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1279/5709/REVO_6_SW_B_Hero__22160.1709581813.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1240" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-B S2
+UPC:
+814820024715
+</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1277/5571/REVO_CX10_SW_B_Hero__55586.1709151911.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1241" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-S S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1242" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-S S2
+UPC:
+814820024760
+</t>
+        </is>
+      </c>
+      <c r="D1242" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1276/5588/REVO_CX10_XS_S_Hero__06379.1709231959.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1242" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1243" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-B S2
+UPC:
+814820024777
+</t>
+        </is>
+      </c>
+      <c r="D1243" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1275/5601/REVO_CX10_XW_B_Hero__80563.1709232713.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1243" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1244" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-W S2
+UPC:
+814820024784
+</t>
+        </is>
+      </c>
+      <c r="D1244" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1274/5606/REVO_CX10_XW_W_Hero__14177.1709237050.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1244" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-B-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1245" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C1245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-B-SS S2
+UPC:
+814820024739
+</t>
+        </is>
+      </c>
+      <c r="D1245" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1273/5594/REVO_CX10_XS_B_SS_Hero__29022.1709232385.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1245" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-G-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1246" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C1246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-G-SS S2
+UPC:
+814820024753
+</t>
+        </is>
+      </c>
+      <c r="D1246" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1272/5580/REVO_CX10_XS_G_SS_Hero__23286.1709230163.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1246" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-W-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1247" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C1247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-W-SS S2
+UPC:
+814820024746
+</t>
+        </is>
+      </c>
+      <c r="D1247" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1271/5610/REVO_CX10_XS_W_SS_Hero__86437.1709237352.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1247" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t>REV 10 HD White | Wet Sounds REV HD Series 10" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1248" t="inlineStr">
+        <is>
+          <t>$1,959.99</t>
+        </is>
+      </c>
+      <c r="C1248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-W-X
+UPC:
+810042177512
+</t>
+        </is>
+      </c>
+      <c r="D1248" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1673/4823/REV10_HD_W_XZ_Hero_R__75858.1675269054.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1248" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t>REV 10 HD Black | Wet Sounds REV HD Series 10" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1249" t="inlineStr">
+        <is>
+          <t>$1,959.99</t>
+        </is>
+      </c>
+      <c r="C1249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-B-X
+UPC:
+810042177307
+</t>
+        </is>
+      </c>
+      <c r="D1249" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1669/4777/REV12_HD_B_XZ_Hero_R__25053.1673993030.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1249" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>REV 12 HD White | Wet Sounds REV HD Series 12" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1250" t="inlineStr">
+        <is>
+          <t>$2,309.99</t>
+        </is>
+      </c>
+      <c r="C1250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-W-X
+UPC:
+810042177031
+</t>
+        </is>
+      </c>
+      <c r="D1250" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1649/4740/REV12_HD_W_XZ_Hero_R__07359.1672241311.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1250" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t>REV8™ White V2 | Wet Sounds Revolution Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1251" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C1251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1251" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1640/4375/REV8_W_Web_Hero__78931.1654888304.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1251" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t>REV8™ Black V2 | Wet Sounds Revolution Series 8" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1252" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C1252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1252" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1639/4369/REV8_B_Web_Hero__69496.1646949336.1280.1280__81274.1654887818.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1252" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t>REV10™ White V2 | Wet Sounds Revolution Series 10" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1253" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C1253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1253" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1638/4359/REV10_W_Web_Hero__38956.1654887066.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1253" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t>REV10™ Black V2 | Wet Sounds Revolution Series 10" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1254" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C1254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1254" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1637/4351/REV10_B_Web_Hero__57402.1647007395.1280.1280__29553.1654886710.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1254" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="inlineStr">
+        <is>
+          <t>REV 410 Black V2 | Wet Sounds Revolution Series Dual 10" Black Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B1255" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C1255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1255" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1636/4345/REV410_B_X_Web_Front___24105.1654881808.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1255" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
+        <is>
+          <t>REV 410 White V2 | Wet Sounds Revolution Series Dual 10" White Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B1256" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C1256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1256" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1635/4342/REV410_W_X_Web_Front___65923.1647007018.1280.1280__51826.1654881737.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1256" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="inlineStr">
+        <is>
+          <t>ICON8™ White V2  | Wet Sounds ICON Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1257" t="inlineStr">
+        <is>
+          <t>$599.99 - $1,349.99</t>
+        </is>
+      </c>
+      <c r="C1257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ICON 8-W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1257" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1634/4328/ICON8_W_Web_Hero__40196.1654880484.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1257" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="inlineStr">
+        <is>
+          <t>REV 12 HD Black | Wet Sounds REV HD Series 12" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1258" t="inlineStr">
+        <is>
+          <t>$2,309.99</t>
+        </is>
+      </c>
+      <c r="C1258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-B-X
+UPC:
+810042176836
+</t>
+        </is>
+      </c>
+      <c r="D1258" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1633/4724/REV12_HD_B_XZ_Hero_R__98406.1671112247.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1258" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-BG | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1259" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C1259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-BG
+UPC:
+810042171824
+</t>
+        </is>
+      </c>
+      <c r="D1259" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1629/5864/RECON_6_Pod_BG_Hero_G__07846.1713548018.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1259" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-B | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1260" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C1260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-B
+UPC:
+814820027457
+</t>
+        </is>
+      </c>
+      <c r="D1260" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1332/5857/RECON_6_Pod_S_Hero_G__70124.1713547935.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1260" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-W | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1261" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C1261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-W
+UPC:
+814820027464
+</t>
+        </is>
+      </c>
+      <c r="D1261" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1331/5851/RECON_6_Pod_XW_Hero_G__46069.1713547846.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1261" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="inlineStr">
+        <is>
+          <t>ICON8™ Black V2 | Wet Sounds ICON Series 8" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>$1,049.99 - $1,349.99</t>
+        </is>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ICON 8-B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1262" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1330/3705/ICON8_B_Web_Hero__60943.1646946843.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1262" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>WS-MC-5 | Wet Sounds™ AM/FM/Digital Tuner Media Center</t>
+        </is>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-5
+UPC:
+810042171596
+</t>
+        </is>
+      </c>
+      <c r="D1263" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1615/5317/MC-5_Hero_Image_Web__90008.1702572189.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1263" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>WWX-DZ-BT | Wet Sounds™ Dual Zone Bluetooth Controller</t>
+        </is>
+      </c>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C1264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WWX-DZ-BT
+UPC:
+810042170803
+</t>
+        </is>
+      </c>
+      <c r="D1264" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1565/4543/DZ_BT_Front__15731.1666361204.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1264" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t>WS-420 SQ | Wet Sounds™ Marine Multi Zone 4-Band Parametric Equalizer</t>
+        </is>
+      </c>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C1265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-420 SQ
+UPC:
+853414005105
+</t>
+        </is>
+      </c>
+      <c r="D1265" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1250/4427/420SQ_Front_with_Mic__47339.1658239355.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1265" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>WW-BT UR | Wet Sounds™ Marine Bluetooth Universal Receiver</t>
+        </is>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C1266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WW-BT UR
+UPC:
+814820024555
+</t>
+        </is>
+      </c>
+      <c r="D1266" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1249/4547/BT_UR_Front__46259.1666361333.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1266" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr">
+        <is>
+          <t>WW-BT VC-V2 | Wet Sounds™ Marine Bluetooth Knob With Volume Control</t>
+        </is>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>$129.99</t>
+        </is>
+      </c>
+      <c r="C1267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WW-BT VC-V2
+UPC:
+814820023022
+</t>
+        </is>
+      </c>
+      <c r="D1267" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1248/4536/BT_VC_Web_1__79246.1666361101.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1267" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>WW-BT RS | Wet Sounds™ Marine Bluetooth Rocker Switch With Volume Control</t>
+        </is>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>$129.99</t>
+        </is>
+      </c>
+      <c r="C1268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WW-BT RS
+UPC:
+814820023015
+</t>
+        </is>
+      </c>
+      <c r="D1268" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1247/4551/BT_RS_Front__57291.1666361561.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1268" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>WS-420 BT | Wet Sounds™ Marine Multi Zone 4-Band Parametric Equalizer w/ Integrated Bluetooth®</t>
+        </is>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C1269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-420 BT
+UPC:
+853414005150
+</t>
+        </is>
+      </c>
+      <c r="D1269" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1246/4430/Front_420_BT_2__22878.1658239507.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1269" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>WS-220 BT | Wet Sounds™ Marine 4-Zone Level Controller w/ Integrated Bluetooth®</t>
+        </is>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C1270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-220 BT
+UPC:
+814820023268
+</t>
+        </is>
+      </c>
+      <c r="D1270" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1245/4432/2_220BT_Front__40363.1658239691.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1270" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t>WS-MC-20 | Wet Sounds™ 2-Zone Media Center w/ SiriusXM-Ready® and NMEA 2000 Connectivity</t>
+        </is>
+      </c>
+      <c r="B1271" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-20
+UPC:
+814820029888
+</t>
+        </is>
+      </c>
+      <c r="D1271" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1590/5319/MC-20_Hero_Image_Web__72689.1702572289.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1271" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr">
+        <is>
+          <t>WS-MC-2 | Wet Sounds™ SiriusXM-Ready® AM/FM/Weather Band Media Center</t>
+        </is>
+      </c>
+      <c r="B1272" t="inlineStr">
+        <is>
+          <t>$369.99</t>
+        </is>
+      </c>
+      <c r="C1272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-2
+UPC:
+814820025002
+</t>
+        </is>
+      </c>
+      <c r="D1272" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1243/5311/MC-2_Hero_Image_Web__44421.1702572108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1272" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="inlineStr">
+        <is>
+          <t>WS-MC-1 | Wet Sounds™ 4 Zone Bluetooth® Marine Media Center</t>
+        </is>
+      </c>
+      <c r="B1273" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C1273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-1
+UPC:
+814820025026
+</t>
+        </is>
+      </c>
+      <c r="D1273" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1242/5308/MC-1_Hero_Image_Web__34655.1702567424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1273" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="inlineStr">
+        <is>
+          <t>Sinister-SDX2 | Wet Sounds 2 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1274" t="inlineStr">
+        <is>
+          <t>$999.99</t>
+        </is>
+      </c>
+      <c r="C1274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+Sinister-SDX2
+UPC:
+814820024616
+</t>
+        </is>
+      </c>
+      <c r="D1274" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1270/4142/Sinister_SDX2_Front__83389.1650295696.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1274" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr">
+        <is>
+          <t>Sinister-SDX4 | Wet Sounds 4 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1275" t="inlineStr">
+        <is>
+          <t>$1,079.99</t>
+        </is>
+      </c>
+      <c r="C1275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+Sinister-SDX4
+UPC:
+814820024623
+</t>
+        </is>
+      </c>
+      <c r="D1275" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1269/4148/Sinister_SDX4_Front__15417.1650295937.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1275" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr">
+        <is>
+          <t>Sinister-SDX6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1276" t="inlineStr">
+        <is>
+          <t>$1,699.99</t>
+        </is>
+      </c>
+      <c r="C1276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+Sinister-SDX6
+UPC:
+814820024630
+</t>
+        </is>
+      </c>
+      <c r="D1276" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1268/4155/Sinister_SDX6_Front__31215.1650296150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1276" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr">
+        <is>
+          <t>Sinister-SDX2500 | Wet Sounds Class-D Monoblock Subwoofer Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1277" t="inlineStr">
+        <is>
+          <t>$1,899.99</t>
+        </is>
+      </c>
+      <c r="C1277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+Sinister-SDX2500
+UPC:
+814820025910
+</t>
+        </is>
+      </c>
+      <c r="D1277" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1267/2384/1_SDX_2500__36161__26701.1637194846.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1277" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="inlineStr">
+        <is>
+          <t>SYN-DX2 | Wet Sounds 2 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1278" t="inlineStr">
+        <is>
+          <t>$679.99</t>
+        </is>
+      </c>
+      <c r="C1278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+SYN-DX2
+UPC:
+814820022506
+</t>
+        </is>
+      </c>
+      <c r="D1278" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1266/2531/1_DX_2__47232__85619.1637194871.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1278" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="inlineStr">
+        <is>
+          <t>SYN-DX4 | Wet Sounds 4 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1279" t="inlineStr">
+        <is>
+          <t>$1,079.99</t>
+        </is>
+      </c>
+      <c r="C1279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+SYN-DX4
+UPC:
+814820022537
+</t>
+        </is>
+      </c>
+      <c r="D1279" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1265/2544/1_DX_4__30904__39249.1637593872.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1279" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="inlineStr">
+        <is>
+          <t>SYN-DX2.3 HP | Wet Sounds 2 Channel High Power Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1280" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C1280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+SYN-DX2.3 HP
+UPC:
+814820024562
+</t>
+        </is>
+      </c>
+      <c r="D1280" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1264/2536/1_DX_HP__89213__65593.1637194872.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1280" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="inlineStr">
+        <is>
+          <t>SYN-DX6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1281" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="C1281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+SYN-DX6
+UPC:
+814820022568
+</t>
+        </is>
+      </c>
+      <c r="D1281" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1263/2546/1_DX_6__09919__62939.1637194874.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1281" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="inlineStr">
+        <is>
+          <t>HTX-1 | Wet Sounds Class-D Monoblock Subwoofer Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1282" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-1
+UPC:
+814820022209
+</t>
+        </is>
+      </c>
+      <c r="D1282" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1262/3437/1_HTX_1__66896.1642091392.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1282" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="inlineStr">
+        <is>
+          <t>HTX-2 | Wet Sounds 2 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1283" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-2
+UPC:
+814820022179
+</t>
+        </is>
+      </c>
+      <c r="D1283" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1261/1579/1_HTX_2__29615__16659.1637194674.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1283" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="inlineStr">
+        <is>
+          <t>HTX-4 | Wet Sounds 4 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1284" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C1284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-4
+UPC:
+814820022155
+</t>
+        </is>
+      </c>
+      <c r="D1284" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1260/1584/1_HTX_4__75666__26453.1637194675.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1284" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="inlineStr">
+        <is>
+          <t>HTX-6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1285" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="C1285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-6
+UPC:
+814820022162
+</t>
+        </is>
+      </c>
+      <c r="D1285" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1259/1589/1_HTX_6__73141__79749.1642096762.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1285" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="inlineStr">
+        <is>
+          <t>STX MICRO-1 | Wet Sounds Compact Chassis Class-D Monoblock Marine A</t>
+        </is>
+      </c>
+      <c r="B1286" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C1286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-1
+UPC:
+814820023329
+</t>
+        </is>
+      </c>
+      <c r="D1286" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1258/2520/Micro_STX_Hero__81706__61326.1637194869.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1286" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="inlineStr">
+        <is>
+          <t>STX MICRO-4 | Wet Sounds Compact Chassis Class-D 4-Ch Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1287" t="inlineStr">
+        <is>
+          <t>$439.99</t>
+        </is>
+      </c>
+      <c r="C1287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-4
+UPC:
+814820023336
+</t>
+        </is>
+      </c>
+      <c r="D1287" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1257/2526/Micro_STX_Hero__17041__18108.1637194870.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1287" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="inlineStr">
+        <is>
+          <t>REVO 10 HP S4 V3 | Wet Sounds REVO Series 10-inch High-Power Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B1288" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C1288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 HP S4 V3
+UPC:
+810042171763
+</t>
+        </is>
+      </c>
+      <c r="D1288" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1703/5455/REVO_10_V3_Black_Subwoofer_Front_Right_View__01889.1709138503.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1288" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr">
+        <is>
+          <t>REVO 10 FA S4 V3 | Wet Sounds REVO Series 10-inch Free-Air Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 FA S4 V3
+UPC:
+810042171787
+</t>
+        </is>
+      </c>
+      <c r="D1289" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1685/5459/REVO_10_V3_Black_Subwoofer_Front_Right_View__98932.1709138599.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1289" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="inlineStr">
+        <is>
+          <t>ZERO 12 S4 XZ-W | Wet Sounds Zero Series™ 12-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with White XZ Grille</t>
+        </is>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 12 S4 XZ-W
+UPC:
+810042173033
+</t>
+        </is>
+      </c>
+      <c r="D1290" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1628/5555/ZERO_12_White_Front_Right_View__41353.1709140271.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1290" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
+          <t>ZERO 10 S4 XZ-W | Wet Sounds Zero Series™ 10-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with White XZ Grille</t>
+        </is>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 10 S4 XZ-W
+UPC:
+810042173026
+</t>
+        </is>
+      </c>
+      <c r="D1291" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1627/5545/ZERO_10_White_Front_Right_View__26419.1709140155.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1291" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="inlineStr">
+        <is>
+          <t>ZERO 12 S4 XZ-B | Wet Sounds Zero Series™ 12-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with Black XZ Grille</t>
+        </is>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="C1292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 12 S4 XZ-B
+UPC:
+810042172784
+</t>
+        </is>
+      </c>
+      <c r="D1292" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1626/5562/ZERO_12_Black_Front_Right_View__17233.1709140318.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1292" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="inlineStr">
+        <is>
+          <t>ZERO 10 S4 XZ-B | Wet Sounds Zero Series™ 10-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with Black XZ Grille</t>
+        </is>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 10 S4 XZ-B
+UPC:
+810042172777
+</t>
+        </is>
+      </c>
+      <c r="D1293" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1625/5550/ZERO_10_Black_Front_Right_View__68235.1709140211.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1293" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="inlineStr">
+        <is>
+          <t>RECON 10 FA-BG | Wet Sounds RECON™ Series 10-inch Free-Air Marine Subwoofer - 4Ω Black with XS Black Grille</t>
+        </is>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 10 FA-BG
+UPC:
+814820027372
+</t>
+        </is>
+      </c>
+      <c r="D1294" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1461/5528/RECON_10_BG_Front_Right_View__28741.1709139490.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1294" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="inlineStr">
+        <is>
+          <t>RECON 10 FA-S | Wet Sounds RECON™ Series 10-inch Free-Air Marine Subwoofer - 4Ω Black with XS Silver Grille</t>
+        </is>
+      </c>
+      <c r="B1295" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 10 FA-S
+UPC:
+814820027273
+</t>
+        </is>
+      </c>
+      <c r="D1295" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1460/5531/RECON_10_XS_Front_Right_View__43611.1709139537.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1295" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="inlineStr">
+        <is>
+          <t>REVO 8 FA S4-W | Wet Sounds REVO Series 8-inch Free-Air Marine Subwoofer - 4Ω White</t>
+        </is>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA : REVO 8 FA S4-W
+UPC:
+814820024814
+</t>
+        </is>
+      </c>
+      <c r="D1296" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1458/5442/REVO_8_FA_White_Subwoofer_Front_Right_View__82195.1709138078.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1296" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="inlineStr">
+        <is>
+          <t>REVO 12 FA S4-W V2 | Wet Sounds REVO Series 12-inch Free-Air Marine Subwoofer - 4Ω White</t>
+        </is>
+      </c>
+      <c r="B1297" t="inlineStr">
+        <is>
+          <t>$319.99</t>
+        </is>
+      </c>
+      <c r="C1297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 FA S4-W V2
+UPC:
+814820027679
+</t>
+        </is>
+      </c>
+      <c r="D1297" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1457/5485/REVO_12_FA_HP_White_Subwoofer_Front_Right_View__62198.1709138924.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1297" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="inlineStr">
+        <is>
+          <t>REVO 12 FA S2-W V2 | Wet Sounds REVO Series 12-inch Free-Air Marine Subwoofer - 2Ω White</t>
+        </is>
+      </c>
+      <c r="B1298" t="inlineStr">
+        <is>
+          <t>$319.99</t>
+        </is>
+      </c>
+      <c r="C1298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 FA S2-W V2
+UPC:
+814820027655
+</t>
+        </is>
+      </c>
+      <c r="D1298" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1456/5493/REVO_12_FA_HP_White_Subwoofer_Front_Right_View__15118.1709138983.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1298" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="inlineStr">
+        <is>
+          <t>REVO 12 FA S2-B V2 | Wet Sounds REVO Series 12-inch Free-Air Marine Subwoofer - 2Ω Black</t>
+        </is>
+      </c>
+      <c r="B1299" t="inlineStr">
+        <is>
+          <t>$319.99</t>
+        </is>
+      </c>
+      <c r="C1299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 FA S2-B V2
+UPC:
+814820027648
+</t>
+        </is>
+      </c>
+      <c r="D1299" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1455/5495/REVO_12_FA_HP_Black_Subwoofer_Front_Right_View__24966.1709139072.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1299" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="inlineStr">
+        <is>
+          <t>REVO 12 FA S4-B V2 | Wet Sounds REVO Series 12-inch Free-Air Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B1300" t="inlineStr">
+        <is>
+          <t>$319.99</t>
+        </is>
+      </c>
+      <c r="C1300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 FA S4-B V2
+UPC:
+814820027662
+</t>
+        </is>
+      </c>
+      <c r="D1300" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1454/5501/REVO_12_FA_HP_Black_Subwoofer_Front_Right_View__14078.1709139143.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1300" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="inlineStr">
+        <is>
+          <t>RECON 10 FA-XW-W | Wet Sounds RECON™ Series 10-inch Free-Air Marine Subwoofer - 4Ω White with XW White Grille</t>
+        </is>
+      </c>
+      <c r="B1301" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 10 FA-XW-W
+UPC:
+814820027532
+</t>
+        </is>
+      </c>
+      <c r="D1301" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1446/5537/RECON_10_XW_Front_Right_View__89105.1709139670.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1301" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr">
+        <is>
+          <t>REVO 10 FA S2-B V2 | Wet Sounds REVO Series 10-inch Free-Air Marine Subwoofer - 2Ω Black</t>
+        </is>
+      </c>
+      <c r="B1302" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C1302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 FA S2-B V2
+UPC:
+814820027587
+</t>
+        </is>
+      </c>
+      <c r="D1302" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1441/5467/REVO_10_FA_HP_Black_Subwoofer_Front_Right_View__66469.1709138695.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1302" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="inlineStr">
+        <is>
+          <t>REVO 10 FA S2-W V2 | Wet Sounds REVO Series 10-inch Free-Air Marine Subwoofer - 2Ω White</t>
+        </is>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 FA S2-W V2
+UPC:
+814820027594
+</t>
+        </is>
+      </c>
+      <c r="D1303" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1440/5472/REVO_10_FA_HP_White_Subwoofer_Front_Right_View__41986.1709138755.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1303" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="inlineStr">
+        <is>
+          <t>REVO 10 FA S4-W V2 | Wet Sounds REVO Series 10-inch Free-Air Marine Subwoofer - 4Ω White</t>
+        </is>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 FA S4-W V2
+UPC:
+814820027617
+</t>
+        </is>
+      </c>
+      <c r="D1304" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1429/5480/REVO_10_FA_HP_White_Subwoofer_Front_Right_View__74671.1709138816.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1304" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr">
+        <is>
+          <t>REVO 8 FA S4-B | Wet Sounds REVO Series 8-inch Free-Air Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B1305" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA : REVO 8 FA S4-B
+UPC:
+814820024807
+</t>
+        </is>
+      </c>
+      <c r="D1305" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1427/5447/REVO_8_FA_Black_Subwoofer_Front_Right_View__93660.1709138157.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1305" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr">
+        <is>
+          <t>REVO 12 HP S4 V3 | Wet Sounds REVO Series 12-inch High-Power Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B1306" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="C1306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 HP S4 V3
+UPC:
+810042171794
+</t>
+        </is>
+      </c>
+      <c r="D1306" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1294/5511/REVO_12_V3_Subwoofer_Front_Right__20953.1709139217.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1306" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t>REVO 12 XXX V4-B | Wet Sounds REVO Series XXX 12-inch SPL Marine Subwoofer - Dual 2Ω Black</t>
+        </is>
+      </c>
+      <c r="B1307" t="inlineStr">
+        <is>
+          <t>$999.99</t>
+        </is>
+      </c>
+      <c r="C1307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XXX V4-B
+UPC:
+814820022261
+</t>
+        </is>
+      </c>
+      <c r="D1307" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1291/5517/REVO_XXX12_Subwoofer_Front_Right_View__84159.1709139387.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1307" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t>REVO 15 XXX V4-B | Wet Sounds REVO Series XXX 15-inch SPL Marine Subwoofer - Dual 2Ω Black</t>
+        </is>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>$1,549.99</t>
+        </is>
+      </c>
+      <c r="C1308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 15 XXX V4-B
+UPC:
+814820022254
+</t>
+        </is>
+      </c>
+      <c r="D1308" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1290/5521/REVO_XXX15_Subwoofer_Front_Right_View__42432.1709139422.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1308" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Revolution Series 5x7 HLCD With Surface Mountable Roto-Mold Enclosure + Grill - White</t>
+        </is>
+      </c>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 5X7 SM-W
+UPC:
+810042170018
+</t>
+        </is>
+      </c>
+      <c r="D1309" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1564/2595/0_REV_5x7__08818__09844.1637194884.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1309" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Revolution Series 6x9 HLCD With Surface Mountable Roto-Mold Enclosure + Grill - Black</t>
+        </is>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>$849.99</t>
+        </is>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 6X9 SM-B
+UPC:
+814820023121
+</t>
+        </is>
+      </c>
+      <c r="D1310" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1438/2600/1_6x9_SM_Black__24204__20541.1637194884.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1310" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Revolution Series 6x9 HLCD With Surface Mountable Roto-Mold Enclosure + Grill - White</t>
+        </is>
+      </c>
+      <c r="B1311" t="inlineStr">
+        <is>
+          <t>$849.99</t>
+        </is>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 6X9 SM-W
+UPC:
+814820023138
+</t>
+        </is>
+      </c>
+      <c r="D1311" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1437/2602/1_6x9_SM_White__22030__64737.1637194885.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1311" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="inlineStr">
+        <is>
+          <t>Wet Sounds REV 696 RS | Revolution Series 6 X 9 Inch EFG™ Pro-Axial™ Speaker</t>
+        </is>
+      </c>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 696 RS
+UPC:
+814820022896
+</t>
+        </is>
+      </c>
+      <c r="D1312" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1333/2668/1_6x9_RS__72461__07501.1637194898.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1312" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:19:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ Shallow Mount 6.5" Ceiling Speakers</t>
+        </is>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>$269.99</t>
+        </is>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-SMC-65
+UPC:
+810042171114
+</t>
+        </is>
+      </c>
+      <c r="D1313" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1589/4945/VS_SMC_65_Web__57267.1686758771.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1313" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
+        <is>
+          <t>ADP REV HD X-W | Wet Sounds WHITE X Kit For REV HD Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV HD X-W
+UPC:
+810042172746
+</t>
+        </is>
+      </c>
+      <c r="D1314" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1680/4860/REVHD_X_Mount_W_Back_Left__51149.1677095557.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1314" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t>ADP REV HD X-B | Wet Sounds BLACK X Kit For REV HD Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV HD X-B
+UPC:
+810042172739
+</t>
+        </is>
+      </c>
+      <c r="D1315" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1679/4859/REVHD_X_Mount_Back_Left__62192.1677095468.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1315" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
+        <is>
+          <t>ADP Malibu G5-G  | Wet Sounds Brushed Tower Speaker Adapters For The Malibu G5 Tower</t>
+        </is>
+      </c>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1316" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G5-G
+UPC:
+810042171275
+</t>
+        </is>
+      </c>
+      <c r="D1316" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1586/1503/1_Malibu_G5__12259__74117.1637194656.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1316" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
+        <is>
+          <t>ADP NAU-FCTA  | Wet Sounds Brushed Tower Speaker Brackets For The 2019+ Nautique Flight Control Tower Actuated (FCTA)</t>
+        </is>
+      </c>
+      <c r="B1317" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C1317" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP NAU-FCTA
+UPC:
+814820029079
+</t>
+        </is>
+      </c>
+      <c r="D1317" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1546/1509/1_Nautique_FLTA__78313__12581.1637194659.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1317" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
+        <is>
+          <t>ADP TC3-SXM | Wet Sounds Stainless Steel Swivel Surface Mount (No Clamp) w/ Hardware</t>
+        </is>
+      </c>
+      <c r="B1318" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C1318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-SXM
+UPC:
+853414005655
+</t>
+        </is>
+      </c>
+      <c r="D1318" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1496/1560/1_TC3_SXM__75500__89888.1637194670.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1318" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="inlineStr">
+        <is>
+          <t>ADP NAUTIQUE G  | Wet Sounds Tower Speaker Brackets For The Upper Brackets For Nautique G Tower</t>
+        </is>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP NAUTIQUE G
+UPC:
+814820025811
+</t>
+        </is>
+      </c>
+      <c r="D1319" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1436/1527/1_Nautique_G__82729__11690.1637194663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1319" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="inlineStr">
+        <is>
+          <t>ADP TC3-F-SILVER | Wet Sounds Silver Aluminum Clamp For Tube Diameter 1 7/8” To 3”</t>
+        </is>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C1320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-F-SILVER
+UPC:
+853414005624
+</t>
+        </is>
+      </c>
+      <c r="D1320" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1432/1549/1_TC3_FC_SA__81562__43456.1637194668.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1320" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="inlineStr">
+        <is>
+          <t>ADP TC3-F | Wet Sounds Stainless Steel Fixed Position Clamp For Tube Diameter 1 7/8” To 3”</t>
+        </is>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-F
+UPC:
+853414005600
+</t>
+        </is>
+      </c>
+      <c r="D1321" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1355/1547/1_TC3_FC__00488__91450.1637194666.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1321" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t>ADP TC3-F MINI | Wet Sounds Stainless Steel Fixed Position Clamp For Tube Diameter 1” To 1 7/8”</t>
+        </is>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-F MINI
+UPC:
+853414005631
+</t>
+        </is>
+      </c>
+      <c r="D1322" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1354/1548/1_TC3_FC_Mini__70229__76985.1637194667.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1322" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="inlineStr">
+        <is>
+          <t>ADP TC3-S | Wet Sounds Stainless Steel Swivel Clamp For Tube Diameter 1 7/8” To 3”</t>
+        </is>
+      </c>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C1323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-S
+UPC:
+853414005617
+</t>
+        </is>
+      </c>
+      <c r="D1323" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1353/1553/0_TC3_SC__57230__35422.1637194668.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1323" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
+          <t>ADP TC3-S MINI | Wet Sounds Stainless Steel Swivel Clamp For Tube Diameter 1” To 1 7/8”</t>
+        </is>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-S MINI
+UPC:
+853414005648
+</t>
+        </is>
+      </c>
+      <c r="D1324" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1352/1557/1_Mini_Swivel_Clamp__77137__47956.1637194669.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1324" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="inlineStr">
+        <is>
+          <t>ADP ILLUSION DXT  | Wet Sounds REV 10 Tower Speaker Brackets For The Malibu X Tower Lower Mount</t>
+        </is>
+      </c>
+      <c r="B1325" t="inlineStr">
+        <is>
+          <t>$129.99</t>
+        </is>
+      </c>
+      <c r="C1325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Illusion DXT
+UPC:
+814820020915
+</t>
+        </is>
+      </c>
+      <c r="D1325" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1350/1476/1_Illusion_DXT__92533__35545.1637194651.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1325" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="inlineStr">
+        <is>
+          <t>ADP REV X-B | Wet Sounds BLACK X Kit For REV And ICON Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B1326" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C1326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV X-B
+UPC:
+814820021042
+</t>
+        </is>
+      </c>
+      <c r="D1326" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1349/1536/Black_X_Mount__86541__61693.1637194663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1326" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
+        <is>
+          <t>ADP REV X-W | Wet Sounds WHITE X Kit For REV And ICON Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B1327" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C1327" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV X-W
+UPC:
+814820021059
+</t>
+        </is>
+      </c>
+      <c r="D1327" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1348/1537/White_X_Mount__90066__12854.1637194664.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1327" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t>ADP Gladiator-B | Wet Sounds Black Tower Speaker Brackets For The Centurion Gladiator Tower</t>
+        </is>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Gladiator-B
+UPC:
+814820020892
+</t>
+        </is>
+      </c>
+      <c r="D1328" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1347/1468/1_Centurion_Gladiator_Black__82234__48144.1637194649.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1328" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t>ADP GLADIATOR-P  | Wet Sounds POLISHED Tower Speaker Brackets For The Centurion Gladiator Brackets</t>
+        </is>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Gladiator-P
+UPC:
+814820020908
+</t>
+        </is>
+      </c>
+      <c r="D1329" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1346/1472/1_Centurion_Gladiator_Polished__65776__54391.1637194650.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1329" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="inlineStr">
+        <is>
+          <t>ADP MALIBU G3 SINGLE-B  | Wet Sounds Black Tower Speaker Brackets For The Malibu G3 Single Speaker Mount</t>
+        </is>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G3 Single-B
+UPC:
+814820020977
+</t>
+        </is>
+      </c>
+      <c r="D1330" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1345/1487/1_Malibu_G3_Single_Black__82146__64795.1637194654.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1330" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t>ADP MALIBU G3 SINGLE-P  | Wet Sounds Silver Tower Speaker Brackets For The Malibu G3 Single Speaker Mount</t>
+        </is>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1331" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G3 Single-P
+UPC:
+814820020984
+</t>
+        </is>
+      </c>
+      <c r="D1331" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1344/1495/1_Malibu_G3_Single__46289__10563.1637194656.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1331" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>ADP MC BRACKET-11  | Wet Sounds Brushed Tower Speaker Brackets For The Aluminum Mastercraft MC-11 Bracket</t>
+        </is>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="C1332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP MC Bracket-11
+UPC:
+814820020991
+</t>
+        </is>
+      </c>
+      <c r="D1332" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1343/1504/1_MC11__55068__77297.1637194657.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1332" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>ADP Nautique FC5-U  | Wet Sounds Tower Speaker Brackets For The Upper Brackets For Nautique FC5 Tower</t>
+        </is>
+      </c>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="C1333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Nautique FC5-U
+UPC:
+814820021011
+</t>
+        </is>
+      </c>
+      <c r="D1333" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1342/1520/1_Nautique_FC5_U__66384__59326.1637194661.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1333" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>ADP CENTURION MAXIMUS |Wet Sounds Black Tower Speaker Brackets For The Centurion Maximus Tower</t>
+        </is>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>$189.99</t>
+        </is>
+      </c>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP CENTURION MAXIMUS
+UPC:
+814820020861
+</t>
+        </is>
+      </c>
+      <c r="D1334" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1341/1464/2_Centurion_Maximus__14356__62032.1637194648.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1334" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>ADP SUPRA-FxONE | Wet Sounds Supra FxONE Upper Tower Adapter Brackets W/ Bead Blast Finish</t>
+        </is>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C1335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP SUPRA-FxONE
+UPC:
+814820028102
+</t>
+        </is>
+      </c>
+      <c r="D1335" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1340/1539/1_FxONE__81412__61611.1637194666.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1335" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>ADP NAUTIQUE FC5-L  | Wet Sounds Tower Speaker Brackets For The Lower Brackets For Nautique FC5 Tower</t>
+        </is>
+      </c>
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C1336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Nautique FC5-L
+UPC:
+814820021004
+</t>
+        </is>
+      </c>
+      <c r="D1336" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1339/1519/ADP-Nautique-FC5-L_MAIN-1__38608__44984.1637194660.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1336" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>ADP NAUTIQUE Z5 DROP 12  | Wet Sounds Nautique Drop Down Bracket For The Z5 Rack W/ 12 Inch Strut Tube</t>
+        </is>
+      </c>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C1337" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Nautique Z5 Drop 12
+UPC:
+814820021028
+</t>
+        </is>
+      </c>
+      <c r="D1337" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1338/1535/ADP-Naut-Z5-Drop-12_MAIN-1__81230__46666.1637194663.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1337" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
+          <t>ADP MALIBU G3 DUAL-B  | Wet Sounds BLACK Tower Speaker Brackets For The Malibu G3 Dual Speaker Mount</t>
+        </is>
+      </c>
+      <c r="B1338" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="C1338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G3 Dual-B
+UPC:
+814820020939
+</t>
+        </is>
+      </c>
+      <c r="D1338" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1337/1483/ADP-Malibu-G3-Dual-B_MAIN-1__64841__65072.1637194652.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1338" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1339" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C1339" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XW-W GRILLE
+UPC:
+814820023435
+</t>
+        </is>
+      </c>
+      <c r="D1339" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1677/4856/1_REVO_10_XWW_Grille__24247.1675358486.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1339" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 SW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1340" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C1340" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 SW-B GRILLE
+UPC:
+814820023398
+</t>
+        </is>
+      </c>
+      <c r="D1340" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1520/4591/1_REVO_12_SWB_Grille__89371.1666364087.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1340" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 SW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1341" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C1341" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 SW-W GRILLE
+UPC:
+814820023404
+</t>
+        </is>
+      </c>
+      <c r="D1341" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1519/4587/1_REVO_12_SWW_Grille__50214.1666364049.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1341" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-Black Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1342" t="inlineStr">
+        <is>
+          <t>$109.99</t>
+        </is>
+      </c>
+      <c r="C1342" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-B-SS GRILLE
+UPC:
+814820022384
+</t>
+        </is>
+      </c>
+      <c r="D1342" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1518/4597/1_REVO_12_XSBSS_Grille__83842.1666364127.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1342" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-Gunmetal Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1343" t="inlineStr">
+        <is>
+          <t>$109.99</t>
+        </is>
+      </c>
+      <c r="C1343" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-G-SS GRILLE
+UPC:
+814820022377
+</t>
+        </is>
+      </c>
+      <c r="D1343" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1517/4601/1_REVO_12_XSGSS_Grille__30565.1666364155.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1343" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-Silver Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C1344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-S GRILLE
+UPC:
+814820022360
+</t>
+        </is>
+      </c>
+      <c r="D1344" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1516/4589/1_REVO_12_XSS_Grille__77253.1666364074.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1344" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-White Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1345" t="inlineStr">
+        <is>
+          <t>$109.99</t>
+        </is>
+      </c>
+      <c r="C1345" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-W-SS GRILLE
+UPC:
+814820022353
+</t>
+        </is>
+      </c>
+      <c r="D1345" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1515/4595/1_REVO_12_XSWSS_Grille__39058.1666364112.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1345" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1346" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C1346" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XW-B GRILLE
+UPC:
+814820022346
+</t>
+        </is>
+      </c>
+      <c r="D1346" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1514/4593/1_REVO_12_XWB_Grille__46551.1666364097.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1346" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1347" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C1347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XW-W GRILLE
+UPC:
+814820022278
+</t>
+        </is>
+      </c>
+      <c r="D1347" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1513/4599/1_REVO_12_XWW_Grille__15735.1666364137.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1347" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1348" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C1348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XW-B GRILLE
+UPC:
+814820023428
+</t>
+        </is>
+      </c>
+      <c r="D1348" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1511/4573/1_REVO_10_XWB_Grille__42960.1666363805.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1348" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XS-White Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1349" t="inlineStr">
+        <is>
+          <t>$84.99</t>
+        </is>
+      </c>
+      <c r="C1349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XS-W-SS GRILLE
+UPC:
+814820023411
+</t>
+        </is>
+      </c>
+      <c r="D1349" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1510/4575/1_REVO_10_XSWSS_Grille__72598.1666363829.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1349" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XS-Silver Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1350" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C1350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XS-S GRILLE
+UPC:
+814820023466
+</t>
+        </is>
+      </c>
+      <c r="D1350" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1509/4567/1_REVO_10_XSS_Grille__64207.1666363752.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1350" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XS-Gunmetal Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1351" t="inlineStr">
+        <is>
+          <t>$84.99</t>
+        </is>
+      </c>
+      <c r="C1351" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XS-G-SS GRILLE
+UPC:
+814820023473
+</t>
+        </is>
+      </c>
+      <c r="D1351" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1508/4571/1_REVO_10_XSGSS_Grille__26329.1666363793.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1351" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 SW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1352" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C1352" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 SW-W GRILLE
+UPC:
+814820023497
+</t>
+        </is>
+      </c>
+      <c r="D1352" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1506/4565/1_REVO_10_SWW_Grille__40203.1666363732.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1352" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 SW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1353" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C1353" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 SW-B GRILLE
+UPC:
+814820023503
+</t>
+        </is>
+      </c>
+      <c r="D1353" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1505/4569/1_REVO_10_SWB_Grille__02082.1666363765.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1353" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-Black Stainless Steel FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1354" t="inlineStr">
+        <is>
+          <t>$64.99</t>
+        </is>
+      </c>
+      <c r="C1354" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-B-SS GRILLE
+UPC:
+814820024852
+</t>
+        </is>
+      </c>
+      <c r="D1354" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1504/4561/1_REVO_8_XSBSS_Grille__79541.1666363683.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1354" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-Gunmetal Stainless Steel FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1355" t="inlineStr">
+        <is>
+          <t>$64.99</t>
+        </is>
+      </c>
+      <c r="C1355" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-G-SS GRILLE
+UPC:
+814820024876
+</t>
+        </is>
+      </c>
+      <c r="D1355" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1503/4562/1_REVO_8_XSGSS_Grille__14722.1666363693.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1355" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-White Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1356" t="inlineStr">
+        <is>
+          <t>$64.99</t>
+        </is>
+      </c>
+      <c r="C1356" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-W-SS GRILLE
+UPC:
+814820024869
+</t>
+        </is>
+      </c>
+      <c r="D1356" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1502/4557/1_REVO_8_XSWSS_Grille__28943.1666363543.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1356" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-Silver FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1357" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C1357" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-S GRILLE
+UPC:
+814820024821
+</t>
+        </is>
+      </c>
+      <c r="D1357" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1501/4555/1_REVO_8_XSS_Grille__95421.1666363515.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1357" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XW-Black FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1358" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C1358" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XW-B GRILLE
+UPC:
+814820024838
+</t>
+        </is>
+      </c>
+      <c r="D1358" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1500/4556/1_REVO_8_XWB_Grille__44024.1666363530.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1358" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XW-White FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1359" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C1359" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XW-W GRILLE
+UPC:
+814820024845
+</t>
+        </is>
+      </c>
+      <c r="D1359" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1499/4559/1_REVO_8_XWW_Grille__01114.1666363562.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1359" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 SW-White FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1360" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C1360" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA SW-W GRILLE
+UPC:
+814820024890
+</t>
+        </is>
+      </c>
+      <c r="D1360" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1498/4558/1_REVO_8_SWW_Grille__13637.1666363553.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1360" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 SW-Black FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1361" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C1361" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA SW-B GRILLE
+UPC:
+814820024883
+</t>
+        </is>
+      </c>
+      <c r="D1361" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1497/4560/1_REVO_8_SWB_Grille__93630.1666363571.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1361" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t>REV 12 HD XS-W GRILLE | Wet Sounds REV 12 HD XS Grille White</t>
+        </is>
+      </c>
+      <c r="B1362" t="inlineStr">
+        <is>
+          <t>$240.00</t>
+        </is>
+      </c>
+      <c r="C1362" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XS-W GRILLE
+UPC:
+810042172609
+</t>
+        </is>
+      </c>
+      <c r="D1362" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1665/4701/REV_10_HD_XS_W_Grille___42087.1668784791.1280.1280__32929.1668786228.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1362" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t>REV 12 HD XW-B GRILLE | Wet Sounds REV 12 HD XW Grille Black</t>
+        </is>
+      </c>
+      <c r="B1363" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C1363" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XW-B GRILLE
+UPC:
+810042172616
+</t>
+        </is>
+      </c>
+      <c r="D1363" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1664/4700/REV_10_HD_XW_B_Grille___44804.1668784874.1280.1280__10630.1668786179.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1363" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
+        <is>
+          <t>REV 12 HD XW-W GRILLE | Wet Sounds REV 12 HD XW Grille White</t>
+        </is>
+      </c>
+      <c r="B1364" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C1364" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XW-W GRILLE
+UPC:
+810042172623
+</t>
+        </is>
+      </c>
+      <c r="D1364" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1663/4699/REV_10_HD_XW_W_Grille___19216.1668784926.1280.1280__46160.1668786094.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1364" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>REV 12 HD XZ-W GRILLE | Wet Sounds REV 12 HD XZ Grille White</t>
+        </is>
+      </c>
+      <c r="B1365" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C1365" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-W GRILLE
+UPC:
+810042172470
+</t>
+        </is>
+      </c>
+      <c r="D1365" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1662/4698/REV_10_HD_XZ_W_Grille___99703.1668785014.1280.1280__09363.1668786030.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1365" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
+        <is>
+          <t>REV 12 HD XZ-B GRILLE | Wet Sounds REV 12 HD XZ Grille Black</t>
+        </is>
+      </c>
+      <c r="B1366" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C1366" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-B GRILLE
+UPC:
+810042172494
+</t>
+        </is>
+      </c>
+      <c r="D1366" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1661/4697/REV_10_HD_XZ_B_Grille___55922.1668785058.1280.1280__50203.1668785972.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1366" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
+        <is>
+          <t>REV 12 HD XS-B GRILLE | Wet Sounds REV 12 HD XS Grille Black</t>
+        </is>
+      </c>
+      <c r="B1367" t="inlineStr">
+        <is>
+          <t>$240.00</t>
+        </is>
+      </c>
+      <c r="C1367" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XS-B GRILLE
+UPC:
+810042172593
+</t>
+        </is>
+      </c>
+      <c r="D1367" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1660/4696/REV_10_HD_XS_B_Grille___09337.1668784735.1280.1280__46044.1668785860.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1367" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
+        <is>
+          <t>REV 10 HD XZ-B GRILLE | Wet Sounds REV 10 HD XZ Grille Black</t>
+        </is>
+      </c>
+      <c r="B1368" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C1368" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-B GRILLE
+UPC:
+810042172500
+</t>
+        </is>
+      </c>
+      <c r="D1368" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1659/4695/REV_10_HD_XZ_B_Grille___55922.1668785058.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1368" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t>REV 10 HD XZ-W GRILLE | Wet Sounds REV 10 HD XZ Grille White</t>
+        </is>
+      </c>
+      <c r="B1369" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C1369" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-W GRILLE
+UPC:
+810042172487
+</t>
+        </is>
+      </c>
+      <c r="D1369" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1658/4694/REV_10_HD_XZ_W_Grille___99703.1668785014.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1369" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
+        <is>
+          <t>REV 10 HD XW-W GRILLE | Wet Sounds REV 10 HD XW Grille White</t>
+        </is>
+      </c>
+      <c r="B1370" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C1370" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XW-W GRILLE
+UPC:
+810042172586
+</t>
+        </is>
+      </c>
+      <c r="D1370" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1657/4693/REV_10_HD_XW_W_Grille___19216.1668784926.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1370" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
+        <is>
+          <t>REV 10 HD XW-B GRILLE | Wet Sounds REV 10 HD XW Grille Black</t>
+        </is>
+      </c>
+      <c r="B1371" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C1371" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XW-B GRILLE
+UPC:
+810042172579
+</t>
+        </is>
+      </c>
+      <c r="D1371" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1656/4692/REV_10_HD_XW_B_Grille___44804.1668784874.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1371" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
+        <is>
+          <t>REV 10 HD XS-W GRILLE | Wet Sounds REV 10 HD XS Grille White</t>
+        </is>
+      </c>
+      <c r="B1372" t="inlineStr">
+        <is>
+          <t>$190.00</t>
+        </is>
+      </c>
+      <c r="C1372" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XS-W GRILLE
+UPC:
+810042172562
+</t>
+        </is>
+      </c>
+      <c r="D1372" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1655/4691/REV_10_HD_XS_W_Grille___42087.1668784791.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1372" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
+        <is>
+          <t>REV 10 HD XS-B GRILLE | Wet Sounds REV 10 HD XS Grille Black</t>
+        </is>
+      </c>
+      <c r="B1373" t="inlineStr">
+        <is>
+          <t>$190.00</t>
+        </is>
+      </c>
+      <c r="C1373" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XS-B GRILLE
+UPC:
+810042172555
+</t>
+        </is>
+      </c>
+      <c r="D1373" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1642/4690/REV_10_HD_XS_B_Grille___09337.1668784735.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1373" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>Revo 12 PSE | Wet Sounds Passive Radiator Subwoofer Enclosure</t>
+        </is>
+      </c>
+      <c r="B1374" t="inlineStr">
+        <is>
+          <t>$1,499.95 - $1,579.95</t>
+        </is>
+      </c>
+      <c r="C1374" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 PSE
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1374" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1527/2054/12_PSE_XS_B__74684__29674.1637194774.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1374" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>STEALTH AS-8 | Wet Sounds™ 8-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1375" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C1375" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-8
+UPC:
+814820024791
+</t>
+        </is>
+      </c>
+      <c r="D1375" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1360/5740/AS-8_Front_Right__03743.1713207541.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1375" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>STEALTH AS-6 | Wet Sounds™ 6.5-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1376" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1376" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-6
+UPC:
+814820023312
+</t>
+        </is>
+      </c>
+      <c r="D1376" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1293/5731/AS-6_Front_Right__07941.1713207502.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1376" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="inlineStr">
+        <is>
+          <t>STEALTH AS-10 | Wet Sounds™ 10-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1377" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C1377" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-10
+UPC:
+814820023251
+</t>
+        </is>
+      </c>
+      <c r="D1377" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1292/5748/AS-10_Front_Right__50395.1713207575.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1377" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="inlineStr">
+        <is>
+          <t>REVO 8 XW-W V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1378" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C1378" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 XW-W V3
+UPC:
+810042171992
+</t>
+        </is>
+      </c>
+      <c r="D1378" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1702/5631/REVO_8_XW_W_Hero__32333.1709313500.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1378" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="inlineStr">
+        <is>
+          <t>AR-5 Defender Max | Wet Sounds 5-Speaker Defender Roof Audio System</t>
+        </is>
+      </c>
+      <c r="B1379" t="inlineStr">
+        <is>
+          <t>$3,999.99</t>
+        </is>
+      </c>
+      <c r="C1379" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+AR-5 Defender Max
+UPC:
+810042176805
+</t>
+        </is>
+      </c>
+      <c r="D1379" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1699/5295/AR-5_Defender_Max_Audio_Roof_Front_View_R_Web__25866.1701290006.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1379" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="inlineStr">
+        <is>
+          <t>ZERO 12 ENC | Wet Sounds™ ZERO 12-inch Rotomold Enclosure</t>
+        </is>
+      </c>
+      <c r="B1380" t="inlineStr">
+        <is>
+          <t>$369.99</t>
+        </is>
+      </c>
+      <c r="C1380" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 12 ENC
+UPC:
+810042176447
+</t>
+        </is>
+      </c>
+      <c r="D1380" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1694/5811/ZERO_12_ENC_Web_Hero_Solo__24519.1713280845.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1380" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="inlineStr">
+        <is>
+          <t>AR-AMP 2CH | Wet Sounds 2-CH Amplifier for Ranger Roof Audio System</t>
+        </is>
+      </c>
+      <c r="B1381" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="C1381" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+AR-AMP 2CH
+UPC:
+810042173866
+</t>
+        </is>
+      </c>
+      <c r="D1381" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1654/5306/AR-2CH_Front_View_Web__91025.1701293245.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1381" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="inlineStr">
+        <is>
+          <t>STEALTH XT 12-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B1382" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="C1382" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 12-B
+UPC:
+810042173095
+</t>
+        </is>
+      </c>
+      <c r="D1382" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1653/5275/Stealth_XT12_Hero__64541.1701045828.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1382" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="inlineStr">
+        <is>
+          <t>STEALTH XT 8-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B1383" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C1383" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 8-B
+UPC:
+810042173101
+</t>
+        </is>
+      </c>
+      <c r="D1383" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1652/5276/Stealth_XT8_Hero__73552.1701045835.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1383" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="inlineStr">
+        <is>
+          <t>STEALTH XT 6-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B1384" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C1384" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 6-B
+UPC:
+810042173088
+</t>
+        </is>
+      </c>
+      <c r="D1384" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1651/5277/Stealth_XT6_Hero__88966.1701045845.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1384" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="inlineStr">
+        <is>
+          <t>AR-5 Ranger Crew | Wet Sounds™ 5-Speaker Ranger Roof Audio System</t>
+        </is>
+      </c>
+      <c r="B1385" t="inlineStr">
+        <is>
+          <t>$3,999.99</t>
+        </is>
+      </c>
+      <c r="C1385" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+AR-5 Ranger Crew
+UPC:
+810042173651
+</t>
+        </is>
+      </c>
+      <c r="D1385" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1643/5304/AR-5_Ranger_Crew_Audio_Roof_Front_View_R_Web__75719.1701290880.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1385" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="inlineStr">
+        <is>
+          <t>REV8™ White V2 | Wet Sounds Revolution Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1386" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C1386" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1386" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1640/4375/REV8_W_Web_Hero__78931.1654888304.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1386" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="inlineStr">
+        <is>
+          <t>REV8™ Black V2 | Wet Sounds Revolution Series 8" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1387" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C1387" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1387" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1639/4369/REV8_B_Web_Hero__69496.1646949336.1280.1280__81274.1654887818.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1387" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="inlineStr">
+        <is>
+          <t>REV10™ White V2 | Wet Sounds Revolution Series 10" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1388" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C1388" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1388" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1638/4359/REV10_W_Web_Hero__38956.1654887066.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1388" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t>REV10™ Black V2 | Wet Sounds Revolution Series 10" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1389" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C1389" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1389" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1637/4351/REV10_B_Web_Hero__57402.1647007395.1280.1280__29553.1654886710.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1389" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="inlineStr">
+        <is>
+          <t>REV 410 Black V2 | Wet Sounds Revolution Series Dual 10" Black Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B1390" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C1390" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1390" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1636/4345/REV410_B_X_Web_Front___24105.1654881808.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1390" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="inlineStr">
+        <is>
+          <t>REV 410 White V2 | Wet Sounds Revolution Series Dual 10" White Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B1391" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C1391" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1391" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1635/4342/REV410_W_X_Web_Front___65923.1647007018.1280.1280__51826.1654881737.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1391" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>ICON8™ White V2  | Wet Sounds ICON Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1392" t="inlineStr">
+        <is>
+          <t>$599.99 - $1,349.99</t>
+        </is>
+      </c>
+      <c r="C1392" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ICON 8-W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1392" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1634/4328/ICON8_W_Web_Hero__40196.1654880484.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1392" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-BG | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1393" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C1393" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-BG
+UPC:
+810042171824
+</t>
+        </is>
+      </c>
+      <c r="D1393" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1629/5864/RECON_6_Pod_BG_Hero_G__07846.1713548018.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1393" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:20:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-W | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B1394" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C1394" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-W
+UPC:
+810042173019
+</t>
+        </is>
+      </c>
+      <c r="D1394" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1624/5377/ZERO_8_W_Hero_Web__27066.1708447150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1394" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-B | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B1395" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C1395" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-B
+UPC:
+810042172760
+</t>
+        </is>
+      </c>
+      <c r="D1395" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1623/5372/ZERO_8_B_Web_Hero__46095.1708447055.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1395" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-W | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B1396" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1396" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-W
+UPC:
+810042173002
+</t>
+        </is>
+      </c>
+      <c r="D1396" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1622/5353/ZERO_6_W_Web_Hero__48185.1708446825.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1396" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-B | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B1397" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1397" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-B
+UPC:
+810042172753
+</t>
+        </is>
+      </c>
+      <c r="D1397" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1621/5363/ZERO_6_B_Web_Hero__23189.1708446915.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1397" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="inlineStr">
+        <is>
+          <t>RECON 8-BG RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1398" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C1398" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-BG RGB
+UPC:
+810042171817
+</t>
+        </is>
+      </c>
+      <c r="D1398" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1617/5383/RECON_8-XS_Front_Right_Hero_G__04334.1708959945.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1398" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>RECON 6-BG RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1399" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG RGB
+UPC:
+810042171800
+</t>
+        </is>
+      </c>
+      <c r="D1399" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1616/5415/RECON_6-XS_Front_Hero_G__11887.1708962166.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1399" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="inlineStr">
+        <is>
+          <t>WWX-DZ-BT | Wet Sounds™ Dual Zone Bluetooth Controller</t>
+        </is>
+      </c>
+      <c r="B1400" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C1400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WWX-DZ-BT
+UPC:
+810042170803
+</t>
+        </is>
+      </c>
+      <c r="D1400" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1565/4543/DZ_BT_Front__15731.1666361204.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1400" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="inlineStr">
+        <is>
+          <t>Stealth HD Remote replacement</t>
+        </is>
+      </c>
+      <c r="B1401" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1401" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+PT-STEALTH HD REMOTE
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1401" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1533/4196/Stealth_UHD_Remote_Front__77941.1652811658.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1401" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="inlineStr">
+        <is>
+          <t>Revo 12 PSE | Wet Sounds Passive Radiator Subwoofer Enclosure</t>
+        </is>
+      </c>
+      <c r="B1402" t="inlineStr">
+        <is>
+          <t>$1,499.95 - $1,579.95</t>
+        </is>
+      </c>
+      <c r="C1402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 PSE
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1402" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1527/2054/12_PSE_XS_B__74684__29674.1637194774.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1402" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="inlineStr">
+        <is>
+          <t>STEALTH-10 CORE-W | Wet Sounds STEALTH CORE 10 Speaker Non-Amplified Universal Soundbar</t>
+        </is>
+      </c>
+      <c r="B1403" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1403" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-10 CORE-W
+UPC:
+814820023145
+</t>
+        </is>
+      </c>
+      <c r="D1403" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1482/3363/1_Stealth_10_Core_W_Web__90688.1642004847.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1403" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="inlineStr">
+        <is>
+          <t>STEALTH-10 ULTRA HD-W | Wet Sounds All-In-One Amplified Bluetooth®  Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B1404" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1404" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-10 ULTRA HD-W
+UPC:
+814820023282
+</t>
+        </is>
+      </c>
+      <c r="D1404" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1480/3408/1_Stealth_10_UHD_W__97540.1642008122.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1404" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="inlineStr">
+        <is>
+          <t>STEALTH-6 ULTRA HD-W | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B1405" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="C1405" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-6 ULTRA HD-W
+UPC:
+814820023305
+</t>
+        </is>
+      </c>
+      <c r="D1405" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1479/3412/1_Stealth_6_UHD_W__23067.1642009031.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1405" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1406" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1406" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-W S2
+UPC:
+814820024722
+</t>
+        </is>
+      </c>
+      <c r="D1406" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1459/5574/REVO_CX10_SW_W_Hero__01549.1709229069.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1406" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t>REVO 8-XSB-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1407" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C1407" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSB-SS
+UPC:
+814820023046
+</t>
+        </is>
+      </c>
+      <c r="D1407" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1453/5646/REVO_8_XS_B_SS_Hero__24569.1709314439.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1407" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>REVO 8-XSG-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1408" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C1408" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSG-SS
+UPC:
+814820023206
+</t>
+        </is>
+      </c>
+      <c r="D1408" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1452/5655/REVO_8_XS_G_SS_Hero__58795.1709314920.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1408" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>REVO 8-XSW-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1409" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C1409" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSW-SS
+UPC:
+814820022421
+</t>
+        </is>
+      </c>
+      <c r="D1409" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1451/5659/REVO_8_XS_W_SS_Hero__40898.1709324600.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1409" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>REVO 8-XSS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1410" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C1410" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSS
+UPC:
+814820023213
+</t>
+        </is>
+      </c>
+      <c r="D1410" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1450/5617/REVO_8_XS_S_Hero__59990.1709312658.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1410" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t>REVO 8 SW-B V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1411" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C1411" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 SW-B V3
+UPC:
+810042173064
+</t>
+        </is>
+      </c>
+      <c r="D1411" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1449/5624/REVO_8_SW_B_Hero__54808.1709313038.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1411" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
+        <is>
+          <t>REVO 8-SWW | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1412" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C1412" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-SWW
+UPC:
+814820022322
+</t>
+        </is>
+      </c>
+      <c r="D1412" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1448/5667/REVO_8_SW_W_Hero__17640.1709324663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1412" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t>REVO 8-XWB | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1413" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C1413" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XWB
+UPC:
+814820022339
+</t>
+        </is>
+      </c>
+      <c r="D1413" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1447/5637/REVO_8_XW_B_Hero__85483.1709313935.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1413" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1414" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1414" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W RGB
+UPC:
+814820027518
+</t>
+        </is>
+      </c>
+      <c r="D1414" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1445/5419/RECON_6-XS_Front_Hero_G__57907.1708962243.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1414" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>RECON 6-S RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1415" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1415" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S RGB
+UPC:
+814820027310
+</t>
+        </is>
+      </c>
+      <c r="D1415" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1444/5405/RECON_6-XS_Hero_G__00191.1708962100.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1415" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>RECON 8 XW-W RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1416" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C1416" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8 XW-W RGB
+UPC:
+814820027525
+</t>
+        </is>
+      </c>
+      <c r="D1416" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1443/5393/RECON_8-XS_Front_Right_Hero_G__13110.1708960108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1416" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="inlineStr">
+        <is>
+          <t>RECON 8-S RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1417" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C1417" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-S RGB
+UPC:
+814820027334
+</t>
+        </is>
+      </c>
+      <c r="D1417" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1442/5388/RECON_8-XS_Front_Right_Hero_G__30821.1708960025.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1417" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="inlineStr">
+        <is>
+          <t>RECON 5-S | RECON™ Series 5.25-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B1418" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C1418" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 5-S
+UPC:
+814820027549
+</t>
+        </is>
+      </c>
+      <c r="D1418" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1439/5403/RECON_5-XS_Hero__02225.1708961993.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1418" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.5 | Wet Sounds Stealth Clamp For 1.5" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B1419" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1419" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.5
+UPC:
+853414005358
+</t>
+        </is>
+      </c>
+      <c r="D1419" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1367/2414/1_1.50_RND_Clamps__21455__02143.1637194850.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1419" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.75 | Wet Sounds Stealth Clamp For 1.75" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B1420" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1420" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.75
+UPC:
+853414005365
+</t>
+        </is>
+      </c>
+      <c r="D1420" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1366/2417/1_1.75_RND_Clamps__59114__19242.1637194851.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1420" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ .75 | Wet Sounds Stealth Clamp For .75" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B1421" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1421" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ .75
+UPC:
+853414005372
+</t>
+        </is>
+      </c>
+      <c r="D1421" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1365/2427/1_0.75_Square_Clamps__66224__70772.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1421" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.0 | Wet Sounds Stealth Clamp For 1" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B1422" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1422" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.0
+UPC:
+853414005389
+</t>
+        </is>
+      </c>
+      <c r="D1422" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1364/2430/1_1.0_Square_Clamps__67269__49843.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1422" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.25 | Wet Sounds Stealth Clamp For 1.25" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B1423" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.25
+UPC:
+853414005396
+</t>
+        </is>
+      </c>
+      <c r="D1423" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1363/2433/1_1.25_Square_Clamps__83205__21949.1637194854.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1423" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 2.0 T | Wet Sounds Stealth Clamp For 2" Tube</t>
+        </is>
+      </c>
+      <c r="B1424" t="inlineStr">
+        <is>
+          <t>$42.99</t>
+        </is>
+      </c>
+      <c r="C1424" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 2.0 T
+UPC:
+810042172333
+</t>
+        </is>
+      </c>
+      <c r="D1424" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1362/2420/1_2.0_RND_Clamps__29986__47318.1680276146.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1424" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="inlineStr">
+        <is>
+          <t>ST-ADP-SLIDER BRACKET | Wet Sounds Stealth Slider Bracket For STEALTH 6 &amp; STEALTH 10 Soundbars</t>
+        </is>
+      </c>
+      <c r="B1425" t="inlineStr">
+        <is>
+          <t>$49.99</t>
+        </is>
+      </c>
+      <c r="C1425" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SLIDER BRACKET
+UPC:
+853414005891
+</t>
+        </is>
+      </c>
+      <c r="D1425" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1361/2423/1_Slider_Brackets__70189__99738.1637194852.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1425" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="inlineStr">
+        <is>
+          <t>STEALTH AS-8 | Wet Sounds™ 8-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1426" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C1426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-8
+UPC:
+814820024791
+</t>
+        </is>
+      </c>
+      <c r="D1426" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1360/5740/AS-8_Front_Right__03743.1713207541.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1426" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="inlineStr">
+        <is>
+          <t>STEALTH-6 SURGE-B | Wet Sounds STEALTH SURGE 6 Speaker Amplified Universal Soundbar</t>
+        </is>
+      </c>
+      <c r="B1427" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1427" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-6 SURGE-B
+UPC:
+814820024548
+</t>
+        </is>
+      </c>
+      <c r="D1427" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1359/3378/1_Stealth_6_Surge_B_Web__61174.1642006568.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1427" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="inlineStr"/>
+      <c r="B1428" t="inlineStr"/>
+      <c r="C1428" t="inlineStr"/>
+      <c r="D1428" t="inlineStr"/>
+      <c r="E1428" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-B | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1429" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C1429" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-B
+UPC:
+814820027457
+</t>
+        </is>
+      </c>
+      <c r="D1429" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1332/5857/RECON_6_Pod_S_Hero_G__70124.1713547935.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1429" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-W | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1430" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C1430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-W
+UPC:
+814820027464
+</t>
+        </is>
+      </c>
+      <c r="D1430" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1331/5851/RECON_6_Pod_XW_Hero_G__46069.1713547846.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1430" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="inlineStr">
+        <is>
+          <t>STEALTH AS-6 | Wet Sounds™ 6.5-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1431" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-6
+UPC:
+814820023312
+</t>
+        </is>
+      </c>
+      <c r="D1431" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1293/5731/AS-6_Front_Right__07941.1713207502.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1431" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="inlineStr">
+        <is>
+          <t>STEALTH AS-10 | Wet Sounds™ 10-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1432" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C1432" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-10
+UPC:
+814820023251
+</t>
+        </is>
+      </c>
+      <c r="D1432" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1292/5748/AS-10_Front_Right__50395.1713207575.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1432" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="inlineStr">
+        <is>
+          <t>RECON 6-S | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B1433" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S
+UPC:
+814820027303
+</t>
+        </is>
+      </c>
+      <c r="D1433" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1289/5427/RECON_6-XS_Hero__59634.1708962364.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1433" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="inlineStr">
+        <is>
+          <t>RECON 6-BG | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black Grilles</t>
+        </is>
+      </c>
+      <c r="B1434" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1434" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG
+UPC:
+814820027501
+</t>
+        </is>
+      </c>
+      <c r="D1434" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1288/5432/RECON_6-XS_Front_Hero__48179.1708962424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1434" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White Grilles</t>
+        </is>
+      </c>
+      <c r="B1435" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1435" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W
+UPC:
+814820027624
+</t>
+        </is>
+      </c>
+      <c r="D1435" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1287/5438/RECON_6-XS_Front_Hero__59396.1708962477.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1435" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="inlineStr">
+        <is>
+          <t>REVO 6-XWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1436" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1436" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XWW
+UPC:
+814820023053
+</t>
+        </is>
+      </c>
+      <c r="D1436" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1286/5669/REVO_6_XW_W_Hero__12806.1709581449.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1436" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="inlineStr">
+        <is>
+          <t>REVO 6-XSW-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1437" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C1437" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSW-SS
+UPC:
+814820023060
+</t>
+        </is>
+      </c>
+      <c r="D1437" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1285/5677/REVO_6_XS_W_SS_Hero__51031.1709581486.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1437" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="inlineStr">
+        <is>
+          <t>REVO 6-SWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1438" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1438" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWW
+UPC:
+814820022292
+</t>
+        </is>
+      </c>
+      <c r="D1438" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1284/5683/REVO_6_SW_W_Hero__76882.1709581516.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1438" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="inlineStr"/>
+      <c r="B1439" t="inlineStr"/>
+      <c r="C1439" t="inlineStr"/>
+      <c r="D1439" t="inlineStr"/>
+      <c r="E1439" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="inlineStr">
+        <is>
+          <t>REVO 6-XSG-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1440" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C1440" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSG-SS
+UPC:
+814820023176
+</t>
+        </is>
+      </c>
+      <c r="D1440" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1282/5693/REVO_6_XS_G_SS_Hero__95565.1709581601.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1440" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="inlineStr"/>
+      <c r="B1441" t="inlineStr"/>
+      <c r="C1441" t="inlineStr"/>
+      <c r="D1441" t="inlineStr"/>
+      <c r="E1441" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="inlineStr">
+        <is>
+          <t>REVO 6 XS-B-SS V3 | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1442" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="C1442" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 XS-B-SS V3
+UPC:
+810042170148
+</t>
+        </is>
+      </c>
+      <c r="D1442" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1280/5715/REVO_6_XS_B_SS_Hero__67615.1709581844.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1442" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="inlineStr">
+        <is>
+          <t>REVO 6-SWB | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1443" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1443" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWB
+UPC:
+814820022308
+</t>
+        </is>
+      </c>
+      <c r="D1443" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1279/5709/REVO_6_SW_B_Hero__22160.1709581813.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1443" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1444" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1444" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-B S2
+UPC:
+814820024715
+</t>
+        </is>
+      </c>
+      <c r="D1444" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1277/5571/REVO_CX10_SW_B_Hero__55586.1709151911.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1444" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-S S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1445" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1445" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-S S2
+UPC:
+814820024760
+</t>
+        </is>
+      </c>
+      <c r="D1445" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1276/5588/REVO_CX10_XS_S_Hero__06379.1709231959.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1445" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1446" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1446" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-B S2
+UPC:
+814820024777
+</t>
+        </is>
+      </c>
+      <c r="D1446" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1275/5601/REVO_CX10_XW_B_Hero__80563.1709232713.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1446" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1447" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1447" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-W S2
+UPC:
+814820024784
+</t>
+        </is>
+      </c>
+      <c r="D1447" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1274/5606/REVO_CX10_XW_W_Hero__14177.1709237050.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1447" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-B-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1448" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C1448" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-B-SS S2
+UPC:
+814820024739
+</t>
+        </is>
+      </c>
+      <c r="D1448" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1273/5594/REVO_CX10_XS_B_SS_Hero__29022.1709232385.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1448" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-G-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1449" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C1449" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-G-SS S2
+UPC:
+814820024753
+</t>
+        </is>
+      </c>
+      <c r="D1449" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1272/5580/REVO_CX10_XS_G_SS_Hero__23286.1709230163.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1449" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-W-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1450" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C1450" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-W-SS S2
+UPC:
+814820024746
+</t>
+        </is>
+      </c>
+      <c r="D1450" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1271/5610/REVO_CX10_XS_W_SS_Hero__86437.1709237352.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1450" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="inlineStr">
+        <is>
+          <t>HTX-1 | Wet Sounds Class-D Monoblock Subwoofer Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1451" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1451" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-1
+UPC:
+814820022209
+</t>
+        </is>
+      </c>
+      <c r="D1451" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1262/3437/1_HTX_1__66896.1642091392.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1451" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="inlineStr">
+        <is>
+          <t>HTX-2 | Wet Sounds 2 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1452" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-2
+UPC:
+814820022179
+</t>
+        </is>
+      </c>
+      <c r="D1452" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1261/1579/1_HTX_2__29615__16659.1637194674.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1452" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="inlineStr">
+        <is>
+          <t>HTX-4 | Wet Sounds 4 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1453" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C1453" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-4
+UPC:
+814820022155
+</t>
+        </is>
+      </c>
+      <c r="D1453" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1260/1584/1_HTX_4__75666__26453.1637194675.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1453" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="inlineStr">
+        <is>
+          <t>HTX-6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1454" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="C1454" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-6
+UPC:
+814820022162
+</t>
+        </is>
+      </c>
+      <c r="D1454" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1259/1589/1_HTX_6__73141__79749.1642096762.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1454" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="inlineStr">
+        <is>
+          <t>STX MICRO-1 | Wet Sounds Compact Chassis Class-D Monoblock Marine A</t>
+        </is>
+      </c>
+      <c r="B1455" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C1455" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-1
+UPC:
+814820023329
+</t>
+        </is>
+      </c>
+      <c r="D1455" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1258/2520/Micro_STX_Hero__81706__61326.1637194869.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1455" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="inlineStr">
+        <is>
+          <t>STX MICRO-4 | Wet Sounds Compact Chassis Class-D 4-Ch Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1456" t="inlineStr">
+        <is>
+          <t>$439.99</t>
+        </is>
+      </c>
+      <c r="C1456" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-4
+UPC:
+814820023336
+</t>
+        </is>
+      </c>
+      <c r="D1456" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1257/2526/Micro_STX_Hero__17041__18108.1637194870.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1456" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="inlineStr">
+        <is>
+          <t>REVO 8 XW-W V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1457" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C1457" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 XW-W V3
+UPC:
+810042171992
+</t>
+        </is>
+      </c>
+      <c r="D1457" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1702/5631/REVO_8_XW_W_Hero__32333.1709313500.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1457" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="inlineStr">
+        <is>
+          <t>STEALTH XT 12-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B1458" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="C1458" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 12-B
+UPC:
+810042173095
+</t>
+        </is>
+      </c>
+      <c r="D1458" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1653/5275/Stealth_XT12_Hero__64541.1701045828.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1458" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="inlineStr">
+        <is>
+          <t>STEALTH XT 8-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B1459" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C1459" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 8-B
+UPC:
+810042173101
+</t>
+        </is>
+      </c>
+      <c r="D1459" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1652/5276/Stealth_XT8_Hero__73552.1701045835.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1459" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="inlineStr">
+        <is>
+          <t>STEALTH XT 6-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B1460" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C1460" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 6-B
+UPC:
+810042173088
+</t>
+        </is>
+      </c>
+      <c r="D1460" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1651/5277/Stealth_XT6_Hero__88966.1701045845.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1460" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-W | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B1461" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C1461" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-W
+UPC:
+810042173019
+</t>
+        </is>
+      </c>
+      <c r="D1461" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1624/5377/ZERO_8_W_Hero_Web__27066.1708447150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1461" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-B | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B1462" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C1462" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-B
+UPC:
+810042172760
+</t>
+        </is>
+      </c>
+      <c r="D1462" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1623/5372/ZERO_8_B_Web_Hero__46095.1708447055.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1462" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-W | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B1463" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1463" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-W
+UPC:
+810042173002
+</t>
+        </is>
+      </c>
+      <c r="D1463" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1622/5353/ZERO_6_W_Web_Hero__48185.1708446825.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1463" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-B | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B1464" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1464" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-B
+UPC:
+810042172753
+</t>
+        </is>
+      </c>
+      <c r="D1464" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1621/5363/ZERO_6_B_Web_Hero__23189.1708446915.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1464" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="inlineStr">
+        <is>
+          <t>RECON 8-BG RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1465" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C1465" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-BG RGB
+UPC:
+810042171817
+</t>
+        </is>
+      </c>
+      <c r="D1465" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1617/5383/RECON_8-XS_Front_Right_Hero_G__04334.1708959945.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1465" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="inlineStr">
+        <is>
+          <t>RECON 6-BG RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1466" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1466" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG RGB
+UPC:
+810042171800
+</t>
+        </is>
+      </c>
+      <c r="D1466" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1616/5415/RECON_6-XS_Front_Hero_G__11887.1708962166.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1466" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="inlineStr">
+        <is>
+          <t>GC-AMP-KIT  | Wet Sounds Golf Cart Amp Wiring Kit for STX Micro-4</t>
+        </is>
+      </c>
+      <c r="B1467" t="inlineStr">
+        <is>
+          <t>$89.99</t>
+        </is>
+      </c>
+      <c r="C1467" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+GC-AMP-KIT
+UPC:
+810042171589
+</t>
+        </is>
+      </c>
+      <c r="D1467" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1605/1569/GC-AMP-KIT__17000__26134.1637194671.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1467" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="inlineStr">
+        <is>
+          <t>GC-H4S | Wet Sounds Golf Cart Audio System Harness</t>
+        </is>
+      </c>
+      <c r="B1468" t="inlineStr">
+        <is>
+          <t>$149.99</t>
+        </is>
+      </c>
+      <c r="C1468" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+GC-H4S
+UPC:
+810042171299
+</t>
+        </is>
+      </c>
+      <c r="D1468" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1597/1571/Golf_Cart_Harness_3__59544__36842.1637194672.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1468" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="inlineStr">
+        <is>
+          <t>REVO 8-XSB-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1469" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C1469" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSB-SS
+UPC:
+814820023046
+</t>
+        </is>
+      </c>
+      <c r="D1469" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1453/5646/REVO_8_XS_B_SS_Hero__24569.1709314439.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1469" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="inlineStr">
+        <is>
+          <t>REVO 8-XSG-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1470" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C1470" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSG-SS
+UPC:
+814820023206
+</t>
+        </is>
+      </c>
+      <c r="D1470" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1452/5655/REVO_8_XS_G_SS_Hero__58795.1709314920.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1470" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="inlineStr">
+        <is>
+          <t>REVO 8-XSW-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1471" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C1471" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSW-SS
+UPC:
+814820022421
+</t>
+        </is>
+      </c>
+      <c r="D1471" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1451/5659/REVO_8_XS_W_SS_Hero__40898.1709324600.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1471" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="inlineStr">
+        <is>
+          <t>REVO 8-XSS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1472" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C1472" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSS
+UPC:
+814820023213
+</t>
+        </is>
+      </c>
+      <c r="D1472" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1450/5617/REVO_8_XS_S_Hero__59990.1709312658.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1472" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="inlineStr">
+        <is>
+          <t>REVO 8 SW-B V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1473" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C1473" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 SW-B V3
+UPC:
+810042173064
+</t>
+        </is>
+      </c>
+      <c r="D1473" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1449/5624/REVO_8_SW_B_Hero__54808.1709313038.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1473" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="inlineStr">
+        <is>
+          <t>REVO 8-SWW | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1474" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C1474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-SWW
+UPC:
+814820022322
+</t>
+        </is>
+      </c>
+      <c r="D1474" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1448/5667/REVO_8_SW_W_Hero__17640.1709324663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1474" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="inlineStr">
+        <is>
+          <t>REVO 8-XWB | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1475" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C1475" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XWB
+UPC:
+814820022339
+</t>
+        </is>
+      </c>
+      <c r="D1475" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1447/5637/REVO_8_XW_B_Hero__85483.1709313935.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1475" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:21:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1476" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1476" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W RGB
+UPC:
+814820027518
+</t>
+        </is>
+      </c>
+      <c r="D1476" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1445/5419/RECON_6-XS_Front_Hero_G__57907.1708962243.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1476" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="inlineStr">
+        <is>
+          <t>RECON 6-S RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1477" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1477" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S RGB
+UPC:
+814820027310
+</t>
+        </is>
+      </c>
+      <c r="D1477" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1444/5405/RECON_6-XS_Hero_G__00191.1708962100.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1477" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="inlineStr">
+        <is>
+          <t>RECON 8 XW-W RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1478" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C1478" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8 XW-W RGB
+UPC:
+814820027525
+</t>
+        </is>
+      </c>
+      <c r="D1478" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1443/5393/RECON_8-XS_Front_Right_Hero_G__13110.1708960108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1478" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="inlineStr">
+        <is>
+          <t>RECON 8-S RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1479" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C1479" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-S RGB
+UPC:
+814820027334
+</t>
+        </is>
+      </c>
+      <c r="D1479" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1442/5388/RECON_8-XS_Front_Right_Hero_G__30821.1708960025.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1479" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="inlineStr">
+        <is>
+          <t>RECON 5-S | RECON™ Series 5.25-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B1480" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C1480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 5-S
+UPC:
+814820027549
+</t>
+        </is>
+      </c>
+      <c r="D1480" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1439/5403/RECON_5-XS_Hero__02225.1708961993.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1480" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.5 | Wet Sounds Stealth Clamp For 1.5" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B1481" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1481" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.5
+UPC:
+853414005358
+</t>
+        </is>
+      </c>
+      <c r="D1481" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1367/2414/1_1.50_RND_Clamps__21455__02143.1637194850.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1481" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.75 | Wet Sounds Stealth Clamp For 1.75" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B1482" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1482" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.75
+UPC:
+853414005365
+</t>
+        </is>
+      </c>
+      <c r="D1482" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1366/2417/1_1.75_RND_Clamps__59114__19242.1637194851.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1482" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ .75 | Wet Sounds Stealth Clamp For .75" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B1483" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ .75
+UPC:
+853414005372
+</t>
+        </is>
+      </c>
+      <c r="D1483" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1365/2427/1_0.75_Square_Clamps__66224__70772.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1483" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.0 | Wet Sounds Stealth Clamp For 1" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B1484" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1484" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.0
+UPC:
+853414005389
+</t>
+        </is>
+      </c>
+      <c r="D1484" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1364/2430/1_1.0_Square_Clamps__67269__49843.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1484" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.25 | Wet Sounds Stealth Clamp For 1.25" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B1485" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.25
+UPC:
+853414005396
+</t>
+        </is>
+      </c>
+      <c r="D1485" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1363/2433/1_1.25_Square_Clamps__83205__21949.1637194854.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1485" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 2.0 T | Wet Sounds Stealth Clamp For 2" Tube</t>
+        </is>
+      </c>
+      <c r="B1486" t="inlineStr">
+        <is>
+          <t>$42.99</t>
+        </is>
+      </c>
+      <c r="C1486" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 2.0 T
+UPC:
+810042172333
+</t>
+        </is>
+      </c>
+      <c r="D1486" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1362/2420/1_2.0_RND_Clamps__29986__47318.1680276146.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1486" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>ST-ADP-SLIDER BRACKET | Wet Sounds Stealth Slider Bracket For STEALTH 6 &amp; STEALTH 10 Soundbars</t>
+        </is>
+      </c>
+      <c r="B1487" t="inlineStr">
+        <is>
+          <t>$49.99</t>
+        </is>
+      </c>
+      <c r="C1487" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SLIDER BRACKET
+UPC:
+853414005891
+</t>
+        </is>
+      </c>
+      <c r="D1487" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1361/2423/1_Slider_Brackets__70189__99738.1637194852.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1487" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="inlineStr">
+        <is>
+          <t>STEALTH AS-8 | Wet Sounds™ 8-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1488" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C1488" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-8
+UPC:
+814820024791
+</t>
+        </is>
+      </c>
+      <c r="D1488" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1360/5740/AS-8_Front_Right__03743.1713207541.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1488" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="inlineStr">
+        <is>
+          <t>STEALTH AS-6 | Wet Sounds™ 6.5-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1489" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-6
+UPC:
+814820023312
+</t>
+        </is>
+      </c>
+      <c r="D1489" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1293/5731/AS-6_Front_Right__07941.1713207502.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1489" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>STEALTH AS-10 | Wet Sounds™ 10-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1490" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C1490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-10
+UPC:
+814820023251
+</t>
+        </is>
+      </c>
+      <c r="D1490" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1292/5748/AS-10_Front_Right__50395.1713207575.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1490" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t>RECON 6-S | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1491" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S
+UPC:
+814820027303
+</t>
+        </is>
+      </c>
+      <c r="D1491" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1289/5427/RECON_6-XS_Hero__59634.1708962364.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1491" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="inlineStr">
+        <is>
+          <t>RECON 6-BG | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black Grilles</t>
+        </is>
+      </c>
+      <c r="B1492" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG
+UPC:
+814820027501
+</t>
+        </is>
+      </c>
+      <c r="D1492" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1288/5432/RECON_6-XS_Front_Hero__48179.1708962424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1492" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White Grilles</t>
+        </is>
+      </c>
+      <c r="B1493" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1493" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W
+UPC:
+814820027624
+</t>
+        </is>
+      </c>
+      <c r="D1493" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1287/5438/RECON_6-XS_Front_Hero__59396.1708962477.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1493" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="inlineStr">
+        <is>
+          <t>REVO 6-XWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1494" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1494" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XWW
+UPC:
+814820023053
+</t>
+        </is>
+      </c>
+      <c r="D1494" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1286/5669/REVO_6_XW_W_Hero__12806.1709581449.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1494" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="inlineStr">
+        <is>
+          <t>REVO 6-XSW-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1495" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C1495" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSW-SS
+UPC:
+814820023060
+</t>
+        </is>
+      </c>
+      <c r="D1495" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1285/5677/REVO_6_XS_W_SS_Hero__51031.1709581486.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1495" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="inlineStr">
+        <is>
+          <t>REVO 6-SWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1496" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1496" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWW
+UPC:
+814820022292
+</t>
+        </is>
+      </c>
+      <c r="D1496" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1284/5683/REVO_6_SW_W_Hero__76882.1709581516.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1496" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="inlineStr"/>
+      <c r="B1497" t="inlineStr"/>
+      <c r="C1497" t="inlineStr"/>
+      <c r="D1497" t="inlineStr"/>
+      <c r="E1497" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="inlineStr">
+        <is>
+          <t>REVO 6-XSG-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1498" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C1498" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSG-SS
+UPC:
+814820023176
+</t>
+        </is>
+      </c>
+      <c r="D1498" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1282/5693/REVO_6_XS_G_SS_Hero__95565.1709581601.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1498" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="inlineStr"/>
+      <c r="B1499" t="inlineStr"/>
+      <c r="C1499" t="inlineStr"/>
+      <c r="D1499" t="inlineStr"/>
+      <c r="E1499" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="inlineStr">
+        <is>
+          <t>REVO 6 XS-B-SS V3 | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1500" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="C1500" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 XS-B-SS V3
+UPC:
+810042170148
+</t>
+        </is>
+      </c>
+      <c r="D1500" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1280/5715/REVO_6_XS_B_SS_Hero__67615.1709581844.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1500" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="inlineStr">
+        <is>
+          <t>REVO 6-SWB | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1501" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1501" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWB
+UPC:
+814820022308
+</t>
+        </is>
+      </c>
+      <c r="D1501" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1279/5709/REVO_6_SW_B_Hero__22160.1709581813.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1501" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 110v, 1200W 4 Channel Amplifier</t>
+        </is>
+      </c>
+      <c r="B1502" t="inlineStr">
+        <is>
+          <t>$1,249.99</t>
+        </is>
+      </c>
+      <c r="C1502" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-1200-AMP
+UPC:
+810042170773
+</t>
+        </is>
+      </c>
+      <c r="D1502" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1684/4972/Venue_1200_Three_Quarter__05079.1688654940.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1502" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ LS Pro Package</t>
+        </is>
+      </c>
+      <c r="B1503" t="inlineStr">
+        <is>
+          <t>$6,299.99</t>
+        </is>
+      </c>
+      <c r="C1503" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-LS PRO PACKAGE
+UPC:
+810042171466
+</t>
+        </is>
+      </c>
+      <c r="D1503" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1604/4999/VS_Package_Web__61197.1688658820.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ Shallow Mount 6.5" Ceiling Speakers</t>
+        </is>
+      </c>
+      <c r="B1504" t="inlineStr">
+        <is>
+          <t>$269.99</t>
+        </is>
+      </c>
+      <c r="C1504" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-SMC-65
+UPC:
+810042171114
+</t>
+        </is>
+      </c>
+      <c r="D1504" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1589/4945/VS_SMC_65_Web__57267.1686758771.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1504" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 110v, 1200W 4 Channel Amplifier w/Enclosure</t>
+        </is>
+      </c>
+      <c r="B1505" t="inlineStr">
+        <is>
+          <t>$1,999.98</t>
+        </is>
+      </c>
+      <c r="C1505" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-AMPLIFIER SYSTEM-4
+UPC:
+810042171282
+</t>
+        </is>
+      </c>
+      <c r="D1505" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1577/4998/VS_Amp_System__41906.1688658687.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1505" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 12" Landscape In-Ground Subwoofer</t>
+        </is>
+      </c>
+      <c r="B1506" t="inlineStr">
+        <is>
+          <t>$1,499.99</t>
+        </is>
+      </c>
+      <c r="C1506" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-12 LS-SUB
+UPC:
+810042170780
+</t>
+        </is>
+      </c>
+      <c r="D1506" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1576/5000/OD_Sub_Front__38749.1688658990.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1506" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ Landscape Ground Spike</t>
+        </is>
+      </c>
+      <c r="B1507" t="inlineStr">
+        <is>
+          <t>$99.99</t>
+        </is>
+      </c>
+      <c r="C1507" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-LS-SP
+UPC:
+810042170223
+</t>
+        </is>
+      </c>
+      <c r="D1507" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1575/5004/OD_Landscape_Spike__18057.1688659027.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1507" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 6x9" Black HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B1508" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1508" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-69 PRO-B
+UPC:
+810042170209
+</t>
+        </is>
+      </c>
+      <c r="D1508" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1574/4983/Venue_VS69_Hero_Pair_B__22533.1688657979.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1508" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 6x9" White HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B1509" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1509" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-69 PRO-W
+UPC:
+810042170216
+</t>
+        </is>
+      </c>
+      <c r="D1509" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1573/4978/Venue_VS69_Hero_Pair_W__06446.1688657950.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1509" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 8" White HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B1510" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C1510" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-8 PRO-W
+UPC:
+814820029499
+</t>
+        </is>
+      </c>
+      <c r="D1510" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1572/4990/VS-8_W_Hero_Pair__68899.1688658629.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1510" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 8" Black HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B1511" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C1511" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-8 PRO-B
+UPC:
+814820029482
+</t>
+        </is>
+      </c>
+      <c r="D1511" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1571/4994/VS-8_B_Hero_Pair__68789.1688658649.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1511" t="inlineStr">
+        <is>
+          <t>2024-04-20 09:22:26</t>
         </is>
       </c>
     </row>

--- a/Output_informacoes_produtos_wet_sounds.xlsx
+++ b/Output_informacoes_produtos_wet_sounds.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1511"/>
+  <dimension ref="A1:E1813"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
@@ -38547,10 +38547,6 @@
       </c>
     </row>
     <row r="1236">
-      <c r="A1236" t="inlineStr"/>
-      <c r="B1236" t="inlineStr"/>
-      <c r="C1236" t="inlineStr"/>
-      <c r="D1236" t="inlineStr"/>
       <c r="E1236" t="inlineStr">
         <is>
           <t>2024-04-20 09:19:03</t>
@@ -38590,10 +38586,6 @@
       </c>
     </row>
     <row r="1238">
-      <c r="A1238" t="inlineStr"/>
-      <c r="B1238" t="inlineStr"/>
-      <c r="C1238" t="inlineStr"/>
-      <c r="D1238" t="inlineStr"/>
       <c r="E1238" t="inlineStr">
         <is>
           <t>2024-04-20 09:19:04</t>
@@ -44631,10 +44623,6 @@
       </c>
     </row>
     <row r="1428">
-      <c r="A1428" t="inlineStr"/>
-      <c r="B1428" t="inlineStr"/>
-      <c r="C1428" t="inlineStr"/>
-      <c r="D1428" t="inlineStr"/>
       <c r="E1428" t="inlineStr">
         <is>
           <t>2024-04-20 09:21:24</t>
@@ -44962,10 +44950,6 @@
       </c>
     </row>
     <row r="1439">
-      <c r="A1439" t="inlineStr"/>
-      <c r="B1439" t="inlineStr"/>
-      <c r="C1439" t="inlineStr"/>
-      <c r="D1439" t="inlineStr"/>
       <c r="E1439" t="inlineStr">
         <is>
           <t>2024-04-20 09:21:32</t>
@@ -45005,10 +44989,6 @@
       </c>
     </row>
     <row r="1441">
-      <c r="A1441" t="inlineStr"/>
-      <c r="B1441" t="inlineStr"/>
-      <c r="C1441" t="inlineStr"/>
-      <c r="D1441" t="inlineStr"/>
       <c r="E1441" t="inlineStr">
         <is>
           <t>2024-04-20 09:21:33</t>
@@ -46776,10 +46756,6 @@
       </c>
     </row>
     <row r="1497">
-      <c r="A1497" t="inlineStr"/>
-      <c r="B1497" t="inlineStr"/>
-      <c r="C1497" t="inlineStr"/>
-      <c r="D1497" t="inlineStr"/>
       <c r="E1497" t="inlineStr">
         <is>
           <t>2024-04-20 09:22:17</t>
@@ -46819,10 +46795,6 @@
       </c>
     </row>
     <row r="1499">
-      <c r="A1499" t="inlineStr"/>
-      <c r="B1499" t="inlineStr"/>
-      <c r="C1499" t="inlineStr"/>
-      <c r="D1499" t="inlineStr"/>
       <c r="E1499" t="inlineStr">
         <is>
           <t>2024-04-20 09:22:18</t>
@@ -47210,6 +47182,9505 @@
       <c r="E1511" t="inlineStr">
         <is>
           <t>2024-04-20 09:22:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>REVO 8 XW-W V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1512" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C1512" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 XW-W V3
+UPC:
+810042171992
+</t>
+        </is>
+      </c>
+      <c r="D1512" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1702/5631/REVO_8_XW_W_Hero__32333.1709313500.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1512" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-W | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B1513" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C1513" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-W
+UPC:
+810042173019
+</t>
+        </is>
+      </c>
+      <c r="D1513" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1624/5377/ZERO_8_W_Hero_Web__27066.1708447150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1513" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-B | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B1514" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C1514" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-B
+UPC:
+810042172760
+</t>
+        </is>
+      </c>
+      <c r="D1514" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1623/5372/ZERO_8_B_Web_Hero__46095.1708447055.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1514" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-W | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B1515" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1515" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-W
+UPC:
+810042173002
+</t>
+        </is>
+      </c>
+      <c r="D1515" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1622/5353/ZERO_6_W_Web_Hero__48185.1708446825.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1515" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-B | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B1516" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1516" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-B
+UPC:
+810042172753
+</t>
+        </is>
+      </c>
+      <c r="D1516" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1621/5363/ZERO_6_B_Web_Hero__23189.1708446915.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1516" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="inlineStr">
+        <is>
+          <t>RECON 8-BG RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1517" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C1517" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-BG RGB
+UPC:
+810042171817
+</t>
+        </is>
+      </c>
+      <c r="D1517" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1617/5383/RECON_8-XS_Front_Right_Hero_G__04334.1708959945.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1517" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="inlineStr">
+        <is>
+          <t>RECON 6-BG RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1518" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1518" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG RGB
+UPC:
+810042171800
+</t>
+        </is>
+      </c>
+      <c r="D1518" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1616/5415/RECON_6-XS_Front_Hero_G__11887.1708962166.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1518" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1519" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1519" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-W S2
+UPC:
+814820024722
+</t>
+        </is>
+      </c>
+      <c r="D1519" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1459/5574/REVO_CX10_SW_W_Hero__01549.1709229069.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1519" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="inlineStr">
+        <is>
+          <t>REVO 8-XSB-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1520" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C1520" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSB-SS
+UPC:
+814820023046
+</t>
+        </is>
+      </c>
+      <c r="D1520" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1453/5646/REVO_8_XS_B_SS_Hero__24569.1709314439.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1520" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="inlineStr">
+        <is>
+          <t>REVO 8-XSG-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1521" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C1521" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSG-SS
+UPC:
+814820023206
+</t>
+        </is>
+      </c>
+      <c r="D1521" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1452/5655/REVO_8_XS_G_SS_Hero__58795.1709314920.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1521" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="inlineStr">
+        <is>
+          <t>REVO 8-XSW-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1522" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C1522" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSW-SS
+UPC:
+814820022421
+</t>
+        </is>
+      </c>
+      <c r="D1522" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1451/5659/REVO_8_XS_W_SS_Hero__40898.1709324600.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1522" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="inlineStr">
+        <is>
+          <t>REVO 8-XSS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1523" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C1523" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSS
+UPC:
+814820023213
+</t>
+        </is>
+      </c>
+      <c r="D1523" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1450/5617/REVO_8_XS_S_Hero__59990.1709312658.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1523" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="inlineStr">
+        <is>
+          <t>REVO 8 SW-B V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1524" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C1524" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 SW-B V3
+UPC:
+810042173064
+</t>
+        </is>
+      </c>
+      <c r="D1524" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1449/5624/REVO_8_SW_B_Hero__54808.1709313038.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1524" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="inlineStr">
+        <is>
+          <t>REVO 8-SWW | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1525" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C1525" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-SWW
+UPC:
+814820022322
+</t>
+        </is>
+      </c>
+      <c r="D1525" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1448/5667/REVO_8_SW_W_Hero__17640.1709324663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1525" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="inlineStr">
+        <is>
+          <t>REVO 8-XWB | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1526" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C1526" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XWB
+UPC:
+814820022339
+</t>
+        </is>
+      </c>
+      <c r="D1526" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1447/5637/REVO_8_XW_B_Hero__85483.1709313935.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1526" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1527" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1527" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W RGB
+UPC:
+814820027518
+</t>
+        </is>
+      </c>
+      <c r="D1527" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1445/5419/RECON_6-XS_Front_Hero_G__57907.1708962243.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1527" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="inlineStr">
+        <is>
+          <t>RECON 6-S RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1528" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1528" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S RGB
+UPC:
+814820027310
+</t>
+        </is>
+      </c>
+      <c r="D1528" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1444/5405/RECON_6-XS_Hero_G__00191.1708962100.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1528" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="inlineStr">
+        <is>
+          <t>RECON 8 XW-W RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1529" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C1529" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8 XW-W RGB
+UPC:
+814820027525
+</t>
+        </is>
+      </c>
+      <c r="D1529" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1443/5393/RECON_8-XS_Front_Right_Hero_G__13110.1708960108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1529" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t>RECON 8-S RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1530" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C1530" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-S RGB
+UPC:
+814820027334
+</t>
+        </is>
+      </c>
+      <c r="D1530" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1442/5388/RECON_8-XS_Front_Right_Hero_G__30821.1708960025.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1530" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t>RECON 5-S | RECON™ Series 5.25-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B1531" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C1531" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 5-S
+UPC:
+814820027549
+</t>
+        </is>
+      </c>
+      <c r="D1531" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1439/5403/RECON_5-XS_Hero__02225.1708961993.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1531" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="inlineStr">
+        <is>
+          <t>RECON 6-S | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B1532" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1532" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S
+UPC:
+814820027303
+</t>
+        </is>
+      </c>
+      <c r="D1532" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1289/5427/RECON_6-XS_Hero__59634.1708962364.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1532" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="inlineStr">
+        <is>
+          <t>RECON 6-BG | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black Grilles</t>
+        </is>
+      </c>
+      <c r="B1533" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1533" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG
+UPC:
+814820027501
+</t>
+        </is>
+      </c>
+      <c r="D1533" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1288/5432/RECON_6-XS_Front_Hero__48179.1708962424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1533" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White Grilles</t>
+        </is>
+      </c>
+      <c r="B1534" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1534" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W
+UPC:
+814820027624
+</t>
+        </is>
+      </c>
+      <c r="D1534" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1287/5438/RECON_6-XS_Front_Hero__59396.1708962477.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1534" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="inlineStr">
+        <is>
+          <t>REVO 6-XWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1535" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1535" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XWW
+UPC:
+814820023053
+</t>
+        </is>
+      </c>
+      <c r="D1535" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1286/5669/REVO_6_XW_W_Hero__12806.1709581449.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1535" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="inlineStr">
+        <is>
+          <t>REVO 6-XSW-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1536" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C1536" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSW-SS
+UPC:
+814820023060
+</t>
+        </is>
+      </c>
+      <c r="D1536" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1285/5677/REVO_6_XS_W_SS_Hero__51031.1709581486.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1536" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="inlineStr">
+        <is>
+          <t>REVO 6-SWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1537" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1537" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWW
+UPC:
+814820022292
+</t>
+        </is>
+      </c>
+      <c r="D1537" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1284/5683/REVO_6_SW_W_Hero__76882.1709581516.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1537" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="inlineStr"/>
+      <c r="B1538" t="inlineStr"/>
+      <c r="C1538" t="inlineStr"/>
+      <c r="D1538" t="inlineStr"/>
+      <c r="E1538" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="inlineStr">
+        <is>
+          <t>REVO 6-XSG-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1539" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C1539" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSG-SS
+UPC:
+814820023176
+</t>
+        </is>
+      </c>
+      <c r="D1539" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1282/5693/REVO_6_XS_G_SS_Hero__95565.1709581601.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1539" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="inlineStr"/>
+      <c r="B1540" t="inlineStr"/>
+      <c r="C1540" t="inlineStr"/>
+      <c r="D1540" t="inlineStr"/>
+      <c r="E1540" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="inlineStr">
+        <is>
+          <t>REVO 6 XS-B-SS V3 | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1541" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="C1541" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 XS-B-SS V3
+UPC:
+810042170148
+</t>
+        </is>
+      </c>
+      <c r="D1541" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1280/5715/REVO_6_XS_B_SS_Hero__67615.1709581844.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1541" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="inlineStr">
+        <is>
+          <t>REVO 6-SWB | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1542" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1542" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWB
+UPC:
+814820022308
+</t>
+        </is>
+      </c>
+      <c r="D1542" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1279/5709/REVO_6_SW_B_Hero__22160.1709581813.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1542" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1543" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1543" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-B S2
+UPC:
+814820024715
+</t>
+        </is>
+      </c>
+      <c r="D1543" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1277/5571/REVO_CX10_SW_B_Hero__55586.1709151911.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1543" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-S S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1544" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1544" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-S S2
+UPC:
+814820024760
+</t>
+        </is>
+      </c>
+      <c r="D1544" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1276/5588/REVO_CX10_XS_S_Hero__06379.1709231959.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1544" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1545" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-B S2
+UPC:
+814820024777
+</t>
+        </is>
+      </c>
+      <c r="D1545" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1275/5601/REVO_CX10_XW_B_Hero__80563.1709232713.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1545" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1546" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1546" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-W S2
+UPC:
+814820024784
+</t>
+        </is>
+      </c>
+      <c r="D1546" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1274/5606/REVO_CX10_XW_W_Hero__14177.1709237050.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1546" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-B-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1547" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C1547" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-B-SS S2
+UPC:
+814820024739
+</t>
+        </is>
+      </c>
+      <c r="D1547" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1273/5594/REVO_CX10_XS_B_SS_Hero__29022.1709232385.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1547" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-G-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1548" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C1548" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-G-SS S2
+UPC:
+814820024753
+</t>
+        </is>
+      </c>
+      <c r="D1548" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1272/5580/REVO_CX10_XS_G_SS_Hero__23286.1709230163.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1548" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-W-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C1549" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-W-SS S2
+UPC:
+814820024746
+</t>
+        </is>
+      </c>
+      <c r="D1549" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1271/5610/REVO_CX10_XS_W_SS_Hero__86437.1709237352.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1549" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="inlineStr">
+        <is>
+          <t>REV 10 HD White | Wet Sounds REV HD Series 10" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1550" t="inlineStr">
+        <is>
+          <t>$1,959.99</t>
+        </is>
+      </c>
+      <c r="C1550" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-W-X
+UPC:
+810042177512
+</t>
+        </is>
+      </c>
+      <c r="D1550" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1673/4823/REV10_HD_W_XZ_Hero_R__75858.1675269054.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1550" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="inlineStr">
+        <is>
+          <t>REV 10 HD Black | Wet Sounds REV HD Series 10" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>$1,959.99</t>
+        </is>
+      </c>
+      <c r="C1551" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-B-X
+UPC:
+810042177307
+</t>
+        </is>
+      </c>
+      <c r="D1551" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1669/4777/REV12_HD_B_XZ_Hero_R__25053.1673993030.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1551" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="inlineStr">
+        <is>
+          <t>REV 12 HD White | Wet Sounds REV HD Series 12" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1552" t="inlineStr">
+        <is>
+          <t>$2,309.99</t>
+        </is>
+      </c>
+      <c r="C1552" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-W-X
+UPC:
+810042177031
+</t>
+        </is>
+      </c>
+      <c r="D1552" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1649/4740/REV12_HD_W_XZ_Hero_R__07359.1672241311.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1552" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="inlineStr">
+        <is>
+          <t>REV8™ White V2 | Wet Sounds Revolution Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C1553" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1553" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1640/4375/REV8_W_Web_Hero__78931.1654888304.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1553" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t>REV8™ Black V2 | Wet Sounds Revolution Series 8" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C1554" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1554" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1639/4369/REV8_B_Web_Hero__69496.1646949336.1280.1280__81274.1654887818.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1554" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t>REV10™ White V2 | Wet Sounds Revolution Series 10" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C1555" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1555" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1638/4359/REV10_W_Web_Hero__38956.1654887066.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1555" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t>REV10™ Black V2 | Wet Sounds Revolution Series 10" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C1556" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1556" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1637/4351/REV10_B_Web_Hero__57402.1647007395.1280.1280__29553.1654886710.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1556" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t>REV 410 Black V2 | Wet Sounds Revolution Series Dual 10" Black Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B1557" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C1557" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1557" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1636/4345/REV410_B_X_Web_Front___24105.1654881808.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1557" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t>REV 410 White V2 | Wet Sounds Revolution Series Dual 10" White Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B1558" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C1558" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1558" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1635/4342/REV410_W_X_Web_Front___65923.1647007018.1280.1280__51826.1654881737.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1558" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="inlineStr">
+        <is>
+          <t>ICON8™ White V2  | Wet Sounds ICON Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1559" t="inlineStr">
+        <is>
+          <t>$599.99 - $1,349.99</t>
+        </is>
+      </c>
+      <c r="C1559" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ICON 8-W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1559" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1634/4328/ICON8_W_Web_Hero__40196.1654880484.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1559" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="inlineStr">
+        <is>
+          <t>REV 12 HD Black | Wet Sounds REV HD Series 12" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1560" t="inlineStr">
+        <is>
+          <t>$2,309.99</t>
+        </is>
+      </c>
+      <c r="C1560" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-B-X
+UPC:
+810042176836
+</t>
+        </is>
+      </c>
+      <c r="D1560" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1633/4724/REV12_HD_B_XZ_Hero_R__98406.1671112247.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1560" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-BG | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1561" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C1561" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-BG
+UPC:
+810042171824
+</t>
+        </is>
+      </c>
+      <c r="D1561" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1629/5864/RECON_6_Pod_BG_Hero_G__07846.1713548018.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1561" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-B | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1562" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C1562" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-B
+UPC:
+814820027457
+</t>
+        </is>
+      </c>
+      <c r="D1562" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1332/5857/RECON_6_Pod_S_Hero_G__70124.1713547935.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1562" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-W | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1563" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C1563" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-W
+UPC:
+814820027464
+</t>
+        </is>
+      </c>
+      <c r="D1563" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1331/5851/RECON_6_Pod_XW_Hero_G__46069.1713547846.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1563" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="inlineStr">
+        <is>
+          <t>ICON8™ Black V2 | Wet Sounds ICON Series 8" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>$1,049.99 - $1,349.99</t>
+        </is>
+      </c>
+      <c r="C1564" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ICON 8-B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1564" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1330/3705/ICON8_B_Web_Hero__60943.1646946843.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1564" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="inlineStr">
+        <is>
+          <t>WS-MC-5 | Wet Sounds™ AM/FM/Digital Tuner Media Center</t>
+        </is>
+      </c>
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1565" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-5
+UPC:
+810042171596
+</t>
+        </is>
+      </c>
+      <c r="D1565" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1615/5317/MC-5_Hero_Image_Web__90008.1702572189.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1565" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="inlineStr">
+        <is>
+          <t>WWX-DZ-BT | Wet Sounds™ Dual Zone Bluetooth Controller</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C1566" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WWX-DZ-BT
+UPC:
+810042170803
+</t>
+        </is>
+      </c>
+      <c r="D1566" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1565/4543/DZ_BT_Front__15731.1666361204.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1566" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="inlineStr">
+        <is>
+          <t>WS-420 SQ | Wet Sounds™ Marine Multi Zone 4-Band Parametric Equalizer</t>
+        </is>
+      </c>
+      <c r="B1567" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C1567" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-420 SQ
+UPC:
+853414005105
+</t>
+        </is>
+      </c>
+      <c r="D1567" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1250/4427/420SQ_Front_with_Mic__47339.1658239355.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1567" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="inlineStr">
+        <is>
+          <t>WW-BT UR | Wet Sounds™ Marine Bluetooth Universal Receiver</t>
+        </is>
+      </c>
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C1568" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WW-BT UR
+UPC:
+814820024555
+</t>
+        </is>
+      </c>
+      <c r="D1568" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1249/4547/BT_UR_Front__46259.1666361333.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1568" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="inlineStr">
+        <is>
+          <t>WW-BT VC-V2 | Wet Sounds™ Marine Bluetooth Knob With Volume Control</t>
+        </is>
+      </c>
+      <c r="B1569" t="inlineStr">
+        <is>
+          <t>$129.99</t>
+        </is>
+      </c>
+      <c r="C1569" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WW-BT VC-V2
+UPC:
+814820023022
+</t>
+        </is>
+      </c>
+      <c r="D1569" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1248/4536/BT_VC_Web_1__79246.1666361101.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1569" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="inlineStr">
+        <is>
+          <t>WW-BT RS | Wet Sounds™ Marine Bluetooth Rocker Switch With Volume Control</t>
+        </is>
+      </c>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>$129.99</t>
+        </is>
+      </c>
+      <c r="C1570" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WW-BT RS
+UPC:
+814820023015
+</t>
+        </is>
+      </c>
+      <c r="D1570" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1247/4551/BT_RS_Front__57291.1666361561.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1570" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="inlineStr">
+        <is>
+          <t>WS-420 BT | Wet Sounds™ Marine Multi Zone 4-Band Parametric Equalizer w/ Integrated Bluetooth®</t>
+        </is>
+      </c>
+      <c r="B1571" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C1571" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-420 BT
+UPC:
+853414005150
+</t>
+        </is>
+      </c>
+      <c r="D1571" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1246/4430/Front_420_BT_2__22878.1658239507.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1571" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="inlineStr">
+        <is>
+          <t>WS-220 BT | Wet Sounds™ Marine 4-Zone Level Controller w/ Integrated Bluetooth®</t>
+        </is>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C1572" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-220 BT
+UPC:
+814820023268
+</t>
+        </is>
+      </c>
+      <c r="D1572" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1245/4432/2_220BT_Front__40363.1658239691.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1572" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="inlineStr">
+        <is>
+          <t>WS-MC-20 | Wet Sounds™ 2-Zone Media Center w/ SiriusXM-Ready® and NMEA 2000 Connectivity</t>
+        </is>
+      </c>
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1573" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-20
+UPC:
+814820029888
+</t>
+        </is>
+      </c>
+      <c r="D1573" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1590/5319/MC-20_Hero_Image_Web__72689.1702572289.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1573" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="inlineStr">
+        <is>
+          <t>WS-MC-2 | Wet Sounds™ SiriusXM-Ready® AM/FM/Weather Band Media Center</t>
+        </is>
+      </c>
+      <c r="B1574" t="inlineStr">
+        <is>
+          <t>$369.99</t>
+        </is>
+      </c>
+      <c r="C1574" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-2
+UPC:
+814820025002
+</t>
+        </is>
+      </c>
+      <c r="D1574" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1243/5311/MC-2_Hero_Image_Web__44421.1702572108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1574" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="inlineStr">
+        <is>
+          <t>WS-MC-1 | Wet Sounds™ 4 Zone Bluetooth® Marine Media Center</t>
+        </is>
+      </c>
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C1575" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-1
+UPC:
+814820025026
+</t>
+        </is>
+      </c>
+      <c r="D1575" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1242/5308/MC-1_Hero_Image_Web__34655.1702567424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1575" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="inlineStr">
+        <is>
+          <t>Sinister-SDX2 | Wet Sounds 2 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1576" t="inlineStr">
+        <is>
+          <t>$999.99</t>
+        </is>
+      </c>
+      <c r="C1576" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+Sinister-SDX2
+UPC:
+814820024616
+</t>
+        </is>
+      </c>
+      <c r="D1576" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1270/4142/Sinister_SDX2_Front__83389.1650295696.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1576" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="inlineStr">
+        <is>
+          <t>Sinister-SDX4 | Wet Sounds 4 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1577" t="inlineStr">
+        <is>
+          <t>$1,079.99</t>
+        </is>
+      </c>
+      <c r="C1577" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+Sinister-SDX4
+UPC:
+814820024623
+</t>
+        </is>
+      </c>
+      <c r="D1577" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1269/4148/Sinister_SDX4_Front__15417.1650295937.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1577" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="inlineStr">
+        <is>
+          <t>Sinister-SDX6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1578" t="inlineStr">
+        <is>
+          <t>$1,699.99</t>
+        </is>
+      </c>
+      <c r="C1578" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+Sinister-SDX6
+UPC:
+814820024630
+</t>
+        </is>
+      </c>
+      <c r="D1578" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1268/4155/Sinister_SDX6_Front__31215.1650296150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1578" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="inlineStr">
+        <is>
+          <t>Sinister-SDX2500 | Wet Sounds Class-D Monoblock Subwoofer Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1579" t="inlineStr">
+        <is>
+          <t>$1,899.99</t>
+        </is>
+      </c>
+      <c r="C1579" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+Sinister-SDX2500
+UPC:
+814820025910
+</t>
+        </is>
+      </c>
+      <c r="D1579" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1267/2384/1_SDX_2500__36161__26701.1637194846.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1579" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="inlineStr">
+        <is>
+          <t>SYN-DX2 | Wet Sounds 2 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1580" t="inlineStr">
+        <is>
+          <t>$679.99</t>
+        </is>
+      </c>
+      <c r="C1580" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+SYN-DX2
+UPC:
+814820022506
+</t>
+        </is>
+      </c>
+      <c r="D1580" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1266/2531/1_DX_2__47232__85619.1637194871.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1580" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="inlineStr">
+        <is>
+          <t>SYN-DX4 | Wet Sounds 4 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1581" t="inlineStr">
+        <is>
+          <t>$1,079.99</t>
+        </is>
+      </c>
+      <c r="C1581" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+SYN-DX4
+UPC:
+814820022537
+</t>
+        </is>
+      </c>
+      <c r="D1581" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1265/2544/1_DX_4__30904__39249.1637593872.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1581" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="inlineStr">
+        <is>
+          <t>SYN-DX2.3 HP | Wet Sounds 2 Channel High Power Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1582" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C1582" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+SYN-DX2.3 HP
+UPC:
+814820024562
+</t>
+        </is>
+      </c>
+      <c r="D1582" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1264/2536/1_DX_HP__89213__65593.1637194872.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1582" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="inlineStr">
+        <is>
+          <t>SYN-DX6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1583" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="C1583" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+SYN-DX6
+UPC:
+814820022568
+</t>
+        </is>
+      </c>
+      <c r="D1583" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1263/2546/1_DX_6__09919__62939.1637194874.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1583" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="inlineStr">
+        <is>
+          <t>HTX-1 | Wet Sounds Class-D Monoblock Subwoofer Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1584" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1584" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-1
+UPC:
+814820022209
+</t>
+        </is>
+      </c>
+      <c r="D1584" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1262/3437/1_HTX_1__66896.1642091392.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1584" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="inlineStr">
+        <is>
+          <t>HTX-2 | Wet Sounds 2 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1585" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1585" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-2
+UPC:
+814820022179
+</t>
+        </is>
+      </c>
+      <c r="D1585" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1261/1579/1_HTX_2__29615__16659.1637194674.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1585" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="inlineStr">
+        <is>
+          <t>HTX-4 | Wet Sounds 4 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1586" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C1586" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-4
+UPC:
+814820022155
+</t>
+        </is>
+      </c>
+      <c r="D1586" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1260/1584/1_HTX_4__75666__26453.1637194675.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1586" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="inlineStr">
+        <is>
+          <t>HTX-6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1587" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="C1587" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-6
+UPC:
+814820022162
+</t>
+        </is>
+      </c>
+      <c r="D1587" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1259/1589/1_HTX_6__73141__79749.1642096762.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1587" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="inlineStr">
+        <is>
+          <t>STX MICRO-1 | Wet Sounds Compact Chassis Class-D Monoblock Marine A</t>
+        </is>
+      </c>
+      <c r="B1588" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C1588" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-1
+UPC:
+814820023329
+</t>
+        </is>
+      </c>
+      <c r="D1588" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1258/2520/Micro_STX_Hero__81706__61326.1637194869.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1588" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="inlineStr">
+        <is>
+          <t>STX MICRO-4 | Wet Sounds Compact Chassis Class-D 4-Ch Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1589" t="inlineStr">
+        <is>
+          <t>$439.99</t>
+        </is>
+      </c>
+      <c r="C1589" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-4
+UPC:
+814820023336
+</t>
+        </is>
+      </c>
+      <c r="D1589" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1257/2526/Micro_STX_Hero__17041__18108.1637194870.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1589" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="inlineStr">
+        <is>
+          <t>REVO 10 HP S4 V3 | Wet Sounds REVO Series 10-inch High-Power Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B1590" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C1590" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 HP S4 V3
+UPC:
+810042171763
+</t>
+        </is>
+      </c>
+      <c r="D1590" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1703/5455/REVO_10_V3_Black_Subwoofer_Front_Right_View__01889.1709138503.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1590" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="inlineStr">
+        <is>
+          <t>REVO 10 FA S4 V3 | Wet Sounds REVO Series 10-inch Free-Air Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B1591" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="C1591" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 FA S4 V3
+UPC:
+810042171787
+</t>
+        </is>
+      </c>
+      <c r="D1591" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1685/5459/REVO_10_V3_Black_Subwoofer_Front_Right_View__98932.1709138599.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1591" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="inlineStr">
+        <is>
+          <t>ZERO 12 S4 XZ-W | Wet Sounds Zero Series™ 12-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with White XZ Grille</t>
+        </is>
+      </c>
+      <c r="B1592" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="C1592" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 12 S4 XZ-W
+UPC:
+810042173033
+</t>
+        </is>
+      </c>
+      <c r="D1592" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1628/5555/ZERO_12_White_Front_Right_View__41353.1709140271.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1592" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="inlineStr">
+        <is>
+          <t>ZERO 10 S4 XZ-W | Wet Sounds Zero Series™ 10-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with White XZ Grille</t>
+        </is>
+      </c>
+      <c r="B1593" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1593" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 10 S4 XZ-W
+UPC:
+810042173026
+</t>
+        </is>
+      </c>
+      <c r="D1593" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1627/5545/ZERO_10_White_Front_Right_View__26419.1709140155.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1593" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="inlineStr">
+        <is>
+          <t>ZERO 12 S4 XZ-B | Wet Sounds Zero Series™ 12-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with Black XZ Grille</t>
+        </is>
+      </c>
+      <c r="B1594" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="C1594" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 12 S4 XZ-B
+UPC:
+810042172784
+</t>
+        </is>
+      </c>
+      <c r="D1594" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1626/5562/ZERO_12_Black_Front_Right_View__17233.1709140318.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1594" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="inlineStr">
+        <is>
+          <t>ZERO 10 S4 XZ-B | Wet Sounds Zero Series™ 10-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with Black XZ Grille</t>
+        </is>
+      </c>
+      <c r="B1595" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1595" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 10 S4 XZ-B
+UPC:
+810042172777
+</t>
+        </is>
+      </c>
+      <c r="D1595" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1625/5550/ZERO_10_Black_Front_Right_View__68235.1709140211.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1595" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="inlineStr">
+        <is>
+          <t>RECON 10 FA-BG | Wet Sounds RECON™ Series 10-inch Free-Air Marine Subwoofer - 4Ω Black with XS Black Grille</t>
+        </is>
+      </c>
+      <c r="B1596" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1596" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 10 FA-BG
+UPC:
+814820027372
+</t>
+        </is>
+      </c>
+      <c r="D1596" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1461/5528/RECON_10_BG_Front_Right_View__28741.1709139490.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1596" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="inlineStr">
+        <is>
+          <t>RECON 10 FA-S | Wet Sounds RECON™ Series 10-inch Free-Air Marine Subwoofer - 4Ω Black with XS Silver Grille</t>
+        </is>
+      </c>
+      <c r="B1597" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1597" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 10 FA-S
+UPC:
+814820027273
+</t>
+        </is>
+      </c>
+      <c r="D1597" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1460/5531/RECON_10_XS_Front_Right_View__43611.1709139537.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1597" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="inlineStr">
+        <is>
+          <t>REVO 8 FA S4-W | Wet Sounds REVO Series 8-inch Free-Air Marine Subwoofer - 4Ω White</t>
+        </is>
+      </c>
+      <c r="B1598" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1598" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA : REVO 8 FA S4-W
+UPC:
+814820024814
+</t>
+        </is>
+      </c>
+      <c r="D1598" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1458/5442/REVO_8_FA_White_Subwoofer_Front_Right_View__82195.1709138078.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1598" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="inlineStr">
+        <is>
+          <t>REVO 12 FA S4-W V2 | Wet Sounds REVO Series 12-inch Free-Air Marine Subwoofer - 4Ω White</t>
+        </is>
+      </c>
+      <c r="B1599" t="inlineStr">
+        <is>
+          <t>$319.99</t>
+        </is>
+      </c>
+      <c r="C1599" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 FA S4-W V2
+UPC:
+814820027679
+</t>
+        </is>
+      </c>
+      <c r="D1599" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1457/5485/REVO_12_FA_HP_White_Subwoofer_Front_Right_View__62198.1709138924.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1599" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="inlineStr">
+        <is>
+          <t>REVO 12 FA S2-W V2 | Wet Sounds REVO Series 12-inch Free-Air Marine Subwoofer - 2Ω White</t>
+        </is>
+      </c>
+      <c r="B1600" t="inlineStr">
+        <is>
+          <t>$319.99</t>
+        </is>
+      </c>
+      <c r="C1600" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 FA S2-W V2
+UPC:
+814820027655
+</t>
+        </is>
+      </c>
+      <c r="D1600" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1456/5493/REVO_12_FA_HP_White_Subwoofer_Front_Right_View__15118.1709138983.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1600" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="inlineStr">
+        <is>
+          <t>REVO 12 FA S2-B V2 | Wet Sounds REVO Series 12-inch Free-Air Marine Subwoofer - 2Ω Black</t>
+        </is>
+      </c>
+      <c r="B1601" t="inlineStr">
+        <is>
+          <t>$319.99</t>
+        </is>
+      </c>
+      <c r="C1601" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 FA S2-B V2
+UPC:
+814820027648
+</t>
+        </is>
+      </c>
+      <c r="D1601" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1455/5495/REVO_12_FA_HP_Black_Subwoofer_Front_Right_View__24966.1709139072.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1601" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="inlineStr">
+        <is>
+          <t>REVO 12 FA S4-B V2 | Wet Sounds REVO Series 12-inch Free-Air Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>$319.99</t>
+        </is>
+      </c>
+      <c r="C1602" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 FA S4-B V2
+UPC:
+814820027662
+</t>
+        </is>
+      </c>
+      <c r="D1602" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1454/5501/REVO_12_FA_HP_Black_Subwoofer_Front_Right_View__14078.1709139143.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1602" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="inlineStr">
+        <is>
+          <t>RECON 10 FA-XW-W | Wet Sounds RECON™ Series 10-inch Free-Air Marine Subwoofer - 4Ω White with XW White Grille</t>
+        </is>
+      </c>
+      <c r="B1603" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1603" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 10 FA-XW-W
+UPC:
+814820027532
+</t>
+        </is>
+      </c>
+      <c r="D1603" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1446/5537/RECON_10_XW_Front_Right_View__89105.1709139670.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1603" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="inlineStr">
+        <is>
+          <t>REVO 10 FA S2-B V2 | Wet Sounds REVO Series 10-inch Free-Air Marine Subwoofer - 2Ω Black</t>
+        </is>
+      </c>
+      <c r="B1604" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C1604" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 FA S2-B V2
+UPC:
+814820027587
+</t>
+        </is>
+      </c>
+      <c r="D1604" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1441/5467/REVO_10_FA_HP_Black_Subwoofer_Front_Right_View__66469.1709138695.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1604" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="inlineStr">
+        <is>
+          <t>REVO 10 FA S2-W V2 | Wet Sounds REVO Series 10-inch Free-Air Marine Subwoofer - 2Ω White</t>
+        </is>
+      </c>
+      <c r="B1605" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C1605" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 FA S2-W V2
+UPC:
+814820027594
+</t>
+        </is>
+      </c>
+      <c r="D1605" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1440/5472/REVO_10_FA_HP_White_Subwoofer_Front_Right_View__41986.1709138755.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1605" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="inlineStr">
+        <is>
+          <t>REVO 10 FA S4-W V2 | Wet Sounds REVO Series 10-inch Free-Air Marine Subwoofer - 4Ω White</t>
+        </is>
+      </c>
+      <c r="B1606" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C1606" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 FA S4-W V2
+UPC:
+814820027617
+</t>
+        </is>
+      </c>
+      <c r="D1606" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1429/5480/REVO_10_FA_HP_White_Subwoofer_Front_Right_View__74671.1709138816.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1606" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="inlineStr">
+        <is>
+          <t>REVO 8 FA S4-B | Wet Sounds REVO Series 8-inch Free-Air Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B1607" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1607" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA : REVO 8 FA S4-B
+UPC:
+814820024807
+</t>
+        </is>
+      </c>
+      <c r="D1607" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1427/5447/REVO_8_FA_Black_Subwoofer_Front_Right_View__93660.1709138157.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1607" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="inlineStr">
+        <is>
+          <t>REVO 12 HP S4 V3 | Wet Sounds REVO Series 12-inch High-Power Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B1608" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="C1608" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 HP S4 V3
+UPC:
+810042171794
+</t>
+        </is>
+      </c>
+      <c r="D1608" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1294/5511/REVO_12_V3_Subwoofer_Front_Right__20953.1709139217.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1608" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="inlineStr">
+        <is>
+          <t>REVO 12 XXX V4-B | Wet Sounds REVO Series XXX 12-inch SPL Marine Subwoofer - Dual 2Ω Black</t>
+        </is>
+      </c>
+      <c r="B1609" t="inlineStr">
+        <is>
+          <t>$999.99</t>
+        </is>
+      </c>
+      <c r="C1609" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XXX V4-B
+UPC:
+814820022261
+</t>
+        </is>
+      </c>
+      <c r="D1609" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1291/5517/REVO_XXX12_Subwoofer_Front_Right_View__84159.1709139387.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1609" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="inlineStr">
+        <is>
+          <t>REVO 15 XXX V4-B | Wet Sounds REVO Series XXX 15-inch SPL Marine Subwoofer - Dual 2Ω Black</t>
+        </is>
+      </c>
+      <c r="B1610" t="inlineStr">
+        <is>
+          <t>$1,549.99</t>
+        </is>
+      </c>
+      <c r="C1610" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 15 XXX V4-B
+UPC:
+814820022254
+</t>
+        </is>
+      </c>
+      <c r="D1610" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1290/5521/REVO_XXX15_Subwoofer_Front_Right_View__42432.1709139422.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1610" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Revolution Series 5x7 HLCD With Surface Mountable Roto-Mold Enclosure + Grill - White</t>
+        </is>
+      </c>
+      <c r="B1611" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C1611" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 5X7 SM-W
+UPC:
+810042170018
+</t>
+        </is>
+      </c>
+      <c r="D1611" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1564/2595/0_REV_5x7__08818__09844.1637194884.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1611" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Revolution Series 6x9 HLCD With Surface Mountable Roto-Mold Enclosure + Grill - Black</t>
+        </is>
+      </c>
+      <c r="B1612" t="inlineStr">
+        <is>
+          <t>$849.99</t>
+        </is>
+      </c>
+      <c r="C1612" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 6X9 SM-B
+UPC:
+814820023121
+</t>
+        </is>
+      </c>
+      <c r="D1612" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1438/2600/1_6x9_SM_Black__24204__20541.1637194884.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1612" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Revolution Series 6x9 HLCD With Surface Mountable Roto-Mold Enclosure + Grill - White</t>
+        </is>
+      </c>
+      <c r="B1613" t="inlineStr">
+        <is>
+          <t>$849.99</t>
+        </is>
+      </c>
+      <c r="C1613" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 6X9 SM-W
+UPC:
+814820023138
+</t>
+        </is>
+      </c>
+      <c r="D1613" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1437/2602/1_6x9_SM_White__22030__64737.1637194885.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1613" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="inlineStr">
+        <is>
+          <t>Wet Sounds REV 696 RS | Revolution Series 6 X 9 Inch EFG™ Pro-Axial™ Speaker</t>
+        </is>
+      </c>
+      <c r="B1614" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1614" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 696 RS
+UPC:
+814820022896
+</t>
+        </is>
+      </c>
+      <c r="D1614" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1333/2668/1_6x9_RS__72461__07501.1637194898.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1614" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ Shallow Mount 6.5" Ceiling Speakers</t>
+        </is>
+      </c>
+      <c r="B1615" t="inlineStr">
+        <is>
+          <t>$269.99</t>
+        </is>
+      </c>
+      <c r="C1615" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-SMC-65
+UPC:
+810042171114
+</t>
+        </is>
+      </c>
+      <c r="D1615" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1589/4945/VS_SMC_65_Web__57267.1686758771.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1615" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="inlineStr">
+        <is>
+          <t>ADP REV HD X-W | Wet Sounds WHITE X Kit For REV HD Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B1616" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C1616" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV HD X-W
+UPC:
+810042172746
+</t>
+        </is>
+      </c>
+      <c r="D1616" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1680/4860/REVHD_X_Mount_W_Back_Left__51149.1677095557.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1616" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="inlineStr">
+        <is>
+          <t>ADP REV HD X-B | Wet Sounds BLACK X Kit For REV HD Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B1617" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C1617" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV HD X-B
+UPC:
+810042172739
+</t>
+        </is>
+      </c>
+      <c r="D1617" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1679/4859/REVHD_X_Mount_Back_Left__62192.1677095468.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1617" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="inlineStr">
+        <is>
+          <t>ADP Malibu G5-G  | Wet Sounds Brushed Tower Speaker Adapters For The Malibu G5 Tower</t>
+        </is>
+      </c>
+      <c r="B1618" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1618" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G5-G
+UPC:
+810042171275
+</t>
+        </is>
+      </c>
+      <c r="D1618" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1586/1503/1_Malibu_G5__12259__74117.1637194656.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1618" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="inlineStr">
+        <is>
+          <t>ADP NAU-FCTA  | Wet Sounds Brushed Tower Speaker Brackets For The 2019+ Nautique Flight Control Tower Actuated (FCTA)</t>
+        </is>
+      </c>
+      <c r="B1619" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C1619" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP NAU-FCTA
+UPC:
+814820029079
+</t>
+        </is>
+      </c>
+      <c r="D1619" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1546/1509/1_Nautique_FLTA__78313__12581.1637194659.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1619" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="inlineStr">
+        <is>
+          <t>ADP TC3-SXM | Wet Sounds Stainless Steel Swivel Surface Mount (No Clamp) w/ Hardware</t>
+        </is>
+      </c>
+      <c r="B1620" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C1620" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-SXM
+UPC:
+853414005655
+</t>
+        </is>
+      </c>
+      <c r="D1620" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1496/1560/1_TC3_SXM__75500__89888.1637194670.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1620" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="inlineStr">
+        <is>
+          <t>ADP NAUTIQUE G  | Wet Sounds Tower Speaker Brackets For The Upper Brackets For Nautique G Tower</t>
+        </is>
+      </c>
+      <c r="B1621" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1621" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP NAUTIQUE G
+UPC:
+814820025811
+</t>
+        </is>
+      </c>
+      <c r="D1621" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1436/1527/1_Nautique_G__82729__11690.1637194663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1621" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="inlineStr">
+        <is>
+          <t>ADP TC3-F-SILVER | Wet Sounds Silver Aluminum Clamp For Tube Diameter 1 7/8” To 3”</t>
+        </is>
+      </c>
+      <c r="B1622" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C1622" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-F-SILVER
+UPC:
+853414005624
+</t>
+        </is>
+      </c>
+      <c r="D1622" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1432/1549/1_TC3_FC_SA__81562__43456.1637194668.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1622" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="inlineStr">
+        <is>
+          <t>ADP TC3-F | Wet Sounds Stainless Steel Fixed Position Clamp For Tube Diameter 1 7/8” To 3”</t>
+        </is>
+      </c>
+      <c r="B1623" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C1623" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-F
+UPC:
+853414005600
+</t>
+        </is>
+      </c>
+      <c r="D1623" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1355/1547/1_TC3_FC__00488__91450.1637194666.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1623" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="inlineStr">
+        <is>
+          <t>ADP TC3-F MINI | Wet Sounds Stainless Steel Fixed Position Clamp For Tube Diameter 1” To 1 7/8”</t>
+        </is>
+      </c>
+      <c r="B1624" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C1624" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-F MINI
+UPC:
+853414005631
+</t>
+        </is>
+      </c>
+      <c r="D1624" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1354/1548/1_TC3_FC_Mini__70229__76985.1637194667.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1624" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="inlineStr">
+        <is>
+          <t>ADP TC3-S | Wet Sounds Stainless Steel Swivel Clamp For Tube Diameter 1 7/8” To 3”</t>
+        </is>
+      </c>
+      <c r="B1625" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C1625" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-S
+UPC:
+853414005617
+</t>
+        </is>
+      </c>
+      <c r="D1625" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1353/1553/0_TC3_SC__57230__35422.1637194668.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1625" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="inlineStr">
+        <is>
+          <t>ADP TC3-S MINI | Wet Sounds Stainless Steel Swivel Clamp For Tube Diameter 1” To 1 7/8”</t>
+        </is>
+      </c>
+      <c r="B1626" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C1626" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-S MINI
+UPC:
+853414005648
+</t>
+        </is>
+      </c>
+      <c r="D1626" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1352/1557/1_Mini_Swivel_Clamp__77137__47956.1637194669.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1626" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="inlineStr">
+        <is>
+          <t>ADP ILLUSION DXT  | Wet Sounds REV 10 Tower Speaker Brackets For The Malibu X Tower Lower Mount</t>
+        </is>
+      </c>
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t>$129.99</t>
+        </is>
+      </c>
+      <c r="C1627" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Illusion DXT
+UPC:
+814820020915
+</t>
+        </is>
+      </c>
+      <c r="D1627" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1350/1476/1_Illusion_DXT__92533__35545.1637194651.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1627" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="inlineStr">
+        <is>
+          <t>ADP REV X-B | Wet Sounds BLACK X Kit For REV And ICON Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B1628" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C1628" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV X-B
+UPC:
+814820021042
+</t>
+        </is>
+      </c>
+      <c r="D1628" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1349/1536/Black_X_Mount__86541__61693.1637194663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1628" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="inlineStr">
+        <is>
+          <t>ADP REV X-W | Wet Sounds WHITE X Kit For REV And ICON Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B1629" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C1629" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV X-W
+UPC:
+814820021059
+</t>
+        </is>
+      </c>
+      <c r="D1629" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1348/1537/White_X_Mount__90066__12854.1637194664.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1629" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="inlineStr">
+        <is>
+          <t>ADP Gladiator-B | Wet Sounds Black Tower Speaker Brackets For The Centurion Gladiator Tower</t>
+        </is>
+      </c>
+      <c r="B1630" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1630" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Gladiator-B
+UPC:
+814820020892
+</t>
+        </is>
+      </c>
+      <c r="D1630" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1347/1468/1_Centurion_Gladiator_Black__82234__48144.1637194649.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1630" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="inlineStr">
+        <is>
+          <t>ADP GLADIATOR-P  | Wet Sounds POLISHED Tower Speaker Brackets For The Centurion Gladiator Brackets</t>
+        </is>
+      </c>
+      <c r="B1631" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1631" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Gladiator-P
+UPC:
+814820020908
+</t>
+        </is>
+      </c>
+      <c r="D1631" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1346/1472/1_Centurion_Gladiator_Polished__65776__54391.1637194650.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1631" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="inlineStr">
+        <is>
+          <t>ADP MALIBU G3 SINGLE-B  | Wet Sounds Black Tower Speaker Brackets For The Malibu G3 Single Speaker Mount</t>
+        </is>
+      </c>
+      <c r="B1632" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1632" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G3 Single-B
+UPC:
+814820020977
+</t>
+        </is>
+      </c>
+      <c r="D1632" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1345/1487/1_Malibu_G3_Single_Black__82146__64795.1637194654.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1632" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="inlineStr">
+        <is>
+          <t>ADP MALIBU G3 SINGLE-P  | Wet Sounds Silver Tower Speaker Brackets For The Malibu G3 Single Speaker Mount</t>
+        </is>
+      </c>
+      <c r="B1633" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1633" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G3 Single-P
+UPC:
+814820020984
+</t>
+        </is>
+      </c>
+      <c r="D1633" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1344/1495/1_Malibu_G3_Single__46289__10563.1637194656.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1633" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>ADP MC BRACKET-11  | Wet Sounds Brushed Tower Speaker Brackets For The Aluminum Mastercraft MC-11 Bracket</t>
+        </is>
+      </c>
+      <c r="B1634" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="C1634" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP MC Bracket-11
+UPC:
+814820020991
+</t>
+        </is>
+      </c>
+      <c r="D1634" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1343/1504/1_MC11__55068__77297.1637194657.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1634" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>ADP Nautique FC5-U  | Wet Sounds Tower Speaker Brackets For The Upper Brackets For Nautique FC5 Tower</t>
+        </is>
+      </c>
+      <c r="B1635" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="C1635" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Nautique FC5-U
+UPC:
+814820021011
+</t>
+        </is>
+      </c>
+      <c r="D1635" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1342/1520/1_Nautique_FC5_U__66384__59326.1637194661.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1635" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="inlineStr">
+        <is>
+          <t>ADP CENTURION MAXIMUS |Wet Sounds Black Tower Speaker Brackets For The Centurion Maximus Tower</t>
+        </is>
+      </c>
+      <c r="B1636" t="inlineStr">
+        <is>
+          <t>$189.99</t>
+        </is>
+      </c>
+      <c r="C1636" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP CENTURION MAXIMUS
+UPC:
+814820020861
+</t>
+        </is>
+      </c>
+      <c r="D1636" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1341/1464/2_Centurion_Maximus__14356__62032.1637194648.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1636" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="inlineStr">
+        <is>
+          <t>ADP SUPRA-FxONE | Wet Sounds Supra FxONE Upper Tower Adapter Brackets W/ Bead Blast Finish</t>
+        </is>
+      </c>
+      <c r="B1637" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C1637" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP SUPRA-FxONE
+UPC:
+814820028102
+</t>
+        </is>
+      </c>
+      <c r="D1637" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1340/1539/1_FxONE__81412__61611.1637194666.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1637" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="inlineStr">
+        <is>
+          <t>ADP NAUTIQUE FC5-L  | Wet Sounds Tower Speaker Brackets For The Lower Brackets For Nautique FC5 Tower</t>
+        </is>
+      </c>
+      <c r="B1638" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C1638" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Nautique FC5-L
+UPC:
+814820021004
+</t>
+        </is>
+      </c>
+      <c r="D1638" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1339/1519/ADP-Nautique-FC5-L_MAIN-1__38608__44984.1637194660.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1638" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="inlineStr">
+        <is>
+          <t>ADP NAUTIQUE Z5 DROP 12  | Wet Sounds Nautique Drop Down Bracket For The Z5 Rack W/ 12 Inch Strut Tube</t>
+        </is>
+      </c>
+      <c r="B1639" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C1639" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Nautique Z5 Drop 12
+UPC:
+814820021028
+</t>
+        </is>
+      </c>
+      <c r="D1639" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1338/1535/ADP-Naut-Z5-Drop-12_MAIN-1__81230__46666.1637194663.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1639" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="inlineStr">
+        <is>
+          <t>ADP MALIBU G3 DUAL-B  | Wet Sounds BLACK Tower Speaker Brackets For The Malibu G3 Dual Speaker Mount</t>
+        </is>
+      </c>
+      <c r="B1640" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="C1640" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G3 Dual-B
+UPC:
+814820020939
+</t>
+        </is>
+      </c>
+      <c r="D1640" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1337/1483/ADP-Malibu-G3-Dual-B_MAIN-1__64841__65072.1637194652.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1640" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1641" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C1641" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XW-W GRILLE
+UPC:
+814820023435
+</t>
+        </is>
+      </c>
+      <c r="D1641" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1677/4856/1_REVO_10_XWW_Grille__24247.1675358486.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1641" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 SW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1642" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C1642" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 SW-B GRILLE
+UPC:
+814820023398
+</t>
+        </is>
+      </c>
+      <c r="D1642" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1520/4591/1_REVO_12_SWB_Grille__89371.1666364087.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1642" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 SW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1643" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C1643" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 SW-W GRILLE
+UPC:
+814820023404
+</t>
+        </is>
+      </c>
+      <c r="D1643" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1519/4587/1_REVO_12_SWW_Grille__50214.1666364049.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1643" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-Black Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1644" t="inlineStr">
+        <is>
+          <t>$109.99</t>
+        </is>
+      </c>
+      <c r="C1644" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-B-SS GRILLE
+UPC:
+814820022384
+</t>
+        </is>
+      </c>
+      <c r="D1644" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1518/4597/1_REVO_12_XSBSS_Grille__83842.1666364127.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1644" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:24:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-Gunmetal Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1645" t="inlineStr">
+        <is>
+          <t>$109.99</t>
+        </is>
+      </c>
+      <c r="C1645" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-G-SS GRILLE
+UPC:
+814820022377
+</t>
+        </is>
+      </c>
+      <c r="D1645" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1517/4601/1_REVO_12_XSGSS_Grille__30565.1666364155.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1645" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-Silver Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1646" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C1646" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-S GRILLE
+UPC:
+814820022360
+</t>
+        </is>
+      </c>
+      <c r="D1646" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1516/4589/1_REVO_12_XSS_Grille__77253.1666364074.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1646" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-White Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1647" t="inlineStr">
+        <is>
+          <t>$109.99</t>
+        </is>
+      </c>
+      <c r="C1647" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-W-SS GRILLE
+UPC:
+814820022353
+</t>
+        </is>
+      </c>
+      <c r="D1647" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1515/4595/1_REVO_12_XSWSS_Grille__39058.1666364112.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1647" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C1648" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XW-B GRILLE
+UPC:
+814820022346
+</t>
+        </is>
+      </c>
+      <c r="D1648" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1514/4593/1_REVO_12_XWB_Grille__46551.1666364097.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1648" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1649" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C1649" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XW-W GRILLE
+UPC:
+814820022278
+</t>
+        </is>
+      </c>
+      <c r="D1649" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1513/4599/1_REVO_12_XWW_Grille__15735.1666364137.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1649" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C1650" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XW-B GRILLE
+UPC:
+814820023428
+</t>
+        </is>
+      </c>
+      <c r="D1650" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1511/4573/1_REVO_10_XWB_Grille__42960.1666363805.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1650" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XS-White Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1651" t="inlineStr">
+        <is>
+          <t>$84.99</t>
+        </is>
+      </c>
+      <c r="C1651" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XS-W-SS GRILLE
+UPC:
+814820023411
+</t>
+        </is>
+      </c>
+      <c r="D1651" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1510/4575/1_REVO_10_XSWSS_Grille__72598.1666363829.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1651" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XS-Silver Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1652" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C1652" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XS-S GRILLE
+UPC:
+814820023466
+</t>
+        </is>
+      </c>
+      <c r="D1652" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1509/4567/1_REVO_10_XSS_Grille__64207.1666363752.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1652" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XS-Gunmetal Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t>$84.99</t>
+        </is>
+      </c>
+      <c r="C1653" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XS-G-SS GRILLE
+UPC:
+814820023473
+</t>
+        </is>
+      </c>
+      <c r="D1653" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1508/4571/1_REVO_10_XSGSS_Grille__26329.1666363793.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1653" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 SW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1654" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C1654" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 SW-W GRILLE
+UPC:
+814820023497
+</t>
+        </is>
+      </c>
+      <c r="D1654" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1506/4565/1_REVO_10_SWW_Grille__40203.1666363732.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1654" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 SW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 SW-B GRILLE
+UPC:
+814820023503
+</t>
+        </is>
+      </c>
+      <c r="D1655" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1505/4569/1_REVO_10_SWB_Grille__02082.1666363765.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1655" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-Black Stainless Steel FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t>$64.99</t>
+        </is>
+      </c>
+      <c r="C1656" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-B-SS GRILLE
+UPC:
+814820024852
+</t>
+        </is>
+      </c>
+      <c r="D1656" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1504/4561/1_REVO_8_XSBSS_Grille__79541.1666363683.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1656" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-Gunmetal Stainless Steel FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t>$64.99</t>
+        </is>
+      </c>
+      <c r="C1657" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-G-SS GRILLE
+UPC:
+814820024876
+</t>
+        </is>
+      </c>
+      <c r="D1657" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1503/4562/1_REVO_8_XSGSS_Grille__14722.1666363693.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1657" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-White Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1658" t="inlineStr">
+        <is>
+          <t>$64.99</t>
+        </is>
+      </c>
+      <c r="C1658" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-W-SS GRILLE
+UPC:
+814820024869
+</t>
+        </is>
+      </c>
+      <c r="D1658" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1502/4557/1_REVO_8_XSWSS_Grille__28943.1666363543.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1658" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-Silver FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-S GRILLE
+UPC:
+814820024821
+</t>
+        </is>
+      </c>
+      <c r="D1659" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1501/4555/1_REVO_8_XSS_Grille__95421.1666363515.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1659" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XW-Black FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1660" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C1660" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XW-B GRILLE
+UPC:
+814820024838
+</t>
+        </is>
+      </c>
+      <c r="D1660" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1500/4556/1_REVO_8_XWB_Grille__44024.1666363530.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1660" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XW-White FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C1661" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XW-W GRILLE
+UPC:
+814820024845
+</t>
+        </is>
+      </c>
+      <c r="D1661" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1499/4559/1_REVO_8_XWW_Grille__01114.1666363562.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1661" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 SW-White FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1662" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C1662" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA SW-W GRILLE
+UPC:
+814820024890
+</t>
+        </is>
+      </c>
+      <c r="D1662" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1498/4558/1_REVO_8_SWW_Grille__13637.1666363553.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1662" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 SW-Black FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1663" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C1663" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA SW-B GRILLE
+UPC:
+814820024883
+</t>
+        </is>
+      </c>
+      <c r="D1663" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1497/4560/1_REVO_8_SWB_Grille__93630.1666363571.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1663" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="inlineStr">
+        <is>
+          <t>REV 12 HD XS-W GRILLE | Wet Sounds REV 12 HD XS Grille White</t>
+        </is>
+      </c>
+      <c r="B1664" t="inlineStr">
+        <is>
+          <t>$240.00</t>
+        </is>
+      </c>
+      <c r="C1664" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XS-W GRILLE
+UPC:
+810042172609
+</t>
+        </is>
+      </c>
+      <c r="D1664" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1665/4701/REV_10_HD_XS_W_Grille___42087.1668784791.1280.1280__32929.1668786228.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1664" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="inlineStr">
+        <is>
+          <t>REV 12 HD XW-B GRILLE | Wet Sounds REV 12 HD XW Grille Black</t>
+        </is>
+      </c>
+      <c r="B1665" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C1665" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XW-B GRILLE
+UPC:
+810042172616
+</t>
+        </is>
+      </c>
+      <c r="D1665" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1664/4700/REV_10_HD_XW_B_Grille___44804.1668784874.1280.1280__10630.1668786179.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1665" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="inlineStr">
+        <is>
+          <t>REV 12 HD XW-W GRILLE | Wet Sounds REV 12 HD XW Grille White</t>
+        </is>
+      </c>
+      <c r="B1666" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C1666" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XW-W GRILLE
+UPC:
+810042172623
+</t>
+        </is>
+      </c>
+      <c r="D1666" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1663/4699/REV_10_HD_XW_W_Grille___19216.1668784926.1280.1280__46160.1668786094.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1666" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="inlineStr">
+        <is>
+          <t>REV 12 HD XZ-W GRILLE | Wet Sounds REV 12 HD XZ Grille White</t>
+        </is>
+      </c>
+      <c r="B1667" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C1667" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-W GRILLE
+UPC:
+810042172470
+</t>
+        </is>
+      </c>
+      <c r="D1667" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1662/4698/REV_10_HD_XZ_W_Grille___99703.1668785014.1280.1280__09363.1668786030.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1667" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="inlineStr">
+        <is>
+          <t>REV 12 HD XZ-B GRILLE | Wet Sounds REV 12 HD XZ Grille Black</t>
+        </is>
+      </c>
+      <c r="B1668" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C1668" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-B GRILLE
+UPC:
+810042172494
+</t>
+        </is>
+      </c>
+      <c r="D1668" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1661/4697/REV_10_HD_XZ_B_Grille___55922.1668785058.1280.1280__50203.1668785972.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1668" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="inlineStr">
+        <is>
+          <t>REV 12 HD XS-B GRILLE | Wet Sounds REV 12 HD XS Grille Black</t>
+        </is>
+      </c>
+      <c r="B1669" t="inlineStr">
+        <is>
+          <t>$240.00</t>
+        </is>
+      </c>
+      <c r="C1669" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XS-B GRILLE
+UPC:
+810042172593
+</t>
+        </is>
+      </c>
+      <c r="D1669" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1660/4696/REV_10_HD_XS_B_Grille___09337.1668784735.1280.1280__46044.1668785860.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1669" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="inlineStr">
+        <is>
+          <t>REV 10 HD XZ-B GRILLE | Wet Sounds REV 10 HD XZ Grille Black</t>
+        </is>
+      </c>
+      <c r="B1670" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C1670" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-B GRILLE
+UPC:
+810042172500
+</t>
+        </is>
+      </c>
+      <c r="D1670" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1659/4695/REV_10_HD_XZ_B_Grille___55922.1668785058.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1670" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="inlineStr">
+        <is>
+          <t>REV 10 HD XZ-W GRILLE | Wet Sounds REV 10 HD XZ Grille White</t>
+        </is>
+      </c>
+      <c r="B1671" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C1671" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-W GRILLE
+UPC:
+810042172487
+</t>
+        </is>
+      </c>
+      <c r="D1671" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1658/4694/REV_10_HD_XZ_W_Grille___99703.1668785014.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1671" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="inlineStr">
+        <is>
+          <t>REV 10 HD XW-W GRILLE | Wet Sounds REV 10 HD XW Grille White</t>
+        </is>
+      </c>
+      <c r="B1672" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C1672" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XW-W GRILLE
+UPC:
+810042172586
+</t>
+        </is>
+      </c>
+      <c r="D1672" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1657/4693/REV_10_HD_XW_W_Grille___19216.1668784926.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1672" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="inlineStr">
+        <is>
+          <t>REV 10 HD XW-B GRILLE | Wet Sounds REV 10 HD XW Grille Black</t>
+        </is>
+      </c>
+      <c r="B1673" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C1673" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XW-B GRILLE
+UPC:
+810042172579
+</t>
+        </is>
+      </c>
+      <c r="D1673" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1656/4692/REV_10_HD_XW_B_Grille___44804.1668784874.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1673" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="inlineStr">
+        <is>
+          <t>REV 10 HD XS-W GRILLE | Wet Sounds REV 10 HD XS Grille White</t>
+        </is>
+      </c>
+      <c r="B1674" t="inlineStr">
+        <is>
+          <t>$190.00</t>
+        </is>
+      </c>
+      <c r="C1674" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XS-W GRILLE
+UPC:
+810042172562
+</t>
+        </is>
+      </c>
+      <c r="D1674" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1655/4691/REV_10_HD_XS_W_Grille___42087.1668784791.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1674" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="inlineStr">
+        <is>
+          <t>REV 10 HD XS-B GRILLE | Wet Sounds REV 10 HD XS Grille Black</t>
+        </is>
+      </c>
+      <c r="B1675" t="inlineStr">
+        <is>
+          <t>$190.00</t>
+        </is>
+      </c>
+      <c r="C1675" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XS-B GRILLE
+UPC:
+810042172555
+</t>
+        </is>
+      </c>
+      <c r="D1675" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1642/4690/REV_10_HD_XS_B_Grille___09337.1668784735.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1675" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="inlineStr">
+        <is>
+          <t>Revo 12 PSE | Wet Sounds Passive Radiator Subwoofer Enclosure</t>
+        </is>
+      </c>
+      <c r="B1676" t="inlineStr">
+        <is>
+          <t>$1,499.95 - $1,579.95</t>
+        </is>
+      </c>
+      <c r="C1676" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 PSE
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1676" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1527/2054/12_PSE_XS_B__74684__29674.1637194774.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1676" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="inlineStr">
+        <is>
+          <t>STEALTH AS-8 | Wet Sounds™ 8-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1677" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C1677" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-8
+UPC:
+814820024791
+</t>
+        </is>
+      </c>
+      <c r="D1677" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1360/5740/AS-8_Front_Right__03743.1713207541.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1677" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="inlineStr">
+        <is>
+          <t>STEALTH AS-6 | Wet Sounds™ 6.5-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1678" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1678" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-6
+UPC:
+814820023312
+</t>
+        </is>
+      </c>
+      <c r="D1678" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1293/5731/AS-6_Front_Right__07941.1713207502.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1678" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="inlineStr">
+        <is>
+          <t>STEALTH AS-10 | Wet Sounds™ 10-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1679" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C1679" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-10
+UPC:
+814820023251
+</t>
+        </is>
+      </c>
+      <c r="D1679" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1292/5748/AS-10_Front_Right__50395.1713207575.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1679" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="inlineStr">
+        <is>
+          <t>REVO 8 XW-W V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1680" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C1680" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 XW-W V3
+UPC:
+810042171992
+</t>
+        </is>
+      </c>
+      <c r="D1680" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1702/5631/REVO_8_XW_W_Hero__32333.1709313500.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1680" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="inlineStr">
+        <is>
+          <t>AR-5 Defender Max | Wet Sounds 5-Speaker Defender Roof Audio System</t>
+        </is>
+      </c>
+      <c r="B1681" t="inlineStr">
+        <is>
+          <t>$3,999.99</t>
+        </is>
+      </c>
+      <c r="C1681" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+AR-5 Defender Max
+UPC:
+810042176805
+</t>
+        </is>
+      </c>
+      <c r="D1681" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1699/5295/AR-5_Defender_Max_Audio_Roof_Front_View_R_Web__25866.1701290006.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1681" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="inlineStr">
+        <is>
+          <t>ZERO 12 ENC | Wet Sounds™ ZERO 12-inch Rotomold Enclosure</t>
+        </is>
+      </c>
+      <c r="B1682" t="inlineStr">
+        <is>
+          <t>$369.99</t>
+        </is>
+      </c>
+      <c r="C1682" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 12 ENC
+UPC:
+810042176447
+</t>
+        </is>
+      </c>
+      <c r="D1682" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1694/5811/ZERO_12_ENC_Web_Hero_Solo__24519.1713280845.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1682" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="inlineStr">
+        <is>
+          <t>AR-AMP 2CH | Wet Sounds 2-CH Amplifier for Ranger Roof Audio System</t>
+        </is>
+      </c>
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="C1683" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+AR-AMP 2CH
+UPC:
+810042173866
+</t>
+        </is>
+      </c>
+      <c r="D1683" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1654/5306/AR-2CH_Front_View_Web__91025.1701293245.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1683" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t>STEALTH XT 12-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="C1684" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 12-B
+UPC:
+810042173095
+</t>
+        </is>
+      </c>
+      <c r="D1684" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1653/5275/Stealth_XT12_Hero__64541.1701045828.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1684" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="inlineStr">
+        <is>
+          <t>STEALTH XT 8-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B1685" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C1685" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 8-B
+UPC:
+810042173101
+</t>
+        </is>
+      </c>
+      <c r="D1685" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1652/5276/Stealth_XT8_Hero__73552.1701045835.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1685" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>STEALTH XT 6-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C1686" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 6-B
+UPC:
+810042173088
+</t>
+        </is>
+      </c>
+      <c r="D1686" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1651/5277/Stealth_XT6_Hero__88966.1701045845.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1686" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="inlineStr">
+        <is>
+          <t>AR-5 Ranger Crew | Wet Sounds™ 5-Speaker Ranger Roof Audio System</t>
+        </is>
+      </c>
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>$3,999.99</t>
+        </is>
+      </c>
+      <c r="C1687" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+AR-5 Ranger Crew
+UPC:
+810042173651
+</t>
+        </is>
+      </c>
+      <c r="D1687" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1643/5304/AR-5_Ranger_Crew_Audio_Roof_Front_View_R_Web__75719.1701290880.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1687" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="inlineStr">
+        <is>
+          <t>REV8™ White V2 | Wet Sounds Revolution Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C1688" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1688" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1640/4375/REV8_W_Web_Hero__78931.1654888304.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1688" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="inlineStr">
+        <is>
+          <t>REV8™ Black V2 | Wet Sounds Revolution Series 8" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1689" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C1689" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1689" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1639/4369/REV8_B_Web_Hero__69496.1646949336.1280.1280__81274.1654887818.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1689" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="inlineStr">
+        <is>
+          <t>REV10™ White V2 | Wet Sounds Revolution Series 10" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1690" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C1690" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1690" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1638/4359/REV10_W_Web_Hero__38956.1654887066.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1690" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="inlineStr">
+        <is>
+          <t>REV10™ Black V2 | Wet Sounds Revolution Series 10" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1691" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C1691" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1691" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1637/4351/REV10_B_Web_Hero__57402.1647007395.1280.1280__29553.1654886710.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1691" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="inlineStr">
+        <is>
+          <t>REV 410 Black V2 | Wet Sounds Revolution Series Dual 10" Black Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B1692" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C1692" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1692" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1636/4345/REV410_B_X_Web_Front___24105.1654881808.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1692" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="inlineStr">
+        <is>
+          <t>REV 410 White V2 | Wet Sounds Revolution Series Dual 10" White Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B1693" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C1693" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1693" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1635/4342/REV410_W_X_Web_Front___65923.1647007018.1280.1280__51826.1654881737.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1693" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="inlineStr">
+        <is>
+          <t>ICON8™ White V2  | Wet Sounds ICON Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1694" t="inlineStr">
+        <is>
+          <t>$599.99 - $1,349.99</t>
+        </is>
+      </c>
+      <c r="C1694" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ICON 8-W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1694" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1634/4328/ICON8_W_Web_Hero__40196.1654880484.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1694" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-BG | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1695" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C1695" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-BG
+UPC:
+810042171824
+</t>
+        </is>
+      </c>
+      <c r="D1695" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1629/5864/RECON_6_Pod_BG_Hero_G__07846.1713548018.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1695" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-W | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B1696" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C1696" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-W
+UPC:
+810042173019
+</t>
+        </is>
+      </c>
+      <c r="D1696" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1624/5377/ZERO_8_W_Hero_Web__27066.1708447150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1696" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-B | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B1697" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C1697" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-B
+UPC:
+810042172760
+</t>
+        </is>
+      </c>
+      <c r="D1697" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1623/5372/ZERO_8_B_Web_Hero__46095.1708447055.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1697" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-W | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B1698" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1698" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-W
+UPC:
+810042173002
+</t>
+        </is>
+      </c>
+      <c r="D1698" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1622/5353/ZERO_6_W_Web_Hero__48185.1708446825.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1698" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-B | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B1699" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1699" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-B
+UPC:
+810042172753
+</t>
+        </is>
+      </c>
+      <c r="D1699" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1621/5363/ZERO_6_B_Web_Hero__23189.1708446915.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1699" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="inlineStr">
+        <is>
+          <t>RECON 8-BG RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1700" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C1700" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-BG RGB
+UPC:
+810042171817
+</t>
+        </is>
+      </c>
+      <c r="D1700" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1617/5383/RECON_8-XS_Front_Right_Hero_G__04334.1708959945.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1700" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="inlineStr">
+        <is>
+          <t>RECON 6-BG RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1701" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1701" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG RGB
+UPC:
+810042171800
+</t>
+        </is>
+      </c>
+      <c r="D1701" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1616/5415/RECON_6-XS_Front_Hero_G__11887.1708962166.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1701" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="inlineStr">
+        <is>
+          <t>WWX-DZ-BT | Wet Sounds™ Dual Zone Bluetooth Controller</t>
+        </is>
+      </c>
+      <c r="B1702" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C1702" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WWX-DZ-BT
+UPC:
+810042170803
+</t>
+        </is>
+      </c>
+      <c r="D1702" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1565/4543/DZ_BT_Front__15731.1666361204.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1702" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t>Stealth HD Remote replacement</t>
+        </is>
+      </c>
+      <c r="B1703" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1703" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+PT-STEALTH HD REMOTE
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1703" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1533/4196/Stealth_UHD_Remote_Front__77941.1652811658.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1703" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="inlineStr">
+        <is>
+          <t>Revo 12 PSE | Wet Sounds Passive Radiator Subwoofer Enclosure</t>
+        </is>
+      </c>
+      <c r="B1704" t="inlineStr">
+        <is>
+          <t>$1,499.95 - $1,579.95</t>
+        </is>
+      </c>
+      <c r="C1704" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 PSE
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1704" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1527/2054/12_PSE_XS_B__74684__29674.1637194774.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1704" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="inlineStr">
+        <is>
+          <t>STEALTH-10 CORE-W | Wet Sounds STEALTH CORE 10 Speaker Non-Amplified Universal Soundbar</t>
+        </is>
+      </c>
+      <c r="B1705" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1705" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-10 CORE-W
+UPC:
+814820023145
+</t>
+        </is>
+      </c>
+      <c r="D1705" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1482/3363/1_Stealth_10_Core_W_Web__90688.1642004847.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1705" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="inlineStr">
+        <is>
+          <t>STEALTH-10 ULTRA HD-W | Wet Sounds All-In-One Amplified Bluetooth®  Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B1706" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1706" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-10 ULTRA HD-W
+UPC:
+814820023282
+</t>
+        </is>
+      </c>
+      <c r="D1706" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1480/3408/1_Stealth_10_UHD_W__97540.1642008122.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1706" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="inlineStr">
+        <is>
+          <t>STEALTH-6 ULTRA HD-W | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B1707" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="C1707" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-6 ULTRA HD-W
+UPC:
+814820023305
+</t>
+        </is>
+      </c>
+      <c r="D1707" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1479/3412/1_Stealth_6_UHD_W__23067.1642009031.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1707" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1708" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1708" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-W S2
+UPC:
+814820024722
+</t>
+        </is>
+      </c>
+      <c r="D1708" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1459/5574/REVO_CX10_SW_W_Hero__01549.1709229069.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1708" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="inlineStr">
+        <is>
+          <t>REVO 8-XSB-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1709" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C1709" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSB-SS
+UPC:
+814820023046
+</t>
+        </is>
+      </c>
+      <c r="D1709" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1453/5646/REVO_8_XS_B_SS_Hero__24569.1709314439.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1709" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="inlineStr">
+        <is>
+          <t>REVO 8-XSG-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1710" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C1710" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSG-SS
+UPC:
+814820023206
+</t>
+        </is>
+      </c>
+      <c r="D1710" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1452/5655/REVO_8_XS_G_SS_Hero__58795.1709314920.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1710" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="inlineStr">
+        <is>
+          <t>REVO 8-XSW-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1711" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C1711" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSW-SS
+UPC:
+814820022421
+</t>
+        </is>
+      </c>
+      <c r="D1711" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1451/5659/REVO_8_XS_W_SS_Hero__40898.1709324600.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1711" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="inlineStr">
+        <is>
+          <t>REVO 8-XSS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1712" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C1712" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSS
+UPC:
+814820023213
+</t>
+        </is>
+      </c>
+      <c r="D1712" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1450/5617/REVO_8_XS_S_Hero__59990.1709312658.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1712" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="inlineStr">
+        <is>
+          <t>REVO 8 SW-B V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1713" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C1713" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 SW-B V3
+UPC:
+810042173064
+</t>
+        </is>
+      </c>
+      <c r="D1713" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1449/5624/REVO_8_SW_B_Hero__54808.1709313038.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1713" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="inlineStr">
+        <is>
+          <t>REVO 8-SWW | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1714" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C1714" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-SWW
+UPC:
+814820022322
+</t>
+        </is>
+      </c>
+      <c r="D1714" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1448/5667/REVO_8_SW_W_Hero__17640.1709324663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1714" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="inlineStr">
+        <is>
+          <t>REVO 8-XWB | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1715" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C1715" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XWB
+UPC:
+814820022339
+</t>
+        </is>
+      </c>
+      <c r="D1715" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1447/5637/REVO_8_XW_B_Hero__85483.1709313935.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1715" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1716" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1716" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W RGB
+UPC:
+814820027518
+</t>
+        </is>
+      </c>
+      <c r="D1716" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1445/5419/RECON_6-XS_Front_Hero_G__57907.1708962243.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1716" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="inlineStr">
+        <is>
+          <t>RECON 6-S RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1717" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1717" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S RGB
+UPC:
+814820027310
+</t>
+        </is>
+      </c>
+      <c r="D1717" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1444/5405/RECON_6-XS_Hero_G__00191.1708962100.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1717" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="inlineStr">
+        <is>
+          <t>RECON 8 XW-W RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1718" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C1718" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8 XW-W RGB
+UPC:
+814820027525
+</t>
+        </is>
+      </c>
+      <c r="D1718" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1443/5393/RECON_8-XS_Front_Right_Hero_G__13110.1708960108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1718" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="inlineStr">
+        <is>
+          <t>RECON 8-S RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1719" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C1719" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-S RGB
+UPC:
+814820027334
+</t>
+        </is>
+      </c>
+      <c r="D1719" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1442/5388/RECON_8-XS_Front_Right_Hero_G__30821.1708960025.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1719" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="inlineStr">
+        <is>
+          <t>RECON 5-S | RECON™ Series 5.25-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B1720" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C1720" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 5-S
+UPC:
+814820027549
+</t>
+        </is>
+      </c>
+      <c r="D1720" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1439/5403/RECON_5-XS_Hero__02225.1708961993.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1720" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.5 | Wet Sounds Stealth Clamp For 1.5" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B1721" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1721" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.5
+UPC:
+853414005358
+</t>
+        </is>
+      </c>
+      <c r="D1721" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1367/2414/1_1.50_RND_Clamps__21455__02143.1637194850.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1721" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.75 | Wet Sounds Stealth Clamp For 1.75" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B1722" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1722" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.75
+UPC:
+853414005365
+</t>
+        </is>
+      </c>
+      <c r="D1722" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1366/2417/1_1.75_RND_Clamps__59114__19242.1637194851.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1722" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ .75 | Wet Sounds Stealth Clamp For .75" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B1723" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1723" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ .75
+UPC:
+853414005372
+</t>
+        </is>
+      </c>
+      <c r="D1723" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1365/2427/1_0.75_Square_Clamps__66224__70772.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1723" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.0 | Wet Sounds Stealth Clamp For 1" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B1724" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1724" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.0
+UPC:
+853414005389
+</t>
+        </is>
+      </c>
+      <c r="D1724" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1364/2430/1_1.0_Square_Clamps__67269__49843.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1724" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.25 | Wet Sounds Stealth Clamp For 1.25" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B1725" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1725" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.25
+UPC:
+853414005396
+</t>
+        </is>
+      </c>
+      <c r="D1725" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1363/2433/1_1.25_Square_Clamps__83205__21949.1637194854.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1725" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 2.0 T | Wet Sounds Stealth Clamp For 2" Tube</t>
+        </is>
+      </c>
+      <c r="B1726" t="inlineStr">
+        <is>
+          <t>$42.99</t>
+        </is>
+      </c>
+      <c r="C1726" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 2.0 T
+UPC:
+810042172333
+</t>
+        </is>
+      </c>
+      <c r="D1726" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1362/2420/1_2.0_RND_Clamps__29986__47318.1680276146.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1726" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="inlineStr">
+        <is>
+          <t>ST-ADP-SLIDER BRACKET | Wet Sounds Stealth Slider Bracket For STEALTH 6 &amp; STEALTH 10 Soundbars</t>
+        </is>
+      </c>
+      <c r="B1727" t="inlineStr">
+        <is>
+          <t>$49.99</t>
+        </is>
+      </c>
+      <c r="C1727" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SLIDER BRACKET
+UPC:
+853414005891
+</t>
+        </is>
+      </c>
+      <c r="D1727" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1361/2423/1_Slider_Brackets__70189__99738.1637194852.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1727" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="inlineStr">
+        <is>
+          <t>STEALTH AS-8 | Wet Sounds™ 8-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1728" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C1728" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-8
+UPC:
+814820024791
+</t>
+        </is>
+      </c>
+      <c r="D1728" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1360/5740/AS-8_Front_Right__03743.1713207541.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1728" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:25:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="inlineStr">
+        <is>
+          <t>STEALTH-6 SURGE-B | Wet Sounds STEALTH SURGE 6 Speaker Amplified Universal Soundbar</t>
+        </is>
+      </c>
+      <c r="B1729" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1729" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-6 SURGE-B
+UPC:
+814820024548
+</t>
+        </is>
+      </c>
+      <c r="D1729" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1359/3378/1_Stealth_6_Surge_B_Web__61174.1642006568.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1729" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="inlineStr"/>
+      <c r="B1730" t="inlineStr"/>
+      <c r="C1730" t="inlineStr"/>
+      <c r="D1730" t="inlineStr"/>
+      <c r="E1730" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-B | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1731" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C1731" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-B
+UPC:
+814820027457
+</t>
+        </is>
+      </c>
+      <c r="D1731" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1332/5857/RECON_6_Pod_S_Hero_G__70124.1713547935.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1731" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-W | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1732" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C1732" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-W
+UPC:
+814820027464
+</t>
+        </is>
+      </c>
+      <c r="D1732" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1331/5851/RECON_6_Pod_XW_Hero_G__46069.1713547846.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1732" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="inlineStr">
+        <is>
+          <t>STEALTH AS-6 | Wet Sounds™ 6.5-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1733" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1733" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-6
+UPC:
+814820023312
+</t>
+        </is>
+      </c>
+      <c r="D1733" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1293/5731/AS-6_Front_Right__07941.1713207502.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1733" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="inlineStr">
+        <is>
+          <t>STEALTH AS-10 | Wet Sounds™ 10-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1734" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C1734" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-10
+UPC:
+814820023251
+</t>
+        </is>
+      </c>
+      <c r="D1734" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1292/5748/AS-10_Front_Right__50395.1713207575.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1734" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="inlineStr">
+        <is>
+          <t>RECON 6-S | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B1735" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1735" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S
+UPC:
+814820027303
+</t>
+        </is>
+      </c>
+      <c r="D1735" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1289/5427/RECON_6-XS_Hero__59634.1708962364.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1735" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="inlineStr">
+        <is>
+          <t>RECON 6-BG | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black Grilles</t>
+        </is>
+      </c>
+      <c r="B1736" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1736" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG
+UPC:
+814820027501
+</t>
+        </is>
+      </c>
+      <c r="D1736" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1288/5432/RECON_6-XS_Front_Hero__48179.1708962424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1736" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White Grilles</t>
+        </is>
+      </c>
+      <c r="B1737" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1737" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W
+UPC:
+814820027624
+</t>
+        </is>
+      </c>
+      <c r="D1737" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1287/5438/RECON_6-XS_Front_Hero__59396.1708962477.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1737" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="inlineStr">
+        <is>
+          <t>REVO 6-XWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1738" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1738" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XWW
+UPC:
+814820023053
+</t>
+        </is>
+      </c>
+      <c r="D1738" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1286/5669/REVO_6_XW_W_Hero__12806.1709581449.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1738" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="inlineStr">
+        <is>
+          <t>REVO 6-XSW-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1739" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C1739" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSW-SS
+UPC:
+814820023060
+</t>
+        </is>
+      </c>
+      <c r="D1739" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1285/5677/REVO_6_XS_W_SS_Hero__51031.1709581486.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1739" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="inlineStr">
+        <is>
+          <t>REVO 6-SWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1740" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1740" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWW
+UPC:
+814820022292
+</t>
+        </is>
+      </c>
+      <c r="D1740" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1284/5683/REVO_6_SW_W_Hero__76882.1709581516.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1740" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="inlineStr"/>
+      <c r="B1741" t="inlineStr"/>
+      <c r="C1741" t="inlineStr"/>
+      <c r="D1741" t="inlineStr"/>
+      <c r="E1741" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="inlineStr">
+        <is>
+          <t>REVO 6-XSG-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1742" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C1742" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSG-SS
+UPC:
+814820023176
+</t>
+        </is>
+      </c>
+      <c r="D1742" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1282/5693/REVO_6_XS_G_SS_Hero__95565.1709581601.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1742" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="inlineStr"/>
+      <c r="B1743" t="inlineStr"/>
+      <c r="C1743" t="inlineStr"/>
+      <c r="D1743" t="inlineStr"/>
+      <c r="E1743" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="inlineStr">
+        <is>
+          <t>REVO 6 XS-B-SS V3 | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1744" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="C1744" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 XS-B-SS V3
+UPC:
+810042170148
+</t>
+        </is>
+      </c>
+      <c r="D1744" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1280/5715/REVO_6_XS_B_SS_Hero__67615.1709581844.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1744" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="inlineStr">
+        <is>
+          <t>REVO 6-SWB | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1745" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1745" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWB
+UPC:
+814820022308
+</t>
+        </is>
+      </c>
+      <c r="D1745" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1279/5709/REVO_6_SW_B_Hero__22160.1709581813.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1745" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1746" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1746" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-B S2
+UPC:
+814820024715
+</t>
+        </is>
+      </c>
+      <c r="D1746" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1277/5571/REVO_CX10_SW_B_Hero__55586.1709151911.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1746" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-S S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1747" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1747" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-S S2
+UPC:
+814820024760
+</t>
+        </is>
+      </c>
+      <c r="D1747" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1276/5588/REVO_CX10_XS_S_Hero__06379.1709231959.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1747" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1748" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1748" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-B S2
+UPC:
+814820024777
+</t>
+        </is>
+      </c>
+      <c r="D1748" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1275/5601/REVO_CX10_XW_B_Hero__80563.1709232713.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1748" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1749" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1749" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-W S2
+UPC:
+814820024784
+</t>
+        </is>
+      </c>
+      <c r="D1749" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1274/5606/REVO_CX10_XW_W_Hero__14177.1709237050.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1749" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-B-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1750" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C1750" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-B-SS S2
+UPC:
+814820024739
+</t>
+        </is>
+      </c>
+      <c r="D1750" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1273/5594/REVO_CX10_XS_B_SS_Hero__29022.1709232385.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1750" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-G-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1751" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C1751" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-G-SS S2
+UPC:
+814820024753
+</t>
+        </is>
+      </c>
+      <c r="D1751" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1272/5580/REVO_CX10_XS_G_SS_Hero__23286.1709230163.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1751" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-W-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1752" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C1752" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-W-SS S2
+UPC:
+814820024746
+</t>
+        </is>
+      </c>
+      <c r="D1752" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1271/5610/REVO_CX10_XS_W_SS_Hero__86437.1709237352.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1752" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="inlineStr">
+        <is>
+          <t>HTX-1 | Wet Sounds Class-D Monoblock Subwoofer Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1753" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1753" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-1
+UPC:
+814820022209
+</t>
+        </is>
+      </c>
+      <c r="D1753" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1262/3437/1_HTX_1__66896.1642091392.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1753" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="inlineStr">
+        <is>
+          <t>HTX-2 | Wet Sounds 2 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1754" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1754" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-2
+UPC:
+814820022179
+</t>
+        </is>
+      </c>
+      <c r="D1754" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1261/1579/1_HTX_2__29615__16659.1637194674.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1754" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="inlineStr">
+        <is>
+          <t>HTX-4 | Wet Sounds 4 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1755" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C1755" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-4
+UPC:
+814820022155
+</t>
+        </is>
+      </c>
+      <c r="D1755" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1260/1584/1_HTX_4__75666__26453.1637194675.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1755" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="inlineStr">
+        <is>
+          <t>HTX-6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1756" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="C1756" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-6
+UPC:
+814820022162
+</t>
+        </is>
+      </c>
+      <c r="D1756" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1259/1589/1_HTX_6__73141__79749.1642096762.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1756" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="inlineStr">
+        <is>
+          <t>STX MICRO-1 | Wet Sounds Compact Chassis Class-D Monoblock Marine A</t>
+        </is>
+      </c>
+      <c r="B1757" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C1757" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-1
+UPC:
+814820023329
+</t>
+        </is>
+      </c>
+      <c r="D1757" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1258/2520/Micro_STX_Hero__81706__61326.1637194869.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1757" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="inlineStr">
+        <is>
+          <t>STX MICRO-4 | Wet Sounds Compact Chassis Class-D 4-Ch Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1758" t="inlineStr">
+        <is>
+          <t>$439.99</t>
+        </is>
+      </c>
+      <c r="C1758" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-4
+UPC:
+814820023336
+</t>
+        </is>
+      </c>
+      <c r="D1758" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1257/2526/Micro_STX_Hero__17041__18108.1637194870.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1758" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="inlineStr">
+        <is>
+          <t>REVO 8 XW-W V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1759" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C1759" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 XW-W V3
+UPC:
+810042171992
+</t>
+        </is>
+      </c>
+      <c r="D1759" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1702/5631/REVO_8_XW_W_Hero__32333.1709313500.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1759" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="inlineStr">
+        <is>
+          <t>STEALTH XT 12-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B1760" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="C1760" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 12-B
+UPC:
+810042173095
+</t>
+        </is>
+      </c>
+      <c r="D1760" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1653/5275/Stealth_XT12_Hero__64541.1701045828.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1760" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="inlineStr">
+        <is>
+          <t>STEALTH XT 8-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B1761" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C1761" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 8-B
+UPC:
+810042173101
+</t>
+        </is>
+      </c>
+      <c r="D1761" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1652/5276/Stealth_XT8_Hero__73552.1701045835.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1761" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="inlineStr">
+        <is>
+          <t>STEALTH XT 6-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B1762" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C1762" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 6-B
+UPC:
+810042173088
+</t>
+        </is>
+      </c>
+      <c r="D1762" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1651/5277/Stealth_XT6_Hero__88966.1701045845.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1762" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-W | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B1763" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C1763" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-W
+UPC:
+810042173019
+</t>
+        </is>
+      </c>
+      <c r="D1763" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1624/5377/ZERO_8_W_Hero_Web__27066.1708447150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1763" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-B | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B1764" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C1764" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-B
+UPC:
+810042172760
+</t>
+        </is>
+      </c>
+      <c r="D1764" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1623/5372/ZERO_8_B_Web_Hero__46095.1708447055.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1764" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-W | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B1765" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1765" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-W
+UPC:
+810042173002
+</t>
+        </is>
+      </c>
+      <c r="D1765" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1622/5353/ZERO_6_W_Web_Hero__48185.1708446825.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1765" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-B | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B1766" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1766" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-B
+UPC:
+810042172753
+</t>
+        </is>
+      </c>
+      <c r="D1766" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1621/5363/ZERO_6_B_Web_Hero__23189.1708446915.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1766" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="inlineStr">
+        <is>
+          <t>RECON 8-BG RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1767" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C1767" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-BG RGB
+UPC:
+810042171817
+</t>
+        </is>
+      </c>
+      <c r="D1767" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1617/5383/RECON_8-XS_Front_Right_Hero_G__04334.1708959945.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1767" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="inlineStr">
+        <is>
+          <t>RECON 6-BG RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1768" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1768" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG RGB
+UPC:
+810042171800
+</t>
+        </is>
+      </c>
+      <c r="D1768" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1616/5415/RECON_6-XS_Front_Hero_G__11887.1708962166.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1768" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="inlineStr">
+        <is>
+          <t>GC-AMP-KIT  | Wet Sounds Golf Cart Amp Wiring Kit for STX Micro-4</t>
+        </is>
+      </c>
+      <c r="B1769" t="inlineStr">
+        <is>
+          <t>$89.99</t>
+        </is>
+      </c>
+      <c r="C1769" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+GC-AMP-KIT
+UPC:
+810042171589
+</t>
+        </is>
+      </c>
+      <c r="D1769" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1605/1569/GC-AMP-KIT__17000__26134.1637194671.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1769" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="inlineStr">
+        <is>
+          <t>GC-H4S | Wet Sounds Golf Cart Audio System Harness</t>
+        </is>
+      </c>
+      <c r="B1770" t="inlineStr">
+        <is>
+          <t>$149.99</t>
+        </is>
+      </c>
+      <c r="C1770" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+GC-H4S
+UPC:
+810042171299
+</t>
+        </is>
+      </c>
+      <c r="D1770" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1597/1571/Golf_Cart_Harness_3__59544__36842.1637194672.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1770" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="inlineStr">
+        <is>
+          <t>REVO 8-XSB-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1771" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C1771" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSB-SS
+UPC:
+814820023046
+</t>
+        </is>
+      </c>
+      <c r="D1771" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1453/5646/REVO_8_XS_B_SS_Hero__24569.1709314439.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1771" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="inlineStr">
+        <is>
+          <t>REVO 8-XSG-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1772" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C1772" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSG-SS
+UPC:
+814820023206
+</t>
+        </is>
+      </c>
+      <c r="D1772" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1452/5655/REVO_8_XS_G_SS_Hero__58795.1709314920.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1772" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="inlineStr">
+        <is>
+          <t>REVO 8-XSW-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1773" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C1773" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSW-SS
+UPC:
+814820022421
+</t>
+        </is>
+      </c>
+      <c r="D1773" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1451/5659/REVO_8_XS_W_SS_Hero__40898.1709324600.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1773" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="inlineStr">
+        <is>
+          <t>REVO 8-XSS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1774" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C1774" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSS
+UPC:
+814820023213
+</t>
+        </is>
+      </c>
+      <c r="D1774" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1450/5617/REVO_8_XS_S_Hero__59990.1709312658.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1774" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="inlineStr">
+        <is>
+          <t>REVO 8 SW-B V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1775" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C1775" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 SW-B V3
+UPC:
+810042173064
+</t>
+        </is>
+      </c>
+      <c r="D1775" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1449/5624/REVO_8_SW_B_Hero__54808.1709313038.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1775" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="inlineStr">
+        <is>
+          <t>REVO 8-SWW | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1776" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C1776" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-SWW
+UPC:
+814820022322
+</t>
+        </is>
+      </c>
+      <c r="D1776" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1448/5667/REVO_8_SW_W_Hero__17640.1709324663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1776" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="inlineStr">
+        <is>
+          <t>REVO 8-XWB | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1777" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C1777" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XWB
+UPC:
+814820022339
+</t>
+        </is>
+      </c>
+      <c r="D1777" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1447/5637/REVO_8_XW_B_Hero__85483.1709313935.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1777" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1778" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1778" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W RGB
+UPC:
+814820027518
+</t>
+        </is>
+      </c>
+      <c r="D1778" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1445/5419/RECON_6-XS_Front_Hero_G__57907.1708962243.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1778" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="inlineStr">
+        <is>
+          <t>RECON 6-S RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1779" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1779" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S RGB
+UPC:
+814820027310
+</t>
+        </is>
+      </c>
+      <c r="D1779" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1444/5405/RECON_6-XS_Hero_G__00191.1708962100.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1779" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="inlineStr">
+        <is>
+          <t>RECON 8 XW-W RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1780" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C1780" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8 XW-W RGB
+UPC:
+814820027525
+</t>
+        </is>
+      </c>
+      <c r="D1780" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1443/5393/RECON_8-XS_Front_Right_Hero_G__13110.1708960108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1780" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="inlineStr">
+        <is>
+          <t>RECON 8-S RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1781" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C1781" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-S RGB
+UPC:
+814820027334
+</t>
+        </is>
+      </c>
+      <c r="D1781" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1442/5388/RECON_8-XS_Front_Right_Hero_G__30821.1708960025.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1781" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="inlineStr">
+        <is>
+          <t>RECON 5-S | RECON™ Series 5.25-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B1782" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C1782" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 5-S
+UPC:
+814820027549
+</t>
+        </is>
+      </c>
+      <c r="D1782" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1439/5403/RECON_5-XS_Hero__02225.1708961993.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1782" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.5 | Wet Sounds Stealth Clamp For 1.5" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B1783" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1783" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.5
+UPC:
+853414005358
+</t>
+        </is>
+      </c>
+      <c r="D1783" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1367/2414/1_1.50_RND_Clamps__21455__02143.1637194850.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1783" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.75 | Wet Sounds Stealth Clamp For 1.75" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B1784" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1784" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.75
+UPC:
+853414005365
+</t>
+        </is>
+      </c>
+      <c r="D1784" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1366/2417/1_1.75_RND_Clamps__59114__19242.1637194851.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1784" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ .75 | Wet Sounds Stealth Clamp For .75" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B1785" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1785" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ .75
+UPC:
+853414005372
+</t>
+        </is>
+      </c>
+      <c r="D1785" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1365/2427/1_0.75_Square_Clamps__66224__70772.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1785" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.0 | Wet Sounds Stealth Clamp For 1" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B1786" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1786" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.0
+UPC:
+853414005389
+</t>
+        </is>
+      </c>
+      <c r="D1786" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1364/2430/1_1.0_Square_Clamps__67269__49843.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1786" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.25 | Wet Sounds Stealth Clamp For 1.25" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B1787" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C1787" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.25
+UPC:
+853414005396
+</t>
+        </is>
+      </c>
+      <c r="D1787" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1363/2433/1_1.25_Square_Clamps__83205__21949.1637194854.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1787" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 2.0 T | Wet Sounds Stealth Clamp For 2" Tube</t>
+        </is>
+      </c>
+      <c r="B1788" t="inlineStr">
+        <is>
+          <t>$42.99</t>
+        </is>
+      </c>
+      <c r="C1788" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 2.0 T
+UPC:
+810042172333
+</t>
+        </is>
+      </c>
+      <c r="D1788" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1362/2420/1_2.0_RND_Clamps__29986__47318.1680276146.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1788" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="inlineStr">
+        <is>
+          <t>ST-ADP-SLIDER BRACKET | Wet Sounds Stealth Slider Bracket For STEALTH 6 &amp; STEALTH 10 Soundbars</t>
+        </is>
+      </c>
+      <c r="B1789" t="inlineStr">
+        <is>
+          <t>$49.99</t>
+        </is>
+      </c>
+      <c r="C1789" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SLIDER BRACKET
+UPC:
+853414005891
+</t>
+        </is>
+      </c>
+      <c r="D1789" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1361/2423/1_Slider_Brackets__70189__99738.1637194852.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1789" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="inlineStr">
+        <is>
+          <t>STEALTH AS-8 | Wet Sounds™ 8-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1790" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C1790" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-8
+UPC:
+814820024791
+</t>
+        </is>
+      </c>
+      <c r="D1790" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1360/5740/AS-8_Front_Right__03743.1713207541.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1790" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="inlineStr">
+        <is>
+          <t>STEALTH AS-6 | Wet Sounds™ 6.5-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1791" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1791" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-6
+UPC:
+814820023312
+</t>
+        </is>
+      </c>
+      <c r="D1791" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1293/5731/AS-6_Front_Right__07941.1713207502.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1791" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="inlineStr">
+        <is>
+          <t>STEALTH AS-10 | Wet Sounds™ 10-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1792" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C1792" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-10
+UPC:
+814820023251
+</t>
+        </is>
+      </c>
+      <c r="D1792" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1292/5748/AS-10_Front_Right__50395.1713207575.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1792" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="inlineStr">
+        <is>
+          <t>RECON 6-S | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B1793" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1793" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S
+UPC:
+814820027303
+</t>
+        </is>
+      </c>
+      <c r="D1793" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1289/5427/RECON_6-XS_Hero__59634.1708962364.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1793" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="inlineStr">
+        <is>
+          <t>RECON 6-BG | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black Grilles</t>
+        </is>
+      </c>
+      <c r="B1794" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1794" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG
+UPC:
+814820027501
+</t>
+        </is>
+      </c>
+      <c r="D1794" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1288/5432/RECON_6-XS_Front_Hero__48179.1708962424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1794" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White Grilles</t>
+        </is>
+      </c>
+      <c r="B1795" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1795" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W
+UPC:
+814820027624
+</t>
+        </is>
+      </c>
+      <c r="D1795" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1287/5438/RECON_6-XS_Front_Hero__59396.1708962477.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1795" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="inlineStr">
+        <is>
+          <t>REVO 6-XWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1796" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1796" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XWW
+UPC:
+814820023053
+</t>
+        </is>
+      </c>
+      <c r="D1796" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1286/5669/REVO_6_XW_W_Hero__12806.1709581449.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1796" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="inlineStr">
+        <is>
+          <t>REVO 6-XSW-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1797" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C1797" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSW-SS
+UPC:
+814820023060
+</t>
+        </is>
+      </c>
+      <c r="D1797" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1285/5677/REVO_6_XS_W_SS_Hero__51031.1709581486.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1797" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="inlineStr">
+        <is>
+          <t>REVO 6-SWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1798" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1798" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWW
+UPC:
+814820022292
+</t>
+        </is>
+      </c>
+      <c r="D1798" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1284/5683/REVO_6_SW_W_Hero__76882.1709581516.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1798" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="inlineStr"/>
+      <c r="B1799" t="inlineStr"/>
+      <c r="C1799" t="inlineStr"/>
+      <c r="D1799" t="inlineStr"/>
+      <c r="E1799" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="inlineStr">
+        <is>
+          <t>REVO 6-XSG-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1800" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C1800" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSG-SS
+UPC:
+814820023176
+</t>
+        </is>
+      </c>
+      <c r="D1800" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1282/5693/REVO_6_XS_G_SS_Hero__95565.1709581601.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1800" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="inlineStr"/>
+      <c r="B1801" t="inlineStr"/>
+      <c r="C1801" t="inlineStr"/>
+      <c r="D1801" t="inlineStr"/>
+      <c r="E1801" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="inlineStr">
+        <is>
+          <t>REVO 6 XS-B-SS V3 | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1802" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="C1802" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 XS-B-SS V3
+UPC:
+810042170148
+</t>
+        </is>
+      </c>
+      <c r="D1802" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1280/5715/REVO_6_XS_B_SS_Hero__67615.1709581844.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1802" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="inlineStr">
+        <is>
+          <t>REVO 6-SWB | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1803" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1803" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWB
+UPC:
+814820022308
+</t>
+        </is>
+      </c>
+      <c r="D1803" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1279/5709/REVO_6_SW_B_Hero__22160.1709581813.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1803" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 110v, 1200W 4 Channel Amplifier</t>
+        </is>
+      </c>
+      <c r="B1804" t="inlineStr">
+        <is>
+          <t>$1,249.99</t>
+        </is>
+      </c>
+      <c r="C1804" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-1200-AMP
+UPC:
+810042170773
+</t>
+        </is>
+      </c>
+      <c r="D1804" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1684/4972/Venue_1200_Three_Quarter__05079.1688654940.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1804" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ LS Pro Package</t>
+        </is>
+      </c>
+      <c r="B1805" t="inlineStr">
+        <is>
+          <t>$6,299.99</t>
+        </is>
+      </c>
+      <c r="C1805" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-LS PRO PACKAGE
+UPC:
+810042171466
+</t>
+        </is>
+      </c>
+      <c r="D1805" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1604/4999/VS_Package_Web__61197.1688658820.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1805" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ Shallow Mount 6.5" Ceiling Speakers</t>
+        </is>
+      </c>
+      <c r="B1806" t="inlineStr">
+        <is>
+          <t>$269.99</t>
+        </is>
+      </c>
+      <c r="C1806" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-SMC-65
+UPC:
+810042171114
+</t>
+        </is>
+      </c>
+      <c r="D1806" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1589/4945/VS_SMC_65_Web__57267.1686758771.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1806" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 110v, 1200W 4 Channel Amplifier w/Enclosure</t>
+        </is>
+      </c>
+      <c r="B1807" t="inlineStr">
+        <is>
+          <t>$1,999.98</t>
+        </is>
+      </c>
+      <c r="C1807" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-AMPLIFIER SYSTEM-4
+UPC:
+810042171282
+</t>
+        </is>
+      </c>
+      <c r="D1807" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1577/4998/VS_Amp_System__41906.1688658687.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1807" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 12" Landscape In-Ground Subwoofer</t>
+        </is>
+      </c>
+      <c r="B1808" t="inlineStr">
+        <is>
+          <t>$1,499.99</t>
+        </is>
+      </c>
+      <c r="C1808" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-12 LS-SUB
+UPC:
+810042170780
+</t>
+        </is>
+      </c>
+      <c r="D1808" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1576/5000/OD_Sub_Front__38749.1688658990.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1808" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ Landscape Ground Spike</t>
+        </is>
+      </c>
+      <c r="B1809" t="inlineStr">
+        <is>
+          <t>$99.99</t>
+        </is>
+      </c>
+      <c r="C1809" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-LS-SP
+UPC:
+810042170223
+</t>
+        </is>
+      </c>
+      <c r="D1809" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1575/5004/OD_Landscape_Spike__18057.1688659027.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1809" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 6x9" Black HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B1810" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1810" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-69 PRO-B
+UPC:
+810042170209
+</t>
+        </is>
+      </c>
+      <c r="D1810" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1574/4983/Venue_VS69_Hero_Pair_B__22533.1688657979.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1810" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 6x9" White HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B1811" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1811" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-69 PRO-W
+UPC:
+810042170216
+</t>
+        </is>
+      </c>
+      <c r="D1811" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1573/4978/Venue_VS69_Hero_Pair_W__06446.1688657950.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1811" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 8" White HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B1812" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C1812" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-8 PRO-W
+UPC:
+814820029499
+</t>
+        </is>
+      </c>
+      <c r="D1812" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1572/4990/VS-8_W_Hero_Pair__68899.1688658629.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1812" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 8" Black HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B1813" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C1813" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-8 PRO-B
+UPC:
+814820029482
+</t>
+        </is>
+      </c>
+      <c r="D1813" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1571/4994/VS-8_B_Hero_Pair__68789.1688658649.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1813" t="inlineStr">
+        <is>
+          <t>2024-04-21 09:26:58</t>
         </is>
       </c>
     </row>

--- a/Output_informacoes_produtos_wet_sounds.xlsx
+++ b/Output_informacoes_produtos_wet_sounds.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1813"/>
+  <dimension ref="A1:E2115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
@@ -48018,10 +48018,6 @@
       </c>
     </row>
     <row r="1538">
-      <c r="A1538" t="inlineStr"/>
-      <c r="B1538" t="inlineStr"/>
-      <c r="C1538" t="inlineStr"/>
-      <c r="D1538" t="inlineStr"/>
       <c r="E1538" t="inlineStr">
         <is>
           <t>2024-04-21 09:23:47</t>
@@ -48061,10 +48057,6 @@
       </c>
     </row>
     <row r="1540">
-      <c r="A1540" t="inlineStr"/>
-      <c r="B1540" t="inlineStr"/>
-      <c r="C1540" t="inlineStr"/>
-      <c r="D1540" t="inlineStr"/>
       <c r="E1540" t="inlineStr">
         <is>
           <t>2024-04-21 09:23:49</t>
@@ -54102,10 +54094,6 @@
       </c>
     </row>
     <row r="1730">
-      <c r="A1730" t="inlineStr"/>
-      <c r="B1730" t="inlineStr"/>
-      <c r="C1730" t="inlineStr"/>
-      <c r="D1730" t="inlineStr"/>
       <c r="E1730" t="inlineStr">
         <is>
           <t>2024-04-21 09:26:00</t>
@@ -54433,10 +54421,6 @@
       </c>
     </row>
     <row r="1741">
-      <c r="A1741" t="inlineStr"/>
-      <c r="B1741" t="inlineStr"/>
-      <c r="C1741" t="inlineStr"/>
-      <c r="D1741" t="inlineStr"/>
       <c r="E1741" t="inlineStr">
         <is>
           <t>2024-04-21 09:26:09</t>
@@ -54476,10 +54460,6 @@
       </c>
     </row>
     <row r="1743">
-      <c r="A1743" t="inlineStr"/>
-      <c r="B1743" t="inlineStr"/>
-      <c r="C1743" t="inlineStr"/>
-      <c r="D1743" t="inlineStr"/>
       <c r="E1743" t="inlineStr">
         <is>
           <t>2024-04-21 09:26:10</t>
@@ -56247,10 +56227,6 @@
       </c>
     </row>
     <row r="1799">
-      <c r="A1799" t="inlineStr"/>
-      <c r="B1799" t="inlineStr"/>
-      <c r="C1799" t="inlineStr"/>
-      <c r="D1799" t="inlineStr"/>
       <c r="E1799" t="inlineStr">
         <is>
           <t>2024-04-21 09:26:48</t>
@@ -56290,10 +56266,6 @@
       </c>
     </row>
     <row r="1801">
-      <c r="A1801" t="inlineStr"/>
-      <c r="B1801" t="inlineStr"/>
-      <c r="C1801" t="inlineStr"/>
-      <c r="D1801" t="inlineStr"/>
       <c r="E1801" t="inlineStr">
         <is>
           <t>2024-04-21 09:26:49</t>
@@ -56681,6 +56653,8371 @@
       <c r="E1813" t="inlineStr">
         <is>
           <t>2024-04-21 09:26:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="inlineStr">
+        <is>
+          <t>REVO 8 XW-W V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1814" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C1814" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 XW-W V3
+UPC:
+810042171992
+</t>
+        </is>
+      </c>
+      <c r="D1814" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1702/5631/REVO_8_XW_W_Hero__32333.1709313500.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1814" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-W | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B1815" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C1815" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-W
+UPC:
+810042173019
+</t>
+        </is>
+      </c>
+      <c r="D1815" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1624/5377/ZERO_8_W_Hero_Web__27066.1708447150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1815" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-B | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B1816" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C1816" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-B
+UPC:
+810042172760
+</t>
+        </is>
+      </c>
+      <c r="D1816" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1623/5372/ZERO_8_B_Web_Hero__46095.1708447055.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1816" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-W | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B1817" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1817" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-W
+UPC:
+810042173002
+</t>
+        </is>
+      </c>
+      <c r="D1817" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1622/5353/ZERO_6_W_Web_Hero__48185.1708446825.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1817" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-B | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B1818" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1818" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-B
+UPC:
+810042172753
+</t>
+        </is>
+      </c>
+      <c r="D1818" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1621/5363/ZERO_6_B_Web_Hero__23189.1708446915.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1818" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="inlineStr">
+        <is>
+          <t>RECON 8-BG RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1819" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C1819" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-BG RGB
+UPC:
+810042171817
+</t>
+        </is>
+      </c>
+      <c r="D1819" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1617/5383/RECON_8-XS_Front_Right_Hero_G__04334.1708959945.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1819" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="inlineStr">
+        <is>
+          <t>RECON 6-BG RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1820" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1820" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG RGB
+UPC:
+810042171800
+</t>
+        </is>
+      </c>
+      <c r="D1820" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1616/5415/RECON_6-XS_Front_Hero_G__11887.1708962166.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1820" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1821" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1821" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-W S2
+UPC:
+814820024722
+</t>
+        </is>
+      </c>
+      <c r="D1821" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1459/5574/REVO_CX10_SW_W_Hero__01549.1709229069.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1821" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="inlineStr"/>
+      <c r="B1822" t="inlineStr"/>
+      <c r="C1822" t="inlineStr"/>
+      <c r="D1822" t="inlineStr"/>
+      <c r="E1822" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="inlineStr"/>
+      <c r="B1823" t="inlineStr"/>
+      <c r="C1823" t="inlineStr"/>
+      <c r="D1823" t="inlineStr"/>
+      <c r="E1823" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="inlineStr"/>
+      <c r="B1824" t="inlineStr"/>
+      <c r="C1824" t="inlineStr"/>
+      <c r="D1824" t="inlineStr"/>
+      <c r="E1824" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="inlineStr"/>
+      <c r="B1825" t="inlineStr"/>
+      <c r="C1825" t="inlineStr"/>
+      <c r="D1825" t="inlineStr"/>
+      <c r="E1825" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="inlineStr">
+        <is>
+          <t>REVO 8 SW-B V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1826" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C1826" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 SW-B V3
+UPC:
+810042173064
+</t>
+        </is>
+      </c>
+      <c r="D1826" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1449/5624/REVO_8_SW_B_Hero__54808.1709313038.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1826" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="inlineStr"/>
+      <c r="B1827" t="inlineStr"/>
+      <c r="C1827" t="inlineStr"/>
+      <c r="D1827" t="inlineStr"/>
+      <c r="E1827" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="inlineStr"/>
+      <c r="B1828" t="inlineStr"/>
+      <c r="C1828" t="inlineStr"/>
+      <c r="D1828" t="inlineStr"/>
+      <c r="E1828" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1829" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1829" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W RGB
+UPC:
+814820027518
+</t>
+        </is>
+      </c>
+      <c r="D1829" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1445/5419/RECON_6-XS_Front_Hero_G__57907.1708962243.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1829" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="inlineStr">
+        <is>
+          <t>RECON 6-S RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1830" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1830" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S RGB
+UPC:
+814820027310
+</t>
+        </is>
+      </c>
+      <c r="D1830" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1444/5405/RECON_6-XS_Hero_G__00191.1708962100.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1830" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="inlineStr">
+        <is>
+          <t>RECON 8 XW-W RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1831" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C1831" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8 XW-W RGB
+UPC:
+814820027525
+</t>
+        </is>
+      </c>
+      <c r="D1831" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1443/5393/RECON_8-XS_Front_Right_Hero_G__13110.1708960108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1831" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="inlineStr">
+        <is>
+          <t>RECON 8-S RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1832" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C1832" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-S RGB
+UPC:
+814820027334
+</t>
+        </is>
+      </c>
+      <c r="D1832" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1442/5388/RECON_8-XS_Front_Right_Hero_G__30821.1708960025.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1832" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="inlineStr">
+        <is>
+          <t>RECON 5-S | RECON™ Series 5.25-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B1833" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C1833" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 5-S
+UPC:
+814820027549
+</t>
+        </is>
+      </c>
+      <c r="D1833" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1439/5403/RECON_5-XS_Hero__02225.1708961993.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1833" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="inlineStr">
+        <is>
+          <t>RECON 6-S | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B1834" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1834" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S
+UPC:
+814820027303
+</t>
+        </is>
+      </c>
+      <c r="D1834" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1289/5427/RECON_6-XS_Hero__59634.1708962364.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1834" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="inlineStr">
+        <is>
+          <t>RECON 6-BG | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black Grilles</t>
+        </is>
+      </c>
+      <c r="B1835" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1835" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG
+UPC:
+814820027501
+</t>
+        </is>
+      </c>
+      <c r="D1835" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1288/5432/RECON_6-XS_Front_Hero__48179.1708962424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1835" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White Grilles</t>
+        </is>
+      </c>
+      <c r="B1836" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1836" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W
+UPC:
+814820027624
+</t>
+        </is>
+      </c>
+      <c r="D1836" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1287/5438/RECON_6-XS_Front_Hero__59396.1708962477.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1836" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="inlineStr"/>
+      <c r="B1837" t="inlineStr"/>
+      <c r="C1837" t="inlineStr"/>
+      <c r="D1837" t="inlineStr"/>
+      <c r="E1837" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="inlineStr"/>
+      <c r="B1838" t="inlineStr"/>
+      <c r="C1838" t="inlineStr"/>
+      <c r="D1838" t="inlineStr"/>
+      <c r="E1838" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="inlineStr"/>
+      <c r="B1839" t="inlineStr"/>
+      <c r="C1839" t="inlineStr"/>
+      <c r="D1839" t="inlineStr"/>
+      <c r="E1839" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="inlineStr"/>
+      <c r="B1840" t="inlineStr"/>
+      <c r="C1840" t="inlineStr"/>
+      <c r="D1840" t="inlineStr"/>
+      <c r="E1840" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="inlineStr"/>
+      <c r="B1841" t="inlineStr"/>
+      <c r="C1841" t="inlineStr"/>
+      <c r="D1841" t="inlineStr"/>
+      <c r="E1841" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="inlineStr"/>
+      <c r="B1842" t="inlineStr"/>
+      <c r="C1842" t="inlineStr"/>
+      <c r="D1842" t="inlineStr"/>
+      <c r="E1842" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="inlineStr">
+        <is>
+          <t>REVO 6 XS-B-SS V3 | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1843" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="C1843" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 XS-B-SS V3
+UPC:
+810042170148
+</t>
+        </is>
+      </c>
+      <c r="D1843" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1280/5715/REVO_6_XS_B_SS_Hero__67615.1709581844.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1843" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="inlineStr"/>
+      <c r="B1844" t="inlineStr"/>
+      <c r="C1844" t="inlineStr"/>
+      <c r="D1844" t="inlineStr"/>
+      <c r="E1844" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1845" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1845" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-B S2
+UPC:
+814820024715
+</t>
+        </is>
+      </c>
+      <c r="D1845" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1277/5571/REVO_CX10_SW_B_Hero__55586.1709151911.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1845" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-S S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1846" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1846" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-S S2
+UPC:
+814820024760
+</t>
+        </is>
+      </c>
+      <c r="D1846" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1276/5588/REVO_CX10_XS_S_Hero__06379.1709231959.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1846" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1847" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1847" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-B S2
+UPC:
+814820024777
+</t>
+        </is>
+      </c>
+      <c r="D1847" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1275/5601/REVO_CX10_XW_B_Hero__80563.1709232713.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1847" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C1848" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-W S2
+UPC:
+814820024784
+</t>
+        </is>
+      </c>
+      <c r="D1848" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1274/5606/REVO_CX10_XW_W_Hero__14177.1709237050.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1848" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-B-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C1849" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-B-SS S2
+UPC:
+814820024739
+</t>
+        </is>
+      </c>
+      <c r="D1849" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1273/5594/REVO_CX10_XS_B_SS_Hero__29022.1709232385.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1849" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-G-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C1850" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-G-SS S2
+UPC:
+814820024753
+</t>
+        </is>
+      </c>
+      <c r="D1850" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1272/5580/REVO_CX10_XS_G_SS_Hero__23286.1709230163.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1850" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-W-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C1851" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-W-SS S2
+UPC:
+814820024746
+</t>
+        </is>
+      </c>
+      <c r="D1851" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1271/5610/REVO_CX10_XS_W_SS_Hero__86437.1709237352.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1851" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="inlineStr">
+        <is>
+          <t>REV 10 HD White | Wet Sounds REV HD Series 10" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>$1,959.99</t>
+        </is>
+      </c>
+      <c r="C1852" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-W-X
+UPC:
+810042177512
+</t>
+        </is>
+      </c>
+      <c r="D1852" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1673/4823/REV10_HD_W_XZ_Hero_R__75858.1675269054.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1852" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="inlineStr">
+        <is>
+          <t>REV 10 HD Black | Wet Sounds REV HD Series 10" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t>$1,959.99</t>
+        </is>
+      </c>
+      <c r="C1853" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-B-X
+UPC:
+810042177307
+</t>
+        </is>
+      </c>
+      <c r="D1853" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1669/4777/REV12_HD_B_XZ_Hero_R__25053.1673993030.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1853" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="inlineStr">
+        <is>
+          <t>REV 12 HD White | Wet Sounds REV HD Series 12" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t>$2,309.99</t>
+        </is>
+      </c>
+      <c r="C1854" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-W-X
+UPC:
+810042177031
+</t>
+        </is>
+      </c>
+      <c r="D1854" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1649/4740/REV12_HD_W_XZ_Hero_R__07359.1672241311.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1854" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="inlineStr">
+        <is>
+          <t>REV8™ White V2 | Wet Sounds Revolution Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C1855" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1855" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1640/4375/REV8_W_Web_Hero__78931.1654888304.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1855" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="inlineStr">
+        <is>
+          <t>REV8™ Black V2 | Wet Sounds Revolution Series 8" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C1856" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1856" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1639/4369/REV8_B_Web_Hero__69496.1646949336.1280.1280__81274.1654887818.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1856" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="inlineStr">
+        <is>
+          <t>REV10™ White V2 | Wet Sounds Revolution Series 10" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C1857" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1857" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1638/4359/REV10_W_Web_Hero__38956.1654887066.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1857" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="inlineStr">
+        <is>
+          <t>REV10™ Black V2 | Wet Sounds Revolution Series 10" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C1858" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1858" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1637/4351/REV10_B_Web_Hero__57402.1647007395.1280.1280__29553.1654886710.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1858" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="inlineStr">
+        <is>
+          <t>REV 410 Black V2 | Wet Sounds Revolution Series Dual 10" Black Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C1859" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1859" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1636/4345/REV410_B_X_Web_Front___24105.1654881808.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1859" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="inlineStr">
+        <is>
+          <t>REV 410 White V2 | Wet Sounds Revolution Series Dual 10" White Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C1860" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1860" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1635/4342/REV410_W_X_Web_Front___65923.1647007018.1280.1280__51826.1654881737.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1860" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="inlineStr">
+        <is>
+          <t>ICON8™ White V2  | Wet Sounds ICON Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t>$599.99 - $1,349.99</t>
+        </is>
+      </c>
+      <c r="C1861" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ICON 8-W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1861" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1634/4328/ICON8_W_Web_Hero__40196.1654880484.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1861" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="inlineStr">
+        <is>
+          <t>REV 12 HD Black | Wet Sounds REV HD Series 12" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>$2,309.99</t>
+        </is>
+      </c>
+      <c r="C1862" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-B-X
+UPC:
+810042176836
+</t>
+        </is>
+      </c>
+      <c r="D1862" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1633/4724/REV12_HD_B_XZ_Hero_R__98406.1671112247.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1862" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="inlineStr"/>
+      <c r="B1863" t="inlineStr"/>
+      <c r="C1863" t="inlineStr"/>
+      <c r="D1863" t="inlineStr"/>
+      <c r="E1863" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="inlineStr"/>
+      <c r="B1864" t="inlineStr"/>
+      <c r="C1864" t="inlineStr"/>
+      <c r="D1864" t="inlineStr"/>
+      <c r="E1864" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="inlineStr"/>
+      <c r="B1865" t="inlineStr"/>
+      <c r="C1865" t="inlineStr"/>
+      <c r="D1865" t="inlineStr"/>
+      <c r="E1865" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="inlineStr">
+        <is>
+          <t>ICON8™ Black V2 | Wet Sounds ICON Series 8" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1866" t="inlineStr">
+        <is>
+          <t>$1,049.99 - $1,349.99</t>
+        </is>
+      </c>
+      <c r="C1866" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ICON 8-B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1866" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1330/3705/ICON8_B_Web_Hero__60943.1646946843.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1866" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="inlineStr">
+        <is>
+          <t>WS-MC-5 | Wet Sounds™ AM/FM/Digital Tuner Media Center</t>
+        </is>
+      </c>
+      <c r="B1867" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C1867" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-5
+UPC:
+810042171596
+</t>
+        </is>
+      </c>
+      <c r="D1867" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1615/5317/MC-5_Hero_Image_Web__90008.1702572189.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1867" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="inlineStr">
+        <is>
+          <t>WWX-DZ-BT | Wet Sounds™ Dual Zone Bluetooth Controller</t>
+        </is>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C1868" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WWX-DZ-BT
+UPC:
+810042170803
+</t>
+        </is>
+      </c>
+      <c r="D1868" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1565/4543/DZ_BT_Front__15731.1666361204.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1868" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="inlineStr">
+        <is>
+          <t>WS-420 SQ | Wet Sounds™ Marine Multi Zone 4-Band Parametric Equalizer</t>
+        </is>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C1869" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-420 SQ
+UPC:
+853414005105
+</t>
+        </is>
+      </c>
+      <c r="D1869" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1250/4427/420SQ_Front_with_Mic__47339.1658239355.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1869" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="inlineStr">
+        <is>
+          <t>WW-BT UR | Wet Sounds™ Marine Bluetooth Universal Receiver</t>
+        </is>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C1870" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WW-BT UR
+UPC:
+814820024555
+</t>
+        </is>
+      </c>
+      <c r="D1870" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1249/4547/BT_UR_Front__46259.1666361333.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1870" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="inlineStr">
+        <is>
+          <t>WW-BT VC-V2 | Wet Sounds™ Marine Bluetooth Knob With Volume Control</t>
+        </is>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>$129.99</t>
+        </is>
+      </c>
+      <c r="C1871" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WW-BT VC-V2
+UPC:
+814820023022
+</t>
+        </is>
+      </c>
+      <c r="D1871" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1248/4536/BT_VC_Web_1__79246.1666361101.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1871" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="inlineStr">
+        <is>
+          <t>WW-BT RS | Wet Sounds™ Marine Bluetooth Rocker Switch With Volume Control</t>
+        </is>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>$129.99</t>
+        </is>
+      </c>
+      <c r="C1872" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WW-BT RS
+UPC:
+814820023015
+</t>
+        </is>
+      </c>
+      <c r="D1872" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1247/4551/BT_RS_Front__57291.1666361561.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1872" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="inlineStr">
+        <is>
+          <t>WS-420 BT | Wet Sounds™ Marine Multi Zone 4-Band Parametric Equalizer w/ Integrated Bluetooth®</t>
+        </is>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C1873" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-420 BT
+UPC:
+853414005150
+</t>
+        </is>
+      </c>
+      <c r="D1873" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1246/4430/Front_420_BT_2__22878.1658239507.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1873" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="inlineStr">
+        <is>
+          <t>WS-220 BT | Wet Sounds™ Marine 4-Zone Level Controller w/ Integrated Bluetooth®</t>
+        </is>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C1874" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-220 BT
+UPC:
+814820023268
+</t>
+        </is>
+      </c>
+      <c r="D1874" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1245/4432/2_220BT_Front__40363.1658239691.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1874" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="inlineStr">
+        <is>
+          <t>WS-MC-20 | Wet Sounds™ 2-Zone Media Center w/ SiriusXM-Ready® and NMEA 2000 Connectivity</t>
+        </is>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1875" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-20
+UPC:
+814820029888
+</t>
+        </is>
+      </c>
+      <c r="D1875" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1590/5319/MC-20_Hero_Image_Web__72689.1702572289.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1875" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="inlineStr">
+        <is>
+          <t>WS-MC-2 | Wet Sounds™ SiriusXM-Ready® AM/FM/Weather Band Media Center</t>
+        </is>
+      </c>
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t>$369.99</t>
+        </is>
+      </c>
+      <c r="C1876" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-2
+UPC:
+814820025002
+</t>
+        </is>
+      </c>
+      <c r="D1876" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1243/5311/MC-2_Hero_Image_Web__44421.1702572108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1876" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="inlineStr">
+        <is>
+          <t>WS-MC-1 | Wet Sounds™ 4 Zone Bluetooth® Marine Media Center</t>
+        </is>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C1877" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-1
+UPC:
+814820025026
+</t>
+        </is>
+      </c>
+      <c r="D1877" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1242/5308/MC-1_Hero_Image_Web__34655.1702567424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1877" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="inlineStr"/>
+      <c r="B1878" t="inlineStr"/>
+      <c r="C1878" t="inlineStr"/>
+      <c r="D1878" t="inlineStr"/>
+      <c r="E1878" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="inlineStr"/>
+      <c r="B1879" t="inlineStr"/>
+      <c r="C1879" t="inlineStr"/>
+      <c r="D1879" t="inlineStr"/>
+      <c r="E1879" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="inlineStr">
+        <is>
+          <t>Sinister-SDX6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>$1,699.99</t>
+        </is>
+      </c>
+      <c r="C1880" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+Sinister-SDX6
+UPC:
+814820024630
+</t>
+        </is>
+      </c>
+      <c r="D1880" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1268/4155/Sinister_SDX6_Front__31215.1650296150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1880" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="inlineStr">
+        <is>
+          <t>Sinister-SDX2500 | Wet Sounds Class-D Monoblock Subwoofer Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>$1,899.99</t>
+        </is>
+      </c>
+      <c r="C1881" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+Sinister-SDX2500
+UPC:
+814820025910
+</t>
+        </is>
+      </c>
+      <c r="D1881" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1267/2384/1_SDX_2500__36161__26701.1637194846.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1881" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="inlineStr"/>
+      <c r="B1882" t="inlineStr"/>
+      <c r="C1882" t="inlineStr"/>
+      <c r="D1882" t="inlineStr"/>
+      <c r="E1882" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:24:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="inlineStr">
+        <is>
+          <t>SYN-DX4 | Wet Sounds 4 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>$1,079.99</t>
+        </is>
+      </c>
+      <c r="C1883" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+SYN-DX4
+UPC:
+814820022537
+</t>
+        </is>
+      </c>
+      <c r="D1883" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1265/2544/1_DX_4__30904__39249.1637593872.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1883" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="inlineStr"/>
+      <c r="B1884" t="inlineStr"/>
+      <c r="C1884" t="inlineStr"/>
+      <c r="D1884" t="inlineStr"/>
+      <c r="E1884" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="inlineStr">
+        <is>
+          <t>SYN-DX6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="C1885" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+SYN-DX6
+UPC:
+814820022568
+</t>
+        </is>
+      </c>
+      <c r="D1885" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1263/2546/1_DX_6__09919__62939.1637194874.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1885" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="inlineStr">
+        <is>
+          <t>HTX-1 | Wet Sounds Class-D Monoblock Subwoofer Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1886" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-1
+UPC:
+814820022209
+</t>
+        </is>
+      </c>
+      <c r="D1886" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1262/3437/1_HTX_1__66896.1642091392.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1886" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="inlineStr"/>
+      <c r="B1887" t="inlineStr"/>
+      <c r="C1887" t="inlineStr"/>
+      <c r="D1887" t="inlineStr"/>
+      <c r="E1887" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="inlineStr"/>
+      <c r="B1888" t="inlineStr"/>
+      <c r="C1888" t="inlineStr"/>
+      <c r="D1888" t="inlineStr"/>
+      <c r="E1888" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="inlineStr">
+        <is>
+          <t>HTX-6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="C1889" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-6
+UPC:
+814820022162
+</t>
+        </is>
+      </c>
+      <c r="D1889" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1259/1589/1_HTX_6__73141__79749.1642096762.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1889" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="inlineStr">
+        <is>
+          <t>STX MICRO-1 | Wet Sounds Compact Chassis Class-D Monoblock Marine A</t>
+        </is>
+      </c>
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C1890" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-1
+UPC:
+814820023329
+</t>
+        </is>
+      </c>
+      <c r="D1890" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1258/2520/Micro_STX_Hero__81706__61326.1637194869.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1890" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="inlineStr">
+        <is>
+          <t>STX MICRO-4 | Wet Sounds Compact Chassis Class-D 4-Ch Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>$439.99</t>
+        </is>
+      </c>
+      <c r="C1891" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-4
+UPC:
+814820023336
+</t>
+        </is>
+      </c>
+      <c r="D1891" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1257/2526/Micro_STX_Hero__17041__18108.1637194870.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1891" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="inlineStr">
+        <is>
+          <t>REVO 10 HP S4 V3 | Wet Sounds REVO Series 10-inch High-Power Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C1892" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 HP S4 V3
+UPC:
+810042171763
+</t>
+        </is>
+      </c>
+      <c r="D1892" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1703/5455/REVO_10_V3_Black_Subwoofer_Front_Right_View__01889.1709138503.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1892" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="inlineStr">
+        <is>
+          <t>REVO 10 FA S4 V3 | Wet Sounds REVO Series 10-inch Free-Air Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="C1893" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 FA S4 V3
+UPC:
+810042171787
+</t>
+        </is>
+      </c>
+      <c r="D1893" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1685/5459/REVO_10_V3_Black_Subwoofer_Front_Right_View__98932.1709138599.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1893" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="inlineStr">
+        <is>
+          <t>ZERO 12 S4 XZ-W | Wet Sounds Zero Series™ 12-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with White XZ Grille</t>
+        </is>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="C1894" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 12 S4 XZ-W
+UPC:
+810042173033
+</t>
+        </is>
+      </c>
+      <c r="D1894" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1628/5555/ZERO_12_White_Front_Right_View__41353.1709140271.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1894" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="inlineStr">
+        <is>
+          <t>ZERO 10 S4 XZ-W | Wet Sounds Zero Series™ 10-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with White XZ Grille</t>
+        </is>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1895" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 10 S4 XZ-W
+UPC:
+810042173026
+</t>
+        </is>
+      </c>
+      <c r="D1895" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1627/5545/ZERO_10_White_Front_Right_View__26419.1709140155.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1895" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="inlineStr">
+        <is>
+          <t>ZERO 12 S4 XZ-B | Wet Sounds Zero Series™ 12-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with Black XZ Grille</t>
+        </is>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="C1896" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 12 S4 XZ-B
+UPC:
+810042172784
+</t>
+        </is>
+      </c>
+      <c r="D1896" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1626/5562/ZERO_12_Black_Front_Right_View__17233.1709140318.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1896" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="inlineStr">
+        <is>
+          <t>ZERO 10 S4 XZ-B | Wet Sounds Zero Series™ 10-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with Black XZ Grille</t>
+        </is>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1897" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 10 S4 XZ-B
+UPC:
+810042172777
+</t>
+        </is>
+      </c>
+      <c r="D1897" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1625/5550/ZERO_10_Black_Front_Right_View__68235.1709140211.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1897" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="inlineStr">
+        <is>
+          <t>RECON 10 FA-BG | Wet Sounds RECON™ Series 10-inch Free-Air Marine Subwoofer - 4Ω Black with XS Black Grille</t>
+        </is>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1898" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 10 FA-BG
+UPC:
+814820027372
+</t>
+        </is>
+      </c>
+      <c r="D1898" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1461/5528/RECON_10_BG_Front_Right_View__28741.1709139490.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1898" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="inlineStr">
+        <is>
+          <t>RECON 10 FA-S | Wet Sounds RECON™ Series 10-inch Free-Air Marine Subwoofer - 4Ω Black with XS Silver Grille</t>
+        </is>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1899" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 10 FA-S
+UPC:
+814820027273
+</t>
+        </is>
+      </c>
+      <c r="D1899" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1460/5531/RECON_10_XS_Front_Right_View__43611.1709139537.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1899" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="inlineStr">
+        <is>
+          <t>REVO 8 FA S4-W | Wet Sounds REVO Series 8-inch Free-Air Marine Subwoofer - 4Ω White</t>
+        </is>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1900" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA : REVO 8 FA S4-W
+UPC:
+814820024814
+</t>
+        </is>
+      </c>
+      <c r="D1900" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1458/5442/REVO_8_FA_White_Subwoofer_Front_Right_View__82195.1709138078.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1900" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="inlineStr"/>
+      <c r="B1901" t="inlineStr"/>
+      <c r="C1901" t="inlineStr"/>
+      <c r="D1901" t="inlineStr"/>
+      <c r="E1901" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="inlineStr"/>
+      <c r="B1902" t="inlineStr"/>
+      <c r="C1902" t="inlineStr"/>
+      <c r="D1902" t="inlineStr"/>
+      <c r="E1902" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="inlineStr"/>
+      <c r="B1903" t="inlineStr"/>
+      <c r="C1903" t="inlineStr"/>
+      <c r="D1903" t="inlineStr"/>
+      <c r="E1903" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="inlineStr"/>
+      <c r="B1904" t="inlineStr"/>
+      <c r="C1904" t="inlineStr"/>
+      <c r="D1904" t="inlineStr"/>
+      <c r="E1904" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="inlineStr">
+        <is>
+          <t>RECON 10 FA-XW-W | Wet Sounds RECON™ Series 10-inch Free-Air Marine Subwoofer - 4Ω White with XW White Grille</t>
+        </is>
+      </c>
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C1905" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 10 FA-XW-W
+UPC:
+814820027532
+</t>
+        </is>
+      </c>
+      <c r="D1905" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1446/5537/RECON_10_XW_Front_Right_View__89105.1709139670.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1905" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="inlineStr"/>
+      <c r="B1906" t="inlineStr"/>
+      <c r="C1906" t="inlineStr"/>
+      <c r="D1906" t="inlineStr"/>
+      <c r="E1906" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="inlineStr"/>
+      <c r="B1907" t="inlineStr"/>
+      <c r="C1907" t="inlineStr"/>
+      <c r="D1907" t="inlineStr"/>
+      <c r="E1907" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="inlineStr"/>
+      <c r="B1908" t="inlineStr"/>
+      <c r="C1908" t="inlineStr"/>
+      <c r="D1908" t="inlineStr"/>
+      <c r="E1908" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="inlineStr">
+        <is>
+          <t>REVO 8 FA S4-B | Wet Sounds REVO Series 8-inch Free-Air Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1909" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA : REVO 8 FA S4-B
+UPC:
+814820024807
+</t>
+        </is>
+      </c>
+      <c r="D1909" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1427/5447/REVO_8_FA_Black_Subwoofer_Front_Right_View__93660.1709138157.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1909" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="inlineStr">
+        <is>
+          <t>REVO 12 HP S4 V3 | Wet Sounds REVO Series 12-inch High-Power Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="C1910" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 HP S4 V3
+UPC:
+810042171794
+</t>
+        </is>
+      </c>
+      <c r="D1910" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1294/5511/REVO_12_V3_Subwoofer_Front_Right__20953.1709139217.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1910" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="inlineStr">
+        <is>
+          <t>REVO 12 XXX V4-B | Wet Sounds REVO Series XXX 12-inch SPL Marine Subwoofer - Dual 2Ω Black</t>
+        </is>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>$999.99</t>
+        </is>
+      </c>
+      <c r="C1911" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XXX V4-B
+UPC:
+814820022261
+</t>
+        </is>
+      </c>
+      <c r="D1911" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1291/5517/REVO_XXX12_Subwoofer_Front_Right_View__84159.1709139387.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1911" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="inlineStr">
+        <is>
+          <t>REVO 15 XXX V4-B | Wet Sounds REVO Series XXX 15-inch SPL Marine Subwoofer - Dual 2Ω Black</t>
+        </is>
+      </c>
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t>$1,549.99</t>
+        </is>
+      </c>
+      <c r="C1912" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 15 XXX V4-B
+UPC:
+814820022254
+</t>
+        </is>
+      </c>
+      <c r="D1912" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1290/5521/REVO_XXX15_Subwoofer_Front_Right_View__42432.1709139422.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1912" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Revolution Series 5x7 HLCD With Surface Mountable Roto-Mold Enclosure + Grill - White</t>
+        </is>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C1913" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 5X7 SM-W
+UPC:
+810042170018
+</t>
+        </is>
+      </c>
+      <c r="D1913" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1564/2595/0_REV_5x7__08818__09844.1637194884.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1913" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Revolution Series 6x9 HLCD With Surface Mountable Roto-Mold Enclosure + Grill - Black</t>
+        </is>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t>$849.99</t>
+        </is>
+      </c>
+      <c r="C1914" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 6X9 SM-B
+UPC:
+814820023121
+</t>
+        </is>
+      </c>
+      <c r="D1914" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1438/2600/1_6x9_SM_Black__24204__20541.1637194884.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1914" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Revolution Series 6x9 HLCD With Surface Mountable Roto-Mold Enclosure + Grill - White</t>
+        </is>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>$849.99</t>
+        </is>
+      </c>
+      <c r="C1915" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 6X9 SM-W
+UPC:
+814820023138
+</t>
+        </is>
+      </c>
+      <c r="D1915" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1437/2602/1_6x9_SM_White__22030__64737.1637194885.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1915" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="inlineStr">
+        <is>
+          <t>Wet Sounds REV 696 RS | Revolution Series 6 X 9 Inch EFG™ Pro-Axial™ Speaker</t>
+        </is>
+      </c>
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C1916" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 696 RS
+UPC:
+814820022896
+</t>
+        </is>
+      </c>
+      <c r="D1916" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1333/2668/1_6x9_RS__72461__07501.1637194898.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1916" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ Shallow Mount 6.5" Ceiling Speakers</t>
+        </is>
+      </c>
+      <c r="B1917" t="inlineStr">
+        <is>
+          <t>$269.99</t>
+        </is>
+      </c>
+      <c r="C1917" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-SMC-65
+UPC:
+810042171114
+</t>
+        </is>
+      </c>
+      <c r="D1917" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1589/4945/VS_SMC_65_Web__57267.1686758771.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1917" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="inlineStr">
+        <is>
+          <t>ADP REV HD X-W | Wet Sounds WHITE X Kit For REV HD Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B1918" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C1918" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV HD X-W
+UPC:
+810042172746
+</t>
+        </is>
+      </c>
+      <c r="D1918" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1680/4860/REVHD_X_Mount_W_Back_Left__51149.1677095557.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1918" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="inlineStr">
+        <is>
+          <t>ADP REV HD X-B | Wet Sounds BLACK X Kit For REV HD Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C1919" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV HD X-B
+UPC:
+810042172739
+</t>
+        </is>
+      </c>
+      <c r="D1919" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1679/4859/REVHD_X_Mount_Back_Left__62192.1677095468.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1919" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="inlineStr">
+        <is>
+          <t>ADP Malibu G5-G  | Wet Sounds Brushed Tower Speaker Adapters For The Malibu G5 Tower</t>
+        </is>
+      </c>
+      <c r="B1920" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1920" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G5-G
+UPC:
+810042171275
+</t>
+        </is>
+      </c>
+      <c r="D1920" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1586/1503/1_Malibu_G5__12259__74117.1637194656.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1920" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="inlineStr">
+        <is>
+          <t>ADP NAU-FCTA  | Wet Sounds Brushed Tower Speaker Brackets For The 2019+ Nautique Flight Control Tower Actuated (FCTA)</t>
+        </is>
+      </c>
+      <c r="B1921" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C1921" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP NAU-FCTA
+UPC:
+814820029079
+</t>
+        </is>
+      </c>
+      <c r="D1921" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1546/1509/1_Nautique_FLTA__78313__12581.1637194659.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1921" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="inlineStr">
+        <is>
+          <t>ADP TC3-SXM | Wet Sounds Stainless Steel Swivel Surface Mount (No Clamp) w/ Hardware</t>
+        </is>
+      </c>
+      <c r="B1922" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C1922" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-SXM
+UPC:
+853414005655
+</t>
+        </is>
+      </c>
+      <c r="D1922" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1496/1560/1_TC3_SXM__75500__89888.1637194670.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1922" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="inlineStr">
+        <is>
+          <t>ADP NAUTIQUE G  | Wet Sounds Tower Speaker Brackets For The Upper Brackets For Nautique G Tower</t>
+        </is>
+      </c>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1923" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP NAUTIQUE G
+UPC:
+814820025811
+</t>
+        </is>
+      </c>
+      <c r="D1923" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1436/1527/1_Nautique_G__82729__11690.1637194663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1923" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="inlineStr">
+        <is>
+          <t>ADP TC3-F-SILVER | Wet Sounds Silver Aluminum Clamp For Tube Diameter 1 7/8” To 3”</t>
+        </is>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C1924" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-F-SILVER
+UPC:
+853414005624
+</t>
+        </is>
+      </c>
+      <c r="D1924" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1432/1549/1_TC3_FC_SA__81562__43456.1637194668.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1924" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="inlineStr">
+        <is>
+          <t>ADP TC3-F | Wet Sounds Stainless Steel Fixed Position Clamp For Tube Diameter 1 7/8” To 3”</t>
+        </is>
+      </c>
+      <c r="B1925" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C1925" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-F
+UPC:
+853414005600
+</t>
+        </is>
+      </c>
+      <c r="D1925" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1355/1547/1_TC3_FC__00488__91450.1637194666.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1925" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="inlineStr">
+        <is>
+          <t>ADP TC3-F MINI | Wet Sounds Stainless Steel Fixed Position Clamp For Tube Diameter 1” To 1 7/8”</t>
+        </is>
+      </c>
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C1926" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-F MINI
+UPC:
+853414005631
+</t>
+        </is>
+      </c>
+      <c r="D1926" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1354/1548/1_TC3_FC_Mini__70229__76985.1637194667.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1926" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="inlineStr">
+        <is>
+          <t>ADP TC3-S | Wet Sounds Stainless Steel Swivel Clamp For Tube Diameter 1 7/8” To 3”</t>
+        </is>
+      </c>
+      <c r="B1927" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C1927" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-S
+UPC:
+853414005617
+</t>
+        </is>
+      </c>
+      <c r="D1927" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1353/1553/0_TC3_SC__57230__35422.1637194668.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1927" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="inlineStr">
+        <is>
+          <t>ADP TC3-S MINI | Wet Sounds Stainless Steel Swivel Clamp For Tube Diameter 1” To 1 7/8”</t>
+        </is>
+      </c>
+      <c r="B1928" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C1928" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-S MINI
+UPC:
+853414005648
+</t>
+        </is>
+      </c>
+      <c r="D1928" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1352/1557/1_Mini_Swivel_Clamp__77137__47956.1637194669.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1928" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="inlineStr">
+        <is>
+          <t>ADP ILLUSION DXT  | Wet Sounds REV 10 Tower Speaker Brackets For The Malibu X Tower Lower Mount</t>
+        </is>
+      </c>
+      <c r="B1929" t="inlineStr">
+        <is>
+          <t>$129.99</t>
+        </is>
+      </c>
+      <c r="C1929" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Illusion DXT
+UPC:
+814820020915
+</t>
+        </is>
+      </c>
+      <c r="D1929" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1350/1476/1_Illusion_DXT__92533__35545.1637194651.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1929" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="inlineStr">
+        <is>
+          <t>ADP REV X-B | Wet Sounds BLACK X Kit For REV And ICON Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C1930" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV X-B
+UPC:
+814820021042
+</t>
+        </is>
+      </c>
+      <c r="D1930" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1349/1536/Black_X_Mount__86541__61693.1637194663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1930" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="inlineStr">
+        <is>
+          <t>ADP REV X-W | Wet Sounds WHITE X Kit For REV And ICON Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B1931" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C1931" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV X-W
+UPC:
+814820021059
+</t>
+        </is>
+      </c>
+      <c r="D1931" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1348/1537/White_X_Mount__90066__12854.1637194664.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1931" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="inlineStr">
+        <is>
+          <t>ADP Gladiator-B | Wet Sounds Black Tower Speaker Brackets For The Centurion Gladiator Tower</t>
+        </is>
+      </c>
+      <c r="B1932" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1932" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Gladiator-B
+UPC:
+814820020892
+</t>
+        </is>
+      </c>
+      <c r="D1932" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1347/1468/1_Centurion_Gladiator_Black__82234__48144.1637194649.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1932" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="inlineStr">
+        <is>
+          <t>ADP GLADIATOR-P  | Wet Sounds POLISHED Tower Speaker Brackets For The Centurion Gladiator Brackets</t>
+        </is>
+      </c>
+      <c r="B1933" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1933" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Gladiator-P
+UPC:
+814820020908
+</t>
+        </is>
+      </c>
+      <c r="D1933" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1346/1472/1_Centurion_Gladiator_Polished__65776__54391.1637194650.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1933" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" t="inlineStr">
+        <is>
+          <t>ADP MALIBU G3 SINGLE-B  | Wet Sounds Black Tower Speaker Brackets For The Malibu G3 Single Speaker Mount</t>
+        </is>
+      </c>
+      <c r="B1934" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1934" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G3 Single-B
+UPC:
+814820020977
+</t>
+        </is>
+      </c>
+      <c r="D1934" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1345/1487/1_Malibu_G3_Single_Black__82146__64795.1637194654.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1934" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="inlineStr">
+        <is>
+          <t>ADP MALIBU G3 SINGLE-P  | Wet Sounds Silver Tower Speaker Brackets For The Malibu G3 Single Speaker Mount</t>
+        </is>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C1935" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G3 Single-P
+UPC:
+814820020984
+</t>
+        </is>
+      </c>
+      <c r="D1935" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1344/1495/1_Malibu_G3_Single__46289__10563.1637194656.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1935" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="inlineStr">
+        <is>
+          <t>ADP MC BRACKET-11  | Wet Sounds Brushed Tower Speaker Brackets For The Aluminum Mastercraft MC-11 Bracket</t>
+        </is>
+      </c>
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="C1936" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP MC Bracket-11
+UPC:
+814820020991
+</t>
+        </is>
+      </c>
+      <c r="D1936" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1343/1504/1_MC11__55068__77297.1637194657.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1936" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="inlineStr">
+        <is>
+          <t>ADP Nautique FC5-U  | Wet Sounds Tower Speaker Brackets For The Upper Brackets For Nautique FC5 Tower</t>
+        </is>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="C1937" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Nautique FC5-U
+UPC:
+814820021011
+</t>
+        </is>
+      </c>
+      <c r="D1937" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1342/1520/1_Nautique_FC5_U__66384__59326.1637194661.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1937" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" t="inlineStr">
+        <is>
+          <t>ADP CENTURION MAXIMUS |Wet Sounds Black Tower Speaker Brackets For The Centurion Maximus Tower</t>
+        </is>
+      </c>
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t>$189.99</t>
+        </is>
+      </c>
+      <c r="C1938" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP CENTURION MAXIMUS
+UPC:
+814820020861
+</t>
+        </is>
+      </c>
+      <c r="D1938" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1341/1464/2_Centurion_Maximus__14356__62032.1637194648.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1938" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="inlineStr">
+        <is>
+          <t>ADP SUPRA-FxONE | Wet Sounds Supra FxONE Upper Tower Adapter Brackets W/ Bead Blast Finish</t>
+        </is>
+      </c>
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C1939" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP SUPRA-FxONE
+UPC:
+814820028102
+</t>
+        </is>
+      </c>
+      <c r="D1939" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1340/1539/1_FxONE__81412__61611.1637194666.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1939" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="inlineStr">
+        <is>
+          <t>ADP NAUTIQUE FC5-L  | Wet Sounds Tower Speaker Brackets For The Lower Brackets For Nautique FC5 Tower</t>
+        </is>
+      </c>
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C1940" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Nautique FC5-L
+UPC:
+814820021004
+</t>
+        </is>
+      </c>
+      <c r="D1940" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1339/1519/ADP-Nautique-FC5-L_MAIN-1__38608__44984.1637194660.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1940" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="inlineStr">
+        <is>
+          <t>ADP NAUTIQUE Z5 DROP 12  | Wet Sounds Nautique Drop Down Bracket For The Z5 Rack W/ 12 Inch Strut Tube</t>
+        </is>
+      </c>
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C1941" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Nautique Z5 Drop 12
+UPC:
+814820021028
+</t>
+        </is>
+      </c>
+      <c r="D1941" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1338/1535/ADP-Naut-Z5-Drop-12_MAIN-1__81230__46666.1637194663.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1941" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="inlineStr">
+        <is>
+          <t>ADP MALIBU G3 DUAL-B  | Wet Sounds BLACK Tower Speaker Brackets For The Malibu G3 Dual Speaker Mount</t>
+        </is>
+      </c>
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="C1942" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G3 Dual-B
+UPC:
+814820020939
+</t>
+        </is>
+      </c>
+      <c r="D1942" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1337/1483/ADP-Malibu-G3-Dual-B_MAIN-1__64841__65072.1637194652.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1942" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1943" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C1943" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XW-W GRILLE
+UPC:
+814820023435
+</t>
+        </is>
+      </c>
+      <c r="D1943" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1677/4856/1_REVO_10_XWW_Grille__24247.1675358486.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1943" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 SW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C1944" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 SW-B GRILLE
+UPC:
+814820023398
+</t>
+        </is>
+      </c>
+      <c r="D1944" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1520/4591/1_REVO_12_SWB_Grille__89371.1666364087.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1944" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 SW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C1945" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 SW-W GRILLE
+UPC:
+814820023404
+</t>
+        </is>
+      </c>
+      <c r="D1945" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1519/4587/1_REVO_12_SWW_Grille__50214.1666364049.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1945" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-Black Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>$109.99</t>
+        </is>
+      </c>
+      <c r="C1946" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-B-SS GRILLE
+UPC:
+814820022384
+</t>
+        </is>
+      </c>
+      <c r="D1946" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1518/4597/1_REVO_12_XSBSS_Grille__83842.1666364127.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1946" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-Gunmetal Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>$109.99</t>
+        </is>
+      </c>
+      <c r="C1947" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-G-SS GRILLE
+UPC:
+814820022377
+</t>
+        </is>
+      </c>
+      <c r="D1947" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1517/4601/1_REVO_12_XSGSS_Grille__30565.1666364155.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1947" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-Silver Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C1948" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-S GRILLE
+UPC:
+814820022360
+</t>
+        </is>
+      </c>
+      <c r="D1948" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1516/4589/1_REVO_12_XSS_Grille__77253.1666364074.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1948" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-White Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t>$109.99</t>
+        </is>
+      </c>
+      <c r="C1949" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-W-SS GRILLE
+UPC:
+814820022353
+</t>
+        </is>
+      </c>
+      <c r="D1949" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1515/4595/1_REVO_12_XSWSS_Grille__39058.1666364112.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1949" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C1950" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XW-B GRILLE
+UPC:
+814820022346
+</t>
+        </is>
+      </c>
+      <c r="D1950" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1514/4593/1_REVO_12_XWB_Grille__46551.1666364097.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1950" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1951" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C1951" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XW-W GRILLE
+UPC:
+814820022278
+</t>
+        </is>
+      </c>
+      <c r="D1951" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1513/4599/1_REVO_12_XWW_Grille__15735.1666364137.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1951" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1952" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C1952" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XW-B GRILLE
+UPC:
+814820023428
+</t>
+        </is>
+      </c>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1511/4573/1_REVO_10_XWB_Grille__42960.1666363805.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1952" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XS-White Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1953" t="inlineStr">
+        <is>
+          <t>$84.99</t>
+        </is>
+      </c>
+      <c r="C1953" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XS-W-SS GRILLE
+UPC:
+814820023411
+</t>
+        </is>
+      </c>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1510/4575/1_REVO_10_XSWSS_Grille__72598.1666363829.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1953" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XS-Silver Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1954" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C1954" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XS-S GRILLE
+UPC:
+814820023466
+</t>
+        </is>
+      </c>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1509/4567/1_REVO_10_XSS_Grille__64207.1666363752.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1954" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XS-Gunmetal Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1955" t="inlineStr">
+        <is>
+          <t>$84.99</t>
+        </is>
+      </c>
+      <c r="C1955" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XS-G-SS GRILLE
+UPC:
+814820023473
+</t>
+        </is>
+      </c>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1508/4571/1_REVO_10_XSGSS_Grille__26329.1666363793.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1955" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 SW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C1956" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 SW-W GRILLE
+UPC:
+814820023497
+</t>
+        </is>
+      </c>
+      <c r="D1956" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1506/4565/1_REVO_10_SWW_Grille__40203.1666363732.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1956" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 SW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C1957" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 SW-B GRILLE
+UPC:
+814820023503
+</t>
+        </is>
+      </c>
+      <c r="D1957" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1505/4569/1_REVO_10_SWB_Grille__02082.1666363765.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1957" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-Black Stainless Steel FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>$64.99</t>
+        </is>
+      </c>
+      <c r="C1958" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-B-SS GRILLE
+UPC:
+814820024852
+</t>
+        </is>
+      </c>
+      <c r="D1958" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1504/4561/1_REVO_8_XSBSS_Grille__79541.1666363683.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1958" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-Gunmetal Stainless Steel FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t>$64.99</t>
+        </is>
+      </c>
+      <c r="C1959" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-G-SS GRILLE
+UPC:
+814820024876
+</t>
+        </is>
+      </c>
+      <c r="D1959" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1503/4562/1_REVO_8_XSGSS_Grille__14722.1666363693.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1959" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-White Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>$64.99</t>
+        </is>
+      </c>
+      <c r="C1960" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-W-SS GRILLE
+UPC:
+814820024869
+</t>
+        </is>
+      </c>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1502/4557/1_REVO_8_XSWSS_Grille__28943.1666363543.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1960" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-Silver FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1961" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C1961" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-S GRILLE
+UPC:
+814820024821
+</t>
+        </is>
+      </c>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1501/4555/1_REVO_8_XSS_Grille__95421.1666363515.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1961" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XW-Black FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1962" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C1962" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XW-B GRILLE
+UPC:
+814820024838
+</t>
+        </is>
+      </c>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1500/4556/1_REVO_8_XWB_Grille__44024.1666363530.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1962" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XW-White FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1963" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C1963" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XW-W GRILLE
+UPC:
+814820024845
+</t>
+        </is>
+      </c>
+      <c r="D1963" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1499/4559/1_REVO_8_XWW_Grille__01114.1666363562.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1963" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 SW-White FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C1964" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA SW-W GRILLE
+UPC:
+814820024890
+</t>
+        </is>
+      </c>
+      <c r="D1964" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1498/4558/1_REVO_8_SWW_Grille__13637.1666363553.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1964" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 SW-Black FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C1965" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA SW-B GRILLE
+UPC:
+814820024883
+</t>
+        </is>
+      </c>
+      <c r="D1965" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1497/4560/1_REVO_8_SWB_Grille__93630.1666363571.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1965" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="inlineStr">
+        <is>
+          <t>REV 12 HD XS-W GRILLE | Wet Sounds REV 12 HD XS Grille White</t>
+        </is>
+      </c>
+      <c r="B1966" t="inlineStr">
+        <is>
+          <t>$240.00</t>
+        </is>
+      </c>
+      <c r="C1966" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XS-W GRILLE
+UPC:
+810042172609
+</t>
+        </is>
+      </c>
+      <c r="D1966" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1665/4701/REV_10_HD_XS_W_Grille___42087.1668784791.1280.1280__32929.1668786228.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1966" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:25:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="inlineStr">
+        <is>
+          <t>REV 12 HD XW-B GRILLE | Wet Sounds REV 12 HD XW Grille Black</t>
+        </is>
+      </c>
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C1967" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XW-B GRILLE
+UPC:
+810042172616
+</t>
+        </is>
+      </c>
+      <c r="D1967" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1664/4700/REV_10_HD_XW_B_Grille___44804.1668784874.1280.1280__10630.1668786179.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1967" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="inlineStr">
+        <is>
+          <t>REV 12 HD XW-W GRILLE | Wet Sounds REV 12 HD XW Grille White</t>
+        </is>
+      </c>
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C1968" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XW-W GRILLE
+UPC:
+810042172623
+</t>
+        </is>
+      </c>
+      <c r="D1968" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1663/4699/REV_10_HD_XW_W_Grille___19216.1668784926.1280.1280__46160.1668786094.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1968" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="inlineStr">
+        <is>
+          <t>REV 12 HD XZ-W GRILLE | Wet Sounds REV 12 HD XZ Grille White</t>
+        </is>
+      </c>
+      <c r="B1969" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C1969" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-W GRILLE
+UPC:
+810042172470
+</t>
+        </is>
+      </c>
+      <c r="D1969" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1662/4698/REV_10_HD_XZ_W_Grille___99703.1668785014.1280.1280__09363.1668786030.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1969" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="inlineStr">
+        <is>
+          <t>REV 12 HD XZ-B GRILLE | Wet Sounds REV 12 HD XZ Grille Black</t>
+        </is>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C1970" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-B GRILLE
+UPC:
+810042172494
+</t>
+        </is>
+      </c>
+      <c r="D1970" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1661/4697/REV_10_HD_XZ_B_Grille___55922.1668785058.1280.1280__50203.1668785972.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1970" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="inlineStr">
+        <is>
+          <t>REV 12 HD XS-B GRILLE | Wet Sounds REV 12 HD XS Grille Black</t>
+        </is>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>$240.00</t>
+        </is>
+      </c>
+      <c r="C1971" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XS-B GRILLE
+UPC:
+810042172593
+</t>
+        </is>
+      </c>
+      <c r="D1971" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1660/4696/REV_10_HD_XS_B_Grille___09337.1668784735.1280.1280__46044.1668785860.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1971" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="inlineStr">
+        <is>
+          <t>REV 10 HD XZ-B GRILLE | Wet Sounds REV 10 HD XZ Grille Black</t>
+        </is>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C1972" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-B GRILLE
+UPC:
+810042172500
+</t>
+        </is>
+      </c>
+      <c r="D1972" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1659/4695/REV_10_HD_XZ_B_Grille___55922.1668785058.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1972" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="inlineStr">
+        <is>
+          <t>REV 10 HD XZ-W GRILLE | Wet Sounds REV 10 HD XZ Grille White</t>
+        </is>
+      </c>
+      <c r="B1973" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C1973" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-W GRILLE
+UPC:
+810042172487
+</t>
+        </is>
+      </c>
+      <c r="D1973" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1658/4694/REV_10_HD_XZ_W_Grille___99703.1668785014.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1973" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" t="inlineStr">
+        <is>
+          <t>REV 10 HD XW-W GRILLE | Wet Sounds REV 10 HD XW Grille White</t>
+        </is>
+      </c>
+      <c r="B1974" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C1974" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XW-W GRILLE
+UPC:
+810042172586
+</t>
+        </is>
+      </c>
+      <c r="D1974" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1657/4693/REV_10_HD_XW_W_Grille___19216.1668784926.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1974" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="inlineStr">
+        <is>
+          <t>REV 10 HD XW-B GRILLE | Wet Sounds REV 10 HD XW Grille Black</t>
+        </is>
+      </c>
+      <c r="B1975" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C1975" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XW-B GRILLE
+UPC:
+810042172579
+</t>
+        </is>
+      </c>
+      <c r="D1975" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1656/4692/REV_10_HD_XW_B_Grille___44804.1668784874.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1975" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" t="inlineStr">
+        <is>
+          <t>REV 10 HD XS-W GRILLE | Wet Sounds REV 10 HD XS Grille White</t>
+        </is>
+      </c>
+      <c r="B1976" t="inlineStr">
+        <is>
+          <t>$190.00</t>
+        </is>
+      </c>
+      <c r="C1976" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XS-W GRILLE
+UPC:
+810042172562
+</t>
+        </is>
+      </c>
+      <c r="D1976" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1655/4691/REV_10_HD_XS_W_Grille___42087.1668784791.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1976" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" t="inlineStr">
+        <is>
+          <t>REV 10 HD XS-B GRILLE | Wet Sounds REV 10 HD XS Grille Black</t>
+        </is>
+      </c>
+      <c r="B1977" t="inlineStr">
+        <is>
+          <t>$190.00</t>
+        </is>
+      </c>
+      <c r="C1977" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XS-B GRILLE
+UPC:
+810042172555
+</t>
+        </is>
+      </c>
+      <c r="D1977" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1642/4690/REV_10_HD_XS_B_Grille___09337.1668784735.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1977" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" t="inlineStr">
+        <is>
+          <t>Revo 12 PSE | Wet Sounds Passive Radiator Subwoofer Enclosure</t>
+        </is>
+      </c>
+      <c r="B1978" t="inlineStr">
+        <is>
+          <t>$1,499.95 - $1,579.95</t>
+        </is>
+      </c>
+      <c r="C1978" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 PSE
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1978" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1527/2054/12_PSE_XS_B__74684__29674.1637194774.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1978" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" t="inlineStr">
+        <is>
+          <t>STEALTH AS-8 | Wet Sounds™ 8-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1979" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C1979" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-8
+UPC:
+814820024791
+</t>
+        </is>
+      </c>
+      <c r="D1979" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1360/5740/AS-8_Front_Right__03743.1713207541.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1979" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" t="inlineStr">
+        <is>
+          <t>STEALTH AS-6 | Wet Sounds™ 6.5-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1980" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C1980" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-6
+UPC:
+814820023312
+</t>
+        </is>
+      </c>
+      <c r="D1980" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1293/5731/AS-6_Front_Right__07941.1713207502.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1980" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" t="inlineStr">
+        <is>
+          <t>STEALTH AS-10 | Wet Sounds™ 10-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B1981" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C1981" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-10
+UPC:
+814820023251
+</t>
+        </is>
+      </c>
+      <c r="D1981" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1292/5748/AS-10_Front_Right__50395.1713207575.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1981" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" t="inlineStr">
+        <is>
+          <t>REVO 8 XW-W V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C1982" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 XW-W V3
+UPC:
+810042171992
+</t>
+        </is>
+      </c>
+      <c r="D1982" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1702/5631/REVO_8_XW_W_Hero__32333.1709313500.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1982" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" t="inlineStr">
+        <is>
+          <t>AR-5 Defender Max | Wet Sounds 5-Speaker Defender Roof Audio System</t>
+        </is>
+      </c>
+      <c r="B1983" t="inlineStr">
+        <is>
+          <t>$3,999.99</t>
+        </is>
+      </c>
+      <c r="C1983" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+AR-5 Defender Max
+UPC:
+810042176805
+</t>
+        </is>
+      </c>
+      <c r="D1983" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1699/5295/AR-5_Defender_Max_Audio_Roof_Front_View_R_Web__25866.1701290006.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1983" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" t="inlineStr">
+        <is>
+          <t>ZERO 12 ENC | Wet Sounds™ ZERO 12-inch Rotomold Enclosure</t>
+        </is>
+      </c>
+      <c r="B1984" t="inlineStr">
+        <is>
+          <t>$369.99</t>
+        </is>
+      </c>
+      <c r="C1984" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 12 ENC
+UPC:
+810042176447
+</t>
+        </is>
+      </c>
+      <c r="D1984" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1694/5811/ZERO_12_ENC_Web_Hero_Solo__24519.1713280845.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1984" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" t="inlineStr">
+        <is>
+          <t>AR-AMP 2CH | Wet Sounds 2-CH Amplifier for Ranger Roof Audio System</t>
+        </is>
+      </c>
+      <c r="B1985" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="C1985" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+AR-AMP 2CH
+UPC:
+810042173866
+</t>
+        </is>
+      </c>
+      <c r="D1985" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1654/5306/AR-2CH_Front_View_Web__91025.1701293245.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1985" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" t="inlineStr">
+        <is>
+          <t>STEALTH XT 12-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B1986" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="C1986" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 12-B
+UPC:
+810042173095
+</t>
+        </is>
+      </c>
+      <c r="D1986" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1653/5275/Stealth_XT12_Hero__64541.1701045828.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1986" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" t="inlineStr">
+        <is>
+          <t>STEALTH XT 8-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B1987" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C1987" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 8-B
+UPC:
+810042173101
+</t>
+        </is>
+      </c>
+      <c r="D1987" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1652/5276/Stealth_XT8_Hero__73552.1701045835.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1987" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" t="inlineStr">
+        <is>
+          <t>STEALTH XT 6-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B1988" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C1988" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 6-B
+UPC:
+810042173088
+</t>
+        </is>
+      </c>
+      <c r="D1988" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1651/5277/Stealth_XT6_Hero__88966.1701045845.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E1988" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" t="inlineStr">
+        <is>
+          <t>AR-5 Ranger Crew | Wet Sounds™ 5-Speaker Ranger Roof Audio System</t>
+        </is>
+      </c>
+      <c r="B1989" t="inlineStr">
+        <is>
+          <t>$3,999.99</t>
+        </is>
+      </c>
+      <c r="C1989" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+AR-5 Ranger Crew
+UPC:
+810042173651
+</t>
+        </is>
+      </c>
+      <c r="D1989" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1643/5304/AR-5_Ranger_Crew_Audio_Roof_Front_View_R_Web__75719.1701290880.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1989" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" t="inlineStr">
+        <is>
+          <t>REV8™ White V2 | Wet Sounds Revolution Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1990" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C1990" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1990" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1640/4375/REV8_W_Web_Hero__78931.1654888304.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1990" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" t="inlineStr">
+        <is>
+          <t>REV8™ Black V2 | Wet Sounds Revolution Series 8" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1991" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C1991" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1991" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1639/4369/REV8_B_Web_Hero__69496.1646949336.1280.1280__81274.1654887818.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1991" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" t="inlineStr">
+        <is>
+          <t>REV10™ White V2 | Wet Sounds Revolution Series 10" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1992" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C1992" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1992" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1638/4359/REV10_W_Web_Hero__38956.1654887066.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1992" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" t="inlineStr">
+        <is>
+          <t>REV10™ Black V2 | Wet Sounds Revolution Series 10" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1993" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C1993" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1993" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1637/4351/REV10_B_Web_Hero__57402.1647007395.1280.1280__29553.1654886710.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1993" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" t="inlineStr">
+        <is>
+          <t>REV 410 Black V2 | Wet Sounds Revolution Series Dual 10" Black Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B1994" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C1994" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1994" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1636/4345/REV410_B_X_Web_Front___24105.1654881808.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1994" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="inlineStr">
+        <is>
+          <t>REV 410 White V2 | Wet Sounds Revolution Series Dual 10" White Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C1995" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1995" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1635/4342/REV410_W_X_Web_Front___65923.1647007018.1280.1280__51826.1654881737.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1995" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" t="inlineStr">
+        <is>
+          <t>ICON8™ White V2  | Wet Sounds ICON Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>$599.99 - $1,349.99</t>
+        </is>
+      </c>
+      <c r="C1996" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ICON 8-W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D1996" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1634/4328/ICON8_W_Web_Hero__40196.1654880484.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1996" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" t="inlineStr"/>
+      <c r="B1997" t="inlineStr"/>
+      <c r="C1997" t="inlineStr"/>
+      <c r="D1997" t="inlineStr"/>
+      <c r="E1997" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-W | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B1998" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C1998" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-W
+UPC:
+810042173019
+</t>
+        </is>
+      </c>
+      <c r="D1998" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1624/5377/ZERO_8_W_Hero_Web__27066.1708447150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1998" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-B | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C1999" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-B
+UPC:
+810042172760
+</t>
+        </is>
+      </c>
+      <c r="D1999" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1623/5372/ZERO_8_B_Web_Hero__46095.1708447055.png?c=1</t>
+        </is>
+      </c>
+      <c r="E1999" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-W | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C2000" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-W
+UPC:
+810042173002
+</t>
+        </is>
+      </c>
+      <c r="D2000" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1622/5353/ZERO_6_W_Web_Hero__48185.1708446825.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2000" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-B | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C2001" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-B
+UPC:
+810042172753
+</t>
+        </is>
+      </c>
+      <c r="D2001" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1621/5363/ZERO_6_B_Web_Hero__23189.1708446915.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2001" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" t="inlineStr">
+        <is>
+          <t>RECON 8-BG RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C2002" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-BG RGB
+UPC:
+810042171817
+</t>
+        </is>
+      </c>
+      <c r="D2002" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1617/5383/RECON_8-XS_Front_Right_Hero_G__04334.1708959945.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2002" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" t="inlineStr">
+        <is>
+          <t>RECON 6-BG RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2003" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C2003" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG RGB
+UPC:
+810042171800
+</t>
+        </is>
+      </c>
+      <c r="D2003" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1616/5415/RECON_6-XS_Front_Hero_G__11887.1708962166.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2003" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" t="inlineStr">
+        <is>
+          <t>WWX-DZ-BT | Wet Sounds™ Dual Zone Bluetooth Controller</t>
+        </is>
+      </c>
+      <c r="B2004" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C2004" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WWX-DZ-BT
+UPC:
+810042170803
+</t>
+        </is>
+      </c>
+      <c r="D2004" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1565/4543/DZ_BT_Front__15731.1666361204.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2004" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" t="inlineStr">
+        <is>
+          <t>Stealth HD Remote replacement</t>
+        </is>
+      </c>
+      <c r="B2005" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C2005" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+PT-STEALTH HD REMOTE
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D2005" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1533/4196/Stealth_UHD_Remote_Front__77941.1652811658.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2005" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" t="inlineStr">
+        <is>
+          <t>Revo 12 PSE | Wet Sounds Passive Radiator Subwoofer Enclosure</t>
+        </is>
+      </c>
+      <c r="B2006" t="inlineStr">
+        <is>
+          <t>$1,499.95 - $1,579.95</t>
+        </is>
+      </c>
+      <c r="C2006" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 PSE
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D2006" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1527/2054/12_PSE_XS_B__74684__29674.1637194774.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2006" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" t="inlineStr">
+        <is>
+          <t>STEALTH-10 CORE-W | Wet Sounds STEALTH CORE 10 Speaker Non-Amplified Universal Soundbar</t>
+        </is>
+      </c>
+      <c r="B2007" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C2007" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-10 CORE-W
+UPC:
+814820023145
+</t>
+        </is>
+      </c>
+      <c r="D2007" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1482/3363/1_Stealth_10_Core_W_Web__90688.1642004847.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2007" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" t="inlineStr">
+        <is>
+          <t>STEALTH-10 ULTRA HD-W | Wet Sounds All-In-One Amplified Bluetooth®  Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B2008" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C2008" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-10 ULTRA HD-W
+UPC:
+814820023282
+</t>
+        </is>
+      </c>
+      <c r="D2008" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1480/3408/1_Stealth_10_UHD_W__97540.1642008122.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2008" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" t="inlineStr">
+        <is>
+          <t>STEALTH-6 ULTRA HD-W | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B2009" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="C2009" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-6 ULTRA HD-W
+UPC:
+814820023305
+</t>
+        </is>
+      </c>
+      <c r="D2009" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1479/3412/1_Stealth_6_UHD_W__23067.1642009031.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2009" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2010" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C2010" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-W S2
+UPC:
+814820024722
+</t>
+        </is>
+      </c>
+      <c r="D2010" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1459/5574/REVO_CX10_SW_W_Hero__01549.1709229069.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2010" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" t="inlineStr"/>
+      <c r="B2011" t="inlineStr"/>
+      <c r="C2011" t="inlineStr"/>
+      <c r="D2011" t="inlineStr"/>
+      <c r="E2011" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" t="inlineStr"/>
+      <c r="B2012" t="inlineStr"/>
+      <c r="C2012" t="inlineStr"/>
+      <c r="D2012" t="inlineStr"/>
+      <c r="E2012" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" t="inlineStr"/>
+      <c r="B2013" t="inlineStr"/>
+      <c r="C2013" t="inlineStr"/>
+      <c r="D2013" t="inlineStr"/>
+      <c r="E2013" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" t="inlineStr"/>
+      <c r="B2014" t="inlineStr"/>
+      <c r="C2014" t="inlineStr"/>
+      <c r="D2014" t="inlineStr"/>
+      <c r="E2014" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" t="inlineStr">
+        <is>
+          <t>REVO 8 SW-B V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2015" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C2015" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 SW-B V3
+UPC:
+810042173064
+</t>
+        </is>
+      </c>
+      <c r="D2015" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1449/5624/REVO_8_SW_B_Hero__54808.1709313038.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2015" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" t="inlineStr"/>
+      <c r="B2016" t="inlineStr"/>
+      <c r="C2016" t="inlineStr"/>
+      <c r="D2016" t="inlineStr"/>
+      <c r="E2016" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" t="inlineStr"/>
+      <c r="B2017" t="inlineStr"/>
+      <c r="C2017" t="inlineStr"/>
+      <c r="D2017" t="inlineStr"/>
+      <c r="E2017" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2018" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C2018" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W RGB
+UPC:
+814820027518
+</t>
+        </is>
+      </c>
+      <c r="D2018" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1445/5419/RECON_6-XS_Front_Hero_G__57907.1708962243.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2018" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" t="inlineStr">
+        <is>
+          <t>RECON 6-S RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2019" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C2019" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S RGB
+UPC:
+814820027310
+</t>
+        </is>
+      </c>
+      <c r="D2019" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1444/5405/RECON_6-XS_Hero_G__00191.1708962100.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2019" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" t="inlineStr">
+        <is>
+          <t>RECON 8 XW-W RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2020" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C2020" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8 XW-W RGB
+UPC:
+814820027525
+</t>
+        </is>
+      </c>
+      <c r="D2020" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1443/5393/RECON_8-XS_Front_Right_Hero_G__13110.1708960108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2020" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" t="inlineStr">
+        <is>
+          <t>RECON 8-S RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2021" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C2021" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-S RGB
+UPC:
+814820027334
+</t>
+        </is>
+      </c>
+      <c r="D2021" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1442/5388/RECON_8-XS_Front_Right_Hero_G__30821.1708960025.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2021" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" t="inlineStr">
+        <is>
+          <t>RECON 5-S | RECON™ Series 5.25-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B2022" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C2022" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 5-S
+UPC:
+814820027549
+</t>
+        </is>
+      </c>
+      <c r="D2022" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1439/5403/RECON_5-XS_Hero__02225.1708961993.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2022" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.5 | Wet Sounds Stealth Clamp For 1.5" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B2023" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C2023" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.5
+UPC:
+853414005358
+</t>
+        </is>
+      </c>
+      <c r="D2023" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1367/2414/1_1.50_RND_Clamps__21455__02143.1637194850.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2023" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.75 | Wet Sounds Stealth Clamp For 1.75" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B2024" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C2024" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.75
+UPC:
+853414005365
+</t>
+        </is>
+      </c>
+      <c r="D2024" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1366/2417/1_1.75_RND_Clamps__59114__19242.1637194851.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2024" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ .75 | Wet Sounds Stealth Clamp For .75" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B2025" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C2025" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ .75
+UPC:
+853414005372
+</t>
+        </is>
+      </c>
+      <c r="D2025" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1365/2427/1_0.75_Square_Clamps__66224__70772.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2025" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.0 | Wet Sounds Stealth Clamp For 1" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B2026" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C2026" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.0
+UPC:
+853414005389
+</t>
+        </is>
+      </c>
+      <c r="D2026" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1364/2430/1_1.0_Square_Clamps__67269__49843.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2026" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.25 | Wet Sounds Stealth Clamp For 1.25" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B2027" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C2027" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.25
+UPC:
+853414005396
+</t>
+        </is>
+      </c>
+      <c r="D2027" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1363/2433/1_1.25_Square_Clamps__83205__21949.1637194854.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2027" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 2.0 T | Wet Sounds Stealth Clamp For 2" Tube</t>
+        </is>
+      </c>
+      <c r="B2028" t="inlineStr">
+        <is>
+          <t>$42.99</t>
+        </is>
+      </c>
+      <c r="C2028" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 2.0 T
+UPC:
+810042172333
+</t>
+        </is>
+      </c>
+      <c r="D2028" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1362/2420/1_2.0_RND_Clamps__29986__47318.1680276146.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2028" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" t="inlineStr">
+        <is>
+          <t>ST-ADP-SLIDER BRACKET | Wet Sounds Stealth Slider Bracket For STEALTH 6 &amp; STEALTH 10 Soundbars</t>
+        </is>
+      </c>
+      <c r="B2029" t="inlineStr">
+        <is>
+          <t>$49.99</t>
+        </is>
+      </c>
+      <c r="C2029" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SLIDER BRACKET
+UPC:
+853414005891
+</t>
+        </is>
+      </c>
+      <c r="D2029" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1361/2423/1_Slider_Brackets__70189__99738.1637194852.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2029" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" t="inlineStr">
+        <is>
+          <t>STEALTH AS-8 | Wet Sounds™ 8-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B2030" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C2030" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-8
+UPC:
+814820024791
+</t>
+        </is>
+      </c>
+      <c r="D2030" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1360/5740/AS-8_Front_Right__03743.1713207541.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2030" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" t="inlineStr">
+        <is>
+          <t>STEALTH-6 SURGE-B | Wet Sounds STEALTH SURGE 6 Speaker Amplified Universal Soundbar</t>
+        </is>
+      </c>
+      <c r="B2031" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C2031" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-6 SURGE-B
+UPC:
+814820024548
+</t>
+        </is>
+      </c>
+      <c r="D2031" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1359/3378/1_Stealth_6_Surge_B_Web__61174.1642006568.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2031" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" t="inlineStr"/>
+      <c r="B2032" t="inlineStr"/>
+      <c r="C2032" t="inlineStr"/>
+      <c r="D2032" t="inlineStr"/>
+      <c r="E2032" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" t="inlineStr"/>
+      <c r="B2033" t="inlineStr"/>
+      <c r="C2033" t="inlineStr"/>
+      <c r="D2033" t="inlineStr"/>
+      <c r="E2033" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" t="inlineStr"/>
+      <c r="B2034" t="inlineStr"/>
+      <c r="C2034" t="inlineStr"/>
+      <c r="D2034" t="inlineStr"/>
+      <c r="E2034" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" t="inlineStr">
+        <is>
+          <t>STEALTH AS-6 | Wet Sounds™ 6.5-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B2035" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C2035" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-6
+UPC:
+814820023312
+</t>
+        </is>
+      </c>
+      <c r="D2035" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1293/5731/AS-6_Front_Right__07941.1713207502.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2035" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" t="inlineStr">
+        <is>
+          <t>STEALTH AS-10 | Wet Sounds™ 10-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B2036" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C2036" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-10
+UPC:
+814820023251
+</t>
+        </is>
+      </c>
+      <c r="D2036" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1292/5748/AS-10_Front_Right__50395.1713207575.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2036" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" t="inlineStr">
+        <is>
+          <t>RECON 6-S | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B2037" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C2037" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S
+UPC:
+814820027303
+</t>
+        </is>
+      </c>
+      <c r="D2037" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1289/5427/RECON_6-XS_Hero__59634.1708962364.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2037" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" t="inlineStr">
+        <is>
+          <t>RECON 6-BG | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black Grilles</t>
+        </is>
+      </c>
+      <c r="B2038" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C2038" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG
+UPC:
+814820027501
+</t>
+        </is>
+      </c>
+      <c r="D2038" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1288/5432/RECON_6-XS_Front_Hero__48179.1708962424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2038" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White Grilles</t>
+        </is>
+      </c>
+      <c r="B2039" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C2039" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W
+UPC:
+814820027624
+</t>
+        </is>
+      </c>
+      <c r="D2039" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1287/5438/RECON_6-XS_Front_Hero__59396.1708962477.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2039" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" t="inlineStr"/>
+      <c r="B2040" t="inlineStr"/>
+      <c r="C2040" t="inlineStr"/>
+      <c r="D2040" t="inlineStr"/>
+      <c r="E2040" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" t="inlineStr"/>
+      <c r="B2041" t="inlineStr"/>
+      <c r="C2041" t="inlineStr"/>
+      <c r="D2041" t="inlineStr"/>
+      <c r="E2041" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" t="inlineStr"/>
+      <c r="B2042" t="inlineStr"/>
+      <c r="C2042" t="inlineStr"/>
+      <c r="D2042" t="inlineStr"/>
+      <c r="E2042" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" t="inlineStr"/>
+      <c r="B2043" t="inlineStr"/>
+      <c r="C2043" t="inlineStr"/>
+      <c r="D2043" t="inlineStr"/>
+      <c r="E2043" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" t="inlineStr"/>
+      <c r="B2044" t="inlineStr"/>
+      <c r="C2044" t="inlineStr"/>
+      <c r="D2044" t="inlineStr"/>
+      <c r="E2044" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" t="inlineStr"/>
+      <c r="B2045" t="inlineStr"/>
+      <c r="C2045" t="inlineStr"/>
+      <c r="D2045" t="inlineStr"/>
+      <c r="E2045" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" t="inlineStr">
+        <is>
+          <t>REVO 6 XS-B-SS V3 | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2046" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="C2046" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 XS-B-SS V3
+UPC:
+810042170148
+</t>
+        </is>
+      </c>
+      <c r="D2046" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1280/5715/REVO_6_XS_B_SS_Hero__67615.1709581844.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2046" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" t="inlineStr"/>
+      <c r="B2047" t="inlineStr"/>
+      <c r="C2047" t="inlineStr"/>
+      <c r="D2047" t="inlineStr"/>
+      <c r="E2047" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2048" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C2048" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-B S2
+UPC:
+814820024715
+</t>
+        </is>
+      </c>
+      <c r="D2048" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1277/5571/REVO_CX10_SW_B_Hero__55586.1709151911.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2048" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-S S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2049" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C2049" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-S S2
+UPC:
+814820024760
+</t>
+        </is>
+      </c>
+      <c r="D2049" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1276/5588/REVO_CX10_XS_S_Hero__06379.1709231959.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2049" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2050" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C2050" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-B S2
+UPC:
+814820024777
+</t>
+        </is>
+      </c>
+      <c r="D2050" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1275/5601/REVO_CX10_XW_B_Hero__80563.1709232713.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2050" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2051" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C2051" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-W S2
+UPC:
+814820024784
+</t>
+        </is>
+      </c>
+      <c r="D2051" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1274/5606/REVO_CX10_XW_W_Hero__14177.1709237050.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2051" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-B-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2052" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C2052" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-B-SS S2
+UPC:
+814820024739
+</t>
+        </is>
+      </c>
+      <c r="D2052" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1273/5594/REVO_CX10_XS_B_SS_Hero__29022.1709232385.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2052" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-G-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2053" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C2053" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-G-SS S2
+UPC:
+814820024753
+</t>
+        </is>
+      </c>
+      <c r="D2053" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1272/5580/REVO_CX10_XS_G_SS_Hero__23286.1709230163.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2053" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-W-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2054" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C2054" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-W-SS S2
+UPC:
+814820024746
+</t>
+        </is>
+      </c>
+      <c r="D2054" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1271/5610/REVO_CX10_XS_W_SS_Hero__86437.1709237352.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2054" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" t="inlineStr">
+        <is>
+          <t>HTX-1 | Wet Sounds Class-D Monoblock Subwoofer Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B2055" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C2055" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-1
+UPC:
+814820022209
+</t>
+        </is>
+      </c>
+      <c r="D2055" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1262/3437/1_HTX_1__66896.1642091392.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2055" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" t="inlineStr"/>
+      <c r="B2056" t="inlineStr"/>
+      <c r="C2056" t="inlineStr"/>
+      <c r="D2056" t="inlineStr"/>
+      <c r="E2056" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" t="inlineStr"/>
+      <c r="B2057" t="inlineStr"/>
+      <c r="C2057" t="inlineStr"/>
+      <c r="D2057" t="inlineStr"/>
+      <c r="E2057" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058" t="inlineStr">
+        <is>
+          <t>HTX-6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B2058" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="C2058" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-6
+UPC:
+814820022162
+</t>
+        </is>
+      </c>
+      <c r="D2058" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1259/1589/1_HTX_6__73141__79749.1642096762.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2058" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:26:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" t="inlineStr">
+        <is>
+          <t>STX MICRO-1 | Wet Sounds Compact Chassis Class-D Monoblock Marine A</t>
+        </is>
+      </c>
+      <c r="B2059" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C2059" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-1
+UPC:
+814820023329
+</t>
+        </is>
+      </c>
+      <c r="D2059" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1258/2520/Micro_STX_Hero__81706__61326.1637194869.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2059" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" t="inlineStr">
+        <is>
+          <t>STX MICRO-4 | Wet Sounds Compact Chassis Class-D 4-Ch Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B2060" t="inlineStr">
+        <is>
+          <t>$439.99</t>
+        </is>
+      </c>
+      <c r="C2060" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-4
+UPC:
+814820023336
+</t>
+        </is>
+      </c>
+      <c r="D2060" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1257/2526/Micro_STX_Hero__17041__18108.1637194870.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2060" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" t="inlineStr">
+        <is>
+          <t>REVO 8 XW-W V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2061" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C2061" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 XW-W V3
+UPC:
+810042171992
+</t>
+        </is>
+      </c>
+      <c r="D2061" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1702/5631/REVO_8_XW_W_Hero__32333.1709313500.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2061" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" t="inlineStr">
+        <is>
+          <t>STEALTH XT 12-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B2062" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="C2062" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 12-B
+UPC:
+810042173095
+</t>
+        </is>
+      </c>
+      <c r="D2062" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1653/5275/Stealth_XT12_Hero__64541.1701045828.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2062" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" t="inlineStr">
+        <is>
+          <t>STEALTH XT 8-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B2063" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C2063" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 8-B
+UPC:
+810042173101
+</t>
+        </is>
+      </c>
+      <c r="D2063" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1652/5276/Stealth_XT8_Hero__73552.1701045835.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2063" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" t="inlineStr">
+        <is>
+          <t>STEALTH XT 6-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B2064" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C2064" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 6-B
+UPC:
+810042173088
+</t>
+        </is>
+      </c>
+      <c r="D2064" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1651/5277/Stealth_XT6_Hero__88966.1701045845.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2064" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-W | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B2065" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C2065" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-W
+UPC:
+810042173019
+</t>
+        </is>
+      </c>
+      <c r="D2065" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1624/5377/ZERO_8_W_Hero_Web__27066.1708447150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2065" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-B | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B2066" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C2066" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-B
+UPC:
+810042172760
+</t>
+        </is>
+      </c>
+      <c r="D2066" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1623/5372/ZERO_8_B_Web_Hero__46095.1708447055.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2066" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-W | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B2067" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C2067" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-W
+UPC:
+810042173002
+</t>
+        </is>
+      </c>
+      <c r="D2067" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1622/5353/ZERO_6_W_Web_Hero__48185.1708446825.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2067" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-B | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B2068" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C2068" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-B
+UPC:
+810042172753
+</t>
+        </is>
+      </c>
+      <c r="D2068" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1621/5363/ZERO_6_B_Web_Hero__23189.1708446915.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2068" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" t="inlineStr">
+        <is>
+          <t>RECON 8-BG RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2069" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C2069" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-BG RGB
+UPC:
+810042171817
+</t>
+        </is>
+      </c>
+      <c r="D2069" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1617/5383/RECON_8-XS_Front_Right_Hero_G__04334.1708959945.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2069" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" t="inlineStr">
+        <is>
+          <t>RECON 6-BG RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2070" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C2070" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG RGB
+UPC:
+810042171800
+</t>
+        </is>
+      </c>
+      <c r="D2070" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1616/5415/RECON_6-XS_Front_Hero_G__11887.1708962166.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2070" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" t="inlineStr">
+        <is>
+          <t>GC-AMP-KIT  | Wet Sounds Golf Cart Amp Wiring Kit for STX Micro-4</t>
+        </is>
+      </c>
+      <c r="B2071" t="inlineStr">
+        <is>
+          <t>$89.99</t>
+        </is>
+      </c>
+      <c r="C2071" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+GC-AMP-KIT
+UPC:
+810042171589
+</t>
+        </is>
+      </c>
+      <c r="D2071" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1605/1569/GC-AMP-KIT__17000__26134.1637194671.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2071" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072" t="inlineStr">
+        <is>
+          <t>GC-H4S | Wet Sounds Golf Cart Audio System Harness</t>
+        </is>
+      </c>
+      <c r="B2072" t="inlineStr">
+        <is>
+          <t>$149.99</t>
+        </is>
+      </c>
+      <c r="C2072" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+GC-H4S
+UPC:
+810042171299
+</t>
+        </is>
+      </c>
+      <c r="D2072" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1597/1571/Golf_Cart_Harness_3__59544__36842.1637194672.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2072" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" t="inlineStr"/>
+      <c r="B2073" t="inlineStr"/>
+      <c r="C2073" t="inlineStr"/>
+      <c r="D2073" t="inlineStr"/>
+      <c r="E2073" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" t="inlineStr"/>
+      <c r="B2074" t="inlineStr"/>
+      <c r="C2074" t="inlineStr"/>
+      <c r="D2074" t="inlineStr"/>
+      <c r="E2074" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" t="inlineStr"/>
+      <c r="B2075" t="inlineStr"/>
+      <c r="C2075" t="inlineStr"/>
+      <c r="D2075" t="inlineStr"/>
+      <c r="E2075" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" t="inlineStr"/>
+      <c r="B2076" t="inlineStr"/>
+      <c r="C2076" t="inlineStr"/>
+      <c r="D2076" t="inlineStr"/>
+      <c r="E2076" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" t="inlineStr">
+        <is>
+          <t>REVO 8 SW-B V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2077" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C2077" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 SW-B V3
+UPC:
+810042173064
+</t>
+        </is>
+      </c>
+      <c r="D2077" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1449/5624/REVO_8_SW_B_Hero__54808.1709313038.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2077" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" t="inlineStr"/>
+      <c r="B2078" t="inlineStr"/>
+      <c r="C2078" t="inlineStr"/>
+      <c r="D2078" t="inlineStr"/>
+      <c r="E2078" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" t="inlineStr"/>
+      <c r="B2079" t="inlineStr"/>
+      <c r="C2079" t="inlineStr"/>
+      <c r="D2079" t="inlineStr"/>
+      <c r="E2079" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2080" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C2080" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W RGB
+UPC:
+814820027518
+</t>
+        </is>
+      </c>
+      <c r="D2080" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1445/5419/RECON_6-XS_Front_Hero_G__57907.1708962243.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2080" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" t="inlineStr">
+        <is>
+          <t>RECON 6-S RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2081" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C2081" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S RGB
+UPC:
+814820027310
+</t>
+        </is>
+      </c>
+      <c r="D2081" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1444/5405/RECON_6-XS_Hero_G__00191.1708962100.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2081" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" t="inlineStr">
+        <is>
+          <t>RECON 8 XW-W RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2082" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C2082" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8 XW-W RGB
+UPC:
+814820027525
+</t>
+        </is>
+      </c>
+      <c r="D2082" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1443/5393/RECON_8-XS_Front_Right_Hero_G__13110.1708960108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2082" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" t="inlineStr">
+        <is>
+          <t>RECON 8-S RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2083" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C2083" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-S RGB
+UPC:
+814820027334
+</t>
+        </is>
+      </c>
+      <c r="D2083" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1442/5388/RECON_8-XS_Front_Right_Hero_G__30821.1708960025.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2083" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" t="inlineStr">
+        <is>
+          <t>RECON 5-S | RECON™ Series 5.25-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B2084" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C2084" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 5-S
+UPC:
+814820027549
+</t>
+        </is>
+      </c>
+      <c r="D2084" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1439/5403/RECON_5-XS_Hero__02225.1708961993.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2084" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.5 | Wet Sounds Stealth Clamp For 1.5" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B2085" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C2085" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.5
+UPC:
+853414005358
+</t>
+        </is>
+      </c>
+      <c r="D2085" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1367/2414/1_1.50_RND_Clamps__21455__02143.1637194850.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2085" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.75 | Wet Sounds Stealth Clamp For 1.75" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B2086" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C2086" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.75
+UPC:
+853414005365
+</t>
+        </is>
+      </c>
+      <c r="D2086" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1366/2417/1_1.75_RND_Clamps__59114__19242.1637194851.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2086" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ .75 | Wet Sounds Stealth Clamp For .75" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B2087" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C2087" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ .75
+UPC:
+853414005372
+</t>
+        </is>
+      </c>
+      <c r="D2087" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1365/2427/1_0.75_Square_Clamps__66224__70772.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2087" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.0 | Wet Sounds Stealth Clamp For 1" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B2088" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C2088" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.0
+UPC:
+853414005389
+</t>
+        </is>
+      </c>
+      <c r="D2088" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1364/2430/1_1.0_Square_Clamps__67269__49843.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2088" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.25 | Wet Sounds Stealth Clamp For 1.25" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C2089" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.25
+UPC:
+853414005396
+</t>
+        </is>
+      </c>
+      <c r="D2089" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1363/2433/1_1.25_Square_Clamps__83205__21949.1637194854.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2089" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 2.0 T | Wet Sounds Stealth Clamp For 2" Tube</t>
+        </is>
+      </c>
+      <c r="B2090" t="inlineStr">
+        <is>
+          <t>$42.99</t>
+        </is>
+      </c>
+      <c r="C2090" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 2.0 T
+UPC:
+810042172333
+</t>
+        </is>
+      </c>
+      <c r="D2090" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1362/2420/1_2.0_RND_Clamps__29986__47318.1680276146.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2090" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" t="inlineStr">
+        <is>
+          <t>ST-ADP-SLIDER BRACKET | Wet Sounds Stealth Slider Bracket For STEALTH 6 &amp; STEALTH 10 Soundbars</t>
+        </is>
+      </c>
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>$49.99</t>
+        </is>
+      </c>
+      <c r="C2091" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SLIDER BRACKET
+UPC:
+853414005891
+</t>
+        </is>
+      </c>
+      <c r="D2091" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1361/2423/1_Slider_Brackets__70189__99738.1637194852.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2091" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" t="inlineStr">
+        <is>
+          <t>STEALTH AS-8 | Wet Sounds™ 8-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B2092" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C2092" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-8
+UPC:
+814820024791
+</t>
+        </is>
+      </c>
+      <c r="D2092" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1360/5740/AS-8_Front_Right__03743.1713207541.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2092" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" t="inlineStr">
+        <is>
+          <t>STEALTH AS-6 | Wet Sounds™ 6.5-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C2093" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-6
+UPC:
+814820023312
+</t>
+        </is>
+      </c>
+      <c r="D2093" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1293/5731/AS-6_Front_Right__07941.1713207502.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2093" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" t="inlineStr">
+        <is>
+          <t>STEALTH AS-10 | Wet Sounds™ 10-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B2094" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C2094" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-10
+UPC:
+814820023251
+</t>
+        </is>
+      </c>
+      <c r="D2094" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1292/5748/AS-10_Front_Right__50395.1713207575.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2094" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" t="inlineStr">
+        <is>
+          <t>RECON 6-S | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B2095" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C2095" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S
+UPC:
+814820027303
+</t>
+        </is>
+      </c>
+      <c r="D2095" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1289/5427/RECON_6-XS_Hero__59634.1708962364.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2095" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" t="inlineStr">
+        <is>
+          <t>RECON 6-BG | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black Grilles</t>
+        </is>
+      </c>
+      <c r="B2096" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C2096" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG
+UPC:
+814820027501
+</t>
+        </is>
+      </c>
+      <c r="D2096" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1288/5432/RECON_6-XS_Front_Hero__48179.1708962424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2096" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White Grilles</t>
+        </is>
+      </c>
+      <c r="B2097" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C2097" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W
+UPC:
+814820027624
+</t>
+        </is>
+      </c>
+      <c r="D2097" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1287/5438/RECON_6-XS_Front_Hero__59396.1708962477.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2097" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" t="inlineStr"/>
+      <c r="B2098" t="inlineStr"/>
+      <c r="C2098" t="inlineStr"/>
+      <c r="D2098" t="inlineStr"/>
+      <c r="E2098" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" t="inlineStr"/>
+      <c r="B2099" t="inlineStr"/>
+      <c r="C2099" t="inlineStr"/>
+      <c r="D2099" t="inlineStr"/>
+      <c r="E2099" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" t="inlineStr"/>
+      <c r="B2100" t="inlineStr"/>
+      <c r="C2100" t="inlineStr"/>
+      <c r="D2100" t="inlineStr"/>
+      <c r="E2100" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101" t="inlineStr"/>
+      <c r="B2101" t="inlineStr"/>
+      <c r="C2101" t="inlineStr"/>
+      <c r="D2101" t="inlineStr"/>
+      <c r="E2101" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" t="inlineStr"/>
+      <c r="B2102" t="inlineStr"/>
+      <c r="C2102" t="inlineStr"/>
+      <c r="D2102" t="inlineStr"/>
+      <c r="E2102" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" t="inlineStr"/>
+      <c r="B2103" t="inlineStr"/>
+      <c r="C2103" t="inlineStr"/>
+      <c r="D2103" t="inlineStr"/>
+      <c r="E2103" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" t="inlineStr">
+        <is>
+          <t>REVO 6 XS-B-SS V3 | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="C2104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 XS-B-SS V3
+UPC:
+810042170148
+</t>
+        </is>
+      </c>
+      <c r="D2104" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1280/5715/REVO_6_XS_B_SS_Hero__67615.1709581844.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2104" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" t="inlineStr"/>
+      <c r="B2105" t="inlineStr"/>
+      <c r="C2105" t="inlineStr"/>
+      <c r="D2105" t="inlineStr"/>
+      <c r="E2105" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 110v, 1200W 4 Channel Amplifier</t>
+        </is>
+      </c>
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>$1,249.99</t>
+        </is>
+      </c>
+      <c r="C2106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-1200-AMP
+UPC:
+810042170773
+</t>
+        </is>
+      </c>
+      <c r="D2106" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1684/4972/Venue_1200_Three_Quarter__05079.1688654940.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2106" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ LS Pro Package</t>
+        </is>
+      </c>
+      <c r="B2107" t="inlineStr">
+        <is>
+          <t>$6,299.99</t>
+        </is>
+      </c>
+      <c r="C2107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-LS PRO PACKAGE
+UPC:
+810042171466
+</t>
+        </is>
+      </c>
+      <c r="D2107" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1604/4999/VS_Package_Web__61197.1688658820.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2107" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ Shallow Mount 6.5" Ceiling Speakers</t>
+        </is>
+      </c>
+      <c r="B2108" t="inlineStr">
+        <is>
+          <t>$269.99</t>
+        </is>
+      </c>
+      <c r="C2108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-SMC-65
+UPC:
+810042171114
+</t>
+        </is>
+      </c>
+      <c r="D2108" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1589/4945/VS_SMC_65_Web__57267.1686758771.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2108" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 110v, 1200W 4 Channel Amplifier w/Enclosure</t>
+        </is>
+      </c>
+      <c r="B2109" t="inlineStr">
+        <is>
+          <t>$1,999.98</t>
+        </is>
+      </c>
+      <c r="C2109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-AMPLIFIER SYSTEM-4
+UPC:
+810042171282
+</t>
+        </is>
+      </c>
+      <c r="D2109" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1577/4998/VS_Amp_System__41906.1688658687.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2109" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 12" Landscape In-Ground Subwoofer</t>
+        </is>
+      </c>
+      <c r="B2110" t="inlineStr">
+        <is>
+          <t>$1,499.99</t>
+        </is>
+      </c>
+      <c r="C2110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-12 LS-SUB
+UPC:
+810042170780
+</t>
+        </is>
+      </c>
+      <c r="D2110" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1576/5000/OD_Sub_Front__38749.1688658990.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2110" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ Landscape Ground Spike</t>
+        </is>
+      </c>
+      <c r="B2111" t="inlineStr">
+        <is>
+          <t>$99.99</t>
+        </is>
+      </c>
+      <c r="C2111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-LS-SP
+UPC:
+810042170223
+</t>
+        </is>
+      </c>
+      <c r="D2111" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1575/5004/OD_Landscape_Spike__18057.1688659027.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2111" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 6x9" Black HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B2112" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C2112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-69 PRO-B
+UPC:
+810042170209
+</t>
+        </is>
+      </c>
+      <c r="D2112" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1574/4983/Venue_VS69_Hero_Pair_B__22533.1688657979.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2112" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 6x9" White HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B2113" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C2113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-69 PRO-W
+UPC:
+810042170216
+</t>
+        </is>
+      </c>
+      <c r="D2113" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1573/4978/Venue_VS69_Hero_Pair_W__06446.1688657950.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2113" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 8" White HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B2114" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C2114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-8 PRO-W
+UPC:
+814820029499
+</t>
+        </is>
+      </c>
+      <c r="D2114" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1572/4990/VS-8_W_Hero_Pair__68899.1688658629.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2114" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 8" Black HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B2115" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C2115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-8 PRO-B
+UPC:
+814820029482
+</t>
+        </is>
+      </c>
+      <c r="D2115" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1571/4994/VS-8_B_Hero_Pair__68789.1688658649.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2115" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:27:40</t>
         </is>
       </c>
     </row>

--- a/Output_informacoes_produtos_wet_sounds.xlsx
+++ b/Output_informacoes_produtos_wet_sounds.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2417"/>
+  <dimension ref="A1:E2719"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
@@ -65610,10 +65610,6 @@
       </c>
     </row>
     <row r="2142">
-      <c r="A2142" t="inlineStr"/>
-      <c r="B2142" t="inlineStr"/>
-      <c r="C2142" t="inlineStr"/>
-      <c r="D2142" t="inlineStr"/>
       <c r="E2142" t="inlineStr">
         <is>
           <t>2024-04-23 09:22:24</t>
@@ -71715,10 +71711,6 @@
       </c>
     </row>
     <row r="2334">
-      <c r="A2334" t="inlineStr"/>
-      <c r="B2334" t="inlineStr"/>
-      <c r="C2334" t="inlineStr"/>
-      <c r="D2334" t="inlineStr"/>
       <c r="E2334" t="inlineStr">
         <is>
           <t>2024-04-23 09:24:19</t>
@@ -72046,10 +72038,6 @@
       </c>
     </row>
     <row r="2345">
-      <c r="A2345" t="inlineStr"/>
-      <c r="B2345" t="inlineStr"/>
-      <c r="C2345" t="inlineStr"/>
-      <c r="D2345" t="inlineStr"/>
       <c r="E2345" t="inlineStr">
         <is>
           <t>2024-04-23 09:24:25</t>
@@ -73881,10 +73869,6 @@
       </c>
     </row>
     <row r="2403">
-      <c r="A2403" t="inlineStr"/>
-      <c r="B2403" t="inlineStr"/>
-      <c r="C2403" t="inlineStr"/>
-      <c r="D2403" t="inlineStr"/>
       <c r="E2403" t="inlineStr">
         <is>
           <t>2024-04-23 09:24:58</t>
@@ -74336,6 +74320,9568 @@
       <c r="E2417" t="inlineStr">
         <is>
           <t>2024-04-23 09:25:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2418">
+      <c r="A2418" t="inlineStr">
+        <is>
+          <t>REVO 8 XW-W V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2418" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C2418" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 XW-W V3
+UPC:
+810042171992
+</t>
+        </is>
+      </c>
+      <c r="D2418" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1702/5631/REVO_8_XW_W_Hero__32333.1709313500.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2418" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:22:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2419">
+      <c r="A2419" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-W | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B2419" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C2419" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-W
+UPC:
+810042173019
+</t>
+        </is>
+      </c>
+      <c r="D2419" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1624/5377/ZERO_8_W_Hero_Web__27066.1708447150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2419" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:22:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2420">
+      <c r="A2420" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-B | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B2420" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C2420" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-B
+UPC:
+810042172760
+</t>
+        </is>
+      </c>
+      <c r="D2420" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1623/5372/ZERO_8_B_Web_Hero__46095.1708447055.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2420" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:22:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2421">
+      <c r="A2421" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-W | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B2421" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C2421" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-W
+UPC:
+810042173002
+</t>
+        </is>
+      </c>
+      <c r="D2421" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1622/5353/ZERO_6_W_Web_Hero__48185.1708446825.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2421" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:22:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2422">
+      <c r="A2422" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-B | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B2422" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C2422" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-B
+UPC:
+810042172753
+</t>
+        </is>
+      </c>
+      <c r="D2422" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1621/5363/ZERO_6_B_Web_Hero__23189.1708446915.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2422" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:22:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2423">
+      <c r="A2423" t="inlineStr">
+        <is>
+          <t>RECON 8-BG RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2423" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C2423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-BG RGB
+UPC:
+810042171817
+</t>
+        </is>
+      </c>
+      <c r="D2423" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1617/5383/RECON_8-XS_Front_Right_Hero_G__04334.1708959945.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2423" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:22:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2424">
+      <c r="A2424" t="inlineStr">
+        <is>
+          <t>RECON 6-BG RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2424" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C2424" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG RGB
+UPC:
+810042171800
+</t>
+        </is>
+      </c>
+      <c r="D2424" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1616/5415/RECON_6-XS_Front_Hero_G__11887.1708962166.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2424" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:22:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2425">
+      <c r="A2425" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2425" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C2425" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-W S2
+UPC:
+814820024722
+</t>
+        </is>
+      </c>
+      <c r="D2425" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1459/5574/REVO_CX10_SW_W_Hero__01549.1709229069.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2425" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:22:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2426">
+      <c r="A2426" t="inlineStr">
+        <is>
+          <t>REVO 8-XSB-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2426" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C2426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSB-SS
+UPC:
+814820023046
+</t>
+        </is>
+      </c>
+      <c r="D2426" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1453/5646/REVO_8_XS_B_SS_Hero__24569.1709314439.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2426" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:22:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2427">
+      <c r="A2427" t="inlineStr">
+        <is>
+          <t>REVO 8-XSG-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2427" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C2427" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSG-SS
+UPC:
+814820023206
+</t>
+        </is>
+      </c>
+      <c r="D2427" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1452/5655/REVO_8_XS_G_SS_Hero__58795.1709314920.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2427" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:22:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2428">
+      <c r="A2428" t="inlineStr">
+        <is>
+          <t>REVO 8-XSW-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2428" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C2428" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSW-SS
+UPC:
+814820022421
+</t>
+        </is>
+      </c>
+      <c r="D2428" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1451/5659/REVO_8_XS_W_SS_Hero__40898.1709324600.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2428" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:22:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2429">
+      <c r="A2429" t="inlineStr">
+        <is>
+          <t>REVO 8-XSS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2429" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C2429" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSS
+UPC:
+814820023213
+</t>
+        </is>
+      </c>
+      <c r="D2429" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1450/5617/REVO_8_XS_S_Hero__59990.1709312658.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2429" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:22:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2430">
+      <c r="A2430" t="inlineStr">
+        <is>
+          <t>REVO 8 SW-B V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2430" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C2430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 SW-B V3
+UPC:
+810042173064
+</t>
+        </is>
+      </c>
+      <c r="D2430" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1449/5624/REVO_8_SW_B_Hero__54808.1709313038.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2430" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:22:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2431">
+      <c r="A2431" t="inlineStr">
+        <is>
+          <t>REVO 8-SWW | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2431" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C2431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-SWW
+UPC:
+814820022322
+</t>
+        </is>
+      </c>
+      <c r="D2431" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1448/5667/REVO_8_SW_W_Hero__17640.1709324663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2431" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:22:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2432">
+      <c r="A2432" t="inlineStr">
+        <is>
+          <t>REVO 8-XWB | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2432" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C2432" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XWB
+UPC:
+814820022339
+</t>
+        </is>
+      </c>
+      <c r="D2432" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1447/5637/REVO_8_XW_B_Hero__85483.1709313935.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2432" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:22:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2433">
+      <c r="A2433" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2433" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C2433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W RGB
+UPC:
+814820027518
+</t>
+        </is>
+      </c>
+      <c r="D2433" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1445/5419/RECON_6-XS_Front_Hero_G__57907.1708962243.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2433" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:22:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2434">
+      <c r="A2434" t="inlineStr">
+        <is>
+          <t>RECON 6-S RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2434" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C2434" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S RGB
+UPC:
+814820027310
+</t>
+        </is>
+      </c>
+      <c r="D2434" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1444/5405/RECON_6-XS_Hero_G__00191.1708962100.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2434" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:22:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2435">
+      <c r="A2435" t="inlineStr">
+        <is>
+          <t>RECON 8 XW-W RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2435" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C2435" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8 XW-W RGB
+UPC:
+814820027525
+</t>
+        </is>
+      </c>
+      <c r="D2435" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1443/5393/RECON_8-XS_Front_Right_Hero_G__13110.1708960108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2435" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:22:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2436">
+      <c r="A2436" t="inlineStr">
+        <is>
+          <t>RECON 8-S RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2436" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C2436" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-S RGB
+UPC:
+814820027334
+</t>
+        </is>
+      </c>
+      <c r="D2436" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1442/5388/RECON_8-XS_Front_Right_Hero_G__30821.1708960025.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2436" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:22:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2437">
+      <c r="A2437" t="inlineStr">
+        <is>
+          <t>RECON 5-S | RECON™ Series 5.25-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B2437" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C2437" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 5-S
+UPC:
+814820027549
+</t>
+        </is>
+      </c>
+      <c r="D2437" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1439/5403/RECON_5-XS_Hero__02225.1708961993.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2437" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:22:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2438">
+      <c r="A2438" t="inlineStr">
+        <is>
+          <t>RECON 6-S | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B2438" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C2438" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S
+UPC:
+814820027303
+</t>
+        </is>
+      </c>
+      <c r="D2438" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1289/5427/RECON_6-XS_Hero__59634.1708962364.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2438" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:22:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2439">
+      <c r="A2439" t="inlineStr">
+        <is>
+          <t>RECON 6-BG | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black Grilles</t>
+        </is>
+      </c>
+      <c r="B2439" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C2439" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG
+UPC:
+814820027501
+</t>
+        </is>
+      </c>
+      <c r="D2439" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1288/5432/RECON_6-XS_Front_Hero__48179.1708962424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2439" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:22:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2440">
+      <c r="A2440" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White Grilles</t>
+        </is>
+      </c>
+      <c r="B2440" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C2440" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W
+UPC:
+814820027624
+</t>
+        </is>
+      </c>
+      <c r="D2440" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1287/5438/RECON_6-XS_Front_Hero__59396.1708962477.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2440" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2441">
+      <c r="A2441" t="inlineStr">
+        <is>
+          <t>REVO 6-XWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2441" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C2441" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XWW
+UPC:
+814820023053
+</t>
+        </is>
+      </c>
+      <c r="D2441" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1286/5669/REVO_6_XW_W_Hero__12806.1709581449.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2441" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2442">
+      <c r="A2442" t="inlineStr">
+        <is>
+          <t>REVO 6-XSW-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2442" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C2442" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSW-SS
+UPC:
+814820023060
+</t>
+        </is>
+      </c>
+      <c r="D2442" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1285/5677/REVO_6_XS_W_SS_Hero__51031.1709581486.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2442" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2443">
+      <c r="A2443" t="inlineStr">
+        <is>
+          <t>REVO 6-SWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2443" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C2443" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWW
+UPC:
+814820022292
+</t>
+        </is>
+      </c>
+      <c r="D2443" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1284/5683/REVO_6_SW_W_Hero__76882.1709581516.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2443" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2444">
+      <c r="A2444" t="inlineStr"/>
+      <c r="B2444" t="inlineStr"/>
+      <c r="C2444" t="inlineStr"/>
+      <c r="D2444" t="inlineStr"/>
+      <c r="E2444" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2445">
+      <c r="A2445" t="inlineStr">
+        <is>
+          <t>REVO 6-XSG-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2445" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C2445" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSG-SS
+UPC:
+814820023176
+</t>
+        </is>
+      </c>
+      <c r="D2445" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1282/5693/REVO_6_XS_G_SS_Hero__95565.1709581601.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2445" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2446">
+      <c r="A2446" t="inlineStr">
+        <is>
+          <t>REVO 6-XWB | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2446" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C2446" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XWB
+UPC:
+814820023190
+</t>
+        </is>
+      </c>
+      <c r="D2446" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1281/5699/REVO_6_XW_B_Hero__61923.1709581634.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2446" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2447">
+      <c r="A2447" t="inlineStr">
+        <is>
+          <t>REVO 6 XS-B-SS V3 | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2447" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="C2447" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 XS-B-SS V3
+UPC:
+810042170148
+</t>
+        </is>
+      </c>
+      <c r="D2447" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1280/5715/REVO_6_XS_B_SS_Hero__67615.1709581844.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2447" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2448">
+      <c r="A2448" t="inlineStr">
+        <is>
+          <t>REVO 6-SWB | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2448" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C2448" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWB
+UPC:
+814820022308
+</t>
+        </is>
+      </c>
+      <c r="D2448" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1279/5709/REVO_6_SW_B_Hero__22160.1709581813.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2448" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2449">
+      <c r="A2449" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2449" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C2449" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-B S2
+UPC:
+814820024715
+</t>
+        </is>
+      </c>
+      <c r="D2449" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1277/5571/REVO_CX10_SW_B_Hero__55586.1709151911.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2449" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2450">
+      <c r="A2450" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-S S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2450" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C2450" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-S S2
+UPC:
+814820024760
+</t>
+        </is>
+      </c>
+      <c r="D2450" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1276/5588/REVO_CX10_XS_S_Hero__06379.1709231959.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2450" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2451">
+      <c r="A2451" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2451" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C2451" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-B S2
+UPC:
+814820024777
+</t>
+        </is>
+      </c>
+      <c r="D2451" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1275/5601/REVO_CX10_XW_B_Hero__80563.1709232713.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2451" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2452">
+      <c r="A2452" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2452" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C2452" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-W S2
+UPC:
+814820024784
+</t>
+        </is>
+      </c>
+      <c r="D2452" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1274/5606/REVO_CX10_XW_W_Hero__14177.1709237050.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2452" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2453">
+      <c r="A2453" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-B-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2453" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C2453" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-B-SS S2
+UPC:
+814820024739
+</t>
+        </is>
+      </c>
+      <c r="D2453" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1273/5594/REVO_CX10_XS_B_SS_Hero__29022.1709232385.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2453" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2454">
+      <c r="A2454" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-G-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2454" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C2454" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-G-SS S2
+UPC:
+814820024753
+</t>
+        </is>
+      </c>
+      <c r="D2454" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1272/5580/REVO_CX10_XS_G_SS_Hero__23286.1709230163.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2454" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2455">
+      <c r="A2455" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-W-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2455" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C2455" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-W-SS S2
+UPC:
+814820024746
+</t>
+        </is>
+      </c>
+      <c r="D2455" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1271/5610/REVO_CX10_XS_W_SS_Hero__86437.1709237352.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2455" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2456">
+      <c r="A2456" t="inlineStr">
+        <is>
+          <t>REV 10 HD White | Wet Sounds REV HD Series 10" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B2456" t="inlineStr">
+        <is>
+          <t>$1,959.99</t>
+        </is>
+      </c>
+      <c r="C2456" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-W-X
+UPC:
+810042177512
+</t>
+        </is>
+      </c>
+      <c r="D2456" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1673/4823/REV10_HD_W_XZ_Hero_R__75858.1675269054.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2456" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2457">
+      <c r="A2457" t="inlineStr">
+        <is>
+          <t>REV 10 HD Black | Wet Sounds REV HD Series 10" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B2457" t="inlineStr">
+        <is>
+          <t>$1,959.99</t>
+        </is>
+      </c>
+      <c r="C2457" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-B-X
+UPC:
+810042177307
+</t>
+        </is>
+      </c>
+      <c r="D2457" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1669/4777/REV12_HD_B_XZ_Hero_R__25053.1673993030.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2457" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2458">
+      <c r="A2458" t="inlineStr">
+        <is>
+          <t>REV 12 HD White | Wet Sounds REV HD Series 12" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B2458" t="inlineStr">
+        <is>
+          <t>$2,309.99</t>
+        </is>
+      </c>
+      <c r="C2458" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-W-X
+UPC:
+810042177031
+</t>
+        </is>
+      </c>
+      <c r="D2458" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1649/4740/REV12_HD_W_XZ_Hero_R__07359.1672241311.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2458" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2459">
+      <c r="A2459" t="inlineStr">
+        <is>
+          <t>REV8™ White V2 | Wet Sounds Revolution Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B2459" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C2459" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D2459" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1640/4375/REV8_W_Web_Hero__78931.1654888304.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2459" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2460">
+      <c r="A2460" t="inlineStr">
+        <is>
+          <t>REV8™ Black V2 | Wet Sounds Revolution Series 8" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B2460" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C2460" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D2460" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1639/4369/REV8_B_Web_Hero__69496.1646949336.1280.1280__81274.1654887818.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2460" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2461">
+      <c r="A2461" t="inlineStr">
+        <is>
+          <t>REV10™ White V2 | Wet Sounds Revolution Series 10" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B2461" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C2461" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D2461" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1638/4359/REV10_W_Web_Hero__38956.1654887066.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2461" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2462">
+      <c r="A2462" t="inlineStr">
+        <is>
+          <t>REV10™ Black V2 | Wet Sounds Revolution Series 10" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B2462" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C2462" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D2462" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1637/4351/REV10_B_Web_Hero__57402.1647007395.1280.1280__29553.1654886710.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2462" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2463">
+      <c r="A2463" t="inlineStr">
+        <is>
+          <t>REV 410 Black V2 | Wet Sounds Revolution Series Dual 10" Black Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B2463" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C2463" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D2463" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1636/4345/REV410_B_X_Web_Front___24105.1654881808.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2463" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2464">
+      <c r="A2464" t="inlineStr">
+        <is>
+          <t>REV 410 White V2 | Wet Sounds Revolution Series Dual 10" White Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B2464" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C2464" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D2464" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1635/4342/REV410_W_X_Web_Front___65923.1647007018.1280.1280__51826.1654881737.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2464" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2465">
+      <c r="A2465" t="inlineStr">
+        <is>
+          <t>ICON8™ White V2  | Wet Sounds ICON Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B2465" t="inlineStr">
+        <is>
+          <t>$599.99 - $1,349.99</t>
+        </is>
+      </c>
+      <c r="C2465" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ICON 8-W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D2465" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1634/4328/ICON8_W_Web_Hero__40196.1654880484.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2465" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2466">
+      <c r="A2466" t="inlineStr">
+        <is>
+          <t>REV 12 HD Black | Wet Sounds REV HD Series 12" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B2466" t="inlineStr">
+        <is>
+          <t>$2,309.99</t>
+        </is>
+      </c>
+      <c r="C2466" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-B-X
+UPC:
+810042176836
+</t>
+        </is>
+      </c>
+      <c r="D2466" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1633/4724/REV12_HD_B_XZ_Hero_R__98406.1671112247.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2466" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2467">
+      <c r="A2467" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-BG | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2467" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C2467" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-BG
+UPC:
+810042171824
+</t>
+        </is>
+      </c>
+      <c r="D2467" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1629/5864/RECON_6_Pod_BG_Hero_G__07846.1713548018.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2467" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2468">
+      <c r="A2468" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-B | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2468" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C2468" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-B
+UPC:
+814820027457
+</t>
+        </is>
+      </c>
+      <c r="D2468" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1332/5857/RECON_6_Pod_S_Hero_G__70124.1713547935.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2468" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2469">
+      <c r="A2469" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-W | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2469" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C2469" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-W
+UPC:
+814820027464
+</t>
+        </is>
+      </c>
+      <c r="D2469" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1331/5851/RECON_6_Pod_XW_Hero_G__46069.1713547846.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2469" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2470">
+      <c r="A2470" t="inlineStr">
+        <is>
+          <t>ICON8™ Black V2 | Wet Sounds ICON Series 8" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B2470" t="inlineStr">
+        <is>
+          <t>$1,049.99 - $1,349.99</t>
+        </is>
+      </c>
+      <c r="C2470" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ICON 8-B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D2470" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1330/3705/ICON8_B_Web_Hero__60943.1646946843.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2470" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2471">
+      <c r="A2471" t="inlineStr">
+        <is>
+          <t>WS-MC-5 | Wet Sounds™ AM/FM/Digital Tuner Media Center</t>
+        </is>
+      </c>
+      <c r="B2471" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C2471" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-5
+UPC:
+810042171596
+</t>
+        </is>
+      </c>
+      <c r="D2471" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1615/5317/MC-5_Hero_Image_Web__90008.1702572189.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2471" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2472">
+      <c r="A2472" t="inlineStr">
+        <is>
+          <t>WWX-DZ-BT | Wet Sounds™ Dual Zone Bluetooth Controller</t>
+        </is>
+      </c>
+      <c r="B2472" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C2472" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WWX-DZ-BT
+UPC:
+810042170803
+</t>
+        </is>
+      </c>
+      <c r="D2472" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1565/4543/DZ_BT_Front__15731.1666361204.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2472" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2473">
+      <c r="A2473" t="inlineStr">
+        <is>
+          <t>WS-420 SQ | Wet Sounds™ Marine Multi Zone 4-Band Parametric Equalizer</t>
+        </is>
+      </c>
+      <c r="B2473" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C2473" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-420 SQ
+UPC:
+853414005105
+</t>
+        </is>
+      </c>
+      <c r="D2473" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1250/4427/420SQ_Front_with_Mic__47339.1658239355.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2473" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2474">
+      <c r="A2474" t="inlineStr">
+        <is>
+          <t>WW-BT UR | Wet Sounds™ Marine Bluetooth Universal Receiver</t>
+        </is>
+      </c>
+      <c r="B2474" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C2474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WW-BT UR
+UPC:
+814820024555
+</t>
+        </is>
+      </c>
+      <c r="D2474" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1249/4547/BT_UR_Front__46259.1666361333.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2474" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2475">
+      <c r="A2475" t="inlineStr">
+        <is>
+          <t>WW-BT VC-V2 | Wet Sounds™ Marine Bluetooth Knob With Volume Control</t>
+        </is>
+      </c>
+      <c r="B2475" t="inlineStr">
+        <is>
+          <t>$129.99</t>
+        </is>
+      </c>
+      <c r="C2475" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WW-BT VC-V2
+UPC:
+814820023022
+</t>
+        </is>
+      </c>
+      <c r="D2475" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1248/4536/BT_VC_Web_1__79246.1666361101.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2475" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2476">
+      <c r="A2476" t="inlineStr">
+        <is>
+          <t>WW-BT RS | Wet Sounds™ Marine Bluetooth Rocker Switch With Volume Control</t>
+        </is>
+      </c>
+      <c r="B2476" t="inlineStr">
+        <is>
+          <t>$129.99</t>
+        </is>
+      </c>
+      <c r="C2476" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WW-BT RS
+UPC:
+814820023015
+</t>
+        </is>
+      </c>
+      <c r="D2476" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1247/4551/BT_RS_Front__57291.1666361561.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2476" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2477">
+      <c r="A2477" t="inlineStr">
+        <is>
+          <t>WS-420 BT | Wet Sounds™ Marine Multi Zone 4-Band Parametric Equalizer w/ Integrated Bluetooth®</t>
+        </is>
+      </c>
+      <c r="B2477" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C2477" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-420 BT
+UPC:
+853414005150
+</t>
+        </is>
+      </c>
+      <c r="D2477" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1246/4430/Front_420_BT_2__22878.1658239507.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2477" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2478">
+      <c r="A2478" t="inlineStr">
+        <is>
+          <t>WS-220 BT | Wet Sounds™ Marine 4-Zone Level Controller w/ Integrated Bluetooth®</t>
+        </is>
+      </c>
+      <c r="B2478" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C2478" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-220 BT
+UPC:
+814820023268
+</t>
+        </is>
+      </c>
+      <c r="D2478" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1245/4432/2_220BT_Front__40363.1658239691.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2478" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2479">
+      <c r="A2479" t="inlineStr">
+        <is>
+          <t>WS-MC-20 | Wet Sounds™ 2-Zone Media Center w/ SiriusXM-Ready® and NMEA 2000 Connectivity</t>
+        </is>
+      </c>
+      <c r="B2479" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C2479" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-20
+UPC:
+814820029888
+</t>
+        </is>
+      </c>
+      <c r="D2479" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1590/5319/MC-20_Hero_Image_Web__72689.1702572289.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2479" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2480">
+      <c r="A2480" t="inlineStr">
+        <is>
+          <t>WS-MC-2 | Wet Sounds™ SiriusXM-Ready® AM/FM/Weather Band Media Center</t>
+        </is>
+      </c>
+      <c r="B2480" t="inlineStr">
+        <is>
+          <t>$369.99</t>
+        </is>
+      </c>
+      <c r="C2480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-2
+UPC:
+814820025002
+</t>
+        </is>
+      </c>
+      <c r="D2480" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1243/5311/MC-2_Hero_Image_Web__44421.1702572108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2480" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2481">
+      <c r="A2481" t="inlineStr">
+        <is>
+          <t>WS-MC-1 | Wet Sounds™ 4 Zone Bluetooth® Marine Media Center</t>
+        </is>
+      </c>
+      <c r="B2481" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C2481" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WS-MC-1
+UPC:
+814820025026
+</t>
+        </is>
+      </c>
+      <c r="D2481" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1242/5308/MC-1_Hero_Image_Web__34655.1702567424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2481" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2482">
+      <c r="A2482" t="inlineStr">
+        <is>
+          <t>Sinister-SDX2 | Wet Sounds 2 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B2482" t="inlineStr">
+        <is>
+          <t>$999.99</t>
+        </is>
+      </c>
+      <c r="C2482" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+Sinister-SDX2
+UPC:
+814820024616
+</t>
+        </is>
+      </c>
+      <c r="D2482" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1270/4142/Sinister_SDX2_Front__83389.1650295696.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2482" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2483">
+      <c r="A2483" t="inlineStr">
+        <is>
+          <t>Sinister-SDX4 | Wet Sounds 4 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B2483" t="inlineStr">
+        <is>
+          <t>$1,079.99</t>
+        </is>
+      </c>
+      <c r="C2483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+Sinister-SDX4
+UPC:
+814820024623
+</t>
+        </is>
+      </c>
+      <c r="D2483" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1269/4148/Sinister_SDX4_Front__15417.1650295937.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2483" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2484">
+      <c r="A2484" t="inlineStr">
+        <is>
+          <t>Sinister-SDX6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B2484" t="inlineStr">
+        <is>
+          <t>$1,699.99</t>
+        </is>
+      </c>
+      <c r="C2484" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+Sinister-SDX6
+UPC:
+814820024630
+</t>
+        </is>
+      </c>
+      <c r="D2484" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1268/4155/Sinister_SDX6_Front__31215.1650296150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2484" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2485">
+      <c r="A2485" t="inlineStr">
+        <is>
+          <t>Sinister-SDX2500 | Wet Sounds Class-D Monoblock Subwoofer Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B2485" t="inlineStr">
+        <is>
+          <t>$1,899.99</t>
+        </is>
+      </c>
+      <c r="C2485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+Sinister-SDX2500
+UPC:
+814820025910
+</t>
+        </is>
+      </c>
+      <c r="D2485" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1267/2384/1_SDX_2500__36161__26701.1637194846.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2485" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2486">
+      <c r="A2486" t="inlineStr">
+        <is>
+          <t>SYN-DX2 | Wet Sounds 2 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B2486" t="inlineStr">
+        <is>
+          <t>$679.99</t>
+        </is>
+      </c>
+      <c r="C2486" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+SYN-DX2
+UPC:
+814820022506
+</t>
+        </is>
+      </c>
+      <c r="D2486" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1266/2531/1_DX_2__47232__85619.1637194871.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2486" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2487">
+      <c r="A2487" t="inlineStr">
+        <is>
+          <t>SYN-DX4 | Wet Sounds 4 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B2487" t="inlineStr">
+        <is>
+          <t>$1,079.99</t>
+        </is>
+      </c>
+      <c r="C2487" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+SYN-DX4
+UPC:
+814820022537
+</t>
+        </is>
+      </c>
+      <c r="D2487" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1265/2544/1_DX_4__30904__39249.1637593872.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2487" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2488">
+      <c r="A2488" t="inlineStr">
+        <is>
+          <t>SYN-DX2.3 HP | Wet Sounds 2 Channel High Power Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B2488" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C2488" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+SYN-DX2.3 HP
+UPC:
+814820024562
+</t>
+        </is>
+      </c>
+      <c r="D2488" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1264/2536/1_DX_HP__89213__65593.1637194872.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2488" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2489">
+      <c r="A2489" t="inlineStr">
+        <is>
+          <t>SYN-DX6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B2489" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="C2489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+SYN-DX6
+UPC:
+814820022568
+</t>
+        </is>
+      </c>
+      <c r="D2489" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1263/2546/1_DX_6__09919__62939.1637194874.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2489" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2490">
+      <c r="A2490" t="inlineStr">
+        <is>
+          <t>HTX-1 | Wet Sounds Class-D Monoblock Subwoofer Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B2490" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C2490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-1
+UPC:
+814820022209
+</t>
+        </is>
+      </c>
+      <c r="D2490" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1262/3437/1_HTX_1__66896.1642091392.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2490" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2491">
+      <c r="A2491" t="inlineStr">
+        <is>
+          <t>HTX-2 | Wet Sounds 2 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B2491" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C2491" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-2
+UPC:
+814820022179
+</t>
+        </is>
+      </c>
+      <c r="D2491" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1261/1579/1_HTX_2__29615__16659.1637194674.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2491" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2492">
+      <c r="A2492" t="inlineStr">
+        <is>
+          <t>HTX-4 | Wet Sounds 4 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B2492" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C2492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-4
+UPC:
+814820022155
+</t>
+        </is>
+      </c>
+      <c r="D2492" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1260/1584/1_HTX_4__75666__26453.1637194675.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2492" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2493">
+      <c r="A2493" t="inlineStr">
+        <is>
+          <t>HTX-6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B2493" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="C2493" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-6
+UPC:
+814820022162
+</t>
+        </is>
+      </c>
+      <c r="D2493" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1259/1589/1_HTX_6__73141__79749.1642096762.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2493" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2494">
+      <c r="A2494" t="inlineStr">
+        <is>
+          <t>STX MICRO-1 | Wet Sounds Compact Chassis Class-D Monoblock Marine A</t>
+        </is>
+      </c>
+      <c r="B2494" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C2494" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-1
+UPC:
+814820023329
+</t>
+        </is>
+      </c>
+      <c r="D2494" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1258/2520/Micro_STX_Hero__81706__61326.1637194869.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2494" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2495">
+      <c r="A2495" t="inlineStr">
+        <is>
+          <t>STX MICRO-4 | Wet Sounds Compact Chassis Class-D 4-Ch Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B2495" t="inlineStr">
+        <is>
+          <t>$439.99</t>
+        </is>
+      </c>
+      <c r="C2495" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-4
+UPC:
+814820023336
+</t>
+        </is>
+      </c>
+      <c r="D2495" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1257/2526/Micro_STX_Hero__17041__18108.1637194870.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2495" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2496">
+      <c r="A2496" t="inlineStr">
+        <is>
+          <t>REVO 10 HP S4 V3 | Wet Sounds REVO Series 10-inch High-Power Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B2496" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C2496" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 HP S4 V3
+UPC:
+810042171763
+</t>
+        </is>
+      </c>
+      <c r="D2496" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1703/5455/REVO_10_V3_Black_Subwoofer_Front_Right_View__01889.1709138503.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2496" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2497">
+      <c r="A2497" t="inlineStr">
+        <is>
+          <t>REVO 10 FA S4 V3 | Wet Sounds REVO Series 10-inch Free-Air Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B2497" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="C2497" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 FA S4 V3
+UPC:
+810042171787
+</t>
+        </is>
+      </c>
+      <c r="D2497" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1685/5459/REVO_10_V3_Black_Subwoofer_Front_Right_View__98932.1709138599.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2497" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2498">
+      <c r="A2498" t="inlineStr">
+        <is>
+          <t>ZERO 12 S4 XZ-W | Wet Sounds Zero Series™ 12-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with White XZ Grille</t>
+        </is>
+      </c>
+      <c r="B2498" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="C2498" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 12 S4 XZ-W
+UPC:
+810042173033
+</t>
+        </is>
+      </c>
+      <c r="D2498" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1628/5555/ZERO_12_White_Front_Right_View__41353.1709140271.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2498" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2499">
+      <c r="A2499" t="inlineStr">
+        <is>
+          <t>ZERO 10 S4 XZ-W | Wet Sounds Zero Series™ 10-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with White XZ Grille</t>
+        </is>
+      </c>
+      <c r="B2499" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C2499" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 10 S4 XZ-W
+UPC:
+810042173026
+</t>
+        </is>
+      </c>
+      <c r="D2499" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1627/5545/ZERO_10_White_Front_Right_View__26419.1709140155.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2499" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2500">
+      <c r="A2500" t="inlineStr">
+        <is>
+          <t>ZERO 12 S4 XZ-B | Wet Sounds Zero Series™ 12-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with Black XZ Grille</t>
+        </is>
+      </c>
+      <c r="B2500" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="C2500" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 12 S4 XZ-B
+UPC:
+810042172784
+</t>
+        </is>
+      </c>
+      <c r="D2500" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1626/5562/ZERO_12_Black_Front_Right_View__17233.1709140318.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2500" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2501">
+      <c r="A2501" t="inlineStr">
+        <is>
+          <t>ZERO 10 S4 XZ-B | Wet Sounds Zero Series™ 10-inch 4Ω High-Output Sealed Enclosure Marine Subwoofer with Black XZ Grille</t>
+        </is>
+      </c>
+      <c r="B2501" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C2501" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 10 S4 XZ-B
+UPC:
+810042172777
+</t>
+        </is>
+      </c>
+      <c r="D2501" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1625/5550/ZERO_10_Black_Front_Right_View__68235.1709140211.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2501" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2502">
+      <c r="A2502" t="inlineStr">
+        <is>
+          <t>RECON 10 FA-BG | Wet Sounds RECON™ Series 10-inch Free-Air Marine Subwoofer - 4Ω Black with XS Black Grille</t>
+        </is>
+      </c>
+      <c r="B2502" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C2502" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 10 FA-BG
+UPC:
+814820027372
+</t>
+        </is>
+      </c>
+      <c r="D2502" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1461/5528/RECON_10_BG_Front_Right_View__28741.1709139490.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2502" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2503">
+      <c r="A2503" t="inlineStr">
+        <is>
+          <t>RECON 10 FA-S | Wet Sounds RECON™ Series 10-inch Free-Air Marine Subwoofer - 4Ω Black with XS Silver Grille</t>
+        </is>
+      </c>
+      <c r="B2503" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C2503" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 10 FA-S
+UPC:
+814820027273
+</t>
+        </is>
+      </c>
+      <c r="D2503" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1460/5531/RECON_10_XS_Front_Right_View__43611.1709139537.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2503" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2504">
+      <c r="A2504" t="inlineStr">
+        <is>
+          <t>REVO 8 FA S4-W | Wet Sounds REVO Series 8-inch Free-Air Marine Subwoofer - 4Ω White</t>
+        </is>
+      </c>
+      <c r="B2504" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C2504" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA : REVO 8 FA S4-W
+UPC:
+814820024814
+</t>
+        </is>
+      </c>
+      <c r="D2504" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1458/5442/REVO_8_FA_White_Subwoofer_Front_Right_View__82195.1709138078.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2504" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2505">
+      <c r="A2505" t="inlineStr">
+        <is>
+          <t>REVO 12 FA S4-W V2 | Wet Sounds REVO Series 12-inch Free-Air Marine Subwoofer - 4Ω White</t>
+        </is>
+      </c>
+      <c r="B2505" t="inlineStr">
+        <is>
+          <t>$319.99</t>
+        </is>
+      </c>
+      <c r="C2505" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 FA S4-W V2
+UPC:
+814820027679
+</t>
+        </is>
+      </c>
+      <c r="D2505" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1457/5485/REVO_12_FA_HP_White_Subwoofer_Front_Right_View__62198.1709138924.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2505" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2506">
+      <c r="A2506" t="inlineStr">
+        <is>
+          <t>REVO 12 FA S2-W V2 | Wet Sounds REVO Series 12-inch Free-Air Marine Subwoofer - 2Ω White</t>
+        </is>
+      </c>
+      <c r="B2506" t="inlineStr">
+        <is>
+          <t>$319.99</t>
+        </is>
+      </c>
+      <c r="C2506" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 FA S2-W V2
+UPC:
+814820027655
+</t>
+        </is>
+      </c>
+      <c r="D2506" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1456/5493/REVO_12_FA_HP_White_Subwoofer_Front_Right_View__15118.1709138983.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2506" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2507">
+      <c r="A2507" t="inlineStr">
+        <is>
+          <t>REVO 12 FA S2-B V2 | Wet Sounds REVO Series 12-inch Free-Air Marine Subwoofer - 2Ω Black</t>
+        </is>
+      </c>
+      <c r="B2507" t="inlineStr">
+        <is>
+          <t>$319.99</t>
+        </is>
+      </c>
+      <c r="C2507" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 FA S2-B V2
+UPC:
+814820027648
+</t>
+        </is>
+      </c>
+      <c r="D2507" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1455/5495/REVO_12_FA_HP_Black_Subwoofer_Front_Right_View__24966.1709139072.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2507" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2508">
+      <c r="A2508" t="inlineStr">
+        <is>
+          <t>REVO 12 FA S4-B V2 | Wet Sounds REVO Series 12-inch Free-Air Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B2508" t="inlineStr">
+        <is>
+          <t>$319.99</t>
+        </is>
+      </c>
+      <c r="C2508" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 FA S4-B V2
+UPC:
+814820027662
+</t>
+        </is>
+      </c>
+      <c r="D2508" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1454/5501/REVO_12_FA_HP_Black_Subwoofer_Front_Right_View__14078.1709139143.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2508" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2509">
+      <c r="A2509" t="inlineStr">
+        <is>
+          <t>RECON 10 FA-XW-W | Wet Sounds RECON™ Series 10-inch Free-Air Marine Subwoofer - 4Ω White with XW White Grille</t>
+        </is>
+      </c>
+      <c r="B2509" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C2509" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 10 FA-XW-W
+UPC:
+814820027532
+</t>
+        </is>
+      </c>
+      <c r="D2509" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1446/5537/RECON_10_XW_Front_Right_View__89105.1709139670.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2509" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2510">
+      <c r="A2510" t="inlineStr">
+        <is>
+          <t>REVO 10 FA S2-B V2 | Wet Sounds REVO Series 10-inch Free-Air Marine Subwoofer - 2Ω Black</t>
+        </is>
+      </c>
+      <c r="B2510" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C2510" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 FA S2-B V2
+UPC:
+814820027587
+</t>
+        </is>
+      </c>
+      <c r="D2510" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1441/5467/REVO_10_FA_HP_Black_Subwoofer_Front_Right_View__66469.1709138695.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2510" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2511">
+      <c r="A2511" t="inlineStr">
+        <is>
+          <t>REVO 10 FA S2-W V2 | Wet Sounds REVO Series 10-inch Free-Air Marine Subwoofer - 2Ω White</t>
+        </is>
+      </c>
+      <c r="B2511" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C2511" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 FA S2-W V2
+UPC:
+814820027594
+</t>
+        </is>
+      </c>
+      <c r="D2511" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1440/5472/REVO_10_FA_HP_White_Subwoofer_Front_Right_View__41986.1709138755.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2511" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2512">
+      <c r="A2512" t="inlineStr">
+        <is>
+          <t>REVO 10 FA S4-W V2 | Wet Sounds REVO Series 10-inch Free-Air Marine Subwoofer - 4Ω White</t>
+        </is>
+      </c>
+      <c r="B2512" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C2512" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 FA S4-W V2
+UPC:
+814820027617
+</t>
+        </is>
+      </c>
+      <c r="D2512" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1429/5480/REVO_10_FA_HP_White_Subwoofer_Front_Right_View__74671.1709138816.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2512" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2513">
+      <c r="A2513" t="inlineStr">
+        <is>
+          <t>REVO 8 FA S4-B | Wet Sounds REVO Series 8-inch Free-Air Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B2513" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C2513" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA : REVO 8 FA S4-B
+UPC:
+814820024807
+</t>
+        </is>
+      </c>
+      <c r="D2513" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1427/5447/REVO_8_FA_Black_Subwoofer_Front_Right_View__93660.1709138157.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2513" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2514">
+      <c r="A2514" t="inlineStr">
+        <is>
+          <t>REVO 12 HP S4 V3 | Wet Sounds REVO Series 12-inch High-Power Marine Subwoofer - 4Ω Black</t>
+        </is>
+      </c>
+      <c r="B2514" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="C2514" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 HP S4 V3
+UPC:
+810042171794
+</t>
+        </is>
+      </c>
+      <c r="D2514" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1294/5511/REVO_12_V3_Subwoofer_Front_Right__20953.1709139217.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2514" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2515">
+      <c r="A2515" t="inlineStr">
+        <is>
+          <t>REVO 12 XXX V4-B | Wet Sounds REVO Series XXX 12-inch SPL Marine Subwoofer - Dual 2Ω Black</t>
+        </is>
+      </c>
+      <c r="B2515" t="inlineStr">
+        <is>
+          <t>$999.99</t>
+        </is>
+      </c>
+      <c r="C2515" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XXX V4-B
+UPC:
+814820022261
+</t>
+        </is>
+      </c>
+      <c r="D2515" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1291/5517/REVO_XXX12_Subwoofer_Front_Right_View__84159.1709139387.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2515" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2516">
+      <c r="A2516" t="inlineStr">
+        <is>
+          <t>REVO 15 XXX V4-B | Wet Sounds REVO Series XXX 15-inch SPL Marine Subwoofer - Dual 2Ω Black</t>
+        </is>
+      </c>
+      <c r="B2516" t="inlineStr">
+        <is>
+          <t>$1,549.99</t>
+        </is>
+      </c>
+      <c r="C2516" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 15 XXX V4-B
+UPC:
+814820022254
+</t>
+        </is>
+      </c>
+      <c r="D2516" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1290/5521/REVO_XXX15_Subwoofer_Front_Right_View__42432.1709139422.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2516" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2517">
+      <c r="A2517" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Revolution Series 5x7 HLCD With Surface Mountable Roto-Mold Enclosure + Grill - White</t>
+        </is>
+      </c>
+      <c r="B2517" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C2517" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 5X7 SM-W
+UPC:
+810042170018
+</t>
+        </is>
+      </c>
+      <c r="D2517" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1564/2595/0_REV_5x7__08818__09844.1637194884.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2517" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2518">
+      <c r="A2518" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Revolution Series 6x9 HLCD With Surface Mountable Roto-Mold Enclosure + Grill - Black</t>
+        </is>
+      </c>
+      <c r="B2518" t="inlineStr">
+        <is>
+          <t>$849.99</t>
+        </is>
+      </c>
+      <c r="C2518" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 6X9 SM-B
+UPC:
+814820023121
+</t>
+        </is>
+      </c>
+      <c r="D2518" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1438/2600/1_6x9_SM_Black__24204__20541.1637194884.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2518" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2519">
+      <c r="A2519" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Revolution Series 6x9 HLCD With Surface Mountable Roto-Mold Enclosure + Grill - White</t>
+        </is>
+      </c>
+      <c r="B2519" t="inlineStr">
+        <is>
+          <t>$849.99</t>
+        </is>
+      </c>
+      <c r="C2519" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 6X9 SM-W
+UPC:
+814820023138
+</t>
+        </is>
+      </c>
+      <c r="D2519" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1437/2602/1_6x9_SM_White__22030__64737.1637194885.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2519" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2520">
+      <c r="A2520" t="inlineStr">
+        <is>
+          <t>Wet Sounds REV 696 RS | Revolution Series 6 X 9 Inch EFG™ Pro-Axial™ Speaker</t>
+        </is>
+      </c>
+      <c r="B2520" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C2520" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 696 RS
+UPC:
+814820022896
+</t>
+        </is>
+      </c>
+      <c r="D2520" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1333/2668/1_6x9_RS__72461__07501.1637194898.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2520" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2521">
+      <c r="A2521" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ Shallow Mount 6.5" Ceiling Speakers</t>
+        </is>
+      </c>
+      <c r="B2521" t="inlineStr">
+        <is>
+          <t>$269.99</t>
+        </is>
+      </c>
+      <c r="C2521" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-SMC-65
+UPC:
+810042171114
+</t>
+        </is>
+      </c>
+      <c r="D2521" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1589/4945/VS_SMC_65_Web__57267.1686758771.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2521" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2522">
+      <c r="A2522" t="inlineStr">
+        <is>
+          <t>ADP REV HD X-W | Wet Sounds WHITE X Kit For REV HD Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B2522" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C2522" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV HD X-W
+UPC:
+810042172746
+</t>
+        </is>
+      </c>
+      <c r="D2522" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1680/4860/REVHD_X_Mount_W_Back_Left__51149.1677095557.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2522" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2523">
+      <c r="A2523" t="inlineStr">
+        <is>
+          <t>ADP REV HD X-B | Wet Sounds BLACK X Kit For REV HD Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B2523" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C2523" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV HD X-B
+UPC:
+810042172739
+</t>
+        </is>
+      </c>
+      <c r="D2523" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1679/4859/REVHD_X_Mount_Back_Left__62192.1677095468.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2523" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2524">
+      <c r="A2524" t="inlineStr">
+        <is>
+          <t>ADP Malibu G5-G  | Wet Sounds Brushed Tower Speaker Adapters For The Malibu G5 Tower</t>
+        </is>
+      </c>
+      <c r="B2524" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C2524" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G5-G
+UPC:
+810042171275
+</t>
+        </is>
+      </c>
+      <c r="D2524" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1586/1503/1_Malibu_G5__12259__74117.1637194656.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2524" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2525">
+      <c r="A2525" t="inlineStr">
+        <is>
+          <t>ADP NAU-FCTA  | Wet Sounds Brushed Tower Speaker Brackets For The 2019+ Nautique Flight Control Tower Actuated (FCTA)</t>
+        </is>
+      </c>
+      <c r="B2525" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C2525" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP NAU-FCTA
+UPC:
+814820029079
+</t>
+        </is>
+      </c>
+      <c r="D2525" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1546/1509/1_Nautique_FLTA__78313__12581.1637194659.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2525" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2526">
+      <c r="A2526" t="inlineStr">
+        <is>
+          <t>ADP TC3-SXM | Wet Sounds Stainless Steel Swivel Surface Mount (No Clamp) w/ Hardware</t>
+        </is>
+      </c>
+      <c r="B2526" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C2526" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-SXM
+UPC:
+853414005655
+</t>
+        </is>
+      </c>
+      <c r="D2526" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1496/1560/1_TC3_SXM__75500__89888.1637194670.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2526" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2527">
+      <c r="A2527" t="inlineStr">
+        <is>
+          <t>ADP NAUTIQUE G  | Wet Sounds Tower Speaker Brackets For The Upper Brackets For Nautique G Tower</t>
+        </is>
+      </c>
+      <c r="B2527" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C2527" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP NAUTIQUE G
+UPC:
+814820025811
+</t>
+        </is>
+      </c>
+      <c r="D2527" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1436/1527/1_Nautique_G__82729__11690.1637194663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2527" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2528">
+      <c r="A2528" t="inlineStr">
+        <is>
+          <t>ADP TC3-F-SILVER | Wet Sounds Silver Aluminum Clamp For Tube Diameter 1 7/8” To 3”</t>
+        </is>
+      </c>
+      <c r="B2528" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C2528" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-F-SILVER
+UPC:
+853414005624
+</t>
+        </is>
+      </c>
+      <c r="D2528" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1432/1549/1_TC3_FC_SA__81562__43456.1637194668.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2528" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2529">
+      <c r="A2529" t="inlineStr">
+        <is>
+          <t>ADP TC3-F | Wet Sounds Stainless Steel Fixed Position Clamp For Tube Diameter 1 7/8” To 3”</t>
+        </is>
+      </c>
+      <c r="B2529" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C2529" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-F
+UPC:
+853414005600
+</t>
+        </is>
+      </c>
+      <c r="D2529" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1355/1547/1_TC3_FC__00488__91450.1637194666.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2529" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2530">
+      <c r="A2530" t="inlineStr">
+        <is>
+          <t>ADP TC3-F MINI | Wet Sounds Stainless Steel Fixed Position Clamp For Tube Diameter 1” To 1 7/8”</t>
+        </is>
+      </c>
+      <c r="B2530" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C2530" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-F MINI
+UPC:
+853414005631
+</t>
+        </is>
+      </c>
+      <c r="D2530" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1354/1548/1_TC3_FC_Mini__70229__76985.1637194667.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2530" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2531">
+      <c r="A2531" t="inlineStr">
+        <is>
+          <t>ADP TC3-S | Wet Sounds Stainless Steel Swivel Clamp For Tube Diameter 1 7/8” To 3”</t>
+        </is>
+      </c>
+      <c r="B2531" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C2531" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-S
+UPC:
+853414005617
+</t>
+        </is>
+      </c>
+      <c r="D2531" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1353/1553/0_TC3_SC__57230__35422.1637194668.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2531" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2532">
+      <c r="A2532" t="inlineStr">
+        <is>
+          <t>ADP TC3-S MINI | Wet Sounds Stainless Steel Swivel Clamp For Tube Diameter 1” To 1 7/8”</t>
+        </is>
+      </c>
+      <c r="B2532" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C2532" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP TC3-S MINI
+UPC:
+853414005648
+</t>
+        </is>
+      </c>
+      <c r="D2532" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1352/1557/1_Mini_Swivel_Clamp__77137__47956.1637194669.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2532" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2533">
+      <c r="A2533" t="inlineStr">
+        <is>
+          <t>ADP ILLUSION DXT  | Wet Sounds REV 10 Tower Speaker Brackets For The Malibu X Tower Lower Mount</t>
+        </is>
+      </c>
+      <c r="B2533" t="inlineStr">
+        <is>
+          <t>$129.99</t>
+        </is>
+      </c>
+      <c r="C2533" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Illusion DXT
+UPC:
+814820020915
+</t>
+        </is>
+      </c>
+      <c r="D2533" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1350/1476/1_Illusion_DXT__92533__35545.1637194651.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2533" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2534">
+      <c r="A2534" t="inlineStr">
+        <is>
+          <t>ADP REV X-B | Wet Sounds BLACK X Kit For REV And ICON Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B2534" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C2534" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV X-B
+UPC:
+814820021042
+</t>
+        </is>
+      </c>
+      <c r="D2534" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1349/1536/Black_X_Mount__86541__61693.1637194663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2534" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2535">
+      <c r="A2535" t="inlineStr">
+        <is>
+          <t>ADP REV X-W | Wet Sounds WHITE X Kit For REV And ICON Speaker Systems</t>
+        </is>
+      </c>
+      <c r="B2535" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C2535" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP REV X-W
+UPC:
+814820021059
+</t>
+        </is>
+      </c>
+      <c r="D2535" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1348/1537/White_X_Mount__90066__12854.1637194664.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2535" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2536">
+      <c r="A2536" t="inlineStr">
+        <is>
+          <t>ADP Gladiator-B | Wet Sounds Black Tower Speaker Brackets For The Centurion Gladiator Tower</t>
+        </is>
+      </c>
+      <c r="B2536" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C2536" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Gladiator-B
+UPC:
+814820020892
+</t>
+        </is>
+      </c>
+      <c r="D2536" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1347/1468/1_Centurion_Gladiator_Black__82234__48144.1637194649.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2536" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2537">
+      <c r="A2537" t="inlineStr">
+        <is>
+          <t>ADP GLADIATOR-P  | Wet Sounds POLISHED Tower Speaker Brackets For The Centurion Gladiator Brackets</t>
+        </is>
+      </c>
+      <c r="B2537" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C2537" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Gladiator-P
+UPC:
+814820020908
+</t>
+        </is>
+      </c>
+      <c r="D2537" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1346/1472/1_Centurion_Gladiator_Polished__65776__54391.1637194650.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2537" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2538">
+      <c r="A2538" t="inlineStr">
+        <is>
+          <t>ADP MALIBU G3 SINGLE-B  | Wet Sounds Black Tower Speaker Brackets For The Malibu G3 Single Speaker Mount</t>
+        </is>
+      </c>
+      <c r="B2538" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C2538" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G3 Single-B
+UPC:
+814820020977
+</t>
+        </is>
+      </c>
+      <c r="D2538" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1345/1487/1_Malibu_G3_Single_Black__82146__64795.1637194654.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2538" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2539">
+      <c r="A2539" t="inlineStr">
+        <is>
+          <t>ADP MALIBU G3 SINGLE-P  | Wet Sounds Silver Tower Speaker Brackets For The Malibu G3 Single Speaker Mount</t>
+        </is>
+      </c>
+      <c r="B2539" t="inlineStr">
+        <is>
+          <t>$199.99</t>
+        </is>
+      </c>
+      <c r="C2539" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G3 Single-P
+UPC:
+814820020984
+</t>
+        </is>
+      </c>
+      <c r="D2539" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1344/1495/1_Malibu_G3_Single__46289__10563.1637194656.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2539" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2540">
+      <c r="A2540" t="inlineStr">
+        <is>
+          <t>ADP MC BRACKET-11  | Wet Sounds Brushed Tower Speaker Brackets For The Aluminum Mastercraft MC-11 Bracket</t>
+        </is>
+      </c>
+      <c r="B2540" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="C2540" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP MC Bracket-11
+UPC:
+814820020991
+</t>
+        </is>
+      </c>
+      <c r="D2540" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1343/1504/1_MC11__55068__77297.1637194657.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2540" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2541">
+      <c r="A2541" t="inlineStr">
+        <is>
+          <t>ADP Nautique FC5-U  | Wet Sounds Tower Speaker Brackets For The Upper Brackets For Nautique FC5 Tower</t>
+        </is>
+      </c>
+      <c r="B2541" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="C2541" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Nautique FC5-U
+UPC:
+814820021011
+</t>
+        </is>
+      </c>
+      <c r="D2541" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1342/1520/1_Nautique_FC5_U__66384__59326.1637194661.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2541" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2542">
+      <c r="A2542" t="inlineStr">
+        <is>
+          <t>ADP CENTURION MAXIMUS |Wet Sounds Black Tower Speaker Brackets For The Centurion Maximus Tower</t>
+        </is>
+      </c>
+      <c r="B2542" t="inlineStr">
+        <is>
+          <t>$189.99</t>
+        </is>
+      </c>
+      <c r="C2542" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP CENTURION MAXIMUS
+UPC:
+814820020861
+</t>
+        </is>
+      </c>
+      <c r="D2542" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1341/1464/2_Centurion_Maximus__14356__62032.1637194648.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2542" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2543">
+      <c r="A2543" t="inlineStr">
+        <is>
+          <t>ADP SUPRA-FxONE | Wet Sounds Supra FxONE Upper Tower Adapter Brackets W/ Bead Blast Finish</t>
+        </is>
+      </c>
+      <c r="B2543" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C2543" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP SUPRA-FxONE
+UPC:
+814820028102
+</t>
+        </is>
+      </c>
+      <c r="D2543" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1340/1539/1_FxONE__81412__61611.1637194666.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2543" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2544">
+      <c r="A2544" t="inlineStr">
+        <is>
+          <t>ADP NAUTIQUE FC5-L  | Wet Sounds Tower Speaker Brackets For The Lower Brackets For Nautique FC5 Tower</t>
+        </is>
+      </c>
+      <c r="B2544" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C2544" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Nautique FC5-L
+UPC:
+814820021004
+</t>
+        </is>
+      </c>
+      <c r="D2544" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1339/1519/ADP-Nautique-FC5-L_MAIN-1__38608__44984.1637194660.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2544" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2545">
+      <c r="A2545" t="inlineStr">
+        <is>
+          <t>ADP NAUTIQUE Z5 DROP 12  | Wet Sounds Nautique Drop Down Bracket For The Z5 Rack W/ 12 Inch Strut Tube</t>
+        </is>
+      </c>
+      <c r="B2545" t="inlineStr">
+        <is>
+          <t>$239.99</t>
+        </is>
+      </c>
+      <c r="C2545" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Nautique Z5 Drop 12
+UPC:
+814820021028
+</t>
+        </is>
+      </c>
+      <c r="D2545" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1338/1535/ADP-Naut-Z5-Drop-12_MAIN-1__81230__46666.1637194663.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2545" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2546">
+      <c r="A2546" t="inlineStr">
+        <is>
+          <t>ADP MALIBU G3 DUAL-B  | Wet Sounds BLACK Tower Speaker Brackets For The Malibu G3 Dual Speaker Mount</t>
+        </is>
+      </c>
+      <c r="B2546" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="C2546" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ADP Malibu G3 Dual-B
+UPC:
+814820020939
+</t>
+        </is>
+      </c>
+      <c r="D2546" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1337/1483/ADP-Malibu-G3-Dual-B_MAIN-1__64841__65072.1637194652.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2546" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2547">
+      <c r="A2547" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B2547" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C2547" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XW-W GRILLE
+UPC:
+814820023435
+</t>
+        </is>
+      </c>
+      <c r="D2547" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1677/4856/1_REVO_10_XWW_Grille__24247.1675358486.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2547" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2548">
+      <c r="A2548" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 SW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B2548" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C2548" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 SW-B GRILLE
+UPC:
+814820023398
+</t>
+        </is>
+      </c>
+      <c r="D2548" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1520/4591/1_REVO_12_SWB_Grille__89371.1666364087.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2548" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2549">
+      <c r="A2549" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 SW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B2549" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C2549" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 SW-W GRILLE
+UPC:
+814820023404
+</t>
+        </is>
+      </c>
+      <c r="D2549" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1519/4587/1_REVO_12_SWW_Grille__50214.1666364049.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2549" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2550">
+      <c r="A2550" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-Black Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B2550" t="inlineStr">
+        <is>
+          <t>$109.99</t>
+        </is>
+      </c>
+      <c r="C2550" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-B-SS GRILLE
+UPC:
+814820022384
+</t>
+        </is>
+      </c>
+      <c r="D2550" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1518/4597/1_REVO_12_XSBSS_Grille__83842.1666364127.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2550" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2551">
+      <c r="A2551" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-Gunmetal Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B2551" t="inlineStr">
+        <is>
+          <t>$109.99</t>
+        </is>
+      </c>
+      <c r="C2551" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-G-SS GRILLE
+UPC:
+814820022377
+</t>
+        </is>
+      </c>
+      <c r="D2551" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1517/4601/1_REVO_12_XSGSS_Grille__30565.1666364155.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2551" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2552">
+      <c r="A2552" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-Silver Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B2552" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C2552" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-S GRILLE
+UPC:
+814820022360
+</t>
+        </is>
+      </c>
+      <c r="D2552" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1516/4589/1_REVO_12_XSS_Grille__77253.1666364074.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2552" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2553">
+      <c r="A2553" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XS-White Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B2553" t="inlineStr">
+        <is>
+          <t>$109.99</t>
+        </is>
+      </c>
+      <c r="C2553" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XS-W-SS GRILLE
+UPC:
+814820022353
+</t>
+        </is>
+      </c>
+      <c r="D2553" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1515/4595/1_REVO_12_XSWSS_Grille__39058.1666364112.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2553" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2554">
+      <c r="A2554" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B2554" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C2554" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XW-B GRILLE
+UPC:
+814820022346
+</t>
+        </is>
+      </c>
+      <c r="D2554" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1514/4593/1_REVO_12_XWB_Grille__46551.1666364097.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2554" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2555">
+      <c r="A2555" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 12 XW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B2555" t="inlineStr">
+        <is>
+          <t>$69.99</t>
+        </is>
+      </c>
+      <c r="C2555" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 XW-W GRILLE
+UPC:
+814820022278
+</t>
+        </is>
+      </c>
+      <c r="D2555" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1513/4599/1_REVO_12_XWW_Grille__15735.1666364137.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2555" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2556">
+      <c r="A2556" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B2556" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C2556" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XW-B GRILLE
+UPC:
+814820023428
+</t>
+        </is>
+      </c>
+      <c r="D2556" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1511/4573/1_REVO_10_XWB_Grille__42960.1666363805.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2556" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2557">
+      <c r="A2557" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XS-White Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B2557" t="inlineStr">
+        <is>
+          <t>$84.99</t>
+        </is>
+      </c>
+      <c r="C2557" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XS-W-SS GRILLE
+UPC:
+814820023411
+</t>
+        </is>
+      </c>
+      <c r="D2557" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1510/4575/1_REVO_10_XSWSS_Grille__72598.1666363829.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2557" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2558">
+      <c r="A2558" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XS-Silver Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B2558" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C2558" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XS-S GRILLE
+UPC:
+814820023466
+</t>
+        </is>
+      </c>
+      <c r="D2558" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1509/4567/1_REVO_10_XSS_Grille__64207.1666363752.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2558" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2559">
+      <c r="A2559" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 XS-Gunmetal Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B2559" t="inlineStr">
+        <is>
+          <t>$84.99</t>
+        </is>
+      </c>
+      <c r="C2559" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 XS-G-SS GRILLE
+UPC:
+814820023473
+</t>
+        </is>
+      </c>
+      <c r="D2559" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1508/4571/1_REVO_10_XSGSS_Grille__26329.1666363793.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2559" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2560">
+      <c r="A2560" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 SW-White Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B2560" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C2560" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 SW-W GRILLE
+UPC:
+814820023497
+</t>
+        </is>
+      </c>
+      <c r="D2560" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1506/4565/1_REVO_10_SWW_Grille__40203.1666363732.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2560" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2561">
+      <c r="A2561" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 10 SW-Black Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B2561" t="inlineStr">
+        <is>
+          <t>$54.99</t>
+        </is>
+      </c>
+      <c r="C2561" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 10 SW-B GRILLE
+UPC:
+814820023503
+</t>
+        </is>
+      </c>
+      <c r="D2561" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1505/4569/1_REVO_10_SWB_Grille__02082.1666363765.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2561" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2562">
+      <c r="A2562" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-Black Stainless Steel FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B2562" t="inlineStr">
+        <is>
+          <t>$64.99</t>
+        </is>
+      </c>
+      <c r="C2562" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-B-SS GRILLE
+UPC:
+814820024852
+</t>
+        </is>
+      </c>
+      <c r="D2562" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1504/4561/1_REVO_8_XSBSS_Grille__79541.1666363683.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2562" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2563">
+      <c r="A2563" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-Gunmetal Stainless Steel FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B2563" t="inlineStr">
+        <is>
+          <t>$64.99</t>
+        </is>
+      </c>
+      <c r="C2563" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-G-SS GRILLE
+UPC:
+814820024876
+</t>
+        </is>
+      </c>
+      <c r="D2563" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1503/4562/1_REVO_8_XSGSS_Grille__14722.1666363693.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2563" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2564">
+      <c r="A2564" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-White Stainless Steel Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B2564" t="inlineStr">
+        <is>
+          <t>$64.99</t>
+        </is>
+      </c>
+      <c r="C2564" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-W-SS GRILLE
+UPC:
+814820024869
+</t>
+        </is>
+      </c>
+      <c r="D2564" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1502/4557/1_REVO_8_XSWSS_Grille__28943.1666363543.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2564" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2565">
+      <c r="A2565" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XS-Silver FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B2565" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C2565" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XS-S GRILLE
+UPC:
+814820024821
+</t>
+        </is>
+      </c>
+      <c r="D2565" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1501/4555/1_REVO_8_XSS_Grille__95421.1666363515.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2565" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2566">
+      <c r="A2566" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XW-Black FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B2566" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C2566" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XW-B GRILLE
+UPC:
+814820024838
+</t>
+        </is>
+      </c>
+      <c r="D2566" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1500/4556/1_REVO_8_XWB_Grille__44024.1666363530.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2566" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2567">
+      <c r="A2567" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 XW-White FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B2567" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C2567" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA XW-W GRILLE
+UPC:
+814820024845
+</t>
+        </is>
+      </c>
+      <c r="D2567" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1499/4559/1_REVO_8_XWW_Grille__01114.1666363562.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2567" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2568">
+      <c r="A2568" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 SW-White FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B2568" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C2568" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA SW-W GRILLE
+UPC:
+814820024890
+</t>
+        </is>
+      </c>
+      <c r="D2568" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1498/4558/1_REVO_8_SWW_Grille__13637.1666363553.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2568" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2569">
+      <c r="A2569" t="inlineStr">
+        <is>
+          <t>Wet Sounds | REVO 8 SW-Black FA Subwoofer Grille</t>
+        </is>
+      </c>
+      <c r="B2569" t="inlineStr">
+        <is>
+          <t>$44.99</t>
+        </is>
+      </c>
+      <c r="C2569" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 FA SW-B GRILLE
+UPC:
+814820024883
+</t>
+        </is>
+      </c>
+      <c r="D2569" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1497/4560/1_REVO_8_SWB_Grille__93630.1666363571.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2569" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2570">
+      <c r="A2570" t="inlineStr">
+        <is>
+          <t>REV 12 HD XS-W GRILLE | Wet Sounds REV 12 HD XS Grille White</t>
+        </is>
+      </c>
+      <c r="B2570" t="inlineStr">
+        <is>
+          <t>$240.00</t>
+        </is>
+      </c>
+      <c r="C2570" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XS-W GRILLE
+UPC:
+810042172609
+</t>
+        </is>
+      </c>
+      <c r="D2570" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1665/4701/REV_10_HD_XS_W_Grille___42087.1668784791.1280.1280__32929.1668786228.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2570" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2571">
+      <c r="A2571" t="inlineStr">
+        <is>
+          <t>REV 12 HD XW-B GRILLE | Wet Sounds REV 12 HD XW Grille Black</t>
+        </is>
+      </c>
+      <c r="B2571" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C2571" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XW-B GRILLE
+UPC:
+810042172616
+</t>
+        </is>
+      </c>
+      <c r="D2571" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1664/4700/REV_10_HD_XW_B_Grille___44804.1668784874.1280.1280__10630.1668786179.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2571" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2572">
+      <c r="A2572" t="inlineStr">
+        <is>
+          <t>REV 12 HD XW-W GRILLE | Wet Sounds REV 12 HD XW Grille White</t>
+        </is>
+      </c>
+      <c r="B2572" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C2572" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XW-W GRILLE
+UPC:
+810042172623
+</t>
+        </is>
+      </c>
+      <c r="D2572" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1663/4699/REV_10_HD_XW_W_Grille___19216.1668784926.1280.1280__46160.1668786094.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2572" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2573">
+      <c r="A2573" t="inlineStr">
+        <is>
+          <t>REV 12 HD XZ-W GRILLE | Wet Sounds REV 12 HD XZ Grille White</t>
+        </is>
+      </c>
+      <c r="B2573" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C2573" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-W GRILLE
+UPC:
+810042172470
+</t>
+        </is>
+      </c>
+      <c r="D2573" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1662/4698/REV_10_HD_XZ_W_Grille___99703.1668785014.1280.1280__09363.1668786030.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2573" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2574">
+      <c r="A2574" t="inlineStr">
+        <is>
+          <t>REV 12 HD XZ-B GRILLE | Wet Sounds REV 12 HD XZ Grille Black</t>
+        </is>
+      </c>
+      <c r="B2574" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="C2574" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XZ-B GRILLE
+UPC:
+810042172494
+</t>
+        </is>
+      </c>
+      <c r="D2574" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1661/4697/REV_10_HD_XZ_B_Grille___55922.1668785058.1280.1280__50203.1668785972.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2574" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2575">
+      <c r="A2575" t="inlineStr">
+        <is>
+          <t>REV 12 HD XS-B GRILLE | Wet Sounds REV 12 HD XS Grille Black</t>
+        </is>
+      </c>
+      <c r="B2575" t="inlineStr">
+        <is>
+          <t>$240.00</t>
+        </is>
+      </c>
+      <c r="C2575" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 12 HD XS-B GRILLE
+UPC:
+810042172593
+</t>
+        </is>
+      </c>
+      <c r="D2575" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1660/4696/REV_10_HD_XS_B_Grille___09337.1668784735.1280.1280__46044.1668785860.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2575" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2576">
+      <c r="A2576" t="inlineStr">
+        <is>
+          <t>REV 10 HD XZ-B GRILLE | Wet Sounds REV 10 HD XZ Grille Black</t>
+        </is>
+      </c>
+      <c r="B2576" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C2576" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-B GRILLE
+UPC:
+810042172500
+</t>
+        </is>
+      </c>
+      <c r="D2576" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1659/4695/REV_10_HD_XZ_B_Grille___55922.1668785058.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2576" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2577">
+      <c r="A2577" t="inlineStr">
+        <is>
+          <t>REV 10 HD XZ-W GRILLE | Wet Sounds REV 10 HD XZ Grille White</t>
+        </is>
+      </c>
+      <c r="B2577" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C2577" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XZ-W GRILLE
+UPC:
+810042172487
+</t>
+        </is>
+      </c>
+      <c r="D2577" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1658/4694/REV_10_HD_XZ_W_Grille___99703.1668785014.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2577" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2578">
+      <c r="A2578" t="inlineStr">
+        <is>
+          <t>REV 10 HD XW-W GRILLE | Wet Sounds REV 10 HD XW Grille White</t>
+        </is>
+      </c>
+      <c r="B2578" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C2578" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XW-W GRILLE
+UPC:
+810042172586
+</t>
+        </is>
+      </c>
+      <c r="D2578" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1657/4693/REV_10_HD_XW_W_Grille___19216.1668784926.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2578" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2579">
+      <c r="A2579" t="inlineStr">
+        <is>
+          <t>REV 10 HD XW-B GRILLE | Wet Sounds REV 10 HD XW Grille Black</t>
+        </is>
+      </c>
+      <c r="B2579" t="inlineStr">
+        <is>
+          <t>$130.00</t>
+        </is>
+      </c>
+      <c r="C2579" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XW-B GRILLE
+UPC:
+810042172579
+</t>
+        </is>
+      </c>
+      <c r="D2579" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1656/4692/REV_10_HD_XW_B_Grille___44804.1668784874.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2579" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2580">
+      <c r="A2580" t="inlineStr">
+        <is>
+          <t>REV 10 HD XS-W GRILLE | Wet Sounds REV 10 HD XS Grille White</t>
+        </is>
+      </c>
+      <c r="B2580" t="inlineStr">
+        <is>
+          <t>$190.00</t>
+        </is>
+      </c>
+      <c r="C2580" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XS-W GRILLE
+UPC:
+810042172562
+</t>
+        </is>
+      </c>
+      <c r="D2580" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1655/4691/REV_10_HD_XS_W_Grille___42087.1668784791.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2580" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2581">
+      <c r="A2581" t="inlineStr">
+        <is>
+          <t>REV 10 HD XS-B GRILLE | Wet Sounds REV 10 HD XS Grille Black</t>
+        </is>
+      </c>
+      <c r="B2581" t="inlineStr">
+        <is>
+          <t>$190.00</t>
+        </is>
+      </c>
+      <c r="C2581" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 HD XS-B GRILLE
+UPC:
+810042172555
+</t>
+        </is>
+      </c>
+      <c r="D2581" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1642/4690/REV_10_HD_XS_B_Grille___09337.1668784735.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2581" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2582">
+      <c r="A2582" t="inlineStr">
+        <is>
+          <t>Revo 12 PSE | Wet Sounds Passive Radiator Subwoofer Enclosure</t>
+        </is>
+      </c>
+      <c r="B2582" t="inlineStr">
+        <is>
+          <t>$1,499.95 - $1,579.95</t>
+        </is>
+      </c>
+      <c r="C2582" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 PSE
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D2582" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1527/2054/12_PSE_XS_B__74684__29674.1637194774.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2582" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2583">
+      <c r="A2583" t="inlineStr">
+        <is>
+          <t>STEALTH AS-8 | Wet Sounds™ 8-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B2583" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C2583" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-8
+UPC:
+814820024791
+</t>
+        </is>
+      </c>
+      <c r="D2583" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1360/5740/AS-8_Front_Right__03743.1713207541.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2583" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2584">
+      <c r="A2584" t="inlineStr">
+        <is>
+          <t>STEALTH AS-6 | Wet Sounds™ 6.5-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B2584" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C2584" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-6
+UPC:
+814820023312
+</t>
+        </is>
+      </c>
+      <c r="D2584" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1293/5731/AS-6_Front_Right__07941.1713207502.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2584" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2585">
+      <c r="A2585" t="inlineStr">
+        <is>
+          <t>STEALTH AS-10 | Wet Sounds™ 10-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B2585" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C2585" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-10
+UPC:
+814820023251
+</t>
+        </is>
+      </c>
+      <c r="D2585" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1292/5748/AS-10_Front_Right__50395.1713207575.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2585" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2586">
+      <c r="A2586" t="inlineStr">
+        <is>
+          <t>REVO 8 XW-W V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2586" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C2586" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 XW-W V3
+UPC:
+810042171992
+</t>
+        </is>
+      </c>
+      <c r="D2586" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1702/5631/REVO_8_XW_W_Hero__32333.1709313500.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2586" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2587">
+      <c r="A2587" t="inlineStr">
+        <is>
+          <t>AR-5 Defender Max | Wet Sounds 5-Speaker Defender Roof Audio System</t>
+        </is>
+      </c>
+      <c r="B2587" t="inlineStr">
+        <is>
+          <t>$3,999.99</t>
+        </is>
+      </c>
+      <c r="C2587" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+AR-5 Defender Max
+UPC:
+810042176805
+</t>
+        </is>
+      </c>
+      <c r="D2587" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1699/5295/AR-5_Defender_Max_Audio_Roof_Front_View_R_Web__25866.1701290006.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2587" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2588">
+      <c r="A2588" t="inlineStr">
+        <is>
+          <t>ZERO 12 ENC | Wet Sounds™ ZERO 12-inch Rotomold Enclosure</t>
+        </is>
+      </c>
+      <c r="B2588" t="inlineStr">
+        <is>
+          <t>$369.99</t>
+        </is>
+      </c>
+      <c r="C2588" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 12 ENC
+UPC:
+810042176447
+</t>
+        </is>
+      </c>
+      <c r="D2588" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1694/5811/ZERO_12_ENC_Web_Hero_Solo__24519.1713280845.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2588" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2589">
+      <c r="A2589" t="inlineStr">
+        <is>
+          <t>AR-AMP 2CH | Wet Sounds 2-CH Amplifier for Ranger Roof Audio System</t>
+        </is>
+      </c>
+      <c r="B2589" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="C2589" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+AR-AMP 2CH
+UPC:
+810042173866
+</t>
+        </is>
+      </c>
+      <c r="D2589" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1654/5306/AR-2CH_Front_View_Web__91025.1701293245.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2589" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2590">
+      <c r="A2590" t="inlineStr">
+        <is>
+          <t>STEALTH XT 12-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B2590" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="C2590" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 12-B
+UPC:
+810042173095
+</t>
+        </is>
+      </c>
+      <c r="D2590" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1653/5275/Stealth_XT12_Hero__64541.1701045828.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2590" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2591">
+      <c r="A2591" t="inlineStr">
+        <is>
+          <t>STEALTH XT 8-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B2591" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C2591" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 8-B
+UPC:
+810042173101
+</t>
+        </is>
+      </c>
+      <c r="D2591" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1652/5276/Stealth_XT8_Hero__73552.1701045835.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2591" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2592">
+      <c r="A2592" t="inlineStr">
+        <is>
+          <t>STEALTH XT 6-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B2592" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C2592" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 6-B
+UPC:
+810042173088
+</t>
+        </is>
+      </c>
+      <c r="D2592" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1651/5277/Stealth_XT6_Hero__88966.1701045845.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2592" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2593">
+      <c r="A2593" t="inlineStr">
+        <is>
+          <t>AR-5 Ranger Crew | Wet Sounds™ 5-Speaker Ranger Roof Audio System</t>
+        </is>
+      </c>
+      <c r="B2593" t="inlineStr">
+        <is>
+          <t>$3,999.99</t>
+        </is>
+      </c>
+      <c r="C2593" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+AR-5 Ranger Crew
+UPC:
+810042173651
+</t>
+        </is>
+      </c>
+      <c r="D2593" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1643/5304/AR-5_Ranger_Crew_Audio_Roof_Front_View_R_Web__75719.1701290880.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2593" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2594">
+      <c r="A2594" t="inlineStr">
+        <is>
+          <t>REV8™ White V2 | Wet Sounds Revolution Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B2594" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C2594" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D2594" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1640/4375/REV8_W_Web_Hero__78931.1654888304.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2594" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2595">
+      <c r="A2595" t="inlineStr">
+        <is>
+          <t>REV8™ Black V2 | Wet Sounds Revolution Series 8" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B2595" t="inlineStr">
+        <is>
+          <t>$849.99 - $1,649.99</t>
+        </is>
+      </c>
+      <c r="C2595" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 8 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D2595" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1639/4369/REV8_B_Web_Hero__69496.1646949336.1280.1280__81274.1654887818.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2595" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2596">
+      <c r="A2596" t="inlineStr">
+        <is>
+          <t>REV10™ White V2 | Wet Sounds Revolution Series 10" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B2596" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C2596" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D2596" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1638/4359/REV10_W_Web_Hero__38956.1654887066.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2596" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2597">
+      <c r="A2597" t="inlineStr">
+        <is>
+          <t>REV10™ Black V2 | Wet Sounds Revolution Series 10" Black Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B2597" t="inlineStr">
+        <is>
+          <t>$1,029.99 - $1,849.99</t>
+        </is>
+      </c>
+      <c r="C2597" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 10 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D2597" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1637/4351/REV10_B_Web_Hero__57402.1647007395.1280.1280__29553.1654886710.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2597" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2598">
+      <c r="A2598" t="inlineStr">
+        <is>
+          <t>REV 410 Black V2 | Wet Sounds Revolution Series Dual 10" Black Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B2598" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C2598" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 B
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D2598" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1636/4345/REV410_B_X_Web_Front___24105.1654881808.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2598" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2599">
+      <c r="A2599" t="inlineStr">
+        <is>
+          <t>REV 410 White V2 | Wet Sounds Revolution Series Dual 10" White Tower Speaker</t>
+        </is>
+      </c>
+      <c r="B2599" t="inlineStr">
+        <is>
+          <t>$1,699.99 - $1,999.99</t>
+        </is>
+      </c>
+      <c r="C2599" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REV 410 W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D2599" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1635/4342/REV410_W_X_Web_Front___65923.1647007018.1280.1280__51826.1654881737.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2599" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2600">
+      <c r="A2600" t="inlineStr">
+        <is>
+          <t>ICON8™ White V2  | Wet Sounds ICON Series 8" White Tower Speakers</t>
+        </is>
+      </c>
+      <c r="B2600" t="inlineStr">
+        <is>
+          <t>$599.99 - $1,349.99</t>
+        </is>
+      </c>
+      <c r="C2600" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ICON 8-W
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D2600" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1634/4328/ICON8_W_Web_Hero__40196.1654880484.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2600" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2601">
+      <c r="A2601" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-BG | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2601" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C2601" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-BG
+UPC:
+810042171824
+</t>
+        </is>
+      </c>
+      <c r="D2601" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1629/5864/RECON_6_Pod_BG_Hero_G__07846.1713548018.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2601" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2602">
+      <c r="A2602" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-W | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B2602" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C2602" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-W
+UPC:
+810042173019
+</t>
+        </is>
+      </c>
+      <c r="D2602" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1624/5377/ZERO_8_W_Hero_Web__27066.1708447150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2602" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2603">
+      <c r="A2603" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-B | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B2603" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C2603" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-B
+UPC:
+810042172760
+</t>
+        </is>
+      </c>
+      <c r="D2603" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1623/5372/ZERO_8_B_Web_Hero__46095.1708447055.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2603" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2604">
+      <c r="A2604" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-W | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B2604" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C2604" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-W
+UPC:
+810042173002
+</t>
+        </is>
+      </c>
+      <c r="D2604" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1622/5353/ZERO_6_W_Web_Hero__48185.1708446825.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2604" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2605">
+      <c r="A2605" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-B | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B2605" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C2605" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-B
+UPC:
+810042172753
+</t>
+        </is>
+      </c>
+      <c r="D2605" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1621/5363/ZERO_6_B_Web_Hero__23189.1708446915.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2605" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2606">
+      <c r="A2606" t="inlineStr">
+        <is>
+          <t>RECON 8-BG RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2606" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C2606" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-BG RGB
+UPC:
+810042171817
+</t>
+        </is>
+      </c>
+      <c r="D2606" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1617/5383/RECON_8-XS_Front_Right_Hero_G__04334.1708959945.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2606" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2607">
+      <c r="A2607" t="inlineStr">
+        <is>
+          <t>RECON 6-BG RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2607" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C2607" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG RGB
+UPC:
+810042171800
+</t>
+        </is>
+      </c>
+      <c r="D2607" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1616/5415/RECON_6-XS_Front_Hero_G__11887.1708962166.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2607" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2608">
+      <c r="A2608" t="inlineStr">
+        <is>
+          <t>WWX-DZ-BT | Wet Sounds™ Dual Zone Bluetooth Controller</t>
+        </is>
+      </c>
+      <c r="B2608" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="C2608" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+WWX-DZ-BT
+UPC:
+810042170803
+</t>
+        </is>
+      </c>
+      <c r="D2608" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1565/4543/DZ_BT_Front__15731.1666361204.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2608" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2609">
+      <c r="A2609" t="inlineStr">
+        <is>
+          <t>Stealth HD Remote replacement</t>
+        </is>
+      </c>
+      <c r="B2609" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C2609" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+PT-STEALTH HD REMOTE
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D2609" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1533/4196/Stealth_UHD_Remote_Front__77941.1652811658.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2609" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2610">
+      <c r="A2610" t="inlineStr">
+        <is>
+          <t>Revo 12 PSE | Wet Sounds Passive Radiator Subwoofer Enclosure</t>
+        </is>
+      </c>
+      <c r="B2610" t="inlineStr">
+        <is>
+          <t>$1,499.95 - $1,579.95</t>
+        </is>
+      </c>
+      <c r="C2610" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 12 PSE
+UPC:
+</t>
+        </is>
+      </c>
+      <c r="D2610" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1527/2054/12_PSE_XS_B__74684__29674.1637194774.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2610" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2611">
+      <c r="A2611" t="inlineStr">
+        <is>
+          <t>STEALTH-10 CORE-W | Wet Sounds STEALTH CORE 10 Speaker Non-Amplified Universal Soundbar</t>
+        </is>
+      </c>
+      <c r="B2611" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C2611" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-10 CORE-W
+UPC:
+814820023145
+</t>
+        </is>
+      </c>
+      <c r="D2611" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1482/3363/1_Stealth_10_Core_W_Web__90688.1642004847.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2611" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2612">
+      <c r="A2612" t="inlineStr">
+        <is>
+          <t>STEALTH-10 ULTRA HD-W | Wet Sounds All-In-One Amplified Bluetooth®  Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B2612" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C2612" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-10 ULTRA HD-W
+UPC:
+814820023282
+</t>
+        </is>
+      </c>
+      <c r="D2612" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1480/3408/1_Stealth_10_UHD_W__97540.1642008122.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2612" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2613">
+      <c r="A2613" t="inlineStr">
+        <is>
+          <t>STEALTH-6 ULTRA HD-W | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B2613" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="C2613" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-6 ULTRA HD-W
+UPC:
+814820023305
+</t>
+        </is>
+      </c>
+      <c r="D2613" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1479/3412/1_Stealth_6_UHD_W__23067.1642009031.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2613" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2614">
+      <c r="A2614" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2614" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C2614" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-W S2
+UPC:
+814820024722
+</t>
+        </is>
+      </c>
+      <c r="D2614" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1459/5574/REVO_CX10_SW_W_Hero__01549.1709229069.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2614" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2615">
+      <c r="A2615" t="inlineStr">
+        <is>
+          <t>REVO 8-XSB-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2615" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C2615" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSB-SS
+UPC:
+814820023046
+</t>
+        </is>
+      </c>
+      <c r="D2615" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1453/5646/REVO_8_XS_B_SS_Hero__24569.1709314439.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2615" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2616">
+      <c r="A2616" t="inlineStr">
+        <is>
+          <t>REVO 8-XSG-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2616" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C2616" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSG-SS
+UPC:
+814820023206
+</t>
+        </is>
+      </c>
+      <c r="D2616" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1452/5655/REVO_8_XS_G_SS_Hero__58795.1709314920.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2616" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2617">
+      <c r="A2617" t="inlineStr">
+        <is>
+          <t>REVO 8-XSW-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2617" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C2617" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSW-SS
+UPC:
+814820022421
+</t>
+        </is>
+      </c>
+      <c r="D2617" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1451/5659/REVO_8_XS_W_SS_Hero__40898.1709324600.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2617" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2618">
+      <c r="A2618" t="inlineStr">
+        <is>
+          <t>REVO 8-XSS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2618" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C2618" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSS
+UPC:
+814820023213
+</t>
+        </is>
+      </c>
+      <c r="D2618" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1450/5617/REVO_8_XS_S_Hero__59990.1709312658.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2618" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2619">
+      <c r="A2619" t="inlineStr">
+        <is>
+          <t>REVO 8 SW-B V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2619" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C2619" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 SW-B V3
+UPC:
+810042173064
+</t>
+        </is>
+      </c>
+      <c r="D2619" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1449/5624/REVO_8_SW_B_Hero__54808.1709313038.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2619" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2620">
+      <c r="A2620" t="inlineStr">
+        <is>
+          <t>REVO 8-SWW | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2620" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C2620" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-SWW
+UPC:
+814820022322
+</t>
+        </is>
+      </c>
+      <c r="D2620" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1448/5667/REVO_8_SW_W_Hero__17640.1709324663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2620" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2621">
+      <c r="A2621" t="inlineStr">
+        <is>
+          <t>REVO 8-XWB | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2621" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C2621" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XWB
+UPC:
+814820022339
+</t>
+        </is>
+      </c>
+      <c r="D2621" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1447/5637/REVO_8_XW_B_Hero__85483.1709313935.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2621" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2622">
+      <c r="A2622" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2622" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C2622" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W RGB
+UPC:
+814820027518
+</t>
+        </is>
+      </c>
+      <c r="D2622" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1445/5419/RECON_6-XS_Front_Hero_G__57907.1708962243.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2622" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2623">
+      <c r="A2623" t="inlineStr">
+        <is>
+          <t>RECON 6-S RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2623" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C2623" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S RGB
+UPC:
+814820027310
+</t>
+        </is>
+      </c>
+      <c r="D2623" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1444/5405/RECON_6-XS_Hero_G__00191.1708962100.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2623" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2624">
+      <c r="A2624" t="inlineStr">
+        <is>
+          <t>RECON 8 XW-W RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2624" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C2624" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8 XW-W RGB
+UPC:
+814820027525
+</t>
+        </is>
+      </c>
+      <c r="D2624" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1443/5393/RECON_8-XS_Front_Right_Hero_G__13110.1708960108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2624" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2625">
+      <c r="A2625" t="inlineStr">
+        <is>
+          <t>RECON 8-S RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2625" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C2625" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-S RGB
+UPC:
+814820027334
+</t>
+        </is>
+      </c>
+      <c r="D2625" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1442/5388/RECON_8-XS_Front_Right_Hero_G__30821.1708960025.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2625" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2626">
+      <c r="A2626" t="inlineStr">
+        <is>
+          <t>RECON 5-S | RECON™ Series 5.25-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B2626" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C2626" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 5-S
+UPC:
+814820027549
+</t>
+        </is>
+      </c>
+      <c r="D2626" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1439/5403/RECON_5-XS_Hero__02225.1708961993.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2626" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2627">
+      <c r="A2627" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.5 | Wet Sounds Stealth Clamp For 1.5" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B2627" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C2627" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.5
+UPC:
+853414005358
+</t>
+        </is>
+      </c>
+      <c r="D2627" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1367/2414/1_1.50_RND_Clamps__21455__02143.1637194850.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2627" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:24:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2628">
+      <c r="A2628" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.75 | Wet Sounds Stealth Clamp For 1.75" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B2628" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C2628" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.75
+UPC:
+853414005365
+</t>
+        </is>
+      </c>
+      <c r="D2628" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1366/2417/1_1.75_RND_Clamps__59114__19242.1637194851.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2628" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2629">
+      <c r="A2629" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ .75 | Wet Sounds Stealth Clamp For .75" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B2629" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C2629" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ .75
+UPC:
+853414005372
+</t>
+        </is>
+      </c>
+      <c r="D2629" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1365/2427/1_0.75_Square_Clamps__66224__70772.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2629" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2630">
+      <c r="A2630" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.0 | Wet Sounds Stealth Clamp For 1" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B2630" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C2630" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.0
+UPC:
+853414005389
+</t>
+        </is>
+      </c>
+      <c r="D2630" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1364/2430/1_1.0_Square_Clamps__67269__49843.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2630" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="2631">
+      <c r="A2631" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.25 | Wet Sounds Stealth Clamp For 1.25" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B2631" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C2631" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.25
+UPC:
+853414005396
+</t>
+        </is>
+      </c>
+      <c r="D2631" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1363/2433/1_1.25_Square_Clamps__83205__21949.1637194854.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2631" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2632">
+      <c r="A2632" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 2.0 T | Wet Sounds Stealth Clamp For 2" Tube</t>
+        </is>
+      </c>
+      <c r="B2632" t="inlineStr">
+        <is>
+          <t>$42.99</t>
+        </is>
+      </c>
+      <c r="C2632" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 2.0 T
+UPC:
+810042172333
+</t>
+        </is>
+      </c>
+      <c r="D2632" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1362/2420/1_2.0_RND_Clamps__29986__47318.1680276146.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2632" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="2633">
+      <c r="A2633" t="inlineStr">
+        <is>
+          <t>ST-ADP-SLIDER BRACKET | Wet Sounds Stealth Slider Bracket For STEALTH 6 &amp; STEALTH 10 Soundbars</t>
+        </is>
+      </c>
+      <c r="B2633" t="inlineStr">
+        <is>
+          <t>$49.99</t>
+        </is>
+      </c>
+      <c r="C2633" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SLIDER BRACKET
+UPC:
+853414005891
+</t>
+        </is>
+      </c>
+      <c r="D2633" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1361/2423/1_Slider_Brackets__70189__99738.1637194852.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2633" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2634">
+      <c r="A2634" t="inlineStr">
+        <is>
+          <t>STEALTH AS-8 | Wet Sounds™ 8-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B2634" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C2634" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-8
+UPC:
+814820024791
+</t>
+        </is>
+      </c>
+      <c r="D2634" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1360/5740/AS-8_Front_Right__03743.1713207541.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2634" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="2635">
+      <c r="A2635" t="inlineStr">
+        <is>
+          <t>STEALTH-6 SURGE-B | Wet Sounds STEALTH SURGE 6 Speaker Amplified Universal Soundbar</t>
+        </is>
+      </c>
+      <c r="B2635" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C2635" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH-6 SURGE-B
+UPC:
+814820024548
+</t>
+        </is>
+      </c>
+      <c r="D2635" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1359/3378/1_Stealth_6_Surge_B_Web__61174.1642006568.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2635" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2636">
+      <c r="A2636" t="inlineStr"/>
+      <c r="B2636" t="inlineStr"/>
+      <c r="C2636" t="inlineStr"/>
+      <c r="D2636" t="inlineStr"/>
+      <c r="E2636" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2637">
+      <c r="A2637" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-B | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2637" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C2637" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-B
+UPC:
+814820027457
+</t>
+        </is>
+      </c>
+      <c r="D2637" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1332/5857/RECON_6_Pod_S_Hero_G__70124.1713547935.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2637" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2638">
+      <c r="A2638" t="inlineStr">
+        <is>
+          <t>RECON 6 POD-W | Wet Sounds™ 6.5-Inch Coaxial Tower Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2638" t="inlineStr">
+        <is>
+          <t>$379.99</t>
+        </is>
+      </c>
+      <c r="C2638" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 POD-W
+UPC:
+814820027464
+</t>
+        </is>
+      </c>
+      <c r="D2638" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1331/5851/RECON_6_Pod_XW_Hero_G__46069.1713547846.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2638" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2639">
+      <c r="A2639" t="inlineStr">
+        <is>
+          <t>STEALTH AS-6 | Wet Sounds™ 6.5-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B2639" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C2639" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-6
+UPC:
+814820023312
+</t>
+        </is>
+      </c>
+      <c r="D2639" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1293/5731/AS-6_Front_Right__07941.1713207502.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2639" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2640">
+      <c r="A2640" t="inlineStr">
+        <is>
+          <t>STEALTH AS-10 | Wet Sounds™ 10-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B2640" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C2640" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-10
+UPC:
+814820023251
+</t>
+        </is>
+      </c>
+      <c r="D2640" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1292/5748/AS-10_Front_Right__50395.1713207575.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2640" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2641">
+      <c r="A2641" t="inlineStr">
+        <is>
+          <t>RECON 6-S | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B2641" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C2641" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S
+UPC:
+814820027303
+</t>
+        </is>
+      </c>
+      <c r="D2641" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1289/5427/RECON_6-XS_Hero__59634.1708962364.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2641" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2642">
+      <c r="A2642" t="inlineStr">
+        <is>
+          <t>RECON 6-BG | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black Grilles</t>
+        </is>
+      </c>
+      <c r="B2642" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C2642" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG
+UPC:
+814820027501
+</t>
+        </is>
+      </c>
+      <c r="D2642" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1288/5432/RECON_6-XS_Front_Hero__48179.1708962424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2642" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2643">
+      <c r="A2643" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White Grilles</t>
+        </is>
+      </c>
+      <c r="B2643" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C2643" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W
+UPC:
+814820027624
+</t>
+        </is>
+      </c>
+      <c r="D2643" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1287/5438/RECON_6-XS_Front_Hero__59396.1708962477.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2643" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2644">
+      <c r="A2644" t="inlineStr">
+        <is>
+          <t>REVO 6-XWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2644" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C2644" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XWW
+UPC:
+814820023053
+</t>
+        </is>
+      </c>
+      <c r="D2644" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1286/5669/REVO_6_XW_W_Hero__12806.1709581449.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2644" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2645">
+      <c r="A2645" t="inlineStr">
+        <is>
+          <t>REVO 6-XSW-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2645" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C2645" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSW-SS
+UPC:
+814820023060
+</t>
+        </is>
+      </c>
+      <c r="D2645" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1285/5677/REVO_6_XS_W_SS_Hero__51031.1709581486.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2645" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2646">
+      <c r="A2646" t="inlineStr">
+        <is>
+          <t>REVO 6-SWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2646" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C2646" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWW
+UPC:
+814820022292
+</t>
+        </is>
+      </c>
+      <c r="D2646" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1284/5683/REVO_6_SW_W_Hero__76882.1709581516.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2646" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="2647">
+      <c r="A2647" t="inlineStr"/>
+      <c r="B2647" t="inlineStr"/>
+      <c r="C2647" t="inlineStr"/>
+      <c r="D2647" t="inlineStr"/>
+      <c r="E2647" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2648">
+      <c r="A2648" t="inlineStr">
+        <is>
+          <t>REVO 6-XSG-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2648" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C2648" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSG-SS
+UPC:
+814820023176
+</t>
+        </is>
+      </c>
+      <c r="D2648" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1282/5693/REVO_6_XS_G_SS_Hero__95565.1709581601.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2648" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2649">
+      <c r="A2649" t="inlineStr">
+        <is>
+          <t>REVO 6-XWB | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2649" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C2649" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XWB
+UPC:
+814820023190
+</t>
+        </is>
+      </c>
+      <c r="D2649" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1281/5699/REVO_6_XW_B_Hero__61923.1709581634.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2649" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2650">
+      <c r="A2650" t="inlineStr">
+        <is>
+          <t>REVO 6 XS-B-SS V3 | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2650" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="C2650" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 XS-B-SS V3
+UPC:
+810042170148
+</t>
+        </is>
+      </c>
+      <c r="D2650" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1280/5715/REVO_6_XS_B_SS_Hero__67615.1709581844.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2650" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2651">
+      <c r="A2651" t="inlineStr">
+        <is>
+          <t>REVO 6-SWB | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2651" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C2651" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWB
+UPC:
+814820022308
+</t>
+        </is>
+      </c>
+      <c r="D2651" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1279/5709/REVO_6_SW_B_Hero__22160.1709581813.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2651" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2652">
+      <c r="A2652" t="inlineStr">
+        <is>
+          <t>REVO CX-10 SW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2652" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C2652" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 SW-B S2
+UPC:
+814820024715
+</t>
+        </is>
+      </c>
+      <c r="D2652" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1277/5571/REVO_CX10_SW_B_Hero__55586.1709151911.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2652" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2653">
+      <c r="A2653" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-S S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2653" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C2653" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-S S2
+UPC:
+814820024760
+</t>
+        </is>
+      </c>
+      <c r="D2653" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1276/5588/REVO_CX10_XS_S_Hero__06379.1709231959.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2653" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2654">
+      <c r="A2654" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-B S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-B S2
+UPC:
+814820024777
+</t>
+        </is>
+      </c>
+      <c r="D2654" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1275/5601/REVO_CX10_XW_B_Hero__80563.1709232713.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2654" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="2655">
+      <c r="A2655" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XW-W S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2655" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="C2655" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XW-W S2
+UPC:
+814820024784
+</t>
+        </is>
+      </c>
+      <c r="D2655" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1274/5606/REVO_CX10_XW_W_Hero__14177.1709237050.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2655" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2656">
+      <c r="A2656" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-B-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2656" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C2656" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-B-SS S2
+UPC:
+814820024739
+</t>
+        </is>
+      </c>
+      <c r="D2656" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1273/5594/REVO_CX10_XS_B_SS_Hero__29022.1709232385.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2656" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="2657">
+      <c r="A2657" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-G-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2657" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C2657" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-G-SS S2
+UPC:
+814820024753
+</t>
+        </is>
+      </c>
+      <c r="D2657" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1272/5580/REVO_CX10_XS_G_SS_Hero__23286.1709230163.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2657" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="2658">
+      <c r="A2658" t="inlineStr">
+        <is>
+          <t>REVO CX-10 XS-W-SS S2 | REVO Series 10-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2658" t="inlineStr">
+        <is>
+          <t>$1,049.99</t>
+        </is>
+      </c>
+      <c r="C2658" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO CX-10 XS-W-SS S2
+UPC:
+814820024746
+</t>
+        </is>
+      </c>
+      <c r="D2658" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1271/5610/REVO_CX10_XS_W_SS_Hero__86437.1709237352.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2658" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2659">
+      <c r="A2659" t="inlineStr">
+        <is>
+          <t>HTX-1 | Wet Sounds Class-D Monoblock Subwoofer Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B2659" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C2659" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-1
+UPC:
+814820022209
+</t>
+        </is>
+      </c>
+      <c r="D2659" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1262/3437/1_HTX_1__66896.1642091392.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2659" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2660">
+      <c r="A2660" t="inlineStr">
+        <is>
+          <t>HTX-2 | Wet Sounds 2 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B2660" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C2660" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-2
+UPC:
+814820022179
+</t>
+        </is>
+      </c>
+      <c r="D2660" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1261/1579/1_HTX_2__29615__16659.1637194674.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2660" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2661">
+      <c r="A2661" t="inlineStr">
+        <is>
+          <t>HTX-4 | Wet Sounds 4 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B2661" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C2661" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-4
+UPC:
+814820022155
+</t>
+        </is>
+      </c>
+      <c r="D2661" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1260/1584/1_HTX_4__75666__26453.1637194675.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2661" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2662">
+      <c r="A2662" t="inlineStr">
+        <is>
+          <t>HTX-6 | Wet Sounds 6 Channel Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B2662" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="C2662" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+HTX-6
+UPC:
+814820022162
+</t>
+        </is>
+      </c>
+      <c r="D2662" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1259/1589/1_HTX_6__73141__79749.1642096762.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2662" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2663">
+      <c r="A2663" t="inlineStr">
+        <is>
+          <t>STX MICRO-1 | Wet Sounds Compact Chassis Class-D Monoblock Marine A</t>
+        </is>
+      </c>
+      <c r="B2663" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="C2663" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-1
+UPC:
+814820023329
+</t>
+        </is>
+      </c>
+      <c r="D2663" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1258/2520/Micro_STX_Hero__81706__61326.1637194869.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2663" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2664">
+      <c r="A2664" t="inlineStr">
+        <is>
+          <t>STX MICRO-4 | Wet Sounds Compact Chassis Class-D 4-Ch Marine Amplifier</t>
+        </is>
+      </c>
+      <c r="B2664" t="inlineStr">
+        <is>
+          <t>$439.99</t>
+        </is>
+      </c>
+      <c r="C2664" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STX MICRO-4
+UPC:
+814820023336
+</t>
+        </is>
+      </c>
+      <c r="D2664" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1257/2526/Micro_STX_Hero__17041__18108.1637194870.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2664" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2665">
+      <c r="A2665" t="inlineStr">
+        <is>
+          <t>REVO 8 XW-W V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2665" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C2665" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 XW-W V3
+UPC:
+810042171992
+</t>
+        </is>
+      </c>
+      <c r="D2665" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1702/5631/REVO_8_XW_W_Hero__32333.1709313500.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2665" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2666">
+      <c r="A2666" t="inlineStr">
+        <is>
+          <t>STEALTH XT 12-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B2666" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="C2666" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 12-B
+UPC:
+810042173095
+</t>
+        </is>
+      </c>
+      <c r="D2666" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1653/5275/Stealth_XT12_Hero__64541.1701045828.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2666" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2667">
+      <c r="A2667" t="inlineStr">
+        <is>
+          <t>STEALTH XT 8-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B2667" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C2667" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 8-B
+UPC:
+810042173101
+</t>
+        </is>
+      </c>
+      <c r="D2667" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1652/5276/Stealth_XT8_Hero__73552.1701045835.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2667" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2668">
+      <c r="A2668" t="inlineStr">
+        <is>
+          <t>STEALTH XT 6-B | Wet Sounds All-In-One Amplified Bluetooth® Soundbar With Remote</t>
+        </is>
+      </c>
+      <c r="B2668" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C2668" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH XT 6-B
+UPC:
+810042173088
+</t>
+        </is>
+      </c>
+      <c r="D2668" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1651/5277/Stealth_XT6_Hero__88966.1701045845.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2668" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="2669">
+      <c r="A2669" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-W | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B2669" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C2669" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-W
+UPC:
+810042173019
+</t>
+        </is>
+      </c>
+      <c r="D2669" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1624/5377/ZERO_8_W_Hero_Web__27066.1708447150.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2669" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2670">
+      <c r="A2670" t="inlineStr">
+        <is>
+          <t>ZERO 8 XZ-B | Zero Series™ 8-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B2670" t="inlineStr">
+        <is>
+          <t>$749.99</t>
+        </is>
+      </c>
+      <c r="C2670" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 8 XZ-B
+UPC:
+810042172760
+</t>
+        </is>
+      </c>
+      <c r="D2670" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1623/5372/ZERO_8_B_Web_Hero__46095.1708447055.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2670" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2671">
+      <c r="A2671" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-W | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - White</t>
+        </is>
+      </c>
+      <c r="B2671" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C2671" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-W
+UPC:
+810042173002
+</t>
+        </is>
+      </c>
+      <c r="D2671" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1622/5353/ZERO_6_W_Web_Hero__48185.1708446825.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2671" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2672">
+      <c r="A2672" t="inlineStr">
+        <is>
+          <t>ZERO 6 XZ-B | Zero Series™ 6.5-inch High-Output Component Style Coaxial Speakers - Black</t>
+        </is>
+      </c>
+      <c r="B2672" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C2672" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ZERO 6 XZ-B
+UPC:
+810042172753
+</t>
+        </is>
+      </c>
+      <c r="D2672" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1621/5363/ZERO_6_B_Web_Hero__23189.1708446915.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2672" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2673">
+      <c r="A2673" t="inlineStr">
+        <is>
+          <t>RECON 8-BG RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2673" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C2673" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-BG RGB
+UPC:
+810042171817
+</t>
+        </is>
+      </c>
+      <c r="D2673" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1617/5383/RECON_8-XS_Front_Right_Hero_G__04334.1708959945.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2673" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2674">
+      <c r="A2674" t="inlineStr">
+        <is>
+          <t>RECON 6-BG RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2674" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C2674" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG RGB
+UPC:
+810042171800
+</t>
+        </is>
+      </c>
+      <c r="D2674" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1616/5415/RECON_6-XS_Front_Hero_G__11887.1708962166.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2674" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="2675">
+      <c r="A2675" t="inlineStr">
+        <is>
+          <t>GC-AMP-KIT  | Wet Sounds Golf Cart Amp Wiring Kit for STX Micro-4</t>
+        </is>
+      </c>
+      <c r="B2675" t="inlineStr">
+        <is>
+          <t>$89.99</t>
+        </is>
+      </c>
+      <c r="C2675" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+GC-AMP-KIT
+UPC:
+810042171589
+</t>
+        </is>
+      </c>
+      <c r="D2675" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1605/1569/GC-AMP-KIT__17000__26134.1637194671.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2675" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2676">
+      <c r="A2676" t="inlineStr">
+        <is>
+          <t>GC-H4S | Wet Sounds Golf Cart Audio System Harness</t>
+        </is>
+      </c>
+      <c r="B2676" t="inlineStr">
+        <is>
+          <t>$149.99</t>
+        </is>
+      </c>
+      <c r="C2676" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+GC-H4S
+UPC:
+810042171299
+</t>
+        </is>
+      </c>
+      <c r="D2676" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1597/1571/Golf_Cart_Harness_3__59544__36842.1637194672.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2676" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2677">
+      <c r="A2677" t="inlineStr">
+        <is>
+          <t>REVO 8-XSB-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2677" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C2677" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSB-SS
+UPC:
+814820023046
+</t>
+        </is>
+      </c>
+      <c r="D2677" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1453/5646/REVO_8_XS_B_SS_Hero__24569.1709314439.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2677" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="2678">
+      <c r="A2678" t="inlineStr">
+        <is>
+          <t>REVO 8-XSG-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2678" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C2678" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSG-SS
+UPC:
+814820023206
+</t>
+        </is>
+      </c>
+      <c r="D2678" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1452/5655/REVO_8_XS_G_SS_Hero__58795.1709314920.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2678" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2679">
+      <c r="A2679" t="inlineStr">
+        <is>
+          <t>REVO 8-XSW-SS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2679" t="inlineStr">
+        <is>
+          <t>$419.99</t>
+        </is>
+      </c>
+      <c r="C2679" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSW-SS
+UPC:
+814820022421
+</t>
+        </is>
+      </c>
+      <c r="D2679" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1451/5659/REVO_8_XS_W_SS_Hero__40898.1709324600.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2679" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2680">
+      <c r="A2680" t="inlineStr">
+        <is>
+          <t>REVO 8-XSS | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2680" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C2680" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XSS
+UPC:
+814820023213
+</t>
+        </is>
+      </c>
+      <c r="D2680" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1450/5617/REVO_8_XS_S_Hero__59990.1709312658.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2680" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2681">
+      <c r="A2681" t="inlineStr">
+        <is>
+          <t>REVO 8 SW-B V3 | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2681" t="inlineStr">
+        <is>
+          <t>$599.99</t>
+        </is>
+      </c>
+      <c r="C2681" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 SW-B V3
+UPC:
+810042173064
+</t>
+        </is>
+      </c>
+      <c r="D2681" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1449/5624/REVO_8_SW_B_Hero__54808.1709313038.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2681" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2682">
+      <c r="A2682" t="inlineStr">
+        <is>
+          <t>REVO 8-SWW | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2682" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C2682" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-SWW
+UPC:
+814820022322
+</t>
+        </is>
+      </c>
+      <c r="D2682" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1448/5667/REVO_8_SW_W_Hero__17640.1709324663.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2682" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="2683">
+      <c r="A2683" t="inlineStr">
+        <is>
+          <t>REVO 8-XWB | REVO Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2683" t="inlineStr">
+        <is>
+          <t>$359.99</t>
+        </is>
+      </c>
+      <c r="C2683" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 8 : REVO 8-XWB
+UPC:
+814820022339
+</t>
+        </is>
+      </c>
+      <c r="D2683" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1447/5637/REVO_8_XW_B_Hero__85483.1709313935.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2683" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2684">
+      <c r="A2684" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2684" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C2684" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W RGB
+UPC:
+814820027518
+</t>
+        </is>
+      </c>
+      <c r="D2684" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1445/5419/RECON_6-XS_Front_Hero_G__57907.1708962243.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2684" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="2685">
+      <c r="A2685" t="inlineStr">
+        <is>
+          <t>RECON 6-S RGB | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2685" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C2685" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S RGB
+UPC:
+814820027310
+</t>
+        </is>
+      </c>
+      <c r="D2685" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1444/5405/RECON_6-XS_Hero_G__00191.1708962100.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2685" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="2686">
+      <c r="A2686" t="inlineStr">
+        <is>
+          <t>RECON 8 XW-W RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2686" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C2686" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8 XW-W RGB
+UPC:
+814820027525
+</t>
+        </is>
+      </c>
+      <c r="D2686" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1443/5393/RECON_8-XS_Front_Right_Hero_G__13110.1708960108.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2686" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2687">
+      <c r="A2687" t="inlineStr">
+        <is>
+          <t>RECON 8-S RGB | RECON™ Series 8-inch High-Output Component Style Coaxial Speakers w/ XS-Silver RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2687" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="C2687" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 8-S RGB
+UPC:
+814820027334
+</t>
+        </is>
+      </c>
+      <c r="D2687" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1442/5388/RECON_8-XS_Front_Right_Hero_G__30821.1708960025.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2687" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="2688">
+      <c r="A2688" t="inlineStr">
+        <is>
+          <t>RECON 5-S | RECON™ Series 5.25-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B2688" t="inlineStr">
+        <is>
+          <t>$229.99</t>
+        </is>
+      </c>
+      <c r="C2688" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 5-S
+UPC:
+814820027549
+</t>
+        </is>
+      </c>
+      <c r="D2688" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1439/5403/RECON_5-XS_Hero__02225.1708961993.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2688" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="2689">
+      <c r="A2689" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.5 | Wet Sounds Stealth Clamp For 1.5" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B2689" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C2689" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.5
+UPC:
+853414005358
+</t>
+        </is>
+      </c>
+      <c r="D2689" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1367/2414/1_1.50_RND_Clamps__21455__02143.1637194850.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2689" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2690">
+      <c r="A2690" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 1.75 | Wet Sounds Stealth Clamp For 1.75" Round Pipe</t>
+        </is>
+      </c>
+      <c r="B2690" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C2690" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 1.75
+UPC:
+853414005365
+</t>
+        </is>
+      </c>
+      <c r="D2690" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1366/2417/1_1.75_RND_Clamps__59114__19242.1637194851.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2690" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="2691">
+      <c r="A2691" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ .75 | Wet Sounds Stealth Clamp For .75" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B2691" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C2691" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ .75
+UPC:
+853414005372
+</t>
+        </is>
+      </c>
+      <c r="D2691" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1365/2427/1_0.75_Square_Clamps__66224__70772.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2691" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="2692">
+      <c r="A2692" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.0 | Wet Sounds Stealth Clamp For 1" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B2692" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C2692" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.0
+UPC:
+853414005389
+</t>
+        </is>
+      </c>
+      <c r="D2692" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1364/2430/1_1.0_Square_Clamps__67269__49843.1637194853.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2692" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="2693">
+      <c r="A2693" t="inlineStr">
+        <is>
+          <t>ST-ADP-SQ 1.25 | Wet Sounds Stealth Clamp For 1.25" Square Tubing</t>
+        </is>
+      </c>
+      <c r="B2693" t="inlineStr">
+        <is>
+          <t>$32.99</t>
+        </is>
+      </c>
+      <c r="C2693" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SQ 1.25
+UPC:
+853414005396
+</t>
+        </is>
+      </c>
+      <c r="D2693" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1363/2433/1_1.25_Square_Clamps__83205__21949.1637194854.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2693" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2694">
+      <c r="A2694" t="inlineStr">
+        <is>
+          <t>ST-ADP-RND 2.0 T | Wet Sounds Stealth Clamp For 2" Tube</t>
+        </is>
+      </c>
+      <c r="B2694" t="inlineStr">
+        <is>
+          <t>$42.99</t>
+        </is>
+      </c>
+      <c r="C2694" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-RND 2.0 T
+UPC:
+810042172333
+</t>
+        </is>
+      </c>
+      <c r="D2694" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1362/2420/1_2.0_RND_Clamps__29986__47318.1680276146.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2694" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="2695">
+      <c r="A2695" t="inlineStr">
+        <is>
+          <t>ST-ADP-SLIDER BRACKET | Wet Sounds Stealth Slider Bracket For STEALTH 6 &amp; STEALTH 10 Soundbars</t>
+        </is>
+      </c>
+      <c r="B2695" t="inlineStr">
+        <is>
+          <t>$49.99</t>
+        </is>
+      </c>
+      <c r="C2695" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+ST-ADP-SLIDER BRACKET
+UPC:
+853414005891
+</t>
+        </is>
+      </c>
+      <c r="D2695" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1361/2423/1_Slider_Brackets__70189__99738.1637194852.jpg?c=1</t>
+        </is>
+      </c>
+      <c r="E2695" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2696">
+      <c r="A2696" t="inlineStr">
+        <is>
+          <t>STEALTH AS-8 | Wet Sounds™ 8-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B2696" t="inlineStr">
+        <is>
+          <t>$699.99</t>
+        </is>
+      </c>
+      <c r="C2696" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-8
+UPC:
+814820024791
+</t>
+        </is>
+      </c>
+      <c r="D2696" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1360/5740/AS-8_Front_Right__03743.1713207541.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2696" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="2697">
+      <c r="A2697" t="inlineStr">
+        <is>
+          <t>STEALTH AS-6 | Wet Sounds™ 6.5-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B2697" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="C2697" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-6
+UPC:
+814820023312
+</t>
+        </is>
+      </c>
+      <c r="D2697" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1293/5731/AS-6_Front_Right__07941.1713207502.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2697" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2698">
+      <c r="A2698" t="inlineStr">
+        <is>
+          <t>STEALTH AS-10 | Wet Sounds™ 10-inch Powered Marine Sub Enclosure</t>
+        </is>
+      </c>
+      <c r="B2698" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C2698" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+STEALTH AS-10
+UPC:
+814820023251
+</t>
+        </is>
+      </c>
+      <c r="D2698" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1292/5748/AS-10_Front_Right__50395.1713207575.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2698" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="2699">
+      <c r="A2699" t="inlineStr">
+        <is>
+          <t>RECON 6-S | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Silver Grilles</t>
+        </is>
+      </c>
+      <c r="B2699" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C2699" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-S
+UPC:
+814820027303
+</t>
+        </is>
+      </c>
+      <c r="D2699" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1289/5427/RECON_6-XS_Hero__59634.1708962364.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2699" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="2700">
+      <c r="A2700" t="inlineStr">
+        <is>
+          <t>RECON 6-BG | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black Grilles</t>
+        </is>
+      </c>
+      <c r="B2700" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C2700" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6-BG
+UPC:
+814820027501
+</t>
+        </is>
+      </c>
+      <c r="D2700" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1288/5432/RECON_6-XS_Front_Hero__48179.1708962424.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2700" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2701">
+      <c r="A2701" t="inlineStr">
+        <is>
+          <t>RECON 6 XW-W | RECON™ Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White Grilles</t>
+        </is>
+      </c>
+      <c r="B2701" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="C2701" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+RECON 6 XW-W
+UPC:
+814820027624
+</t>
+        </is>
+      </c>
+      <c r="D2701" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1287/5438/RECON_6-XS_Front_Hero__59396.1708962477.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2701" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2702">
+      <c r="A2702" t="inlineStr">
+        <is>
+          <t>REVO 6-XWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2702" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C2702" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XWW
+UPC:
+814820023053
+</t>
+        </is>
+      </c>
+      <c r="D2702" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1286/5669/REVO_6_XW_W_Hero__12806.1709581449.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2702" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2703">
+      <c r="A2703" t="inlineStr">
+        <is>
+          <t>REVO 6-XSW-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-White-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2703" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C2703" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSW-SS
+UPC:
+814820023060
+</t>
+        </is>
+      </c>
+      <c r="D2703" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1285/5677/REVO_6_XS_W_SS_Hero__51031.1709581486.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2703" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2704">
+      <c r="A2704" t="inlineStr">
+        <is>
+          <t>REVO 6-SWW | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-White RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2704" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C2704" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWW
+UPC:
+814820022292
+</t>
+        </is>
+      </c>
+      <c r="D2704" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1284/5683/REVO_6_SW_W_Hero__76882.1709581516.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2704" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="2705">
+      <c r="A2705" t="inlineStr"/>
+      <c r="B2705" t="inlineStr"/>
+      <c r="C2705" t="inlineStr"/>
+      <c r="D2705" t="inlineStr"/>
+      <c r="E2705" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="2706">
+      <c r="A2706" t="inlineStr">
+        <is>
+          <t>REVO 6-XSG-SS | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Gunmetal-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2706" t="inlineStr">
+        <is>
+          <t>$329.99</t>
+        </is>
+      </c>
+      <c r="C2706" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XSG-SS
+UPC:
+814820023176
+</t>
+        </is>
+      </c>
+      <c r="D2706" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1282/5693/REVO_6_XS_G_SS_Hero__95565.1709581601.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2706" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2707">
+      <c r="A2707" t="inlineStr">
+        <is>
+          <t>REVO 6-XWB | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2707" t="inlineStr">
+        <is>
+          <t>$479.99</t>
+        </is>
+      </c>
+      <c r="C2707" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-XWB
+UPC:
+814820023190
+</t>
+        </is>
+      </c>
+      <c r="D2707" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1281/5699/REVO_6_XW_B_Hero__61923.1709581634.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2707" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="2708">
+      <c r="A2708" t="inlineStr">
+        <is>
+          <t>REVO 6 XS-B-SS V3 | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ XS-Black-Stainless Steel RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2708" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="C2708" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 XS-B-SS V3
+UPC:
+810042170148
+</t>
+        </is>
+      </c>
+      <c r="D2708" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1280/5715/REVO_6_XS_B_SS_Hero__67615.1709581844.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2708" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="2709">
+      <c r="A2709" t="inlineStr">
+        <is>
+          <t>REVO 6-SWB | REVO Series 6.5-inch High-Output Component Style Coaxial Speakers w/ SW-Black RGB Grilles</t>
+        </is>
+      </c>
+      <c r="B2709" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="C2709" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+REVO 6 : REVO 6-SWB
+UPC:
+814820022308
+</t>
+        </is>
+      </c>
+      <c r="D2709" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1279/5709/REVO_6_SW_B_Hero__22160.1709581813.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2709" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2710">
+      <c r="A2710" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 110v, 1200W 4 Channel Amplifier</t>
+        </is>
+      </c>
+      <c r="B2710" t="inlineStr">
+        <is>
+          <t>$1,249.99</t>
+        </is>
+      </c>
+      <c r="C2710" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-1200-AMP
+UPC:
+810042170773
+</t>
+        </is>
+      </c>
+      <c r="D2710" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1684/4972/Venue_1200_Three_Quarter__05079.1688654940.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2710" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="2711">
+      <c r="A2711" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ LS Pro Package</t>
+        </is>
+      </c>
+      <c r="B2711" t="inlineStr">
+        <is>
+          <t>$6,299.99</t>
+        </is>
+      </c>
+      <c r="C2711" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-LS PRO PACKAGE
+UPC:
+810042171466
+</t>
+        </is>
+      </c>
+      <c r="D2711" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1604/4999/VS_Package_Web__61197.1688658820.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2711" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="2712">
+      <c r="A2712" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ Shallow Mount 6.5" Ceiling Speakers</t>
+        </is>
+      </c>
+      <c r="B2712" t="inlineStr">
+        <is>
+          <t>$269.99</t>
+        </is>
+      </c>
+      <c r="C2712" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-SMC-65
+UPC:
+810042171114
+</t>
+        </is>
+      </c>
+      <c r="D2712" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1589/4945/VS_SMC_65_Web__57267.1686758771.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2712" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2713">
+      <c r="A2713" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 110v, 1200W 4 Channel Amplifier w/Enclosure</t>
+        </is>
+      </c>
+      <c r="B2713" t="inlineStr">
+        <is>
+          <t>$1,999.98</t>
+        </is>
+      </c>
+      <c r="C2713" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-AMPLIFIER SYSTEM-4
+UPC:
+810042171282
+</t>
+        </is>
+      </c>
+      <c r="D2713" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1577/4998/VS_Amp_System__41906.1688658687.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2713" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="2714">
+      <c r="A2714" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 12" Landscape In-Ground Subwoofer</t>
+        </is>
+      </c>
+      <c r="B2714" t="inlineStr">
+        <is>
+          <t>$1,499.99</t>
+        </is>
+      </c>
+      <c r="C2714" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-12 LS-SUB
+UPC:
+810042170780
+</t>
+        </is>
+      </c>
+      <c r="D2714" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1576/5000/OD_Sub_Front__38749.1688658990.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2714" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2715">
+      <c r="A2715" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ Landscape Ground Spike</t>
+        </is>
+      </c>
+      <c r="B2715" t="inlineStr">
+        <is>
+          <t>$99.99</t>
+        </is>
+      </c>
+      <c r="C2715" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-LS-SP
+UPC:
+810042170223
+</t>
+        </is>
+      </c>
+      <c r="D2715" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1575/5004/OD_Landscape_Spike__18057.1688659027.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2715" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="2716">
+      <c r="A2716" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 6x9" Black HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B2716" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C2716" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-69 PRO-B
+UPC:
+810042170209
+</t>
+        </is>
+      </c>
+      <c r="D2716" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1574/4983/Venue_VS69_Hero_Pair_B__22533.1688657979.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2716" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2717">
+      <c r="A2717" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 6x9" White HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B2717" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="C2717" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-69 PRO-W
+UPC:
+810042170216
+</t>
+        </is>
+      </c>
+      <c r="D2717" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1573/4978/Venue_VS69_Hero_Pair_W__06446.1688657950.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2717" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2718">
+      <c r="A2718" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 8" White HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B2718" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C2718" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-8 PRO-W
+UPC:
+814820029499
+</t>
+        </is>
+      </c>
+      <c r="D2718" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1572/4990/VS-8_W_Hero_Pair__68899.1688658629.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2718" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="2719">
+      <c r="A2719" t="inlineStr">
+        <is>
+          <t>Wet Sounds | Venue Series™ 8" Black HLCD Outdoor Speaker</t>
+        </is>
+      </c>
+      <c r="B2719" t="inlineStr">
+        <is>
+          <t>$799.99</t>
+        </is>
+      </c>
+      <c r="C2719" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SKU:
+VS-8 PRO-B
+UPC:
+814820029482
+</t>
+        </is>
+      </c>
+      <c r="D2719" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-gyw5x0y1bn/images/stencil/500x1280/products/1571/4994/VS-8_B_Hero_Pair__68789.1688658649.png?c=1</t>
+        </is>
+      </c>
+      <c r="E2719" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:25:58</t>
         </is>
       </c>
     </row>
